--- a/2025-02-03/Basketball_2025-02-03.xlsx
+++ b/2025-02-03/Basketball_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:H306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267130037124?_skw=PSA+10&amp;epid=25056495201&amp;hash=item3e3230e384:g:V9EAAOSw8RxnjYpW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkTnGpqGMkD1R0rw%2Fs%2BO4fqTY2cZG5XC%2BLZbiy%2Bl9%2BkM01lPAnG6lTHgQ%2BHy3B1mH11UZSeB%2FufWEQ1S%2FfHH0lrWyDr12a4lOnn2Di3wKgNy48SGlMQa5xOpLndtOzKF8HEMp%2FEzHjR1i2b0oywQCHX8iKZkF6z38EkeWaQDK1gKbbsc%2B41ugjPZCxXgWzQu0hp5CyOSPsipCYvOImFnj2U3a0GvUBL6aZ26xGcmRH4kZhj3DBaraIwWFq8%2BxtrBL0GfWgFOiGFguV7ZISw%2B6f2%7Ctkp%3ABk9SR9jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/267130037124?_skw=PSA+10&amp;epid=25056495201&amp;hash=item3e3230e384:g:V9EAAOSw8RxnjYpW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkTnGpqGMkD1R0rw%2Fs%2BO4fqTY2cZG5XC%2BLZbiy%2Bl9%2BkM01lPAnG6lTHgQ%2BHy3B1mH11UZSeB%2FufWEQ1S%2FfHH0lrWyDr12a4lOnn2Di3wKgNy48SGlMQa5xOpLndtOzKF8G8H61E7z2zlPdirhaaETAeixQnYb9YN9KaHJx%2B2r%2BRTcKgAJIumTKep1CDAdtPzZcFsnhEN%2BjLciZv5JRIy5x68TVQJZJ3%2B9JtiP4lvxpdT%2B7vb1Qp%2BJO46LcC57eEUQj85WzAjemA2mqza21b%2BaZ8%7Ctkp%3ABk9SR5SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156474870735?_skw=PSA+10&amp;epid=4059303242&amp;hash=item246ea10bcf:g:k4gAAOSw5vRnGmZu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnfFJmiMCCZ37qp%2BHGPKAfoUEmvLtFcnLQkL9lMgERbIyn8ytEflhrH0FfAZM9%2Fsne0fKOUZzGzSN9tvIdTjOW4wP%2BHNku5EceAK1S6SQaAXzasA9nXhQysa2IEM4DHrU5HQkYqCiLucEJ7stVijqgMkMcc7yAZu7JJjRBIcDYXuXO9ZJK2bzn9p281s8FtoptS9Ik%2FoZ1LJa4Wsi2CGRx5qNkjRFbkA4w8j3hOAqF1pA%3D%3D%7Ctkp%3ABk9SR9jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/156474870735?_skw=PSA+10&amp;epid=4059303242&amp;hash=item246ea10bcf:g:k4gAAOSw5vRnGmZu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnJH9660K%2B%2BOgCaNuiXiodCOEPBSOwXBumR7Goy9iZcC43TJ5779KaqPGnqn57txgVTn1XrqNe%2FXgLks6yI2ApBY53%2FIjP2CKVZhCQnJYvKPbvUwfhnmiag%2BnnWkAoFm1P%2FoifYviUFt9awlp1CA1%2Fnhi46OTOxv8Lk9VipyBwWdWLlHp6q8iylSTusZHxBXOb79mAKVTMgjRVvuJTnQLbrIJv3LNbyuEAx2MtEIQOIzWclc3XNqfjeC7BRc1fICc9GQkPPqK5X580ORU6uDKmX%7Ctkp%3ABk9SR5SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396150023141?_skw=PSA+10&amp;hash=item5c3c61a3e5:g:yNUAAOSwfnJnlIoD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkYwuALn4AsQHq7xMQhD6LsQcPZPd0AlpZYa5UZoGMz6oU4skOoZ6xJnCT2vePAtjlru639CWSDOAqoTezaQm%2B8969kC4SW7eXWsBW9xX7tIgBxSeVA0CbTQCuZkV5Qg6bhfri9j4R9f82Lmx5%2BCMfnGNUFqQiJXIwQnK2crQ5i1xcs%2Frt8PpTPSoOiSBFpL1yHHpEmqkdFsYYAvn%2F4bPzzl8OpmArvlYkreTX3o8zNFBXgPwoQ%2FZvlxFVj45BheD8OZd2v7kjYj3s60cmelwlW%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/396150023141?_skw=PSA+10&amp;hash=item5c3c61a3e5:g:yNUAAOSwfnJnlIoD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlw2iZvR4ovsOOjVlKWulbdsnATZdCEuZOrI79vwZTqoBmhcuyKTq4L4ESRRi9mG%2FqVwjjKxBr22uvx9ypnv%2FhHyYpAnm%2F3yJGEHz4AUPZDB1Pbk6NJzwkFpkSp2MgDM85zDfqSJaQncqrsD3chFrRibEwQNzDZ1owrt4k7HqSPjdO1mxmCy9o1xM%2FcXwMIq8Upz4d5fC6PbyzXqEUl4wmAUqIa31N3JoVeePvYDh1nXQ%3D%3D%7Ctkp%3ABk9SR5SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396150017001?_skw=PSA+10&amp;hash=item5c3c618be9:g:ZswAAOSwnY9nlIl6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlNFkWzPfu1JAI%2FW9GtBEqsrIjM638nVLOseIKDghqXi%2FdaibXcQf38717ge4hsBx4Lu26a36p8%2FROaFO7BFLw9uCMIAsSO%2BR5BWidxPpcksyU0q6C%2FMx25Fpkb1XVpQWorezgsh04LWLt2Tp7W%2BUZNiBJgSjOkiQXJqt%2FZ%2FadtBcVTiZr8USAy27IJnP1E4NDpwWH34gvC%2BfDMomS7xa235GGpKXR%2FloSY2ooZqtwIlA%3D%3D%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/396150017001?_skw=PSA+10&amp;hash=item5c3c618be9:g:ZswAAOSwnY9nlIl6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlX20XkhBA3TXux34L9%2FlpwAmXUboWR6QA1QubUJGN7yo%2BZT1QVJd8e5kLTheP%2B13smP2ALkCc%2BtuVT22se05DyrtItJ43so%2B2rhPhRL5bEiYg7UfrkIIgzaHiFKbPcpXESSbqZXrnU2BdFFrYGE6Ct5ncrvpxFBAZm%2BgiM89AiV0SXPj355PgqfSnLRDVLTeCGh3V%2F8z%2FKHQ5eDsAmxC6Vbe2UNhHlj5rhJrFkn2pOmGF6yoT0s8R6O32AiJHUFNCqQeqGl0PbTRlmm20UQsAi%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396150013965?_skw=PSA+10&amp;hash=item5c3c61800d:g:vPsAAOSwvV5nlIir&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnu45zj2pNIiZhTVOE8ufL%2Fibw4Yy9XdURmgWqDTQg%2B%2BikhoypN4I7PTRW86wE%2FkIIz3uxc0TAQyCPVW28EnK9HwIH5JlUBWMcaY%2Fy2%2FGe2Ao8B5H1slCsMOJCvsEdxiczPQQoG6vVITpzcBvK6wj79dCOJOKF84qj2dEUovwWbClv%2FTbEYVX5ae%2BnqevGhcUpfqUREDBLE4ThEucqT0kdRvhvqptqnl4oQaMc6Mba2YonKES39YalyEZy0gJ9FwsT7ZcjTz6N8af1h401iZ00Q%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/396150013965?_skw=PSA+10&amp;hash=item5c3c61800d:g:vPsAAOSwvV5nlIir&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnu45zj2pNIiZhTVOE8ufL%2Fibw4Yy9XdURmgWqDTQg%2B%2BikhoypN4I7PTRW86wE%2FkIIz3uxc0TAQyCPVW28EnK9HwIH5JlUBWMcaY%2Fy2%2FGe2Ao8B5H1slCsMOJCvsEdxiczr%2FhnWWEoTiN9UCvHTiYDZ2WvFFi814TW9DJMKxs0VtofmHFapiFQAlUkQf6jSwNzRXOE9BoRy8NYcDml%2FZxpOaqUftwWGKQpMCe%2FqU%2FAmz1WJDTTSB8HPITWt20VYGb8RWDajc2%2BZVv1x6zzbL3BG%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396150010090?_skw=PSA+10&amp;hash=item5c3c6170ea:g:nnAAAOSw4E5nlIhF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKniKxSI%2FMMmk8R8Yf8bfwAnaoq3mlmdfEcLpbCvF1e6%2BqptUJXmanHKK%2BdRsxYHqXg%2F9q0or548IHoZcGnifsQYwexpCNp%2Bk4K0m3JKh3lctfyAwWliP7l95YxC5bLlktAnql4gLwWdRELuNKyzWPb7zTDiz%2FXlURCRGpWJUvINjEgtzfnP85ggL%2BdRlkultU0pm2oFshTgD26yZE6dkeEaUBo%2FAxYuRjSPjWSPR%2FiJQw%3D%3D%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/396150010090?_skw=PSA+10&amp;hash=item5c3c6170ea:g:nnAAAOSw4E5nlIhF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKntbereHGwbqOkWOzeEl5Nh1E8XtG2eIp61M8gMOYJoBmvYi0J65oO2lqhGHPw4%2F22Ri7XgoLNrRHBYERK6bGU1ic3I1%2B0ozLttLvLR0E7%2BAzCnFUb0AEou8UWdFC0l1GcBJPSfgJvk4gCgd7GYZr5%2Fu0MNlr69FZvifKlyAEGVe%2FfEijHfDhIdBB3b7e%2BjjovOgN%2FNQF9zwezy%2Fzh1yW7Ov6YiOxrnTd1UxiqoRIK7oSe21JXoK179FQ1Gbq%2F8%2BdBH%2FAE3GYHO9Ha1uNzNt5SE%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396150007348?_skw=PSA+10&amp;hash=item5c3c616634:g:B~IAAOSw4HFnlIfP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl5m3wXwI8t5OWWj92u7jaVorkTtoNx4pO2k0mKutMHdpubUX%2Bflj8%2B8InH%2FLM9RgVyrZu%2FDhRdu7EM44%2FaJbn%2FSoGFtWgX2bUEUUqQK%2FSasOd8UdS1uzU9goVupNXN7uI8cWAeHWei%2FoUmemuf3S3LEKdRrIfJMebIoQIWfrDzpfhYwdBsT6zE2q9TxJ8dvqPyyeaaTtVmFhAwbW2H%2FFAvOwnKf3gSBYVqvdk1Dpfa5g%3D%3D%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/396150007348?_skw=PSA+10&amp;hash=item5c3c616634:g:B~IAAOSw4HFnlIfP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn4ZgUO6gQ%2FPcDaVus4p1X08ZX%2Fn025ewyxphJm55Vgw7qg6pn68IN2zPLdIrbX7QHypzpMm3Fj98sItLCelajFa98vIItiifd%2BxM9S%2F8It7mA2JI7cGaW%2BjkgWnarDJdvSQ90tPYV2iOoFBtW5XGnynfAXdeyMuSHZ3Fy8YAZMItKS2c%2FufceQBWTAEOrZkhKlsd7s0BLV%2FK1xxPLr%2F3SyM%2BwlAfwFcTPHRhnq7dELVhBgVOfFfuNxVurKn%2Bd4PZ6r4c%2BNPfC%2BqS8vZgwnJ6nW%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316104159811?_skw=PSA+10&amp;epid=24061508666&amp;hash=item499946b243:g:DuoAAOSwSDZnd13b&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnvZaTAgL%2Fs8W9nDNxVDVpKPL3TviqcIbDW4f%2BsTGSRSSQxrmN4H%2BLA9wGhPzJby1xOGYqJtHOKlkwxSUMQfMAYYeK0zdiSmCpYXX%2FRITKbC%2B1MqtENi%2BuB4ZpHg4oojTICZXFWmlADjztLTA%2FnFfLEM%2BsTyJU78uXwUR3oOdg3xQ6%2BzZ7tqgjBfk69oPuCdanZMYIaSMOAVvqZmzhFQjyNiwfFTivM3s77afTxJ1FRZFMzpvOYj%2BYQAaO4LngP5d%2BiMkObF24FocMMM3%2BbORfQ%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/316104159811?_skw=PSA+10&amp;epid=24061508666&amp;hash=item499946b243:g:DuoAAOSwSDZnd13b&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnvZaTAgL%2Fs8W9nDNxVDVpKPL3TviqcIbDW4f%2BsTGSRSSQxrmN4H%2BLA9wGhPzJby1xOGYqJtHOKlkwxSUMQfMAYYeK0zdiSmCpYXX%2FRITKbC%2B1MqtENi%2BuB4ZpHg4oojTInVbtTAXSsXYXdWH0k%2BncMF%2FqFYFsX8fxsutZSq0hO%2FHUmDA02vnMozAwmqxaDJJcZwJdq8LjnXnA5GbmZ77ArYnjWnr44sOy9ABVj1Ogi2ACZgtnRA9h0ZYgEHizgXCSq20XtLqBfukkOACTu8U%2FO%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316180412233?_skw=PSA+10&amp;epid=13056497610&amp;hash=item499dd23749:g:ftUAAOSwdnFnoGBr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm63L1Ofs2P6KYMA8k6TJDbG3DL7QJsa5oOGhfjaKp8LzhNGscFqL0A5zjyB0QF62ocD4yRJZ1uhgWbOvtHWxnZshvCCAg%2BPrdm3DaekAO5W6c7E5F269Z8yKp6W2B2z%2B3fMId2YTbsV9x0wDENCm1oNW5jQ1jjfIYi%2Fb0GKpjvx9mbSv%2BCtpeiG8J9MnLb%2Fp%2BkkwDxoFSXapUlN6T76doy8osYeqko04YZrZRfeiVSeSGueMYD8aP4YFoskxLCELEy5FeSNH%2BS%2FaEv1ms5gQg5%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/316180412233?_skw=PSA+10&amp;epid=13056497610&amp;hash=item499dd23749:g:ftUAAOSwdnFnoGBr&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlyAocl1lRQ5g0%2FMy0AqgSf0zW8Z6mmbtGGCRvyTBcMAx4J9Ag4nHxZ8lL%2BihSqErBYSStFO6cmnUa0wROszrkStajVTbSlK9KnI5%2FUGxUmrlZpCtBfeqaoMIxuCuwVcr%2BLNo35qmNHq%2FtncgGmyTmjjyyM6Vd%2BdZUaQq5X04DsPYpTqpl1F7haiMdqGY9KcUvMBrEZcKTy%2B9kozUgoJNQWBlinUoPWHTKQucomXiH%2B8g%3D%3D%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387875014261?_skw=PSA+10&amp;epid=7056532011&amp;hash=item5a4f270675:g:uiIAAOSwELpnBTL3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmDdjQTgthisDjjf8%2BmumCo7GC4COgAvPQZPT4QJKSGENN9qRef6OyMXLuig62vy55PS2yjMfsGwzvoJQxHPyuUwRVkYAp4hOf8zSGO%2F1XL4m9W6a4OIspvCotuidI93DfztWFhNF5vB0wuiKzrhXfKULCjkd5Aupgd41xrepcJnYGYGFt9vaGd64jBNkmigFlUk48dbzXzEpuIaJoghDo2mzyRsCBWiDNNEgaILdKyEQ%3D%3D%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387875014261?_skw=PSA+10&amp;epid=7056532011&amp;hash=item5a4f270675:g:uiIAAOSwELpnBTL3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmDdjQTgthisDjjf8%2BmumCo7GC4COgAvPQZPT4QJKSGENmQCsoB6jM4EdbdQsFmrk1N2H8AtCFsuknwStlNQBKbwYObXcc%2BmgnHTsRVE4OETPPTC3p%2BqFqyNwkHc4OWrtUb1eW%2FogZRWyig7i1T8SHCGOmpBylf3jQ9U1P5cOJTqYr%2FpasH4WvmiZHSRnmVcOEckaSjBhvKQVz2ZFoPjnyR0SxhPnd41oQUMsXGvLq7rQ%3D%3D%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335786730264?_skw=PSA+10&amp;hash=item4e2e72e318:g:A7QAAOSwNbNngv~V&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKloxeUNIeSJysrX7S2LXKt1HxJMhIxhKp5Ct0XsXP4DAs9IIezM%2BMUspwkX7e8laolaPzaTI8Uv4Xg4uYHsp95V9Cj%2BySNpqZqWu4R%2BuMZ9cBZ7%2B5ze8TGQ786IK3sl1cgSiixv6JOX8nO5hxohjUbFu%2B%2FMLQGctfasRKYRCTRY0ZGKrn7z%2FlL5O2gW7ih5rKBmKlz1a7VJv8%2Fs%2BI2JmEaBEYg4N0i6vVbw8mXaH%2FBzRg%3D%3D%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/335786730264?_skw=PSA+10&amp;hash=item4e2e72e318:g:A7QAAOSwNbNngv~V&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkZsoJUIP%2FGFeZm20ay4RovnW8M1XdPKgOtzeAhzBobXFqvRVmPZ31rcE3WG39UTg4uebfbwloU4L0NFdth1U9GbarHy4T76Mc9wyWPoeY9QuoBjjFqu%2FL2KUozAUF2wAA7iX640d2GFPHt2z%2Bs838zWibEUuZ6cd5veaiUfeuF%2FnlVvfZcahiq0uOGzILMCHZ%2FnWiTTyAoh1WNgF4FmsKX383jophdH4uEwYVJOJK2%2FSdzBJAki4LC%2B%2BImQLC0y9C25ozV7NF3HT3glDFWJuCN%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255646297267?_skw=PSA+10&amp;epid=17056584643&amp;hash=item3b85b4ecb3:g:c2cAAOSwJTFi3vmM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkKIQyYhcGEz%2FtErbvmXswwTTEcdVw4AZfLPhBD%2B6BDJH7mmhQ8iboieMBlbIhFT60vxQOR5TV5qRC%2BYw4aoe5rkG1JQS5ln8%2Flex35R7Lft%2B6OTcN0toVEiZliz4siN6FLnzYNQyv7x0ikefNSpjGYIxi8He3Q7Prgj4SfQ38lPtpL9oprft0heKWadLGA743NGiLNRlKJTat%2FJhyfZkPBVRK2rm%2FDug%2Fac1Ls3vEaHg%3D%3D%7Ctkp%3ABk9SR9rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/255646297267?_skw=PSA+10&amp;epid=17056584643&amp;hash=item3b85b4ecb3:g:c2cAAOSwJTFi3vmM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk7pXu5MOdJ3yxmNBGh2lGKnFoqq940qIIcJUdxW0HfTHCD4At5TfBEjoeAQywgCqst%2BWtK7V1CJ%2FZ4DBtAkOhexSGqeurhfr356cwwLZXYErQ6aEo4xS9U83iSYSyTere9hDvW2I7gsr57cl2yic0YYDoujQCEzUnASUbTQvpCto9Wcs7bqSlCL%2FpLoj%2FrznHssY7H3H1AQ3F%2FcJqBTCJCPY2ho%2BxBkhU52Ks81B%2FxqROwdTPCV3c783W%2FZn5xYkyHlk59EFLsnADSaY88E7Fj%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316177229423?_skw=PSA+10&amp;epid=26067701592&amp;hash=item499da1a66f:g:BwEAAOSwF3tnnrNI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmBZB0ZX9M3K0dt0P2PneURLo1ebpcYNzG1iA%2F3TP0W1cqSmgcOloufguSGQmSAxV6HRkZzagGwL7CHkzO%2FlG9X1wO8fOUpm%2F1GZQ6zMknT90s8C1DqGDSq0XI9NtLV4co65DznydCB03H3A6UoclA%2F7U1%2Bbx38Q2bu%2FtGIDuHD3UdMaQuislM8sEFkdgyTplgs4m%2FAqexMtFlB6pkcNUXfAjpxrzmFsAeTyE14DWSMw%2Bydcz6Ra0WdzCPzIqDTeqplbtUDuTwOEX2TlJe4nQAF%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/316177229423?_skw=PSA+10&amp;epid=26067701592&amp;hash=item499da1a66f:g:BwEAAOSwF3tnnrNI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmBZB0ZX9M3K0dt0P2PneURLo1ebpcYNzG1iA%2F3TP0W1cqSmgcOloufguSGQmSAxV6HRkZzagGwL7CHkzO%2FlG9X1wO8fOUpm%2F1GZQ6zMknT90s8C1DqGDSq0XI9NtLV4crPqFAwzGJBrMnVgAYSjAnrkbqcL1LfneYkkYbwe1s%2FmoHghtFgjYWFumQeXaXUKKebYdbdRLqr8ID7Ok4FGLpUbXfHx5mltcOGWl%2BYvE6EWwE%2BAkV7m5k82ulKcRPojwxJb3KD8pZ7njQusQwg1%2FEv%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126890565200?_skw=PSA+10&amp;epid=24067683491&amp;hash=item1d8b445e50:g:-7QAAOSwZupneGcf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmzNPbRCbLaA4jAJ9MaJjxbVRIpUTmD12VJwK3ahFeeBiZPYJBROB2yBZBv9KscxX8hgulTb%2Bwf1zUmlgzMY%2FQFE06%2BCRAvsHxnJ%2FNqRuaOdIiyhZile617%2Be4ROQT9rQlhbH6ERhFhF5UrHMWYxFLsiEL8j8ady%2FYR6T7ZoJOZiChY4MFpSg4EQ6A44IVrGSsuk7ajJxuJn9t90qiksPR419DnzAHvI6gB0fKOl7FNWw3KHhUIk8NifZmjuPUo8JMt1qdseSdKDYNqtjh%2BuYpm%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126890565200?_skw=PSA+10&amp;epid=24067683491&amp;hash=item1d8b445e50:g:-7QAAOSwZupneGcf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKna4bfFwIzC3d11swde3KVFHFGxtEaBPXDIv3mWMnBLTIqmpRgX%2F7tYMSq2Ef7UvSmq8F49jj3RHM505m%2B1gzuO%2FHadQqI%2Bm2JtmqGRspfn9alS5S33QHKySoJgl7rEuFaGZrYrWUOeJe3zgiX6NE%2FdrZqAKqk1VBQjp6S7mk%2FgcyYNsHxNvHX6YItTdJ8QsbqHWWg6r46bikpqFbHMIdb1o4folbEXbqUxRwoD0Y4%2BIw%3D%3D%7Ctkp%3ABk9SR5aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186519331750?_skw=PSA+10&amp;epid=23065172032&amp;hash=item2b6d6b23a6:g:08cAAOSwWYBmfLEK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk6iWxCjKQ0PmKh8q6FMVOe67uZKt9%2FLS%2B60aWKP2rfmtFkIOdHtQ92iTS8Zdd0quM%2Bi3rJIhhszq4zGklAvsgQIufqKQn65Vqz4qG%2BP5iP6BtNe0mSdUiH6bkkIU%2Fv55usixaQqeEC7IKb46xm2VOfMR%2FFZUiOITjKL%2F3gbcXsEL8lmIbs0gAbNPtzXZAsVYETIG1twvSJC%2BzNEPaKAVCUBOm5mPAGWMqgc%2F3rrwImtw%3D%3D%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186519331750?_skw=PSA+10&amp;epid=23065172032&amp;hash=item2b6d6b23a6:g:08cAAOSwWYBmfLEK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk6iWxCjKQ0PmKh8q6FMVOe67uZKt9%2FLS%2B60aWKP2rfmnqGAOoom9dPAhbZYx5qcu%2BFj983GdNL8UzEwFEcvVpwy5gZmfSKc9l5PLTcXAh7e0erS36PIJVKd9HgO30SMTktfS91cJWqlTeXwJ7qXkmI6lbsI8Ihc7QmR6kv1MTACDoPzuYZYsMCa4fhjYYDjuyEbQApGRv62TG2E8pGevc5aeYNhwvIyMFJY5cM2zvHMA%3D%3D%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156669497458?_skw=PSA+10&amp;epid=17065166050&amp;hash=item247a3ad072:g:cCkAAOSwMAFnoAsu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkFPLji9%2Bf58Vm898bAsLBQ8ONI%2FxR9SdoiP9sikpCJlOPHlHg%2FHg%2B9hgupoZfxhQVZvQsvPiX7VjbSanhcEpLEyUXecytrT27O4xA3LkZ6eDd2eBFbZpkJ9AJEVKsqwJG0TOM134Dq8nVo3UryVpHMuX%2Bf7x1QUeyu1syBw27%2BMmpgGxIzQkKb%2BXmEQyULTGGnaxrngRpWViwommhUivA0re2PVB0QLbNdxJd5fABuuQ%3D%3D%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/156669497458?_skw=PSA+10&amp;epid=17065166050&amp;hash=item247a3ad072:g:cCkAAOSwMAFnoAsu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmobQDNQMFovBwrayLPptvmp3eLJhYuTAxvOyRRDCiqI8pKqIM%2FVulJaF2E%2B8gMzpBxO3HMk76X79erMaYHUTh36C6P9RhdtK1CArnZBaanVEcPshh5eBpGNz7oqZNNKJnXEZq0Sxmsidc8%2FIvJALuhzcrAY5FIJCN%2Fti3HCtsqSze7Nqr6XA9tX%2F5c%2BjKSTEP7t17SJDG0DMWnoHRmMIpwXGUBfYpfNrHCe6zTXuBh1XFlQxPPpGmt5VFoa5Xn0Q25Njhm7LK88SlwnLfw7m8P%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm7lpblo9X%2FNollTibfjxQvYRZPeZnmF7aovdfl1z4f%2F%2BQ9mschzZEp%2BAUIvs7XYE7Uh6pocTa0GU%2BgU88%2F60icLlo8bax8M0mtBPYs1upylC8tEF%2BA%2F6jarDjBJTpES815x7%2BtKyFg%2BJD43an0KCclZ6WZ4k3bkjK6ly1XsJgizi6A7JF6R0G6XWgSTjV7SrkareBaC1SiJugArDSg4Qzs7NxuhefGvV4EZ4Ri%2B6ANcw%3D%3D%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm7lpblo9X%2FNollTibfjxQvYRZPeZnmF7aovdfl1z4f%2FzJRxwWhbYoHHIJeO2K8QLl17xEZlPfgAImcR0l3x%2BwFgZO7RFFQuihbqdC%2BUXE0R5dsuSdHW%2Btj8Zs4n3tYPkw6lDqiyzsAQSJt7dok6zInjkAdcLviaSWl7OLzq5qJ2KoTFzfQIBTOsqwUdfQT%2FAMqKxLqP6%2BU%2FrmC%2BLBwP%2BO%2B8iL2vpFD79NUcotIIEcCYg%3D%3D%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167284317497?_skw=PSA+10&amp;epid=13065156483&amp;hash=item26f2ec1d39:g:u98AAeSwP6Bnm6N5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm1mmBPlYlGg34jfKAdA%2FIFZVOZZIpFxOu6Bit9cmU1kxAx5QtI%2B3UC0K%2FEDf3VTGHBcvR0AFsk1EEFRsq5b3RJJ01sG2k8Sajb0HiDHJDDI4Bqx%2BShjGfDZiBFlXx4FzGB40pSqejl26KqExlkFb8fNRsarbloFL1x54wjEMOprEbBxaxc5%2FKB1OKFlBMMZvX%2BDpwo4fJCtQcbgvobPXGeLo28T2pKz9FqzVERqe%2FzXGRhhwB2J9cLb%2FRs9vJK4LOoSY5zoM2HPz%2Fp%2BniAOiLl%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/167284317497?_skw=PSA+10&amp;epid=13065156483&amp;hash=item26f2ec1d39:g:u98AAeSwP6Bnm6N5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmC7WZYq6YNTqI4u6WtF6AGxN37nDLVmer5eqRaPBxGZyjyzMjTO5nO7c%2B44RNtM5kZmWAjYP5zlzI3b%2FhWRTrKn70EIxiXFN%2BL%2BLasZUTyNZbcsXMvr3b2WLzMAu2NxApS2y%2FIVZB4%2BIBiOHCdA%2Blfnk%2FSiyF8cxfAZ3inZ0LQrW3ZGtuiK5NF%2FLfKrcayV9328o%2Fb%2BCPWlis6mQv%2FzP%2B73ZUbxUAstjK4JU4Dv%2B4JiA%3D%3D%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395986232287?_skw=PSA+10&amp;epid=10056512757&amp;hash=item5c329e63df:g:PasAAOSwVPBl3Sh1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkqY6wrWlaXcDV9ImiiRmLaiS%2BMC0OG%2BNSSmLNgFc8kk%2BivNY0RGn7pp3c9mVjxasis4EUGGzwJp9HPOzwWNPRkWDjYIf0GTveYRaSCQ1lVY1tx7xD7XqMSFbYpxdcT8pnkhxSN5MJzpXTukPmpe%2BafQ3plAF47wGy665l6aquYErG0VwSlXivhc%2FfdUCbBq9qdqoCjSkr8f%2F67SunmleSc41xa3dbtZX%2Fn%2FpmdHyrM5w%3D%3D%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/395986232287?_skw=PSA+10&amp;epid=10056512757&amp;hash=item5c329e63df:g:PasAAOSwVPBl3Sh1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkqY6wrWlaXcDV9ImiiRmLaiS%2BMC0OG%2BNSSmLNgFc8kk%2BgkfBlDzD5FYaEDCxj7wDEeitMT20KhEsPXvY7h2IO4VHMi5SwG4lyjjXosiKgcr8q7INz0HiMUwkFlZy8OLmdEYm3FrBoNTI1%2BiX1nD7UslJfTliGokrZFY9Tj4T26Nk%2BC8AntZWuGnFYlfM8IycNTXfDCCb8eEuUegnIuG%2B5aHKlsw35s8j%2BoF8yv95bKDg%3D%3D%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361923570?_skw=PSA+10&amp;epid=21056542670&amp;hash=item55114485f2:g:LbMAAOSwit9nk8na&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmHajb5qnWT6aG9t95IN7YOlXFTGfJyPh0b8E51JgJWtTD%2FYlo9lASR57%2BRXDfEvrAsRHu43VAH67Hbpq8tRMI%2FewGjbldaJdake6nneGtlKV5RvhNgqUE5eoGOdaiHly8tmSzXFeri%2FEXvZnI1T%2B58VuODCv0ppf0zbiebkJ3s0GcJClG8j6UZ7cxf%2Bf0OXnD39%2F4V771wos%2BQ9dvumcgqhy871%2FZtqE34cIEH7gvRNUEo7soUMe07TI9Jny52G66WirxG85oLgcGnsjKLEEOD%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365361923570?_skw=PSA+10&amp;epid=21056542670&amp;hash=item55114485f2:g:LbMAAOSwit9nk8na&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnOmtljufMU038apYeMlSJxR%2BtB6PH82ym82YRIah3nj2B4tufxYdpOcBK37Kci%2BuJJcjHeeT2e3H5ebyvHmKSUyP9N5NcyEJysYAcXjTV3KjU1XG%2BA67RafS%2Bmt8BbT9nnsTyEESB2ujQaz3dHj0A2aXzULWdkr%2FbYjWAUAvW1cySA8y9ZIGlHfz44sO2wy87788gn%2Fu6f798v6RQyAXTbMYv54FJUjvZ1opXSq4bAKw%3D%3D%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365362051726?_skw=PSA+10&amp;epid=21056506916&amp;hash=item5511467a8e:g:edcAAOSwOXBnk-vV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl0ruemdxGxF77peW7nSxBu2d%2F2lSjlfzsR0sp8PpFBUEHjhQLePijDYL1EV9hx5oNFuUFK4WSwdr5eR4Kj4mgECsXkDbADnkozcWoyr201iSK9DhB6Zy3QL%2F57E18w%2Bn4JR%2FkQCexxf0xlz66fFsYC4RAQumXn0Pf8AIKrgG0LADknKraSFVgHyrcakxa90QI1JvoaRmIv3h2K%2F5DYb7PU8WsJoxSpore0AoBzv952CA8V9p6Eb8D1sqpLny4OoNKn1BpkVLY7RbQKgHHmhpZ7%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365362051726?_skw=PSA+10&amp;epid=21056506916&amp;hash=item5511467a8e:g:edcAAOSwOXBnk-vV&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4VazhnpifLzZN53taPe11yMU%2F98c6hLBwqsVfieiO8jK6XF4ipzhaOaZJ9rPPccYC5UWRHduRbCd1jIS5AvP7TRZXgTwNQfIfO07jj17ml1Iq4QEZah9gSzPsSMG2Unxk%2BCEhXwIpbgP3O%2FPzo2aYcIGWlbvRHdE0FSaTRI2ZsR5Eeuy2iS0xzuSEduynFzDVynwms19ysu9VuU8GgUR%2B%2FLeg1SspFw7MMgbbRr1t6A%3D%3D%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365367146147?_skw=PSA+10&amp;hash=item55119436a3:g:6hQAAOSwXolnmChL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlC8IPZgebOT95g7g36sx8W0qL%2FT6GtZLJm%2BCsSwdIVSu3skb%2F6F9S8WUl6RHHsyaHKO4R%2B9UT6kjlj9haO%2Fing0UtuZp9FxERE6%2Bi172a202ADGL6zs6qXNB%2FaLI5qBt%2FR5%2B1C66xxYqfF%2FavFKxKYnun2prL%2Bt1o37O%2Fiu2UaJwB%2FzAB9vx9Ne6rRS%2FZjTtSQhDRXf4p%2BKD92seqrDk%2BA6KoDsSjj%2FNJFzhYXsR8YL%2Fdof8WEQlqOmfneZ5h3lAWUtEDitFAY0vkvxuRDrMdb%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365367146147?_skw=PSA+10&amp;hash=item55119436a3:g:6hQAAOSwXolnmChL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKla1z6crnaOou4EZR2uht%2B6tflhjAWdOYUooCahXGutOKyuRVt7h3prQlWqs2Pt1%2Bs47LmTyERp7c31gYCL8VB12%2F%2BLTcZrHSR0PGooWFX36t6dUQKjuTvDBbRS5fBYBVBjmbsfJITX53AASjkSDL8PBi0eBWTV79UadblleHjJ11BAmmrBViwUeEHiIVIXa%2BkXFoEmIhBHuLW6blslnaanuNQWGcFAOvWPgyi6qU6DMw%3D%3D%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954293678?_skw=PSA+10&amp;epid=3071431874&amp;hash=item57889f43ae:g:3EQAAOSwKnBnl-HJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlcthDyfvpo86IjqmiapML6leT3nm0kFZ8boSAhPlcS2mz%2Bx6U99P7NIwLKiePnHaHUpwwtFwlST1mfZjFa2QujWtstodv99gZNe38YF9Hp5bTeySTnrMyKAPbuL%2BCO2xeqx3XyVSwk1XJGhR61ZNv253%2BxTZz0gXiyPyVKHy9T5K9LBDfVVtUhPbIIBXxFzf0LHVFp2riTJXTQU9RJqmq%2B7k8ewgO73k5S6uf%2BzvhrOD87P5NOUR6myEWLKlESoLV9K8ke6zMVz%2FG%2BQ181izKs%7Ctkp%3ABk9SR9zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375954293678?_skw=PSA+10&amp;epid=3071431874&amp;hash=item57889f43ae:g:3EQAAOSwKnBnl-HJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlr7qi%2FLYteyencIOD3fk2V7YEhwuk2lQ3biZmYIQVd65GjGt0cox7%2FuooohCShA7MytyOMnWed%2F3f2eaJmoacKqA9Yj%2FCna7O2vFQNG3hwT22Numj8wm1XSUpwlvSDSa1ON7tXtEIHGnfgxQlwTCECdCSUkNHvun4CYNxMdk1UiL6xKrLuRWMO2JqfdsSTQqq%2FzySeJNGfsMG%2FZYsgRXbqXD95VVJslEwgqZZWqj9yYA%3D%3D%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954617342?_skw=PSA+10&amp;epid=14067684192&amp;hash=item5788a433fe:g:m1sAAOSwU6RnmCd5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmKAeCEZEX1%2FN%2Buzm1Xc7E2tsZuySMRFaPO%2FU11HEaL99RFB7cWp%2BV%2B2r%2BAxfPbbObjxgS0BMpBQcvWurTluPCfxsoM9RciXyeE9s3vli3h8LqHRA2y8%2Bcuqre0F%2FHCYHZAWTC06mYuRXvXbA--c21g8tfo2%2BRVfLGjstFCXritZLVODOEpqBcLhyjsSKFvRfNJA5wTynu8tB4tn1eJcWFwiN9%2FP5Qvyn%2BzlJULHXShsyBoc2zBboZiaIrRGsujfgDkYocIs6%2BVHjoDZa3We%2Ft2%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375954617342?_skw=PSA+10&amp;epid=14067684192&amp;hash=item5788a433fe:g:m1sAAOSwU6RnmCd5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmKAeCEZEX1%2FN%2Buzm1Xc7E2tsZuySMRFaPO%2FU11HEaL99RFB7cWp%2BV%2B2r%2BAxfPbbObjxgS0BMpBQcvWurTluPCfxsoM9RciXyeE9s3vli3h8LqHRA2y8%2Bcuqre0F%2FHCYHbic08mhBxXlI42TbYN1b3U2suwaCW8q4Sdsl%2FTD%2B4jIIAeGLHFmDQPuQoYkhOP2Uw8E8HR%2Fv0Yb7AIgMe%2FFP4rmzmrlPA9bQf19dBcM1COUsUv90fBUZvxVqv99hvp%2FMYW9NjbyC2g1wlLqHW5vlWI%7Ctkp%3ABk9SR5iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387856098159?_skw=PSA+10&amp;epid=21056542670&amp;hash=item5a4e06636f:g:vAoAAOSwetxnk-2z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmXROh%2FyTIfy%2Bp9mmU%2FWVOXuuRs3g7g1EHZ5cn7aaaxelUJtttgjtTm%2Ff7curD9MeTHKKHIr7Ue56sIac4WGBWMaDnUQ6V6ziOxRda41oTrJb6nT9IlGp4BnCuY7PlkZCPdAolIqTX8zs3rQlwsv6wlh3M2fviVMb7JwTjuorE9d3Ft7Zkjw8Mq1bYDfMsLRETKzbQ9rLhaOkIDOpilVfO6Z%2BfFmN114KxScei83IXCUWV6SusFpPKbR468wDuPU4oPdo4LJ79%2BElSJHU6zF8ME%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387856098159?_skw=PSA+10&amp;epid=21056542670&amp;hash=item5a4e06636f:g:vAoAAOSwetxnk-2z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmXROh%2FyTIfy%2Bp9mmU%2FWVOXuuRs3g7g1EHZ5cn7aaaxelUJtttgjtTm%2Ff7curD9MeTHKKHIr7Ue56sIac4WGBWMaDnUQ6V6ziOxRda41oTrJb6nT9IlGp4BnCuY7PlkZCNs4QvSRel89JLw%2BwFuyVEuTQNMEF0UX7ZqbDp1275UR6go5rwKJSqzEgY6Qt41FbSlPHyzhn8yDTpw7DZT9uAmHvIOZc6Aoa4v18mXoTTsfWazGZZja4FVaBQNV9EIoZlqWadMJ2PzEdC2ygM7AEfK%7Ctkp%3ABk9SR5qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855493544?_skw=PSA+10&amp;epid=26061027161&amp;hash=item5a4dfd29a8:g:6v8AAOSwA9ZnfFjw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmmjX11aVV8e57CgGbdhoo22lyKtpyVV3X79yzZeoQt0JyoxVXICxbHvKRltUr99sJ6wthVl%2FOZNcAWgvwGyyZyjQ9AFy9Yn2H2Khls9SAEpoBYf4LfQ9Ez6ukin1On0ow6NanKADkRCQrjmozurczW7P5eNBNL2vbUPwF2k4f7HO%2BthdRKkutfDpCVIaYQhR5kOGbXEwG%2FYfKpWkuSB19Caa3Es0syqMvndL3R4mjV%2Bg%3D%3D%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387855493544?_skw=PSA+10&amp;epid=26061027161&amp;hash=item5a4dfd29a8:g:6v8AAOSwA9ZnfFjw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmcSz9EIvHf1VPf2iI33NhnUiOh28fgFKJinNyx0hVcvXTkuUchx%2FgSwDCNKvn8Ligirgu0L0pa83q3xjq%2F0m3Paxa0Tl%2BvQOCj8AJksA29sE444MOH6HGtge51s5kr2pUrHkULO0vZtKnHzKDDwXGvIEDqirYcxOv6gnZ1Ofzbgc9VDhC53%2FnhYSdlcAPjMLCjwGejvuN2O%2BjGLUYGZH6DOEUAvjrXEkRsOJTTDZrSWsn2%2B7he4OJWxUo%2BSv4Xzfg0ApZwFKlwFtUAQ8KazKvY%7Ctkp%3ABk9SR5qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204797804196?_skw=PSA+10&amp;epid=7056500595&amp;hash=item2faee67ea4:g:6xUAAOSw-IhmS7H6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlrKfBcrdGUTo2ZeQefwFaFg%2BN9ZGiTy6h8fQgTok8KSPjP7ibVEhjuGVq4dpVgYH4nFeKtsLYErsLAk0IsNVAu5aSZOTh37rgsNOdzGKzHqfoECY9FEE80HdH05w0mWb0cvI8w6XUrRc6LKy1rYj6ADPeDB2R8KzQSmEqr4crLRsV9urqDP4A3rrNd09ZVKbjbDH1tFDbOWarBCxVEo16T3CcO6dvSjMaH7YwcX9GFFw%3D%3D%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/204797804196?_skw=PSA+10&amp;epid=7056500595&amp;hash=item2faee67ea4:g:6xUAAOSw-IhmS7H6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnh2Id0A9hz1Iuifli7ifihxmAx4Ib0jW%2BEcK0GL3bmCQkMa%2BxplLJ2FvJWAkX8XN4yyTegcvDTIWboXAJVn%2BhNt%2FOhAy23pt1CkWAkLK2%2FnoJgJB%2B8wzAoROHHVK7EQ0yH2%2BwTVaXqQjJMpnMxRX%2BpmDWKu5k7BG9XhwnLUxr%2B6E5wCM5LaXVNvNNbI5pGf64XIn1ksWKBUXRDLSxro0rGoBTds5bN4MQnu0HvLmHYTulWdPjJIYij1FUdsOnxK64LnU5VjccSDtEHhdEfBmzJ%7Ctkp%3ABk9SR5qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867590744?_skw=PSA+10&amp;epid=10056513778&amp;hash=item5a4eb5c058:g:D7EAAeSwdrpnmF4q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmHkKnrNyuuNqDmM2oly5U%2F3FNsaeNGkY7SaHJOIgZTYw2q0WlHmzMN%2BkCXEgG1GlbdiYQMh3uRB0GiP42QMQ1Dtvkp6SVAOEFxagTqcsDD3c9smLnLSWSflBBUSuv7%2F8oziPAsSmg2qonpdVdILWh3%2F6g0hd7BS4hgv%2B7Wg8tILnKKiPsw7pOxVTW%2BR6AZIbowf5aricPb%2BUFrvGJ52sP%2BAg7DnOyey51JwlgzD7khBA%3D%3D%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387867590744?_skw=PSA+10&amp;epid=10056513778&amp;hash=item5a4eb5c058:g:D7EAAeSwdrpnmF4q&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmVlu%2FTztex1O83Vo7X9viOWRJ57Y7%2FIOoayfNiEkL%2BcgEVdOkpLKM%2FbAxm6UEQZAOrjWRXb4sYJqsZ9azg0twsSOaHqEGUlcF6aAu%2FebfxedMtl2jD1uhK2aEANhF6foaq7YBtvv7D1SqdAFbfii4VfBTDc1ZTk3IvT5MgmktTvhNH88yz7t3DrPzsQQvxVWLzijdSFP50Mg%2F4bJEWGbnXMUepoBKGPEDGMYYVT9GzWNZKasDFYpReTF61duk8BFDlIQhsN99tgYxLww5%2FWJDx%7Ctkp%3ABk9SR5qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867590741?_skw=PSA+10&amp;epid=18056526566&amp;hash=item5a4eb5c055:g:aC0AAOSwt25nmF3j&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlNTNk%2FxkziHVeQmyLRgjMmcgvvmBFtbqSoxiI8WTnExfE4mvi0G0dEYXzMvVEfL6RfnxBiTPBgPixsKJCSOfDtxKOrHvQ36lc1tkg%2FbjiSSy14TA%2F2q8TXO2x%2Buh3R4LD0cidDg4dyOPLtgubc5Nv6DHMT416kDnkVk9hm548sitXZJPcWDOXbyUceh9GSYJNns586N4rh4kCFN4vBUjzUt3ouqkPEQ0RWgexPw4W89ld3kBhJpOSiRM9UyNW5TIGTcEsVOu6kUNhtxArh%2FyMM%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387867590741?_skw=PSA+10&amp;epid=18056526566&amp;hash=item5a4eb5c055:g:aC0AAOSwt25nmF3j&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlNTNk%2FxkziHVeQmyLRgjMmcgvvmBFtbqSoxiI8WTnExfE4mvi0G0dEYXzMvVEfL6RfnxBiTPBgPixsKJCSOfDtxKOrHvQ36lc1tkg%2FbjiSSy14TA%2F2q8TXO2x%2Buh3R4LBGyUUuQ2w4pVm1BENtSx1LsTYhK3zPYVV0VXAEarWxxoynvlyd%2FCEsJ14Yj5m1NPnvEvRjQ6qaBuXJbgBvZ1DXbRaD2u%2FsxBa6aIR879znxPX%2B7WhKhPkn0l9SvWS9Q7rLZsY4MjBEMY8344ZpeE4G%7Ctkp%3ABk9SR5qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867590750?_skw=PSA+10&amp;hash=item5a4eb5c05e:g:aSkAAOSwBXdnmF2Q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlywNVmIHoCh2OXTX6iXmULXOgzNA4JowkWnWqrsWf7UH0sTav37A5o%2BI45uid7CTwlSmjzVVFmN%2Bhivy6JA%2B4TjiUARkvJcwL8j8SywleX9oAQLCG20sbZzvPkUP2S44MRYuFSBoj7qZnQ5SucFBiORJQGw%2BDWTq%2BL46o4nIvVn58gaG5Tkbanh5CJRrQcwpmVlQF5T6Rq1FiYqxk4VQ7eoqDrcrZ05ylqDCOaSqYeqg%3D%3D%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387867590750?_skw=PSA+10&amp;hash=item5a4eb5c05e:g:aSkAAOSwBXdnmF2Q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlywNVmIHoCh2OXTX6iXmULXOgzNA4JowkWnWqrsWf7UKtJdF55ztXM8wQ%2F%2BqClm6arK6HuquhdzP5ufcPOmeO2YkvGDj726MCdyN9QJVqgq7lL7VHYOYaHbBA54tFtyFCzhLlA47M6Vr5HZheXnVjeG1NVH5NwM1ZgXTpHzKCUefB0X1Mdmggkkb3YRacEEnxXLUilNRewKkdbH5jFWzw866UONvQUj2lscxVFVrxSPw%3D%3D%7Ctkp%3ABk9SR5qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867590740?_skw=PSA+10&amp;hash=item5a4eb5c054:g:EAsAAeSws5hnmF3A&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlJaljV8tsqvC3bA2QQ0BkHj6W6AD7iPwptZDxOKXTnXLz692PNAeZD0fpz5w9lgANtiu0unOWbfbpDe%2Fxofx8bebMxh2OY4nH7lEwhb2ZI7DJcxAf0cguEv8nuGvrA5bGJd%2B9ltdp3cAjIBRZunVuPdz6VfaJWXB4kneZotjCWxQpwVWbJf4WAWJHepwJCbCKYVLkQ6WEbj82NDIhXsgmGRJj%2Fn66GzbE2IqdrF51KIg%3D%3D%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387867590740?_skw=PSA+10&amp;hash=item5a4eb5c054:g:EAsAAeSws5hnmF3A&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm2JW9PCv6oQhzr5SxT8zMehWXk1zo3hjKuS8UJq1IR8kwRRcBs6jt0iKRd66ujfj7SzTjtXygpn4cJZmO07LdsmKMliUkx13ocNu7mJ4p2lhQeOzdarABjupaZZAGPoiBmSXBiJujMV4a97TIy%2BCZXsQQNrTsWpcSW4siYkHXCows9IGwzZrihZ7vXE6epv8XCemmC1YMOgi4U2xNRH8HibFW0wfIMzo4RkDWipth04NJuCSOks7cG9qt%2Fv42f3pTbtkEJfbnQgWHLIURuVU60%7Ctkp%3ABk9SR5qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256797189948?_skw=PSA+10&amp;epid=17065166050&amp;hash=item3bca4e273c:g:TKQAAOSwkbtnmF7U&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKncb2xMK611AMW1SlKc4ZYrIcW2iX%2Bxc0m08X%2B6ak5X5Unm6QSpH%2F4T6nxiRw7B6mgQNrsdYYRwb28coa2VG7el286ENDQ9jUsp1gbze0bwqMjPuwo8tlmtpW1RqNfqxBbrl7%2B0oGgheJ0htHBGMLfg6zY%2FblTU96a%2BOHC6ohwY5ho%2Btay765h6L24UQjcg2DB1HEvDXxauhcKttEGeGUhXyFmFpS9X0BBZC1hNa1vDW1RWNTQfSGnbOIDwyQF9poLxQQyb%2FOJK%2BllHOpUpDCnC%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/256797189948?_skw=PSA+10&amp;epid=17065166050&amp;hash=item3bca4e273c:g:TKQAAOSwkbtnmF7U&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKncb2xMK611AMW1SlKc4ZYrIcW2iX%2Bxc0m08X%2B6ak5X5Unm6QSpH%2F4T6nxiRw7B6mgQNrsdYYRwb28coa2VG7el286ENDQ9jUsp1gbze0bwqMjPuwo8tlmtpW1RqNfqxBZdHQFSrqqUYX%2BnIZrXwEEbdIHVLKGQ%2FwFfrAE0aC3SSX80K5bNoegasN70EqWb%2F2B9c3L%2BZyPWyWQC2MjN09RxRvLC6aRFpOue5wsN55fExqEi3%2FeLoIEEpbgROtyr5VWi6t%2BZMXclrg271o9bgH13%7Ctkp%3ABk9SR5qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205264947343?_skw=PSA+10&amp;epid=18071768781&amp;hash=item2fcabe888f:g:r9sAAOSwYM5noWQJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl7Qbu6Evf1bsHJYy%2BW6%2BhB88epBHorqJapfXW1wogWod1E2mqttxPOumuPnD7Ddi2gqYjRF1RGqhE0nYgoh%2FhzNcNQLjli%2F8OfEkAbaNB9SztNUEJFysGR%2FsIQUfcPF4dvLYTJStVeqcoWMxjVsMoBWlnIU04oMRycIdEEy7y9wwQ4K8kVZiNd34KGCLFGTsHgUtjXI7v%2F1EnHPF2fSDRE49dKbkMQGFPZkF2Uk%2BAY6Q%3D%3D%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205264947343?_skw=PSA+10&amp;epid=18071768781&amp;hash=item2fcabe888f:g:r9sAAOSwYM5noWQJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl7Qbu6Evf1bsHJYy%2BW6%2BhB88epBHorqJapfXW1wogWodFz3T9K7CE5paqixAfaz1tuQPVUbLqtfFDyqEvkp8NU6NeF6V3yyiAHd8BQpFbQ90nci90juHS4O%2F8Fsvec7O8o3UfLduoWuA4Vo4gNy24RZoO1KvcnhQi24%2FEkS3MzHUpmYXYi%2Bkq3OtOzr0B9YHzTTh34KvOb9LUGzwLZ72rSUPfeN9MZ9kC%2BzFn5Eaojog%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186820711834?_skw=PSA+10&amp;epid=28065171277&amp;hash=item2b7f61d59a:g:WdsAAOSwOtZnTT87&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkHOgayi%2FF1DeSubSVSu5LoW%2BwiopqE12W2G7nyGc66HriBErzc%2B0yqnRlXcxX%2FqXvc9ci9AlEJfWM3TzyuBbBxqcCuj0SDKREjlEdRmfZW%2Bei45j6BR1lKGd28FQFygJUjAkDCv3OUerHvl4PvZpA6B%2FW%2B67S%2F1pr%2BntxAgPnILQSsZXLhYG5Fniy1cx99h2mx84U4072ju6AEasG%2BdLex8ETt%2B3%2FV4c29t%2BYRxg2a5l%2BZ%2FahU%2F7cm0JoaUkmiYqt8PXB1s7WcZIANAHzGVuwT%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186820711834?_skw=PSA+10&amp;epid=28065171277&amp;hash=item2b7f61d59a:g:WdsAAOSwOtZnTT87&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm2TAwllo3cVx0ayXJOn3DKYUjt5ltEDpBXKxspAFXl%2FFCLBGCc%2B%2BXcZ5QI9gO1ifKOebTvR1ZuaFnXxe64tvTDXpjnGTpL2lJSQJl14A50hkXxVuZigJ301vA%2BZ9TpBHm1z4omehpr4o9ncQs0j6UAKOVad%2BqaKLCsLmT9RAOiJflqvDZIiX783NurEMQF%2FyZB3%2BQE5w4YlrgvvlXZsrn%2BghxPDIaoioEmCZlcPx%2Bq4g%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176537714641?_skw=PSA+10&amp;epid=17056501467&amp;hash=item291a77bfd1:g:tdIAAOSwtllmx1LP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkzynsPX6NZwY39uMVaO4VyiyA6un9rMfXvKTZ55YwRav2Bm55KO6RWW4pa6y1CKGOH0wz3CaH88%2FGrSq2ZUataGeG03zJ4k4hOcgJTEg8JDIrnhKXXGZVTPToyC9O6r0ZThAg7ZeSAUwwadpZ29zVPe1uZjKKjLtJEZx%2BUTYLx2yIBVMYJKBJ6a3Gl7G90ezs0%2Fm1Hz%2F8%2Br9%2BA%2Fri%2FiWIXjpjd714Sb7It93rnwNmp6Q%3D%3D%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176537714641?_skw=PSA+10&amp;epid=17056501467&amp;hash=item291a77bfd1:g:tdIAAOSwtllmx1LP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkzynsPX6NZwY39uMVaO4VyiyA6un9rMfXvKTZ55YwRaoZXHwAkw%2FGlUNXrbUGlYdz5PzYLjrjdk8BdNVaFvUbkoS%2BxnXsHvwsnF%2FGaRSGNUPJTaTnh8AJ92NIqV57XaSNeYFMPyop%2BQZ5%2B3vEfKfmROETqcQHe5Qy4l3LzToP7bRll3c6nkglXaL%2FBdG4lvZF8udSgnuo4Atv3Kdyqn%2Bpn%2BElFqbFVjkue2hFU5vlZsw%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/265618914709?_skw=PSA+10&amp;epid=4056508024&amp;hash=item3dd81efd95:g:O00AAOSwIy1fqxzb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmqowOCTMz2kZPTZKUtgp%2FKXsUAx9Q7DshGrc0VEJ1p9VXWBOIn5OGd4uvidEQoZAPB57imKOvt8IgkF0LWnGTN3bt5V1ss5BaaUVj1DV7KirLLv3cUPUwfvE%2BmQKXJYBujcLigxMWQc20qDWn7vYZeaHHqFSJgBLyvSfs0Cag9xzse%2Fqco4RL90tlKArvUUbMc3mwZaAsUXICr9CZ7FRjSyt7Xc1q9CytBmpm4xvYxK4AUBOsCp3B%2Fc%2F%2Bgiv2t38gSQVAzDvsGiPh9PWv6RAPn%7Ctkp%3ABk9SR97S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/265618914709?_skw=PSA+10&amp;epid=4056508024&amp;hash=item3dd81efd95:g:O00AAOSwIy1fqxzb&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkE3Ig%2FPay%2BxCWBL2KpGf0TLuJLeB7802VbH67o3N4TB7pxX5bDmEdDw7nvR4k0FugYs8jH2aLt%2BtGBW1q5O2gZDXrzWiicXNQDZiB7qwqArhFgjjKXXmOnBKgVGqs5vKGH05VOOJAA6cRX%2Fx%2FrWFbKlbS0vVCT2qXj7gLrfXdjTMi97oQPdgolTVjr00gS3pyGpgkODit1F9Ik5R0vG%2BDzjaH5Q2HJe13LuTleOasQIg%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326420889514?_skw=PSA+10&amp;epid=11056533061&amp;hash=item4c00337faa:g:VZgAAOSwc19nmFue&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm4ZUlT9WlFW7B3DKmzIXoz5KqWCZ0UyoXo%2BpdgD556B9OdatqUkrJET62i52HWadEptH9kloIzIim3OQyG5Rz%2Fja6xKWhDx95vziFN%2FL4i5EmnDGZ9Aj3t8S60qu6nXXlwEK51VqhYY6%2FouIYn7937W5l7AJ3cH8kEB3u1ABccQOv59x%2BFcRBjx1uFVktUM7ejx1vAZYTCnIRV%2FOZ2GBBGtK7oYjzEOYui5IddGckuXRcTPc7%2Br1S0b39htV4fX6Pbs4QeWlnJDN8IUA3Kv0%2Br%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/326420889514?_skw=PSA+10&amp;epid=11056533061&amp;hash=item4c00337faa:g:VZgAAOSwc19nmFue&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm4ZUlT9WlFW7B3DKmzIXoz5KqWCZ0UyoXo%2BpdgD556B9OdatqUkrJET62i52HWadEptH9kloIzIim3OQyG5Rz%2Fja6xKWhDx95vziFN%2FL4i5EmnDGZ9Aj3t8S60qu6nXXknBv2Ny5j0zNouuYd6K3LBm9VQffxnXJzLD2FA8rmL19Rv%2Ba%2FAqsxOO56cgMk6FvSfJJ16KPF8Noak3nyK5JZkesR6rxmhXskjs0ZS5TewWLZjCOySuzx7fqPPO4RzA7smws748eOP3NXUZlL6hrOG%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167143098037?_skw=PSA+10&amp;epid=26068504064&amp;hash=item26ea8146b5:g:BOwAAOSw3CBnTNtU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm0Jog0gDZBgHXT9BE9mgDjFid7yrfiMaAJtwTPP9wYJ4Z27g2nKypHIXSWhbzJWoLmX8SYu7teXDxCju4d6kI0AeV4VCDdOQQAzCS7Wc9FWnVvQ5hNCRIlLBWBaosyLCbnBmhmhf8CWQptebG57vP3HvXIFNvqdbuYahkK%2BPmj3vypxq4%2BPcsVVERLe9W6hVk%2BMBrfro1l2u%2BVv%2BQHOpVOGdAkAHQ3x56CZJDW%2BoQXgNBb4BxoOKdOvNZiS3%2FW2hDwaOxoMPq%2B8cIjc7U0624a%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/167143098037?_skw=PSA+10&amp;epid=26068504064&amp;hash=item26ea8146b5:g:BOwAAOSw3CBnTNtU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKme8qzbEeyIwa5SUt0QS8gkKuSE85qdONsq6ImrzpkU%2F0q%2FxKpR4CA0bHUA5toLXfYl%2Baqkm4XAh%2BcqxQ9SUjYygPECvF3BwP93qowXFCDa3mgKAxW0duSTPFM%2By6anDfY8Xp%2B7PjLLTS6n9o8R2a3nZExuUR0ISZgucM6TONAbhRBTMVvZlYofSJWGQI%2FhQ265MxI%2Fj%2FcCwRPrrGMIVJCaZ6vnSh9y%2Be3PLTOgsN1oWg%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135521637970?_skw=PSA+10&amp;epid=28065172159&amp;hash=item1f8db81652:g:zyMAAOSwCpNnmFs~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkrNPMvttn7HHri59Uw5tlCpjYIM%2FzICiYiq9l%2BBtfNkIVt0zr0AYltLBQEUtbwQmpbXGboOY8gBdyV2MOWP2g32%2BaKw4m4V3Y4ZbfpG%2BNvMpiuKTrCpV5c4rrNo8RjdrJo60Px81ngLz8z%2Ff5pEgTJ%2FwobGqvE%2FXmgLdYKcQmPvOA0Au0mVXFoPewyoQZ0Ig%2FAXPeYQYOmP0ZcAyfs7l7QoTldIZ5q8hJnINxdt%2BfBNg%3D%3D%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/135521637970?_skw=PSA+10&amp;epid=28065172159&amp;hash=item1f8db81652:g:zyMAAOSwCpNnmFs~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkrNPMvttn7HHri59Uw5tlCpjYIM%2FzICiYiq9l%2BBtfNkEPbG5HeLLvif5IV8uqJm5l3UBzHbnb%2BJTu6dPO0MH4SmlWMkYpALdnOeKhqzlkUk7B30UHWaXjB88fwfxbo9gFujTVifzRN2BzvSSFGVrtLBRAOnpqNC%2FXiPoorSsXL%2FWpoFf5slmT6zF7EYhtFpkb4FtLrlzOSTKeJH7ny1HCgKsO%2BcWmvjwg7LZdx5xMOAA%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146350614011?_skw=PSA+10&amp;epid=18073128386&amp;hash=item22132d25fb:g:I3AAAOSw4-VnlGX9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnRGw9c%2Bn72EpaLkL8vJLbuJvyvFqxX%2BwwrCDueHL%2Bul4BOY6GV%2BdZakK9rCt4eMiQODW9GzwGXVr8XBD1WydPllknPJ4DWeorRlCOLFur5Wvm7G%2F55k5DNWvXZ%2FoQ0Sw6oSRdyGISAQqFjyEXMe7rS8vh1Pmy%2B9RNdLTXYiuSCIQLuJ6WlNd6nvpC%2FveG9iQujMkpnPKhSSlV2eMNH1kjWaAZOqZEIFVU9tsQnYtKWWz3mexpIfvDP7pLa8ZFI2DAlh%2BGZxwx5v4Ygjbg0lqSx%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/146350614011?_skw=PSA+10&amp;epid=18073128386&amp;hash=item22132d25fb:g:I3AAAOSw4-VnlGX9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnRGw9c%2Bn72EpaLkL8vJLbuJvyvFqxX%2BwwrCDueHL%2Bul4BOY6GV%2BdZakK9rCt4eMiQODW9GzwGXVr8XBD1WydPllknPJ4DWeorRlCOLFur5Wvm7G%2F55k5DNWvXZ%2FoQ0Sw6pTzXiCsr1X4OtnWkovaSG3zgvNVjuq55JwQS%2Fx5YSEINtBYXqI%2BraBweOMWMh4ciNGjV4NjMVdAW1Xb%2BbRoOIdoZY8JoQAAj3mdh0Qw3i0iAlcW9n1tYj0%2FqYVXO87xgsVBsowFWjTiZPGS2CaUp%2F%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116222083184?_skw=PSA+10&amp;epid=10059316147&amp;hash=item1b0f604070:g:0nAAAOSwwsNmcOz9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm7b%2B3qX2mLlwD6p2stXnKmRQCDDo4wvLqRqR0kEAXKVWaKMMzWuqUhNtSt8LJ5MtsExPEOUJVjl5zv2kgDx0Q5WkCiCjI%2BlTOiDhKwjQy9FqJCaMeeI0OhCKriiziJhTcZ8fsX1hxf5C5%2B%2BepFpOZjE1pHiVwIfMkIncOpNZVd97o7e9Y%2BR4%2FxXW9ZtMLsrH3jBo6ZqSvMCFzXztChae2ZLXwtK9cwPcOkWK0NZesa02qhogxqH2sSiAoa%2FwR29LBky8hsruIYgQc4YkaORtJ9%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/116222083184?_skw=PSA+10&amp;epid=10059316147&amp;hash=item1b0f604070:g:0nAAAOSwwsNmcOz9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlDYCBx2GizhHs2JOZgKwP3teo6k4OWtSK321dOMBh2MSRzuSOH57JnArrtZR99UCyyxcp3arOhcpkv6zEV3I1j%2FvOunnil9LTYpEPcHHbfvOgbYV7q0LaaMTe25DtD0mIBcni9D8r%2FFI--9LI7c3T9ta539IkzVtIvnIcQ0cPjlAq%2FobZ5kUnrS0iCMrqxDyL0xw7qn5u84wGCBWGZcmG0uNhjli6b1f9x5VmDscoyOw%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146350608176?_skw=PSA+10&amp;epid=17059665050&amp;hash=item22132d0f30:g:2G8AAOSwA3tnlGUw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnNhGrRfvQlNzR0rJZJQ7zKHy6NCbxvGvhJFZMxsHTA7wK39KWJ69HXptjfptaaFcvXbDfuOgvOODyVjZaq5gYdkS3%2BLD009w1%2BEz8D2OdO9B8YAxHbeElfIKM58kiAZD0Co0hFPLEXsEk4OL6C2%2Fy1b0v2pa6oHySiDrpB2UGX6qT1AVkxAM05YYDJbaD4Ix9KGWtPonnjCSUvO22wjRZfuHKXE12cWbAIZQWocCAu47nz7TNWQxdfc%2Bz9iNCOkVtq8e9cNtW82k59LDiIK%2F4H%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/146350608176?_skw=PSA+10&amp;epid=17059665050&amp;hash=item22132d0f30:g:2G8AAOSwA3tnlGUw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkLNTkAfEiu5plyhXLxCwA2mmL2TGa8fZ0NZzU%2FAQEcKp3%2Fp0R9K8T5Gkmh1Pzq4cEAFY0LLqSXEJlsW8%2FyWgZzygheY9sIzOi9yDsl5WpkgYjera6yaDOybR4oZBRWhWTp7SEKYmEqIK4cgm%2F%2B%2B7UEmQ4R2PHIVO5lz2mIsAka817LZiZaa%2FZwdyB7VgURpOVS6LfqDxxPKVUxtnM8AENm7pW5dKu%2FaFMTAx0W93hr7Q%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267127288976?_skw=PSA+10&amp;epid=16060926989&amp;hash=item3e3206f490:g:mhoAAOSwUrRnicxA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnupYp1OrEKJpXCYRypIWjx1siR2zxC19YicNhxzD5%2F95fn2Ujdrc7MflbPRDY6hKSI6ek2ZFzU5tBuOTebTyvMSJepmhhHFg9CalZgnyaEDSlMBMkqlnfCYhX81ev%2FrIfHL%2FK9mt%2FWA8GSc4bpLiDt%2BiOVTC80v1nxytj%2FnTkAC9Re3vIOpW5jNjzh8OlbPaPA2pQUyHEKox%2BYTzooE36Ig2MQC6IAd2A%2FiN4RTmYVkA%3D%3D%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/267127288976?_skw=PSA+10&amp;epid=16060926989&amp;hash=item3e3206f490:g:mhoAAOSwUrRnicxA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnupYp1OrEKJpXCYRypIWjx1siR2zxC19YicNhxzD5%2F90CL06uoIIAzpCInngv22g8QnzyxFtJBahn8QEYQpG%2FDn%2Fm96HUov2LCDsELCvHGOhrqYo%2FnSSM76gB9dEFT7%2F0zm9UYDESLsXEawKHHFumYVCpfL8j1IxU7FxZ9cCyGs2cbbIORO1KO4TVK70cWT4pJSzgqLrEFukNMti%2Bkw0ij1Rv3j%2B3djxjYnQ8AHVeQjg%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205161820311?_skw=PSA+10&amp;hash=item2fc498f097:g:eQIAAOSwgLhnW4Z4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnJAE%2FEKVSXkwYQebOAuorRqDBE%2B%2FxMITMkrPwaS8yZSWMy6yjLO0vighhLqrkRz%2BVNXT3RgMD%2FAjtly%2BuzDLDzNyWKvx1ukjE%2FJyqC3HkOElJLSf0mtwNExOC78ehaThZDlfzVTXlv3Bq4a2iiyvj8fhzMf%2FLv7ulJyIwHJHYLkdgU3ppeUODMVB%2BHesQ6eePTGENKrWHu0q5BKCM09YelFbEGtmaPuJYKAG9OAK8ERfLwWX9QTK6WZIhXl50q%2FZJsCdINa5NzOuaiqMmdlv%2BA%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205161820311?_skw=PSA+10&amp;hash=item2fc498f097:g:eQIAAOSwgLhnW4Z4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmc22aDUDoUWE6gSel39PrDscLh8Pqcrxv3%2F3hr%2FNXpzbLAmMg2wco6SBb0QqNi%2BhaMUUtgl5xp7xBfTi17m51ingHg5zUAQVXu%2BDE9SwtDTzpgQJ%2FCGgd4cGJL6z7f4ZSHue6Y2hPSbS7P2JOq0R%2Fwonz6gks8wc6GNeitqBgu1mfGIlkYSJWuuiWhgCw9Tdv%2FW5NaWf21dGhQ%2B2FZHMxvOtuBK8OKSTIl920tEg6PIQ%3D%3D%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196976227022?_skw=PSA+10&amp;epid=17071599246&amp;hash=item2ddcb2b2ce:g:SyIAAOSwfTtnmFbl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlkTqm8%2F2sdyq7%2FjwVv1unHHZFlqnMFiKjJSfrxvzYSuParw%2FdiAttCwrOEzP5Jgpr6AwNt7zsFyswtkDcmvSI1%2B6Li07IAZ1Z9Dn3%2B5U29kvg%2Fbmj%2Fvux7zz3%2Bej5mEaemI02EMyiurtnBvv47H5zozTWZorcPlFq6ps4Pn8Cb7crTsmaLdc7NPK1zp9b1yPZdE%2F6vZtXSNX2T8WAoOg69VdwMrT7IPWT19A%2FtUpdbHA%3D%3D%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/196976227022?_skw=PSA+10&amp;epid=17071599246&amp;hash=item2ddcb2b2ce:g:SyIAAOSwfTtnmFbl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkmUhuS5SMwYCzyfpak3IvTPv6LipAt0SNzlLeW1rukqwZvpyQZGwdaQD97a3rZxrtzyKRVLHXUU67g1hhhpoJoyy2g4q5hchS4loIswJm0wiOdEEREbo4ZRvAZiiqL1GdeWQ3l1ddKVvTTWrFeKm%2FE1BSSb5LpPm8TwQwlb9Y3Roo78XtfCDBSqExRfkseI62q8rguUEV1%2FJh4%2FQYe4%2BB1yicWKih2QdpEutIGAJCmIIUPz156NOAmOtxYBuAcSd1fQEPXN8qY0JGsZu7m4GNX%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296830412376?_skw=PSA+10&amp;epid=18060333330&amp;hash=item451c78a658:g:4Y4AAOSwFSFnPw-j&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKme2rplYpHX6R%2FvXwAbgpas2VMWcs4tMYDuSneiQI3K%2FRz675hv%2Fq8l%2F8aBga5LGbbUFxA%2BDNaVxkdxHQOzHcVgDqL%2FkcQ0ho3Xf2e3KIRtx6ZASbu%2FW4s14GtYtiOhqbAjwpA3fKr3zcw1h1p8cPLXFFO%2BXa%2BjaOu2TbRrLmGf2UqNNciclwR0trsSQ1c8JrdLrgGVClBBOMlQQ6i4I4174P9UbwtEd7%2BZ%2BJ%2B3v6v0GA%3D%3D%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/296830412376?_skw=PSA+10&amp;epid=18060333330&amp;hash=item451c78a658:g:4Y4AAOSwFSFnPw-j&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmBln2QeND%2FcUwjDHsgfef48ZdArYih5zWaf7VcCPqev%2BJYXGzR2bO06U4%2Bh5iR4RoGKZR8NVyYkCyQblyzO9JUi4cDVT%2BMBCXD11DHnYGn1DV2u7Z0eXYHK2HTDkSZ0XdlEZwPz8LZEcEIcCAqPBJJsLEkqiQwEPPfapcOoXn2SH1IG2hXkzsxbiwwZPLGq0%2B%2BlANuCmqowkk2waso3uj1gvuQKr0hQ50huLHgEZc33OrbvTU2lXXIImswxfcgDdmHSgaPNP0f3mLIPknbr5B2%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167292241877?_skw=PSA+10&amp;epid=11056498891&amp;hash=item26f36507d5:g:ErgAAOSwd7ZnoOo6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmV6JLIP36O5DmB4yizNMaX%2FL1uLCr798Piymb--1iXspDuaEGZlngLtPkkKBi4WYYJKCz02CtRDe9uc52BSgwwWvcUffQsp70kN5NraTG65gA82jwIk8dRbEVi9RNTPPfc9rigXa75eRIqMyqqXiJ0TrF0SzptYZBbPBd3RaJ2ACxLiMSIP1dZj4bgFjuct7BVsrM9B1TkHRdwx0svqXutjHyS%2BMjaFCsemchT0Mvr6Rli9h7mawlwIuuzwUeyiKv3Zsutb2QXarw5UHigeYpN%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/167292241877?_skw=PSA+10&amp;epid=11056498891&amp;hash=item26f36507d5:g:ErgAAOSwd7ZnoOo6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmV6JLIP36O5DmB4yizNMaX%2FL1uLCr798Piymb--1iXspDuaEGZlngLtPkkKBi4WYYJKCz02CtRDe9uc52BSgwwWvcUffQsp70kN5NraTG65gA82jwIk8dRbEVi9RNTPPfOxyaH9z3uONr%2BOuBN%2FxQz3f8XJPPSioMIBKlCPtakD2X65TW%2FmRWm%2BaOiuDe8QhWsKfNuYmZqYpfe5QL6mxq%2FZB7prUY1%2Fd0oDdC4Vp%2Bi6ozl2BMIujNH3CWdzoLxIoHYsWj0RUvqJEtTnHuUTKfX%7Ctkp%3ABk9SR5yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205157523815?_skw=PSA+10&amp;epid=23056513753&amp;hash=item2fc4576167:g:SDEAAOSwenNnWPSt&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmrkaT%2FADjEcab22La6pVjnr4O1PLx5XUmNUrIfBJAt8pcQ3SFTWqY6Wjnqmeeq3RIQ9eiNSXgIToE39xGcr%2BocrRQbGh4jtG5hyiM9sM6IA17KPV8YgS%2FkR%2FKYDHbcQYAJDQNe04HIoQb524wIf8GU%2Fp3k7x8xRP27uPH1Jh%2FIMPS%2Bd6vPGWZIfElbBAdQ%2BozJXGfT4Dv5b3U1EPefEcpxspeP34MD0%2FqfAmnDTg5rLMXm%2FFimW8BkFWK0yraxldT0JK0Kz5%2FUhSI9ML0I0dQV%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205157523815?_skw=PSA+10&amp;epid=23056513753&amp;hash=item2fc4576167:g:SDEAAOSwenNnWPSt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUrxcUbbZksv3W6qBRWg0nQlSmBjH0eRsOuUoAsgglGVQSrZPxKhCe6MNk0%2FBt5FrKB1ou3zwuDIQNK3Zq4rNeHMxvSTCn%2F%2BEmvvPW7h8OtvfHMin7KclGdXMLmpz4gp6US%2F3S%2Fy6GCIRxTReGCr3ohaEGUhKc1%2Folkq7dfjTM8WW1p9AGlY8xwtTACu0V32U4jzaz9qw77Uc4rGs9VRWwQVo4qYT1M5RcOiEoEE%2Ff7A%3D%3D%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146299480741?_skw=PSA+10&amp;epid=16056505369&amp;hash=item221020eaa5:g:x9IAAOSwyZdnayoR&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkJaLUUSLDTqp5DkOkTI%2FzvxEXaKmfcMudHBDby%2BMSCcIq4uGURhz57K4uqvg5c0pAewLw5Kw2Yr6cRgzeGHU56dbGhbq3kdsvboZ4gvisr0wtMSiII6uiqjo5Thg1eNMyf9HWT7Vn63Q2jdcdKLiezfy7vN9I9vp6XT46dXM54CVN1V7TvGKtAhZTAS18xn1LiVx3ExweIHlIwBK%2BmQBN8bxNkMvSWc8Oa%2BYRwXfqxHA%3D%3D%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/146299480741?_skw=PSA+10&amp;epid=16056505369&amp;hash=item221020eaa5:g:x9IAAOSwyZdnayoR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmBAhDxhPUJKEY9B6PZ7qrrJZSd6jPt%2BxZ8FgRsgh98lp8It0fZ9Svtc20wEuYe8%2Fj%2F4izB9SFbdT0MzKRZ0ws4tDYLbs%2BFXdt9CyU5jyobdcGYB4EK0%2BEwbFxAqCkWN6GtY9Pwe0WAPpz9pDl5XBs2enPVSGMEmyNEOesMmHKrY3nt%2FyAITEXCh4A3cZSIxgvsnj2agaTuziMsC%2Bql8RgCMapurtfUaWGtMNZQCMwJaXnTZ1Qen8819xp67EBcZ%2FoGmRE%2BWx1GhMjyMKGJaZlh%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867528740?_skw=PSA+10&amp;epid=15056524247&amp;hash=item5a4eb4ce24:g:zZ0AAOSwz2lncJXL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnb32I0gL4M%2BhefX0Wn9gboNLxgFkNyDcbyavUgJIQKXz%2BAcwrqMx6yqj%2FLlSi2Ywqw8unTgprXgDI2AWlu1cp1YXXxEdnHNN%2Bx9p%2BPwStQckQoONGaq11iVna28DXYyEIXkgVBvWKNRgS0qSOivGMpQ1KNvZF3ZrnFdAI%2BHPuP4TnLyPLGNaLDe2A7tMU26z2LMQUlNQQU7c3zzdaE2kKnqNULVhZ0J%2BEIOZxXla62KSJJVhPegbFx4zZQ77IvFZ2mekah1gQxylNfOCZJwn2K%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387867528740?_skw=PSA+10&amp;epid=15056524247&amp;hash=item5a4eb4ce24:g:zZ0AAOSwz2lncJXL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkCuuetOsGvhtnodxzNWuI3IyGfIE7F%2Bj9MtFjCs0NrohMARU%2FdRN98SjphJpt93EWNq0jRSI1RFzMdPWaTXbcoZIqpRb%2Bm5D6wmj71BUUR0Jzo4SpIxg7C1QEpqQ1Kb%2BOp%2Fsz3Pyr7QFkfByLVNx01U4S%2BuZ%2BG6DjxVUJGkOWqufpfoDUytR%2Beo%2BNYvwg7PjoyFvMp%2F7514smSOPPn%2BItCqy3CBql%2BpEpD%2FbT%2B%2FUlHhA%3D%3D%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867527947?_skw=PSA+10&amp;epid=24056531563&amp;hash=item5a4eb4cb0b:g:7ZUAAOSwUZtncOOu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9AbaUZrhKHZ0KzpX%2FjsiZ1anoXIXeyKq76DFwEGUDWc3wFq%2FlF89U2lq3LYfdgxXhMoBQRB%2FosJjJ8FLUqyadWFR7ccFPCU0w%2Fz%2FPdBrPq2SCpn67TJhA6fT1jJ1L%2BPX4YahLQyTzSstt9BpgGrIaOEy6m%2B1Mk2hFs%2FJ8fotEl%2BhAXFKKJh84D%2Bw%2BU69jwlyy8QDnJQEyHeJvVttaK646THDLJi0U4hOzf%2FnSsaUgmeZ7GVsgJoT81sX%2FKdLQplgQlhs97ShDtSAsEaGRVLxj%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387867527947?_skw=PSA+10&amp;epid=24056531563&amp;hash=item5a4eb4cb0b:g:7ZUAAOSwUZtncOOu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkbEEiLsCm6L%2Fj1TUG0Y7k86x6c%2BJhFH7G3QmmBpA9nnpb32ElsYuzQE7c1D7HadFe3iOZFQ%2Bf1vHCtbbkcrwqYjqRgk4XLSOC3hW2I7bno5nr3xhkDE2m1hDxKDGqzeligXNc9eHkBtovceyjKhaO2mhJe5aEO43lUuD7THh0P3K5tFDNs3VVhkCx79KE3urTubk7W1V8c6EuGVVUt0pJWWiBzBeiKaZIAUffaMGH5Bg%3D%3D%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286282618043?_skw=PSA+10&amp;epid=8056579483&amp;hash=item42a7c614bb:g:04wAAOSwprZnk~HB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXyRpd2tShfCGs%2FLbUwVws9C2y%2F7ECx9xsJWCWGnRf86foLau6s0hGZMiOZ1gPjC5I6ENsFeys%2BShXe5cHfLIxBQXQil5rbxBHpkGQRU9dwaYkat2s9dsYYPcLcQ86PIQAsDFDvQhSj9whKSCT7tivP1pSffUxfd2%2BD0vtYj6XhKL%2BwRACqhCRgRJ20pUez9leKBH%2Bp1d2G%2FkhQ%2FeDcn2rcNbi8hTXa8x1Rx4UZLaCATwMmJmJhqddhhYLi%2BSx0DZQ1%2FczCb2rYbAw8WX%2B9MPy%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286282618043?_skw=PSA+10&amp;epid=8056579483&amp;hash=item42a7c614bb:g:04wAAOSwprZnk~HB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKng0yyNHRNqQZQCgnCjuijHVQPQl7e5o8mktfn%2Fg3BBRJ4z%2FcJJlLcsxXDIGgNvhiv6e%2FxhbswcO0ntp%2FTgJd3kIdH65qpOepP1QUMUmLli%2BOx7Iq0%2BTmVgB%2B2Q5jT8Q0Bym1tpDKKsKwDBkQbGhNfZPIho1mPAVSqfdayshIzPMbzDu%2Brp5D0ye3lGiElAOEyPIhhi%2BgQklSAIgdu2EAdje7gSdCTLJIwFBDL3ci1fNw%3D%3D%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286282620238?_skw=PSA+10&amp;epid=6056580583&amp;hash=item42a7c61d4e:g:wfsAAOSwgmVnk~I7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm6R4HMkYVLczBUHcaDmL9O30Qv%2B3KGO1h5QYjWHScJdHiN7fZzwWwDHEGRocCfoTSuZDLiMi68NkmzngaJpi8kCtuQ2X0ujQhgXt2IW2K07XPSdvN1SZKyfK%2BRbC7WQUN3uzBE7loF%2FJ1%2BJO0a4Y6cKuH%2BcbyH6VgfSeQkSaZ%2BTwlyBHEKNM53qI8zjCyQdA5ozKIA37QfnqC%2BapyPfIHzwWguo6SJi5kQzV2Djius1PtnOLgBYke%2BsX0N%2FBEbAbiS9nJhxcCOreAZ9f1OcrZh%7Ctkp%3ABk9SR-DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286282620238?_skw=PSA+10&amp;epid=6056580583&amp;hash=item42a7c61d4e:g:wfsAAOSwgmVnk~I7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl6GizSh1wFeWvGrKUlI2%2BHjUVEBvzCiXtLLGehJYvxAdjPm%2FzYQB3KFXmI8Zb%2BVb0gAr3CbUxmQv7xnwz78jRCCMe9aLAvQkZcpDXNVNPAS0Ym7WKVrtvR47RUatIEI7wynfvnkGi5Kj9U82hHpRXnXND6vLR1lIvBUBiuVccxa%2BwsruXpvr02g06GevMBeQP4ySTb65%2B2K6voCCwPHNMljZSVoNeGWlt28Hm5nusXHQ%3D%3D%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286282623115?_skw=PSA+10&amp;epid=3056534660&amp;hash=item42a7c6288b:g:1tIAAOSwpNZnk~Mx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmq35RsjuVE%2Bw%2FhB7A4FK2cFmp6nXnxRrrL392mTtPedxdPCN6SalmnAF1KJqjSq2anRzIVsGk3pMGtUInjFxBSW3JFcvDNF6dXqYByQlIB%2B8zwOOBz%2BeDGjGFNRThbB13HEAUGN3LtiHcLvafarP0NlO2tq87gKCyI5qlwB8n9xmAEOZ%2FVEt7uB4feAxM6biwqmA33J2FbaZxDh%2BFkI9NqDfLLfPtWtJj8X372z7jsZA%3D%3D%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286282623115?_skw=PSA+10&amp;epid=3056534660&amp;hash=item42a7c6288b:g:1tIAAOSwpNZnk~Mx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmq35RsjuVE%2Bw%2FhB7A4FK2cFmp6nXnxRrrL392mTtPed0J0Ji3fLTS6h4nxz%2Fkx1AphPUtTDUU7%2B31dnUDoEs5sXS5%2BX9KmH8XR4WemtVOus5iLxIerbM4b764MN%2FOtXDeHq4EPyU86GtrCZPQMU9nDP2FKCMydkXcjkobM%2FG%2BHe1Fa0rre2%2F1wnjg4uQY8%2FWA2bSTGMpJY6StvlygDftt%2BVNaI9Egc7nXV6feWecveVQ%3D%3D%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366605412?_skw=PSA+10&amp;hash=item55118bf664:g:EhsAAOSwRuxnhZHb&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnVr421hqXQuYoJBYX8YbS6r%2Fcr9EnWNBHP%2F4s2FzU2nbdVAlTvX%2FmZQhFv0R%2B%2Bnq31nHxKrnMvLjXT7l%2BKLvkxiSG74QQVGuXuJoqJZHYUhY%2B0e67e2V1F3tr5atqe0B5hcsOJaGBCyY8%2BR7pTPBIU5FZYXVXYyJAon4d%2FHD4OrhDRCNvEeuEYwuNOR7lMIBeqw5d9aN3Hl9eLPC7h2tyT%2F2O85mUjOiHmriVyky7Agg%3D%3D%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366605412?_skw=PSA+10&amp;hash=item55118bf664:g:EhsAAOSwRuxnhZHb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkuNeiitfv2u6AuCh92L%2FUR01cSJAJyrmxnoU%2Bs2iC0YxP%2FwrxOs3CbyUx%2B66IxJN7uUkPWjwp4so1569AfaKFOwL9vaYCig6Pn3ynHheUPoARWCo3a9r0lYIV2J6Co5IHVb1fVHVMATwFMJz2cMF1j080Q%2BUEc69yzFFKhLsD25bxBPG84Kl6UXugJrPCWH9NsXO6oUf8DDB5OKSywFlUX16zt8iQwFhgihK6ZDZHUsDAwybNXWSC%2BbR7mj0PylgGnxs9XN40uY5wTWFr3GmMF%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366610566?_skw=PSA+10&amp;epid=2342477225&amp;hash=item55118c0a86:g:39gAAOSwe75ng-bG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlvrEoxhLrroPDoqz4SIk6Ow2mfj4km0sTIhkF0aeMyPzGOODPnCMyDF4g9%2Frfz8mki7ZoMM41zsQiV%2FRyRmy1GcJKUHAO3BLJCQhfpaxRHOfAHqdcJwGJHt3BxJZ1N%2FXLo23HHa9g4IOFh0caXgj3J%2B8DzPMUVYDUK3M2%2BE1v6meLJ2jnmdwY09%2BcpNFphXi4FzPATJD2DmpVaB1he0h5AvyBv8Q1W6nS3wfoZvNQk1Tc7ka4un%2BMAKiiQ4G72r8%2BT4hETZECkEdl62QjAX8VO%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366610566?_skw=PSA+10&amp;epid=2342477225&amp;hash=item55118c0a86:g:39gAAOSwe75ng-bG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlvrEoxhLrroPDoqz4SIk6Ow2mfj4km0sTIhkF0aeMyPzGOODPnCMyDF4g9%2Frfz8mki7ZoMM41zsQiV%2FRyRmy1GcJKUHAO3BLJCQhfpaxRHOfAHqdcJwGJHt3BxJZ1N%2FXIWFq%2FpEKZcB2fmlTVwtgN05btPhTd06UCN6EH7d5AJrxQFxA%2BYeCTfU7TJByBkPTS4vVd863Pk7p5o2gNPqDbjNuWRsxMAz%2B13RllzMOIaC076CEpzdjOTlrYH2l%2BcFyAJ6%2FA4JgJDlM0iHGDc9JRR%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366742050?_skw=PSA+10&amp;hash=item55118e0c22:g:lVEAAOSwy-FnfZIs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmF6HdfyWa51uxxY4NOdIwB4RJXESo314%2FEiNJJRbolt4eruJPMWJsqLP6YNoHNQSY9nHtpfKMaYKh4rueGIsNpNLPX0E%2BO%2B6VSyi7uD8iicAXpAgoJmz%2F9F%2FennxAANNk%2BXS5wkWNDwW5t4itoXqkuxdKi49Fr%2BhXe%2FTmzY0EdmmIuS%2BfD01%2FJyFxTJ1POazsbk7OZshfa8uQS8tSiNhNIzsO3%2FlyzQ7ZL8QaHgTr%2FaVW9EqqljVsTMgRwB6bqKGfEm9On6hUH4VLw1AvAd0qZ%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366742050?_skw=PSA+10&amp;hash=item55118e0c22:g:lVEAAOSwy-FnfZIs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmF6HdfyWa51uxxY4NOdIwB4RJXESo314%2FEiNJJRbolt4eruJPMWJsqLP6YNoHNQSY9nHtpfKMaYKh4rueGIsNpNLPX0E%2BO%2B6VSyi7uD8iicAXpAgoJmz%2F9F%2FennxAANNl4jTBK0ilPWLK2yvAsZaUGDZPtt8oAnH%2Fod1iozCKsmgGg%2BHf--SykF8ahnzDGH30Hl1KHIxmrX2eWjUYwGHI9%2F5mnaIAZqO1NDDyXtkWby45%2FN45oXXJJXFwT17834X4tiDYjrK6HKRnv%2FO3TyOeS%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366826709?_skw=PSA+10&amp;epid=5067698162&amp;hash=item55118f56d5:g:BlcAAOSwaz5nd~Qv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlgfpuwN0GBGmQ7zAArA0EFkAXfKHmsg30TwzSz66S7MU2ruf5HN866tw%2Fi54cxxvEUK14SSNMEBIuEREqlubAwAlDSygfLWUhiJAPrDMedWY00OxZrcwVkzAyncWvINJsUZqAnQFGknE8l5d6wQuT23Ro%2FDjLOFZ9xkRFiT7VBpk9PrXYh9Vpz03eY4Ivj1aCmnfta20dPlDo6YFd%2FNH085vk%2ByCT0sXgSBQJEUGXcxsGu%2BjfSnnStvvxIyKQKqTu8%2BwWo4DTPgtJv58B46Bxo%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366826709?_skw=PSA+10&amp;epid=5067698162&amp;hash=item55118f56d5:g:BlcAAOSwaz5nd~Qv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlgfpuwN0GBGmQ7zAArA0EFkAXfKHmsg30TwzSz66S7MU2ruf5HN866tw%2Fi54cxxvEUK14SSNMEBIuEREqlubAwAlDSygfLWUhiJAPrDMedWY00OxZrcwVkzAyncWvINJud4iy8sedCeNDtRuer4GtDNNh%2BQMsdKNQXVMuFdJTSwpEZMDqHahAn1c%2BUUS6p%2BvHWSipT4%2F2fX3VFE2pCiQ7MOPbbZ9YJftiy01r%2BSaARyVGK9uzQLENwIqbuqREuBrEzySXbPzwyaD0rco7ytMHo%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954072032?_skw=PSA+10&amp;hash=item57889be1e0:g:GhsAAOSwmWJnhRWV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl4aCJo%2BVt1HoBaoChMn6tqCnCe1LAV%2BsF2BhcFEsD88dOBb3gd3l5h%2Ft4x%2FBQWlOTNYZRqzVmSVWQoNbmzKUa6LVkNViWS%2BCQ%2BEEg0SLtH2M8uIE60g8eVv1gMpPvKl1xC%2FYsdICKGeWIICUAeNB9MwJJkPrUTljS8VFMpEiCK7CN5q8vdlWqFl8nHjbbYyYx2lPHXt%2BvcM5gdeYvDlTQiq5ic5IMPlAxQq1gi5JVn%2FjzYa212nAcuz4PkBu9jir7%2B1PWp3PgACKqUQF1jRewZ%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375954072032?_skw=PSA+10&amp;hash=item57889be1e0:g:GhsAAOSwmWJnhRWV&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmH5OtjIqQ74Bc0hODHCoS8qKm6MFSQ3ugH7cYRRlSR0HDYBFuZWPGGiSeGZ1gDqMrL%2B%2Fm2tVPztyaVoupsjPAvntIA6JZ0kwUlOM%2FfyjXJGwOgKQkNYsawyuuyK5zbxqIZtugbMUYsohS4sCc2CzdyyC3WKdJbi7pYXK7JO8pMmjQJsjNzrrRs21Xep1a8vZHT2FH5JwX6E2DS81SQdj%2BhYf2FXbyoM4Z47GL1c2xRfw%3D%3D%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954371070?_skw=PSA+10&amp;epid=10066533682&amp;hash=item5788a071fe:g:aKYAAOSwbnVnfFWq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk4lZUzRJhjFZDApJ9CUnzbHnc5fZgZsynQ4LH2TObK5u5%2BMU7XSmMTcA5igUuYfSiSFVR1zI18FAl4ZmRXIBUqGos4Ui0VGaYYTMJ6mxWv9kbMRbUnHC3N7QxdbNktcgHrBdGzqp76bUuHCuDFjOVkBrVQutoA3o89tvEODUGVJuQTgroDf1%2FPdYa9LACyQLugtCEZ6dH09tfSGm3qDWi5tpiFbX3fWvylTQ6rZMJpiw%3D%3D%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375954371070?_skw=PSA+10&amp;epid=10066533682&amp;hash=item5788a071fe:g:aKYAAOSwbnVnfFWq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSdoRMw3b8NMD5pEVzuJLQHzox1XIMeW5r4hmxtzCj2k0fEEzUcFLaLub%2BtrX7MyxnqXSVIQpJd8TrR0yFNbAUUwjdKRf%2FnQhHLO0LZFKCmT2w0Wv8yb7bgy0xzg6bH9SW9G1zONsNzpm04yx%2B2ONDNlcmAB%2BgyljLitx5e1EOdTX7YceBhTUtjA6t1Opr4maGTqWS5pSAYURdVvS2s3c8l1F5MTudcrwVMgOD8lnSq2KMcGYd4Xfe808GnwhV8JS6lYCkE8Zo8ZxwrV7RQ1Tb%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866064387?_skw=PSA+10&amp;epid=10056517793&amp;hash=item5a4e9e7603:g:YnMAAOSwsOBniCJ3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYPgqpW3uRBb9DgNKaNnhnXlasntKuoStE0GaW%2B7tDFH2buZu%2FoYOiukhPQRh6zZ0clV5aiIyI2PSuyMYbC5n3d1vo7SoszIs30gO97QK4nIgkMEisGjSIKsaO9wzDy7oYjuAdeNDZH4rFycgqEBxQ%2BX2WKcyslcPbrkelxGbSerZiCLCkxIKizCOwa6%2BeyXrE4PjkKwQo9m%2BBOG7Kihtwv%2B10XM0xheKCO7cGKSiPOIk4iBEa%2B%2BUF4WHXbqVT5sb6US7Vde3jCj7UlOc98NQP%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387866064387?_skw=PSA+10&amp;epid=10056517793&amp;hash=item5a4e9e7603:g:YnMAAOSwsOBniCJ3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmHsuLHBiNQ5eDURSbaQpVIE6R8rtaMby3qN70yg79aHEXLHBHEardwpLocZQDq3Ru0k3gqMzvvSqXwDxIxPvXnFgVCNXhuJENKSVQzw2HnhlmMBJVtgTm%2B73cj1yLsrL0Yt45ApYMU2R1E0lRrTw3n1wLgu5eRz8szlgdEMiP%2Fmc6lYG%2FkQfKfd9SY%2FbHo4SoF6lI0E6iskGp0GuZNnjDkQUaqiwRnLwoe4VHWhA4wIg%3D%3D%7Ctkp%3ABk9SR56G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276839767937?_skw=PSA+10&amp;hash=item4074ef9f81:g:XfEAAOSwTYBmySLP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk1N4Y7mqgE9XnL94vq5S8BhnXSrvykl8zq%2Fl%2FB4wFzmGSHTQY0kkEuJu06Jcu%2BD5Hyr4A8hmx60hLTga6pIoFvneyqg0NjWinGqF%2Bi5cWXmwFoLThy974kP2abyq5i2OPNVtRW3dbdAy1Gkpded%2BfyEFfxRaC00aDhPV%2Fg08mXAgRy%2Fc8uqxzqmYF5blRq2NdtHC0D8Gl9mpvb8WzaPqi7B8wee1bsWlrHeOQ2MQcTmLxDtFLuDoQUb5uzoWWfCumdW%2BoVsKco9PmYGX0orEiQ%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/276839767937?_skw=PSA+10&amp;hash=item4074ef9f81:g:XfEAAOSwTYBmySLP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm2iCXFHvFY0dzmU4avCvO3Am9KkeY%2F8f6adeXGbbXU6WQdy5VYzHiaAu9nzkUR84KsKVXj7l7i2TxukNAz%2BUBDVLDCzsT2V%2F2YDgLfoH%2FsI603yKgtoCiZbf9irwMX%2FNqCtZsNExhdjCXlKc308EQLNegsSLM5U1K7eFxC7jNpftr2P%2FnLGJN1EDue46FNQE5ZD6tfQa12sTJcMW9%2FxkGYqbdyqsq9ZxO7p5pwuq4dlg%3D%3D%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167263246890?_skw=PSA+10&amp;epid=12065151889&amp;hash=item26f1aa9a2a:g:99cAAOSwyz9njcKf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmJ6nBal09DXKXv4dPr9lnNDEWcwwnVYwzQFyq5MPv1zQvEfOTZVkrtmh4Bp5R2bys3oK6WrMnvi41XDWebXUWqjqggp4%2B88LqFKShG1sgGhdNr1%2BSzGhV76i7IavY4rXpgyjIOCmtwoa3i8FXfc--Wo%2FUHJ7jUqzbjEDk%2FoSxtOYvPaLsgSiUhTIc6NbkI1EgfSWn74SJZNgHNm1u2fYmavNHPqNibPzyzghR8NxXP6Q%3D%3D%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/167263246890?_skw=PSA+10&amp;epid=12065151889&amp;hash=item26f1aa9a2a:g:99cAAOSwyz9njcKf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmJ6nBal09DXKXv4dPr9lnNDEWcwwnVYwzQFyq5MPv1zbC88jindAuYGe4JZ7z45%2Bv5wJ6S4I5F2z%2BPbDV13WpcEdjxzUjnuQG9X%2BjhWgeyukJkDN4cGbonp7%2Bve9NsYPX0%2F3qXBwY114E%2F%2BF%2Bmx7rbjqTdGMvXF0zaFrTHKEiZ6vwBf0EsHKc%2B%2FC13IkpDJHs9ZORS8sQ%2BSimRZ6vNQ%2BOU6gTCiqTciZm2l5NJ%2B%2FeTRw%3D%3D%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405519412491?_skw=PSA+10&amp;epid=11065149911&amp;hash=item5e6ad72d0b:g:dOcAAOSwKnBnmRJj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnmuXPBhjQ8mXu%2FWzf43jLOlDCx8VFwZp9zuY9Q38bB0ngCA4ojjNZUqtxB5uuukC84Qr8g3FDzY28cxSUZjEh4jtQEi%2BQVQxGpWgg5SI8MR33G4ZoLQu6wKl4fW741o9UPd%2BPEc2zbq8CpiNUBK95p3ms%2FGxdOzEMsAhtn1JqsIyUfMGQXNPO%2Fvarc052exNIqQHAPq07KlvBzYAsLkZ41WU%2BVMPsWhhzKI59Pf28LuzLrgqoewfEefaHiIfX7yK%2BJH1GBjJHermbV4ObfT%2Ftd%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/405519412491?_skw=PSA+10&amp;epid=11065149911&amp;hash=item5e6ad72d0b:g:dOcAAOSwKnBnmRJj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm1jsgfxPzyiLoFluEe08S9K7Ji9QId6Q8CQLNIgcKvv04TOy0%2Bq%2ByGE5LMyCsYklwsZpKHmIaeV33N1QncUGJxsT%2FDjaPFAA0e4v7UaXPJgIWWoTsrUttv%2FyhPVqkxoJ4Yg5JtxMNAnE%2FXsHJIim8%2Fmotk%2FjyTlbNhXZoh0CDagOE1O7YrhKJu%2F96IjNY7bHLSV6%2BuYjD4ZnDne9p0UYkTprRnWcc%2BTbdoYT5Y2pfu%2Fw%3D%3D%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396156621180?_skw=PSA+10&amp;epid=20067691030&amp;hash=item5c3cc6517c:g:H8kAAOSw5KtnmBqj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlanyVpzRrzQ%2F6Pg5v1OIlbKp1MhKdpWq6nmVhTSsEp7U1erpiDCEmannkcZwHnBKrg1xfPTYI5P%2FIubZCz09KcmZETT88e99VTrseattQdYUu1ed8awK3b3K291pWPImYMfVHQFDLp2jW%2FLkqn7UfbcY4uZ4Faan9Uz0uuZbA3iRLSrOPv6q%2BTWYkartT1E3yMxa14hDjzxvCvSLGq3%2BgsVpojJAyxLDu7eOEqFZxMk5ERDDsgM%2BJ85bkrnsCiFb04zID1AS272F5rZ2JVBZlm%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/396156621180?_skw=PSA+10&amp;epid=20067691030&amp;hash=item5c3cc6517c:g:H8kAAOSw5KtnmBqj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkjq6leb7X4qSDt%2B5J5WHkbbm0kSv2Jj35N0tW9pq3EPs3bIkqW%2FY6TqkhfNfNRmiKFzELtDxpEscIw51uOL2twk1FzjRNxSaryCXAGGvKvvMfXuze5XdZUsbcqOdZBAUXIK%2B2oMGQpjVqkGV0U%2FDDWXVK6R9fF7l1br49AApYvyA0ycrFmeljTiYJpwB6kCBPqez4VS29vs6UwhHN5IdODRlJTMSFrxYuYXgRKxU%2FS1w%3D%3D%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296456073722?_skw=PSA+10&amp;epid=26056578932&amp;hash=item450628b1fa:g:HbYAAOSw-jNmUQRl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnk%2FjDzlenEl4VZ1p%2BaH84NPj%2BdsoAil0bcjikmiz%2FL6%2B2Zj0QTMOuFeL22Zqg1YT%2BUKjrN6TTsBtjNiXWrs4XJ75FziIJHc9nWqgWhP08o%2BMjrICERFhODI9CUPVIPCILFc8h5f%2BL9pLjMHSGWm9lG8sJPk7eRKruUoZ3%2FQnsHlK9RF9XC6oZpsOz57TPtf6gMLnqTb1ncSB3a5d9YcXiv0KY%2Fw63y0js6a2wXgOe7AQ%3D%3D%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/296456073722?_skw=PSA+10&amp;epid=26056578932&amp;hash=item450628b1fa:g:HbYAAOSw-jNmUQRl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkH%2Fh71xuUQFKp13esujkTCCPA9xvwbDNi9Yb9TXFEi4j0E%2Bon5Ht9qH7p4PpWI8r7FEW%2BGgZYC85eY1JE3zyy2A7Y4l54SAYSPUe7trYy%2FcwCO9UF55bXNQmGI0nW%2BaEn%2BT%2BczXVvaQr9sGbkyCfrDDOdDsBRMT%2F1y91nOTCFdpPQRppT%2BeTr9h5w1V%2FIKvII%2BMO1YNrqPw5iUdS3Mb9Eexryt1XBTao9rTZasNtfm2vEqU0LGr7n8EvwlcgwUXzId7MRqkaItvsu7x9lu6vAY%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186916234019?_skw=PSA+10&amp;epid=7056500595&amp;hash=item2b85136323:g:x0kAAOSwePdnmEuF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFszioj91ms2W3dD%2BqCsKKdCHkwMMfKI%2FQ3o%2FQnT0YgdlPKdMvGZ%2FmmegHvkKAXZmldA5D2LQcNM%2BLF0WD%2FswANaxLtiMyZSHrEGfbPEKgJn6See6j7%2FjknM75CBaeFWB5u%2FEfAnqvJtWIrz%2BTm%2FWt9OBbuv9EEqno%2B527p7hjZjCSGcVKjsQX7GgbtM8Rx0hTqbI4RO8JLrBMo6pmGZObwU9vTjBLV%2Fdmj6QsOhxWuRsPIlLFBkE93tbDsQEKNOu7HwCRgcU10tR6%2BngN%2FmxT%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186916234019?_skw=PSA+10&amp;epid=7056500595&amp;hash=item2b85136323:g:x0kAAOSwePdnmEuF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFszioj91ms2W3dD%2BqCsKKdCHkwMMfKI%2FQ3o%2FQnT0YgdlPKdMvGZ%2FmmegHvkKAXZmldA5D2LQcNM%2BLF0WD%2FswANaxLtiMyZSHrEGfbPEKgJn6See6j7%2FjknM75CBaeFWB00NMs%2FBJTbkL6vzL%2FNYveKRzkvd3nTu43W85qsQsTgXrmgNkkYPonkO3Kb9zQt%2FH9ZzJYYj41K%2FagkrR6Rnjm3yKiVf4rjlDdwFrsllO8pdBz36yWDZV0qlOFip9LLU0XQtijmtMG0UOPFgfRcqWa%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296969926447?_skw=PSA+10&amp;epid=28060760890&amp;hash=item4524c9772f:g:~HsAAOSw4I5nja5P&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlCyqMBNtUHiXKcncgwxkxUUuQ2Lw36q1wnN0dGEOBqMLElQl2AhszCT83%2B%2B3vSz72aLxqdAMsvXHk3AuCWK3qptUvvKHvd5Z9GG7q%2FqbvMeFCdqqLWYbYUob4JeWRYojQdrYKf%2BHaOPukWOGhtWUmcpSKAqUoqpmbfm%2B%2FnPu%2FQk%2B8ypz%2F8Z6VBpze3KL3BPJK5jPCpcjiWLt85LjjEYVRfR7Wos5s%2FAcSCvXpr--o0aFq%2BpY19tHsTGoR11l7zOMUNz1p66EmxVN5gdzhnqJwX%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/296969926447?_skw=PSA+10&amp;epid=28060760890&amp;hash=item4524c9772f:g:~HsAAOSw4I5nja5P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlOY%2Fag6u8X9W1wn%2FWCyu%2BQv3uXcByBpP8AXxUypO%2FF2MHlmExAgP%2FwEfclSnxWf%2FtSqRi23zFOE%2FeROxrDY69GN77p%2FugoKhZV3oPkFaB3ADCLDb%2FsRXVl26ONG5omxm8omjgzLMS5KkGm0V4MNNSmQaRLsHEypvA%2FjBiLS4UCFTcK%2BRIeFulm08juNXTpR2TUv6zgcHV97sSOl%2Bq6xUUTQ7QypB%2FQSmw49lmMpTVTMA%3D%3D%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911136405?_skw=PSA+10&amp;epid=9071757312&amp;hash=item2b84c59a95:g:G2oAAOSwdQZnk9UY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnF5QRVAXofJjWwJT4EY%2BeV05M65BDL5NhQaN46CoEWjXa7WF1sZKdGSWjQSac0MMBQKNWMdSBUwGBWQIsXzhDZpi0j9Wsn3gWDr%2BxFz%2Fo%2F6rR6ZrPSWUEwqukPgaV7trFPiQUHSOHwbV0nIo3mWDNBCWk%2FZDOXzgrneHHlzt0Tb4Y9KYS4YLA5g3BuoUjdJQVd4Z3Tcx%2F2OE9G8oLLWd6RHCqG2Mdw0lKBHgo0fN5N%2Fg%3D%3D%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186911136405?_skw=PSA+10&amp;epid=9071757312&amp;hash=item2b84c59a95:g:G2oAAOSwdQZnk9UY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmAR6PxgK%2B0LHmCy9axZCGpbbMPDV%2BagErGVHVIqf2ctadC6uTZ1N5Il8njq6VOzL7wVi3EM0JZWFVJPum8uP%2FXcJU5nlKYJmkyxjx%2FnB3GvoBo0vs1d9VNTHz8oF7lyiFjEzFn3Hfa7lo%2BRNwBd7OE0i2k7z%2B4bFuzSyjAzD8f1kYSmPF%2FNUmmk2AgsNLxhVgsjtNIUzHgzw03W5StdB%2BiF4zRpxSFtMxt1Q1SWrCNay0TmKr7%2FZjihhryVLt%2BIH8XA6OYZeYyxs0dGu%2BcbV%2B7%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805452024?_skw=PSA+10&amp;epid=11065151137&amp;hash=item292a6d18f8:g:aDIAAOSweYRnk~3W&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKllJes9bEf8Y5bFoVGFbwlUbHS046%2Bk6DpWcFbQl2uTIewrGr1Gi7jpb32ZyuV77EDKBX9UqqQ0YMKRrcMMsZQe8%2BGrDsThoRTtVqSWD47RGHBXymIqVWSFfv8AP58x1XYWP%2BNThc6TkDLVib9v605xAjceksAcvXJHdaO3J6EbM0QY5hzCLxa5JCRNK2ZvAXrsheKRPU3qHbKTZl0l7Jvqt4PKH8JATMsPBrrrVdKx%2F0q9uC2%2BZsRT8mWxPhrWrtA39m48njXzoDEnhGOn2LmR%7Ctkp%3ABk9SR-LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176805452024?_skw=PSA+10&amp;epid=11065151137&amp;hash=item292a6d18f8:g:aDIAAOSweYRnk~3W&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkmRAZzVnxa5o98Z4qZotmZgVahaPhZbTCqwGTt96KRJ8EeDsyGd16X9AJyxLDeBWRysskdL008Uvt1n9lB2MxIk%2Bksyd%2Blt6IaqeQWwM40MXH1eO0QK6olQozkU3GsZ0d%2Fr47JEwanzpezq4xFfsXFBUSbHdS62EeQ8OCwZBHxFshRUCoCj7yRmJPgurVmbVLOLEOIs%2FZ%2FngiEDsNkutx%2FsPpLpyfRLWTv8HXCZikKrA%3D%3D%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833370320?_skw=PSA+10&amp;epid=12056511672&amp;hash=item40748e00d0:g:2d0AAeSwxw9nmB07&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlL55QveL6XdhJ425UhENsadBGjW%2FivWarUgNKbrIBnjpCnTn%2FOLqhL%2BOmTlmj8Topm%2F2uTAHIJsgtyRSBoLr8gE5TmBArloCfTBGeWQq9AvUhn5u5s0mQGZz1T3o9xEpDF8cJtRiKBabdtJMlItNTf09TYYl%2FzZ%2F440v5lHGSinZ5ZYRiMmDQZPm7MVq%2Fsi63ERUcLMFTWaiF99rzsGw47uxaThFCjlGEUwfgRczT5KQ%3D%3D%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/276833370320?_skw=PSA+10&amp;epid=12056511672&amp;hash=item40748e00d0:g:2d0AAeSwxw9nmB07&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlL55QveL6XdhJ425UhENsadBGjW%2FivWarUgNKbrIBnjs%2FvmbpQKjrlFbvcoCsf--YR9jdkn40H6bptPdEhSDr%2B8aTMewZTP6%2BTZ5MNHoVC1eQ7mZo3y5yjWa1QB2Yc%2FlIpCuW0RH2w3%2FxLa8VTyfJy%2FT4%2FNFThrhUN6xO86gG%2BZDwvCxWoGOm6vw8x9fmQ%2Fnej1k3XkNN5VMmnvnd%2BUetyrxmcBUnnfvN8ijNSQAO5IQ%3D%3D%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911306663?_skw=PSA+10&amp;epid=16065155970&amp;hash=item2b84c833a7:g:qmAAAOSw9ZBnk~3N&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnzpQsRqVEAgupg9%2FtrxS8Mkz5%2BtJKPAuam99lsaiR7HYwz22eyNOIVzWVfxX2%2BG%2FWIkOG9WgpixhyW7qSxHEFFm3DAvQsCcGi%2Bwfyh5zVlDg9bDCKDA4rNDf17frGfquIBdm7vudSAIYAz7%2FJFNjE2lt%2Bza0TF8o8GMbVgAj9RFd8dMcuiznZ8FoQHtWo6fqiwlTEU6gGf9qpPdH2EABR%2FzL%2Fth0n3y6SGYU2yfe4ytg%3D%3D%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186911306663?_skw=PSA+10&amp;epid=16065155970&amp;hash=item2b84c833a7:g:qmAAAOSw9ZBnk~3N&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnzpQsRqVEAgupg9%2FtrxS8Mkz5%2BtJKPAuam99lsaiR7HS%2Beall%2BSaeex5MJzv%2Fv07m5MGSnZTDOdqsEU4%2BS4sqc2lYrqR2rnjsFREzFPGXiHDvHZ4iz5TJ2KTTK1cU4a5o3qLAOH9VlCpKiQrWMGDAL2bKHgWQwN3CTZ1yYkzrl85cwtVD6hqu8gQwBNhUuLOWaEtErQgdE5E007gxsOR8Ghpo8I2pqUauTSpp%2FEAtVpw%3D%3D%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833370075?_skw=PSA+10&amp;epid=3065166104&amp;hash=item40748dffdb:g:8VwAAeSwl5tnmB2x&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlloproFdF9rn549GntgV4fiPm5PRg%2BL7B8baypfrjZZas%2BP15qJ0g5BZTFz0l%2BhgRL44YOFF1pNFh4XhGggzWY1H%2BMtDovfron9u5U45iQNpCzmhSE4p1gB5qyfFRtLegMw5ehUWDgx5nQvf%2BfFSwVGTdlIGZOwLQlwQaix1dWMnPlXpq0I7b3dWz161EBCwC1IEycA02QwTdC4zBq4%2Ftqvy3b7SOuG0eyt%2FhhalDzBg%3D%3D%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/276833370075?_skw=PSA+10&amp;epid=3065166104&amp;hash=item40748dffdb:g:8VwAAeSwl5tnmB2x&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlloproFdF9rn549GntgV4fiPm5PRg%2BL7B8baypfrjZZexXb6vC3jk5CrTOrgLLEoflQEy4Ur6%2Few9GUmVUyDMhNpYg9bYPZyQRDR1J3cl1t6a78XObGp5jxghZnhcXznxZQ3%2FKJXRAb1zJaVX8xnvhd6lVi68FScf1RVuPpZH%2B%2Bszz9Z7hQrwQMBHSy02dOaXQ4X6p5o5SBE%2FWNko5vIT8RR1Eb0k2PzMsoP4vp2ho9A%3D%3D%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226571675501?_skw=PSA+10&amp;epid=2327563786&amp;hash=item34c0b9676d:g:QbYAAOSwNsVnmjPa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKluO%2BZ%2BnlBioUyK57%2BC3c5HLOgzwa321CmYkKxJJuCpY6u%2BwZ8Z%2FKU%2FurFNc7mt91U1u4%2FXrs2dMqC2QJffuju0wRink%2FJ6m0ZZmS73GZv5CZbTrLxCaQbX6G5aKWhhzP3DhfpbxwyywHpfch38sQSU8HJhT%2Bq5kBb3KbQMkP2SryntF%2FuEu%2BN1jsl%2BzOw2ThiaF30DQS388dor0%2Forjk3e%2BGizG4YqVoaZCZbGV%2FmMFuPB8WzVeBnl%2B22ycMdG8UKY0n7iAYuNSIwdOUvlRp1q%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/226571675501?_skw=PSA+10&amp;epid=2327563786&amp;hash=item34c0b9676d:g:QbYAAOSwNsVnmjPa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKluO%2BZ%2BnlBioUyK57%2BC3c5HLOgzwa321CmYkKxJJuCpY6u%2BwZ8Z%2FKU%2FurFNc7mt91U1u4%2FXrs2dMqC2QJffuju0wRink%2FJ6m0ZZmS73GZv5CZbTrLxCaQbX6G5aKWhhzP0g1sXQvLXd5YV4XbojZCBtV0FzvXJYkzkVnWx%2FgBsepQoBeXp0PbepfB6pehPrHq27Ad69998l4Z4Bb1aPMxotBxDyD5nS8JEjJOzwhjM1DRLHAnUhG97JzY%2BuEKoqq9exme13R3SBr1LHsMq%2Fliha%7Ctkp%3ABk9SR6CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911138554?_skw=PSA+10&amp;epid=9056548107&amp;hash=item2b84c5a2fa:g:kFAAAOSwhchnk9U5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkUUQdwKrnEfK0KXZY8aSqYUB6fX6IJlsFO7iy6i0Fvpxi7QwJfkeq4thK9b0vFu3lhqIXSyZm2oKUC%2BVgC6x%2BkV7BdX6HQh4VxjvC3NJrLxYOhhviG4NryXcYE50MRDgwsrKDt2%2BdCDIw3r5AR9VWMZDYOrDmCTmTvnKYnkZmb92vT8pL6mX1U8mZL3Hlj%2BH0Lox325VE8axnlsWVzag%2BotvqLi4eWJ4RdNMrfGCoZcw%3D%3D%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186911138554?_skw=PSA+10&amp;epid=9056548107&amp;hash=item2b84c5a2fa:g:kFAAAOSwhchnk9U5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkUUQdwKrnEfK0KXZY8aSqYUB6fX6IJlsFO7iy6i0Fvp%2BRvN4hwvGlyWQeokzUTKUAq7zkNe%2FbT5CDw%2BCqnKl4IORTNfUjDGekyWSXdtpYjwRujyFH5b7AhFOXrFEx72BoSh86KFH01Biuj1VqxFRuQ%2BtcNfEugDObC3WV9Dv6KpCOb6z0bGEK8d86oXLEJnOvY089Qrdryrv3FpjbkamHiz8JJTIHKEha2c%2Bein2DaWQ%3D%3D%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326420992492?_skw=PSA+10&amp;epid=19067693895&amp;hash=item4c003511ec:g:RQwAAOSw91NnmIWr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKltT2Yn7O%2B76bwFISWK5KWeSlMsSx9G6ILxHc16etMSvFMr5V73I%2BiJuINvENyBbRZb1d0%2F8Aiz5WgZb1qJvHxbIIbuAUHINWvF20AoxeaUfskfObLrJ1VDBlJiaqeJWmgMWYc1f1yUn4sa8%2BwXaKCqgjggt9S8hKj5VnO4d2z4dAEbO5hCrHM6IZduaGYotxR9wWmX%2Br09e0F6mV%2FL4tiIA5wmw7bOqh%2BPWFTmWgS5gZ%2BmQ5FcDnkSJpEvC4vRZO3pBALfPUPSWOzCNGJd5sAz%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/326420992492?_skw=PSA+10&amp;epid=19067693895&amp;hash=item4c003511ec:g:RQwAAOSw91NnmIWr&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnxWI2x4OuAftZ5yj%2BZNlFgGJzaC7owSZ0wDoYopjDivI4IEzi6Wtb%2FpGPOVFyQGEjHiat5%2FddfxCTzaNeTopXtYT99BII32dfRd4gTWwSnmPfSjjHL8lNl02MQgWCs2yTrRBXh67hpiJ5uCRIhNoMOzo%2BL%2F6OdA%2FX5GH9w5ZVGH18kyHnaUtuxcGyHelYrtgTkAFfbyJOMJxemNvgtRe01D9lxd76aN4jSEQZ0c6wWFQ%3D%3D%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156668878508?_skw=PSA+10&amp;hash=item247a315eac:g:tMgAAOSwGulnn6Rc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlfq4dLu6f8QHA6JXOf3BSONkpKLUzlwTkWSdHYg8Fka1UlBTAt3RZ91Jk3J3mK7oAHlgZdlzJch9Uu6h%2FvfcuiBjejsQmsfEkwpmV5h9pre9snXAwXWSSdRr9aiIJ6XyGxlGxV7ntGiNY8pFhjlXwbECLSvbtsuVgc7fXFtT3P8ATH15m%2BXt2IYEMmvv%2BPO3niQBnkZeVmq1GUkA3jqgYH8h5enfWVo1HK1F8fzsX9PyE6W1wbYSsSWxfkrKlbKCZ0VNwjMfPUv1obU3Dj3JWJ%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/156668878508?_skw=PSA+10&amp;hash=item247a315eac:g:tMgAAOSwGulnn6Rc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlfq4dLu6f8QHA6JXOf3BSONkpKLUzlwTkWSdHYg8Fka1UlBTAt3RZ91Jk3J3mK7oAHlgZdlzJch9Uu6h%2FvfcuiBjejsQmsfEkwpmV5h9pre9snXAwXWSSdRr9aiIJ6XyH4InBHj%2BPSOzpZbHYS8d%2Bp3M%2B8q5tzbOzUlfi4zzsaULNMcnlaaj9WQlrWWz05mPhV%2F9M0PG9tQY1tVVXq4fXScQnXhDVkALlXDA4zFR%2FERvjEaD8%2FPwSeMe9DEFAVzq2%2FBf7Vgqb5HNBH2PgFhBK8%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954465930?_skw=PSA+10&amp;epid=24065155243&amp;hash=item5788a1e48a:g:c2AAAOSwbP9nmAc7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmzNWkDoIG5pKnBa0CtWsf5ifKNDRjPZwbvZpQUqCCHhblu6KvBPTEs75Kitjb3lBC%2B0Y6nUhZHs9RtT3N1X8cQ8F626NYf3219wD1%2Bxh9Gn1vQ5rcs2YJFXE7cjWOCVodJDjfWouvGfMkGQaTw63wZjecmw2Au0ZUvf5U90fbgo3wOTDHGsIyFPfmh2FVvGkNd34taAcPFUr%2FOHKpZ9L3sGvjt7dz9uK1uXZ4dXSQthg%3D%3D%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375954465930?_skw=PSA+10&amp;epid=24065155243&amp;hash=item5788a1e48a:g:c2AAAOSwbP9nmAc7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkaq6wJmcJGW4dMz4d%2BsO%2FOp7A%2BQGaNjOC9MMWv4m1HxQXMnooS6xHO1y7is0BtuXl4f1iYDa6PlbcHBK4E8nYnb5tn1TDwVGFD4fGkb7rNy3lUbcfWVFr3zXpyEgDBs9BxAVdA%2Fr3EXaJ3KdG--SPx3ljPrNtKb9khYnafYa%2FA948yPSZgJ%2FJg7NeqcUypcKtPsGLCuiIMFCu62HUxiWPU0rLi1BDG8gZdA0zaXzrEqIvpeIg8wmZ50lGla2C92GEmwrYdsV2X5oks7l4VgEJ7%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866749603?_skw=PSA+10&amp;hash=item5a4ea8eaa3:g:xRQAAOSwK9NnmAeZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlPZncu0jzv985n%2BDtDxl6KeP4YQAp5VEHZSSANRj0kiP9AYqL4vr0XqRE6U8ZOIHG4JAYpeAeL%2Bjec2QSlowF8uHaEon%2BfTxDX7s9delrmXk6%2F3XimNhvRjnx5CeQC0Rf4uw9bPdpbrEjLzcI%2B4U%2F4n889Q3yjAyMFt306lVlC3nbHnKerGNm%2BFjwsEeIgCR1u1Q7b8L12Be0NC9VLnlJmSZoZd8B2jvhrzJoYZSaEAg3KbAvGAv8Hb7E9X155U622YAFE5%2FFO9Jlh4VrtT5IC%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387866749603?_skw=PSA+10&amp;hash=item5a4ea8eaa3:g:xRQAAOSwK9NnmAeZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlhDmjd9Nl491unCd7TpY5599F4IWWFmvZf8t1oD9HXQYMVzlxwpRZp9M21PqO%2B37ymERf37f2I0JLvvn62FQivWKvD%2FX2yp2hKChjYYOoh202%2B1G2wv9tANNywF5zH7t82FYHmALj%2B8xuKrImiPyKSYZg%2F5%2BrjcqkFtjfngtUbQYDjtA8hJQgAITZJmYRTUmhhas6S3ImhgH5qeW1OgBdEqcPmePuYguJ7zeOAmORcew%3D%3D%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366952090?_skw=PSA+10&amp;epid=24056491480&amp;hash=item551191409a:g:dPkAAOSwsvVnl~zN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmYbMDj5iv0gzg6E6v3Ysd8rZfda7YhO2AehzZIx5f7%2BXaP3j3%2B4qpwqVIWTyRELCD4YDJ9OGhYV0EjPmayLH74sgvhI7ncea4zHervPcFR8L7zFcUaF6QjOQ9PQDbkTug98xuuzXTXsQfySqqxirp9Ko998RbbVQkyA9fZmUMROMUUuDkGlwIVEnxfkufb9MH1uBp83leO0FhXV6C3OcgUGOSnBZrF33Ec2QLO3g9xQA%3D%3D%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366952090?_skw=PSA+10&amp;epid=24056491480&amp;hash=item551191409a:g:dPkAAOSwsvVnl~zN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKljXQEfo27r5wrh1N57UyEpGBR6WaTqmXD2IGwgLEuF%2BLEhL32zSYKel5zR78AtdIhO0Y5gV%2F4gGMWIyfurt91TAsTo91P1bW7lvitwrbD0F6My8RupW3nsLXEfS0Oyxmh4%2BluHVyI7jpDpCYHr9D5UDzmUMFWL87fyRmNCTYdu0ibeUH9t%2FrFbrB4t27TxKn59hajRrwE1rcM1IeycvS4GlOZzjq%2Fw3OlBPdN1W%2BCSoZHPZHoVAveBPsb8qhmVDOvq6rQ20INNw13n%2BSbzFYLG%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365377807067?_skw=PSA+10&amp;epid=27056573632&amp;hash=item551236e2db:g:e0kAAOSwIStnoW-W&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmVU6g0W6RXEuKYAOCq91Y0YjtRZ4PHhdqKtyLZ9%2BJhhlvzMd0fP5QOB5l0KMYfyhtvojhAYCrqvJST8o%2FwyGkWzDkIhHGphewsgNoeSnkPIg7hdOMZBWawA5eSEyrJcSukqs4UEtkSuQ1wmWOHlZcLGOgQFwskAwFIh5FEM%2B8PjhgEZjfMys%2BrLPdKh6arq4FShxuOKSM5iF2v5GuGV2cunotAf1XcnrxibjMuKz5AVg%3D%3D%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365377807067?_skw=PSA+10&amp;epid=27056573632&amp;hash=item551236e2db:g:e0kAAOSwIStnoW-W&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn%2BOPqLuuDgk35Px8B6xFwi8tpqvYxTGEcZzSBGcPgNv%2BLJJsr9KiKMtKpA2UkoszjvuKm9gCQRLc0qKy1dXbLivb7MSh4H%2FaZ9jGRfXnAcbY4IEBN3aytPtSVOhr0dNyKxP4B7THSVcQQTdW80Mn73hh2Vt81YKoTfl3vmUSx%2FNYIsO%2FA4st2ciR0JZO0Xpo4Xg%2Fn7wwAUmrp8crRj9o7MWXrOdk4rsbrOi51TrVRH5nxcFYugMLSvfhKDmtwaLOjR3rA1Nh7PI4WbZGARSZEu%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256803076147?_skw=PSA+10&amp;epid=16056505914&amp;hash=item3bcaa7f833:g:3WgAAOSwActnn-Zn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmM1mx4ReZstArVXJlX%2BslIxQdYKtP7fSjn0zXiustW4T%2FSZXQy%2B3KreiFqCzd60jUpN%2BZuVy%2Fcn9AcjOsL%2B3EirUbb3pRwNPFM3OwpP9ioNwslvzaHlQYL8rtSAzdNen%2BBj%2Fg35DwFXnQn5twPbUIfGoTjvlkFw9szAkh33tu6jOPWdOvWzki6%2FbW3Q6XpW7U%2Bf8gnojYqhkemDe%2BC82kJVE03cQcp077%2FupbXVr9cAoFBtN7p8BAUc1S0hs%2BYztWhAwraS9iamU%2B6kAQdcnDw%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/256803076147?_skw=PSA+10&amp;epid=16056505914&amp;hash=item3bcaa7f833:g:3WgAAOSwActnn-Zn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmjgM7hbgQc4E%2F8uGLQyC2T95TXaXL8wYnVw82rShNFhuLftmGXpsPnodKpRa6SN77Cx%2FxB3ZkpoEg%2B0y1VEUrWdBlMihSVsn9QsvQVGqWtn%2BgrL3fFaqnMZ09%2BuFEiDvGybPqSo3wT%2FieOHGfpKpc84w4IgigeckuoWX4RmgNlLdiUJxrHfTdil%2F7bu2YclV9rSUWggoJ004zU5PmoLpwokhJT94RCSBIL1ajvxllCbA%3D%3D%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286288102305?_skw=PSA+10&amp;epid=23056505401&amp;hash=item42a819c3a1:g:sowAAOSwPylnmEvX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkI33kuChPs0%2FmAxuP2W1dp6L30XqP%2Fc24S3KrrMNLGzjGFx9R2eMx5kfrjr6fdccO6pbEP%2Bs3%2Fnrc%2BE0l52zkk84OMfWgzyGv%2FEuUOZYjpr8MujHTLtMZjF%2BNNaPCo0Af6Mv8Ntd%2FYZOspTNXJT5XVjupqug2I0q6yYl6B6lSbJ5O0Flxg%2FNGyfejZkRNAWqDSsdnQs79BQq6vMRlBvp5wBrOSKW%2B1uICOfLnpuqrclX0EXuLc%2BbgFQ5pEg3U6v3%2BtIL5G8NHBO2Z%2BDRUJdkty%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286288102305?_skw=PSA+10&amp;epid=23056505401&amp;hash=item42a819c3a1:g:sowAAOSwPylnmEvX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkI33kuChPs0%2FmAxuP2W1dp6L30XqP%2Fc24S3KrrMNLGzjGFx9R2eMx5kfrjr6fdccO6pbEP%2Bs3%2Fnrc%2BE0l52zkk84OMfWgzyGv%2FEuUOZYjpr8MujHTLtMZjF%2BNNaPCo0AcJjOSMeI6NKwZ4vIrik1%2FA9iXfnB0%2F7d4SxYY49zPbwgyrCI0EslLBBzwJDlEEBTWJdpGf45VnC2q1uzKiOLbnQklSN4JxJJ%2FoUorFkXlm1tv1yJuZjsXPoV1ITkyrYEUodMnHuOcxGXc%2Fvwpx%2BvfU%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866416849?_skw=PSA+10&amp;epid=6067704281&amp;hash=item5a4ea3d6d1:g:~n8AAOSwewVnl-Kt&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnH%2B%2B1rKEcGVPaCyfpGNHQk21JdM2mIq9%2FnbXDXuJz80Qt8Nr8SIkGMUNo4%2FPLmPNuOmZr4louDrnNU2IF3vNLXaNqaOXLer%2BT2rOegwKREY%2BEe8El3T06HJdlAPwIqdLJebx3u23v%2Bslm5HP6dAx58QHt2S6GUogVqe4zPr78x837SYqoklgqemrJjhZIh1ahOP80N9vMhKKDUbWMeDIXy4ku4DTKoQpntTTpxk6D9Sm6S1przLmUIlZmcTXBrVZ5UxhqYYmgNKuAXoxeFu0WD%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387866416849?_skw=PSA+10&amp;epid=6067704281&amp;hash=item5a4ea3d6d1:g:~n8AAOSwewVnl-Kt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlnLIukbiCqiw3r8L7vqEnepzTyxLl9zPhhaUuEyjq7WaOrnP0iHET9%2FtaV157KHMQrB71FI3J5061ARJUKVqmhm%2BFlqqNPu%2BYT3zJ%2FWe%2FL6VE56r3%2BQZdK%2FfYratLr63ysBR7aunLQuzLszT0q48HlvUkEKELUDNVPsasf%2BJo3H8K9E3AQv5D5GrlAd3xa%2BLbmpX0OsN3wLLcjEq61AXr9E2LYCLNKc7JgUnhxHxO9Gg%3D%3D%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833370866?_skw=PSA+10&amp;hash=item40748e02f2:g:6DcAAOSwh2JnmB4P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQW8gOA8oG7nT3x8mQfYCfM0IZvnAOALMHUnjx5gvnVOabIpoENMmcnbPtWgHXBmYj80ZmGPAqxC3DZO%2FVTKFGO4PcfpixtG81ZzUuR15ZoeIkMP9Lgw3uMYhO5hIKazIptwIG35ERcBFAy30v6nxsZBn%2F6ex%2BDHZx0d5kEuRCVz6ROS2DbUnZ6qM4Et%2FbZNxmtGwlEJTyeKEcbBIKzXd5dcXdtPz6zcO2PqotTAQs1w%3D%3D%7Ctkp%3ABk9SR-TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/276833370866?_skw=PSA+10&amp;hash=item40748e02f2:g:6DcAAOSwh2JnmB4P&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlLIoqO2yrRTMaXQP6nnZXtQ%2F3%2BMrqIuAB4tkwZm7fh5A6Q6kQCwGkXUb%2F5epP0VfijBxOYfGQFJfi%2F2NhjJgVToQNYk8YfQXAJn0sqvdEWfVruuxvf4bH21pQGDabiA7pm7QQZ9EMJRIwrie9KpeId643lc8Mih9hmqtFdIlL4x7ncWWGKJHPitoeuzI42spGOvoMVJpwNgXHLLdJCtqixy2YErwbQa6k4d06NaoIjurbv0wZD%2FoBVvFZjq%2FEhQvV6Z62AD1hZJVmp5Hg0G7FN%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366948495?_skw=PSA+10&amp;epid=6057240429&amp;hash=item551191328f:g:fewAAOSwJFdnl~vA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlrYYpe0B4DSo6NqBLgkUE32Vdn4pntMRQAW0lOK6r2U9gxO9Fmusd0OgXCRpLwao%2FgYiRPKRZaJT%2FnOfaqBEH2sPjNpcpVlD4pdRURlG1LMs3vekDapkrj8I51mn%2FBFJODo3AYvBmmXzQYWejKQ15C9b%2Ba6sHiJNBhJMAqO2aEmXM3yCJFXZFCcSzCqTq%2BJHsdpvz72FYiBGqafPDdNNs0EZCiRMijdR5jeKKwqaaAz3dqpnWvL6GWe2jVSO9coR33D6ZA4loZy8k8HgNfHT2%2B%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366948495?_skw=PSA+10&amp;epid=6057240429&amp;hash=item551191328f:g:fewAAOSwJFdnl~vA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlrYYpe0B4DSo6NqBLgkUE32Vdn4pntMRQAW0lOK6r2U9gxO9Fmusd0OgXCRpLwao%2FgYiRPKRZaJT%2FnOfaqBEH2sPjNpcpVlD4pdRURlG1LMs3vekDapkrj8I51mn%2FBFJNUQMfN9oCcwyUuGhmaBpB2YKq6%2F2VffM5CA7mUXtYGHmgsd5Bd0V6mh%2FjuFEAbC0tRSWkCPoxfsHp1JI5PUrZ5A%2BwjwrvVTabyEyHRypn9L7QT1KEkhLxQjTHonzcTVCLUkvnSGQgD6Ne7f7egkFMj%7Ctkp%3ABk9SR6KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366951446?_skw=PSA+10&amp;epid=15056566268&amp;hash=item5511913e16:g:I8AAAOSw4-Vnl~yE&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkiXbIMyEzhanJNrF7WwFaLtDs8R%2F0iXF51ZiXS5ELMCHF5gofvdqdFlgQoLITbM%2FMTtE9lx8iOt9J1NLMdwtlg3F0FadvRT8o6VFQ%2BLlMWds1L7rTzLYYlk3jjGOcxa90uis7gz7%2BXrPNaujaxQhwxlZpVXD7tm7PTcgREqODc7zJCfOC%2B4GNpgxPp1rSAkJGui3ZWz%2F2ZRLYWFF9ACbIgrrRIz9nXkmEVHyuUNMisWA%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366951446?_skw=PSA+10&amp;epid=15056566268&amp;hash=item5511913e16:g:I8AAAOSw4-Vnl~yE&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkiXbIMyEzhanJNrF7WwFaLtDs8R%2F0iXF51ZiXS5ELMCDgDnk9bJJnhWcMnRrGlKHrI6lKNwuGqhhEk9JL60nJcEKmz6SYKqFrlKzp6EUErY8U9oaiKENiXciJCHfuhFv9OsEfLh0swGhnXmrMtht9fE9dMsrezG7JemHJDjnsPghX6Bt9cHcU32kaSaxhGhw6I3fRlvY4nzkDY2ln40hyrP5R4oSM5QHo7PhqD6MQFjg%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911138736?_skw=PSA+10&amp;hash=item2b84c5a3b0:g:pRsAAOSwhqpnk9U8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlUvAbmn1c3BV%2FSs0QLjOp3UF8An1giQC5d59zKnLEdu6SNpknTlYS6NZeKBbBtcqsGE%2BcbH%2F9INdg2Yhp026Z7h4LKdM%2BWZgh4N4QjDUKrf%2BlY0ELpj2y4%2BJJWtznYsrJ9CHlD3vGdPXtXpjOd0OGAkvHCRXuTIY9kt4KRVnbCu1ZucuoVv44h6UzY%2FBaKRrw7jY2t4IisJLP69vk6YnDv2U18vwi%2BaiaqRMEJN8WCMQ%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186911138736?_skw=PSA+10&amp;hash=item2b84c5a3b0:g:pRsAAOSwhqpnk9U8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlUvAbmn1c3BV%2FSs0QLjOp3UF8An1giQC5d59zKnLEdu8FjFNiM%2F1n2NPHo7F8GFAtOhbtMRoPaom3PhWHp4x68fG9AYvz06LGY0cMesIBdQTB14b2q%2FEFuLg7bf%2BuiW%2FN%2FgzA2VNap59USx4o9%2Blc0REKfwJcjFNuBDhGHIwjpIgume1JXZqGiTjtnFIHnk9aR1%2BB96hsI81gtEEnmQUxYvltSB%2B%2BaUBMwb%2F2qDBnDIw%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396170044168?_skw=PSA+10&amp;epid=22056550426&amp;hash=item5c3d932308:g:IBcAAOSwhxFnoCB4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkFlwV28QmSrZda9nb1%2B20LBxJKTiQRb6s2a8O8gMHwp7KionLQG807t0G7O2s35cVNI6HyxSICJQtau8zEGqF9xrCqo056u9P9heYTPLjgodXr%2BVH5K%2FNy77htpxrDZRZTPgKlcdtXvZSQhcmyMk5HEVlyp13yMWdiFx2aeKQEQGzdeOhteBKVAH9Kt5d9qXiIH76dkNZerZjO4sBUKou1%2BlwQL52HJ7cRqOZUgGKncg%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/396170044168?_skw=PSA+10&amp;epid=22056550426&amp;hash=item5c3d932308:g:IBcAAOSwhxFnoCB4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkFlwV28QmSrZda9nb1%2B20LBxJKTiQRb6s2a8O8gMHwpz2EGhSkdymfO4chmKezNSOGz52yU%2FMVQuopXmpt7WYGxx0erkjSufCqy8IMaGvfX7BdG4ribN2zZYdOXuQB68xq8XJXV29h7KQNw7w%2BJCPi3cvN0QPu%2BkazGmgOFIUH0%2Bv4kBt530WKbUHnWMDAxs%2B6AFH3RinYj6ziV9ImFvfc4y5r4jFp0xqtaWObUiyDSg%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911138288?_skw=PSA+10&amp;epid=8056533199&amp;hash=item2b84c5a1f0:g:AIsAAOSwewVnk9U1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKla%2FYHKtpU2c1n9Sb61HTyrywTnVn6SrycUIrreSCyuJAC6yuFdF59byhR7BvcW9NEVlcpcVGPXO7WcIsgaLXv5avGmLp%2F6Ucigs%2Fp7alnTAxY5dAbksNSaiunUwChsadkYqZifZYIasmL8z7zxaalrltSg0aFd6sq9nykb1JkWQz%2BOTZqpK3k%2FtNEckRqgk3V%2FHsyPbEO8gdkrl%2BkFsWnO0GDCp8bG3MsWqq4rYFn3LA%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186911138288?_skw=PSA+10&amp;epid=8056533199&amp;hash=item2b84c5a1f0:g:AIsAAOSwewVnk9U1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKla%2FYHKtpU2c1n9Sb61HTyrywTnVn6SrycUIrreSCyuJMdy%2FPB%2F0O72I3RYA59RrOj1hy%2FQg0pd%2F%2BQrVw920Mi%2BEaiQMTRyBIu9pWltOTPN47OjIsbc24soKMr8M1kG7QHJxPR2PU46XukHlMnMEutIWHH4NJ6KqmXdxywcSEit8qqo4A2ixyv%2FmY6pGOGVoO6wMeKBlXTO48fh3%2FcHfSWDsI5lAMeJME%2BKQp5Xpkz%2BXA%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911137709?_skw=PSA+10&amp;epid=16072561429&amp;hash=item2b84c59fad:g:GPUAAOSwmGBnk9Us&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmZTtDu8Z7ww5X28hU457RCbB9A6R5d14T9DoV5vVdHy4QoXyhhGdOualiXo3fwEq2VQa9KjlI4NO9vV1ywNaJxhJ0Hx%2FcNCEPKpAUw8BwWjps2DJxL8uL8lT88sAM5HRwwEovLqoB0y224fRB8sjgazvbbW%2F%2BF8kd2qHU6oj7XK0sz5I%2BDWS9MOCDBkP80IgS6k98McK5dXDm2DRo7MkVcEpfG862RNpip08by%2B7RDCQ%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186911137709?_skw=PSA+10&amp;epid=16072561429&amp;hash=item2b84c59fad:g:GPUAAOSwmGBnk9Us&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkSb6v2TWFvn%2FsKQ3J0FdWjuCsxDGqmAsUuqaQSEn%2BSNrq5s5i2hD%2B%2Bd9k18xJAyli7gByFAVBa822twxUW7nju43c%2Bop3DFWcLMAOVdM1vG4yOihz18FsFdRzfAUazotovpAxyFKD4LEYbUyPeINx%2Bg9p7xVSQN7UIpCu%2FSevvk5ED5BKW5zHg3CLJxf23%2BM04sUmsi7p6knU8CmPKV05FMxsXWyX16WTEns95kIlvlr9jBo5YpfUZYChzTnv1P14rwPWZKjdOw97KNLBCSKZ%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911137199?_skw=PSA+10&amp;epid=16072561429&amp;hash=item2b84c59daf:g:uv4AAOSwfu5nk9Um&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKljmoqkaszxtSEI7%2BDKfeFvS4s99EnnQ3U1qtag5tAxndUqjKRQnLQkX%2FwIv8x9l60ybGh1%2BxuQKIWq5fbWdKTEqR8l9crSK1pQHmK6ovy4r968rcEosj4VbrS5zKca2x428y39hABWuhjPh%2Br5dF0v%2B78EgrLI%2Bw1CoZTjmQKuI2DShFmGWOpdLRL9qmCiod7T5u2TbD%2FPMOYV7VbSGeyHMvWmG05zY8wCsR%2B0Q1f2UIW3ri2Utp3QgYxVx2PfkzJZws5K6%2FzajEfeXCf%2FxDT0%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186911137199?_skw=PSA+10&amp;epid=16072561429&amp;hash=item2b84c59daf:g:uv4AAOSwfu5nk9Um&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk9CZ8Xqb64J0sUSY0%2BdXO%2B2dowpJcJVFGJEJmIFmF500rJmSJn4YGgIftsBkXYkwO0TcXb%2FcNWU6NZEpfxrr1si9RJB185m4xU0yY%2FwZKwogx%2BXos%2Ff92u1ve5vOi1gk87dB8mZJqjw5SX5n3qMPMm84JhwR27aeTMd%2FSlkAEdFscMGH78w%2BqtpNNEf8x02LV9rGX7fn%2BQY%2FfYfhXyJLfb2x0bsskKtC4Tm9izhkUk0Q%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911136175?_skw=PSA+10&amp;epid=11057401624&amp;hash=item2b84c599af:g:93AAAOSwC0Vnk9UQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnOMQkcPnhwDyTT5IQh67CjK8Z2g%2BBks2gFju12SJOCVjdO4SUFsfFQ1tWKyfIP0UDNTxcPgd8SKidaU3gGoCDtaU14zq3bBcakMQ3EETKjGeXgj54uzLSMuhn9ewtQyyr38due%2BpfnxAW1cjbtUosVYyqfugsuzzP4iFKYTlHXQe2MnqOU%2F0Tdr23RLYAQ9ZEGATWTNaIebpIL3jWuSz4uy0RyftuPvjy5TGKySW8vBg%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186911136175?_skw=PSA+10&amp;epid=11057401624&amp;hash=item2b84c599af:g:93AAAOSwC0Vnk9UQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnOMQkcPnhwDyTT5IQh67CjK8Z2g%2BBks2gFju12SJOCVlYkzOD1DemouFC9ofn%2BtbsR0kgWD3zNgO8DK8Wq9OUmeii3O23%2FIVCxpupMLAdkp%2FqXzS5b9I%2FVxq26KO9oebtjD0umLJzfJyaTfh95P3CGMQcVvRyHRqugcNSKwDTlWKJFp4mUnk%2FF0oH4YmTs2dknUUx8JR5awZRFGLuR9vwy%2B6GN1axz2IKeXWHJpWaF8w%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335793889534?_skw=PSA+10&amp;hash=item4e2ee020fe:g:T2EAAOSwE1pnnttf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmAKDRMRtDJZ0hQ3MIRsyB73ufGdm3EMtJ%2Ftc97NNwpjSH31GCoX172UxP%2BiFYBGDG%2F1ElyEXuttxO9O75KrQt%2BAVGIIMm05CjkMhOf1aiajP9OrFakqZ0Z6%2BtmaOzCgHoH2d7Q23j2xDm9dpThnggWmPN6j%2F1RbUXAQqCoOl6LiTyGT2fYnd%2BYlE6rRFRTY0EpUTb5JIVOuhb0xkmzWjPkJuyXgKe7Fk%2BbnqfxHvK1Am2kFiaTnu3lDlN1DJ6SNUF%2F15NkJIB%2FfSE0vc%2Bt9EeJ%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/335793889534?_skw=PSA+10&amp;hash=item4e2ee020fe:g:T2EAAOSwE1pnnttf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkE6E1yrx1q7XmoW8nA%2BwNXEblz5UB1BWG7c1r%2BqZywGgPmP9RFxSN8e5MjGzE2KDxzWq%2FY7wAosdoAn%2F2by0XMzJrhPTACXYXxvmms0yz2tF3pFnsb4KrXsNv31n3DyH1Ka%2FzWGqXI26ubM98KyPRrJcJMcHWOPvMwGE8umCzAGljGyThTPmsajmgl8LVjbpAq5T751CX1SEgYcPKtZ%2FUUEYNfvS3bkKPsBduaUGvJVA%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958493901?_skw=PSA+10&amp;hash=item5788df5acd:g:5ZAAAeSwcvZnmrWh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmU0l2zRr8i8SBiMmnqxE68ICEJQxT3LZ2zniPWmAvx%2BRGQfD%2FHMXN5PBK%2BM7nRTckRs3Sffy6R98Ui1QQ1Zl1tCQLUnvSNIrUbkPMhnt6tKl0IjqrP1%2F%2Bycb5PM%2FDraMtLI4jRPT5G6Wr07pOSAJw6%2B3gAzIg%2B1rnWm2a%2Fdt%2FvJxu6bvHXYiVvzIp55QmsXW3i9iEv2gKus8NBf%2FGScxb26nxHOvFa9JUSrcruc7Du5CZY5Vuhqz5niFl19R2bUpyQgorlW8AJtzo%2Biu89vGf6%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375958493901?_skw=PSA+10&amp;hash=item5788df5acd:g:5ZAAAeSwcvZnmrWh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKngcOZ2poITLULsA6VjqEHSos5Je0a5%2F8t6zVX%2FOaAMcSWfQJ4uvAHYSbNJ0ITUAPgxWHEMmlw%2B1kD6DeQwBKlehirNtQGaax3NlzLKZ7vkwZxTpGaJowcD9lU2DgucLXS2nrukmQirSYdSgfp6UIy%2BMwxYnD3O%2BDYyYPsNEzf5LGttq44O1DQS7QutpEmHEcKH6mww%2Fvqc73DcXnqoqikreij6UiHlZi7fsltrNWHh9w%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855768743?_skw=PSA+10&amp;epid=28071772439&amp;hash=item5a4e015ca7:g:7cgAAOSwpU9nk80n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlz%2F%2B4BFWtdEnD%2BJnnPN%2BKlGtmyu8x6qrQZYJrkIzEobvTR52pTVHyTb76vRW5%2FqsHPiFXdb8zQKcadfSkfvgDSWnXGu8mzj%2FJJQT3YAvwOfrx6yqp9%2BhQJjfO3bmsCYy2oTPvjjUf%2FguW1Q2u8F0tPZax6GD0hrxQ%2Fx15MVzCcadETLgsKp%2FUks22tCco9vizYKgz%2F3zDQV1ETvJQsyYQeHKjHeDVm05Lb1XWh4gaIKw%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387855768743?_skw=PSA+10&amp;epid=28071772439&amp;hash=item5a4e015ca7:g:7cgAAOSwpU9nk80n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlz%2F%2B4BFWtdEnD%2BJnnPN%2BKlGtmyu8x6qrQZYJrkIzEobkN5X78uOyz27P4iuTZu2DbJLBy4fXNG9e%2Fc8vACTA8hDd6HgJlisEbpIRPxgPY3J800iVpKkJBG6MY8Xwc1oWTG60HNdNJ8KRD69VLHtCy3bnQmS8NsRo%2FgR%2FNzYXed8Wdzg2EW4eaCR2CFpbeqzxtRmOF90UHoUHP4F1MowI%2FewbdIsJ%2BhbE6fShMEnc1ELA%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205250327646?_skw=PSA+10&amp;epid=7056535153&amp;hash=item2fc9df745e:g:Lg4AAOSwYw5nk8uh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmHu50WCVG3uAgP1Pq8HN3Z44WM8v4o4%2F0qX--VJiVHGIXhllxcdRQmSRvz9iiTwXQDjYQp0mk5s6OJKR6ycif2saYEqzUVkcVCPE5SAg6PgG0KZRpAt6oUQXHXISpg%2FOujfZdvu%2B0ozPpgTQgK2miaiCY3EUTDWvyw4FbXBEu5hCUv%2BsYupZxoz230vypD63ildEuaIzS3lTTRUyBM%2FCsgztuXSFi44dZNuxjuAk8Imv56Bhk3iiJmpZo0cxrtXhF2ec6es8Ezs7u%2FfJcwIj6g%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205250327646?_skw=PSA+10&amp;epid=7056535153&amp;hash=item2fc9df745e:g:Lg4AAOSwYw5nk8uh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn83oEs1hqPuU%2Fu1kJ4x43kN9vpLNoTnrgNWH%2BgKWnU7GrEUGu5cwNXfPOttfpmse7sygYdTKsTlz1c30%2BJPabP%2BzewdE1S9GG1BsvIGWuj8CtsP4YrjzwloLO%2FvXY8TIdgpNGVqCgPK38qExeXf16ibel80oy5s4avGGfkTGAAJsQk%2B1hKY0Kt26ds00%2BJ7sMH7Dq7%2FWwt%2ByzvD2WShmhwilg7KfulKdixjgQjpGW%2F%2BQ%3D%3D%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866419912?_skw=PSA+10&amp;epid=18056557458&amp;hash=item5a4ea3e2c8:g:gn0AAOSwFH9nl-Mf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm2yP%2B8S7%2FCnRVcgRjvke%2FQsSdC%2BhXPT08si3iKK29rnQmPBcEjpDSpVoSvEV8ih3ZUGOPiyvEqCSyXL3dkUTzlO6OWZWTvfRdMHUi%2FbPZ37APTMF78J9axiy1t77byl9nS6AfjTPMsqPtBP4lnNM6mWlzRzFDw9r8tfMMDQZfRgHAXff3uHKxMY9ogtQsPZHdjz48GqmMtyy4ZO1NSsnvEeVHCviwYlTq3%2FxeOcH3P9Q%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387866419912?_skw=PSA+10&amp;epid=18056557458&amp;hash=item5a4ea3e2c8:g:gn0AAOSwFH9nl-Mf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnE2yydDY3MkQdayoWj29RG3rcB0WR%2Bt1IC8j4V4Kvw6IeAFRBEdeq%2FvNIzMxfWLZmsgp9xVdTqSCAeMnXiWDOZELrtji7EW01wkjtbCiBhjY5y9cHAGkOqLUiNqS0ZgboKwDKx2BhL5Otxv31Scas%2B39BphHDdkruMDsjnEX5bdhiuViBE3HvWjlJQ%2FhsTdvk3T4SdTja0Q0QXEu%2BFXRK%2FvA43TndeuFX%2Fe5F%2FYoXoa%2F4k9nFI37IcXXoNEwhFBfJkR1YFyRwWk57Oe70E758U%7Ctkp%3ABk9SR6SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205250327645?_skw=PSA+10&amp;epid=13056517569&amp;hash=item2fc9df745d:g:qVcAAOSwO~Nnk8zF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnrvcYbvbwBNkPQ4p2e7Ya7C2%2B5jfQUTXwLgPFcL8KqWws5spRVWs0diGKj3A%2FG%2F6dvxe9qoCuDemq1wn3mWRExRmplNsnn7VezBhZCfVpG0G%2BIuHwsoSWngSJ7XtiZ88qZYPj7IMvgL%2F7KcZvzY7LmtZQmFgCEAL7n8Dklsa1tiAfX79aNLNJjRBmW1ctbMqmi%2FDps%2BU1%2BrLl4mdq3RLRqceXNLQ66ojN2pI7ekjuJVg%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205250327645?_skw=PSA+10&amp;epid=13056517569&amp;hash=item2fc9df745d:g:qVcAAOSwO~Nnk8zF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnrvcYbvbwBNkPQ4p2e7Ya7C2%2B5jfQUTXwLgPFcL8KqWzI0P7QqPUJkS08SzlSezwzW%2FX0kH5LorALilJze6b7ADmzhOAMSAQHk3JPezXnQNBw1TzydnEqC9a6ySjwDVKIZF%2B04Yopk6ZOYjTe5%2FcZVcBUGYg0IR9aQNQIaIBM6ZLfWLTCDLUsh30%2BlWCpMQerUARJt03YI8%2BOJmNLl9Tj%2BImtF7X3bR3V0lUFZRrUnWw%3D%3D%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176810772106?_skw=PSA+10&amp;epid=23056509821&amp;hash=item292abe468a:g:1WsAAOSwqOpnaa6o&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn6S4frStVcn8LhN3hX60UOozBlddKP%2B9uox4Putu5Vyd%2FEccJiceB2Hqc2VuSQZzPdhBG7VE7YeIqMMwltA%2B1vRDVQ7NQTxBbXpn45JdOyQvogK5WHstMxCkaOJxF2cWblHv%2FirC%2Fp%2FOXFvMav1FTelV9G2snBDnvZ8XnpvA0w5b8M3CpgB33o0jcyv%2Bby6FrtZ3UWxl9yleCQhYy1oo65ria0sgStE%2B1lPuJA4f9ecw%3D%3D%7Ctkp%3ABk9SR-bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176810772106?_skw=PSA+10&amp;epid=23056509821&amp;hash=item292abe468a:g:1WsAAOSwqOpnaa6o&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn6S4frStVcn8LhN3hX60UOozBlddKP%2B9uox4Putu5Vyb4hjtak%2FKOtiV2pmcotwesrzE5rpatUq9XYy8JZ5mbzFJiTewVsrgiCqU%2FvG%2BE70OtcB2Azt5ENkdhlfjOw7Cr2W%2BwKeEdHMeZKkK5G4KZM%2FJouomw8IzM9u6NoLklmauruHpxK0KIz69cTYMdHImgRMfDVqocY%2BWLSoay%2F6Q8KXCN5RmN8T4tFDvLPmq2Pag%3D%3D%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833373554?_skw=PSA+10&amp;epid=8065159884&amp;hash=item40748e0d72:g:FTEAAOSwESRnmB6l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2B3P9uxIE6scx2T8I%2FOBOVJ%2BZPabOPUxqkqIh5ntttPs7Ohuzc1ygbtWpTx0Ox74eBdQa4VasL%2FkxR06AVZyQryLLCIK%2Fj1ONHAUuulCGycuOk%2F7mfJDOnp3BYKtY1eOuL7Aq5m%2F57UHNF4SVgGPx9P342MaKvh5djuUmqJugS7Z7acVU46VoSoBLHUoMG02WZIFRxFR6STk%2FXHm7Q5xTFSVGchiVrOU0ZESVZSUZMlKXmLwZwT%2BiZNqBt5wcrKyGpiyIXXPxAUsiHIrUuyD7r%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/276833373554?_skw=PSA+10&amp;epid=8065159884&amp;hash=item40748e0d72:g:FTEAAOSwESRnmB6l&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2BVcjHoUHXczwC0Qh8bbBDKE0eD2g%2Fetes5o7u%2FK20xqbUbp86gJ6fM9zOAQ9MjSXF%2FkxJD0wDLXB9QWImsiTORkZMxrEv6Az19fTqd6T6JAonTTFmXfWUuhm5Kaul6JZy8wUF%2FbWDqnWEJDGx2uZ%2Bd40lmDDRt4OksdwO9alK6wtjmQwQfZUcX7XWeiy5MqUtKiNLCToHFRS%2BYYlioGVN2QA6GrDUCN2f7AaOQfgmTQ%3D%3D%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947401842?_skw=PSA+10&amp;hash=item5788361a72:g:voMAAOSwl5hnk8LI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlVXkUgp8zt90OjIBdn5BtS2d9OtdUfQVUaFXVabq6y2wyH8Jz8gpsUf2NX9t7NYLYuBIqeWzr%2BiULlnSGAI1yLGY32a%2BsZDZ45LAaBLYgVPQZG8SY5IA55dGvQ38x0R66Qpf3ymYDwuy3yKbgidmbrMsL4v%2BgDgcTQUYVcBpvDnLqxqk%2Fyer6wG50hTlvN179tOh32ApbGNwkCI%2BhDJeqIyvT8skN%2B9iBLchJk4CpsAg%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375947401842?_skw=PSA+10&amp;hash=item5788361a72:g:voMAAOSwl5hnk8LI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlVXkUgp8zt90OjIBdn5BtS2d9OtdUfQVUaFXVabq6y2wK2UQ934PuA1bQtNry6tjsB0GObfqIsV40l7M5uImuCzqWjZ7j%2BUiTwjJliPCddbxdI7DVkyGCQU%2BAyyLpLUnLMCfuU%2BSKc5Fj%2BWjtkYmZbcE6%2B4KMVz5IMEQc3V3P8QAkmv5R%2BAYYCIThsRy31Iccg1LTDyHkMbde2d%2BdP4EV06kETsDLDkPYgKdJsOy72Rg%3D%3D%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947433061?_skw=PSA+10&amp;epid=23057553923&amp;hash=item5788369465:g:zSUAAOSwpm9nk8kd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkbGHA4PEE%2F8pLstT4jorymtpdXqH1sCPcW2%2FX174oaIwbxNPBsaY1hl59vXzvDxC6FBuYZz5MglT9qGZexzG2sCqF2tKyCyZjwXFDxa7P0RBCGZ2UAzOV2kemzDA2wHmSveZdiKDhpc6oBJqQKrmZoCEqlO5vZzyLry5SslK1AbxEAoK58aRLt92UxD1cqaJgb3M0p2xxR2Y52DEF9amAK0kb6jS20AXYgvT3bnH1yDQ%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375947433061?_skw=PSA+10&amp;epid=23057553923&amp;hash=item5788369465:g:zSUAAOSwpm9nk8kd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkbGHA4PEE%2F8pLstT4jorymtpdXqH1sCPcW2%2FX174oaIyj4xibEMbtFLJHOCEgyM0gazZRlENQuerTCHBReviwHTN1WnuKOL2HpjPKp6w69gCTAZ6l2PVgHztOjixvtMzPfK%2BiYqFTkcT9pQqtsGl7ThODt1CGPa7FXUWRE%2Bu16atvmNZ4prHReGZfVsdhkgz%2F8yIj3YtIdf7JTlUwAP%2BPlURw4DX%2BmEXFwHpd9znN2eg%3D%3D%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947434102?_skw=PSA+10&amp;epid=22067690238&amp;hash=item5788369876:g:c1sAAOSwR5Vnk8ld&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFB1o%2FTtNzNYBMZ6Sz7DvPmtbCLXhHIYJyBwxOoBXCcI8MPHuIkMfnNpSEptWfnzyKyxXLli%2BKCBQuGQMLdxifLNFYxyjBejpPQpnd6kn88VjmXgRNOifWd8jE1ds2wrbrSV8W%2BSBusIPzCbzlXPEL9zt0h%2FThZKsm7nvpYVnE0cKHpB7Bm44uAbk8RDGFWuCGoYAuN991YptoDhBWKiAPwNH3aJi%2Fu79RiMOVCgKApA%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375947434102?_skw=PSA+10&amp;epid=22067690238&amp;hash=item5788369876:g:c1sAAOSwR5Vnk8ld&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFB1o%2FTtNzNYBMZ6Sz7DvPmtbCLXhHIYJyBwxOoBXCcKyXyZgyjDhIsZ%2Bo1jItyy38yuutTl6QyxNM1iCQbaZplmou1l3DPNRLWj%2FT8fq2uBfX17DmE41B73OOLn3rMraSHQ%2FeRHLVcULVEwoVF696CoCzOA%2B2i19sj433PajgwAMOqyIRczullPNcwN4kFMK0IJ10Tdf01Bv2dZbq%2FaW7jG9mweX0IcNTOsrA8HM%2Fgw%3D%3D%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855720645?_skw=PSA+10&amp;hash=item5a4e00a0c5:g:BIYAAOSwsdtnk8mA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnkJ2M4occsbvKFdq3TV87rqSEEKg%2FDEqhbqA9U%2By7GasP6Kn%2FYcpqXBIkAgNyLUldsbpQasiIyP27YMNoueyCNdMJrYqLUadLbaR43SxXf2JEtmvWO3%2FA6Y9%2F9uHB9gcMBost64%2FhImwcDQhma5t8FhE1dA4eCrs%2Bs4mBH1YEFr2Z9WVUXNGDLvMelr%2BxafJLgaV0S%2BemmmmQwAIKpqKKURH6k9QhOWtKBXGWBERYnrw%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387855720645?_skw=PSA+10&amp;hash=item5a4e00a0c5:g:BIYAAOSwsdtnk8mA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKleTK9eKG5Rf81eNAUmUG%2FBU27B5iPYNzmhcDt19TyVyEkl6PP0404vb1Lbz7NAoSLA70pMiBjUvpOh1pG90p7zTrr7tnEdwxzELdKloKhv8YDt1%2BmnZEqVVD2gA4owmeviq58SlJahjST0nNkOIxwALwjBnMpE5fgxcw2PqquQOHRgnnvHu02Qo1Mt1%2FtII3Tb%2BAcLcedur%2FXIOynuOn2CaGNzXuk5cD7olCEiKA%2Bpge40a56BQHEoiPDco3cdBo%2BT8NmRAmlPm7b8ZvF7%2FaJJ%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866054370?_skw=PSA+10&amp;hash=item5a4e9e4ee2:g:PKEAAOSwG9xnl7N7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2FKy2tqhh3GwPgAaJPDYggo%2F00X4E1o6O5DrsepT27vblisYK7p%2BxDpBOaEaztJM3i%2FH8pMisc%2BRKFi2eXnVXne3DJptC00JPgKysfIMTomg%2FOB3YbkrFz0Q3yyoeZePJo5qAxfUgjyGnj0FeK4PoLa25PD%2B0gd90Z2dITMZJGhdD4reGAmnZbuGASbZpkJ3QLi2cO6qGPPK2L0Hoy4ifAA5HnIMGe3sNGj4PYQhD0zJWxk94EVFWpq0Abc1ItXtnxVRpWqIXOf2X9IochCZG%2B%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387866054370?_skw=PSA+10&amp;hash=item5a4e9e4ee2:g:PKEAAOSwG9xnl7N7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlWmt9oPcMUGIs0Pvptj3qHBaI%2BNuGkv%2FydZGpx3RHU635XXBA2sH2BCnrRD%2FWuWAFlj3iTasPWrDicRrBTI4OqNtCsBoOuuOLJNShve5XYAwGTcyQ8V4ZUFp2KloiFo8QAC%2B4xdiWDQsaii1sLHxCPVa9HznmjLg0%2FzPpuz8L7DmoqsWq3LjHSaLGZlmS8tIp9e9FBuwEyv28VVcdAkjjI3d2FlczyE9qfxjYYgMxV9Q%3D%3D%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975262881?_skw=PSA+10&amp;epid=7056571553&amp;hash=item2ddca3fca1:g:G5AAAOSwr8Znk8X1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlp%2BUXgSe7tlFUDYWA37RC3QttvJJKJOBm9hwPBdpE81KMysu6w56H1yIhLZqJX3Hu4WxlTvQ%2B2nqPpImzaIRe54zT92%2Fhy8Cu%2BkHaJo0KS9mAjP5eJxy0n0e%2BScBbJs8fUjj4afwk3Pex%2FolD4rK5IaxciVkwY2wr1LL%2BbcHEiNtHIYqtvW880DJF7sr%2F9VGvAuA7XivA0hT2rCm1psUM1eUnDWdSr4ZOd705vFBCY%2Fw%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/196975262881?_skw=PSA+10&amp;epid=7056571553&amp;hash=item2ddca3fca1:g:G5AAAOSwr8Znk8X1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlwLHjXFtE913gR1sXYz4OHhDd%2B8R6tf9dYMzitGIPVlwh6J4OUDDx6mlryibxIwOVJcphBbupBmcuxqAv5ipv8hOi56FuDm%2BgnyT3INbNpcRQKbmmm8BDIQ8zl0HzEDZAKDN8Vugl%2FqQYMDXocPV%2BfGfKnF6ZAzxVmG1os5XQB1IDQntRAH5eSahfsx8WqB0oYjwwNP1mr0D2H8MHrrZMPV6B0JnPjLdl5Q8vOqVaNBZuWbgNOw710tvoOLGy15gC0uWMhVmQrrTRjxAmxCXN7%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196968154365?_skw=PSA+10&amp;hash=item2ddc3784fd:g:elcAAOSwANFnjV2f&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk4xUVxOFW%2BoHz0dSFtf2LIsnp%2BcH%2FqzbLjzPt91U0Mw%2B3ZwK5iv%2FsM5BOL%2F3Pb21Bg%2F75MnOnTsSO4XTBNAR9BqICEqIcN5eKnbH17NePtz9DNbkbaLYFpoQfu3wqyRTL7KYRQ8cXpSOAzTZ5yTKbCMiWE9706LdcrXrln2cQf5PxgV5qqTRxwGrE91blaeIiUBSbaS0uBhAHsVGypm5hKaeroedt4XoPUI7ricVmIzFTSw79WXNRoplKBF%2FBSR0CUh8bdmN%2Fuy%2FAcL6fbk2mp%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/196968154365?_skw=PSA+10&amp;hash=item2ddc3784fd:g:elcAAOSwANFnjV2f&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk4xUVxOFW%2BoHz0dSFtf2LIsnp%2BcH%2FqzbLjzPt91U0Mw%2B3ZwK5iv%2FsM5BOL%2F3Pb21Bg%2F75MnOnTsSO4XTBNAR9BqICEqIcN5eKnbH17NePtz9DNbkbaLYFpoQfu3wqyRTKMJN1CDlMYkkSUS2pofy%2BeezxDftFy5bzq1GV%2BtdaMb6g%2BRUQPt86LmpS%2B3V7UpcUdvJK%2Br5cXQnjRnnjHhh%2BnsRkdikUdvae7IVNKpXnD%2BIeUwoa2STx%2FxG6GFaCRuPvlcVYyqH9KmCQDLAC4CYob%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226568518085?_skw=PSA+10&amp;epid=24067683435&amp;hash=item34c08939c5:g:~-cAAOSw75JnmAam&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkFQYlNQP2lIOQhagL9NlndP9gF4Su6zGC7ZwlNN%2Bi2kYND3yXYPBZrPJ65h0h6UEcyICEtaL20IDKWu1DCibWdjWdjsJiKZufYX27BASWbyQDQZLbe%2Fe7seAmF%2B01%2B%2B5jQ1%2FR6x0QU06cUAFz%2Fw10JkrQ7B2RQfJIpzd6vqo1YyWqOxvSQ9KuGms8PDac%2BFz%2BNWT8lHsSj18jElwb8ClZPtYPCOULY1llxuuDfMiPFRA%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/226568518085?_skw=PSA+10&amp;epid=24067683435&amp;hash=item34c08939c5:g:~-cAAOSw75JnmAam&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmU7UrCTxGV4niPOC1y%2B%2BInGG9WRGjYg6K9h%2FS660akD7omUUMLm8oW2837XbnwZJ%2FQk%2FEaeCMkgzvsumoqy1NNCrKHhVUk3cU%2FxjH%2BTZOS6gDXAf0UJ9uhSP1LVmZhUVQmIL4jkRiOAMseksDt78xyvbOg3KSbHK%2FsScISlwZ2qW1OlIdZZ1TL0PeYxCU7s2AtbTkMbH3vG5h9CeDpwGJ2oHbR7EYHk9Pk%2FAufEDWInKK%2FjK0Wk%2FmtbzHjwsIY4sQ4wbt%2BEvhkXKSfV2QzTovX%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226568780414?_skw=PSA+10&amp;hash=item34c08d3a7e:g:p9AAAOSwoO5nmEAw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmnViowq8qexU1XQbMLc1aKFS7y2fp7zVK2cBBhLhYGVdqyU95GT4B7s4Fs7qxPScTWXVg8c36PMMCwcAA4ptwCqNx3y3sPiG6RgBFZW70CBpRRpmDfVypZG%2BaBEvk4Qhez21V8FdzoheuYWR1O%2FbARPeJB%2Fqa6kBZVpJCohRqiELEm%2B7vsCUWmsOvUoLT7VQneF8tgXyB4jxA4AKOY%2BMAeYEI3BOZq%2BsB1niFqJh%2B95wMA%2Bwl%2FepU5EjTzigzMP3hRWaFGsyy5RVmWe3ElHGpm%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/226568780414?_skw=PSA+10&amp;hash=item34c08d3a7e:g:p9AAAOSwoO5nmEAw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmnViowq8qexU1XQbMLc1aKFS7y2fp7zVK2cBBhLhYGVdqyU95GT4B7s4Fs7qxPScTWXVg8c36PMMCwcAA4ptwCqNx3y3sPiG6RgBFZW70CBpRRpmDfVypZG%2BaBEvk4Qhe6xcHh%2BpmtCXKIhnLL9ykh%2Bx9uOnvjGj%2BNAZied94F3VRcyIb%2F8Txe71udEJe4dWp7bxbXemyv8DCCv5MwVr6tubHR6mPvE8AS%2FFoFhT%2F0sxBMc%2B0j5InaYyf5Pt9qMNrabLZMocK4JMJl%2Bl0Xu1ci%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235932587274?_skw=PSA+10&amp;epid=26065684311&amp;hash=item36eead950a:g:CvYAAOSwWMJnl7~F&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldcimWrF6%2BQi7XJTLG5qcqf0145ilLyo4SOBM4wdeCsxTHJM8llDHfK2vMakZofcpK0Vy1cibPgLJM9hbqFETHpy4LMZT2xKtz8wFhs6QVE%2BzlY%2BzeAizpSmm13JjczKSX%2BBi4w4ZwRWBo04sRByaDHfQ7zb4KCfTeEhpYprXgPxS%2FDOjwTP4oLOq8htcd2K3%2FdrVfGmHjZJfaE3HTKwRBd3R26dtihbtwZf8yGhmSsw%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/235932587274?_skw=PSA+10&amp;epid=26065684311&amp;hash=item36eead950a:g:CvYAAOSwWMJnl7~F&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAAau%2Fy6j6X9oR8XJrOrtd1vDPFwSz3zyZ1IUPYed8MoKIIQeFa%2BrqF0NBgiu45sJMOWZQvgG8XSUsuLiTrKpdCstjYvN3lo4yUHkNPvx5QqRA8mpJiVCKTLIbimPt3z%2B9LPYlRuP2nCfQYwzsUHoI1URVaGRL3AZurH86moMJhxpqdjFLEZtgUpGPS0z7z8J%2Fyoj9cx6sE8oY3Mem6i1zXJ1%2BVDDeo9k0ktqzjFx5k3bl1mD1WDuMPCmnOhlvRDVfgzomdubZtvec7h2w2CBu%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267133650928?_skw=PSA+10&amp;epid=4073911380&amp;hash=item3e326807f0:g:NmUAAOSwhQVnfH-7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2By1PzvgzOgZTg4xO0qCwWbhJwdCxibvr3Aoxa8SNkKsjUAry2bmVNH1ISE4PwsTrF8hd4EMh8LQTG8W6dK4Ocbu2QGkGt7Mm2dBPuYit26Hp6Gc1YCr38HbXfS%2Bc%2BX2ymTE%2BzSAsNHJrIKHho6mxWWq%2FrKicuifW8XJPIineUz7omwiTcct5QtbPrrrNxg2q2yA%2BU7awEQMNpAyU6UtDN7Vxucm0uE8kv4qA3PdjEUA%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/267133650928?_skw=PSA+10&amp;epid=4073911380&amp;hash=item3e326807f0:g:NmUAAOSwhQVnfH-7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2By1PzvgzOgZTg4xO0qCwWbhJwdCxibvr3Aoxa8SNkKuaXZbgf7%2FKMA5P02e2zqbB0kEzb8GonD4P87jtZ%2Fq0pWeX5yOLLKdpPTNJW0yP0l80G%2BjK%2BsX7d6Uj1ajKYdXQRLsnNCQFDb5hpByHcJYnF1N0ziRrOM2yViGRm8n45%2FSOGBPAU0oRT0GKf88y%2BPIf9EnWcerURpredwFUXmbcWDW6mEZEYFMoeknQJ0--YJw%3D%3D%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267139069309?_skw=PSA+10&amp;epid=4073911380&amp;hash=item3e32bab57d:g:i3wAAOSwOh9nmb~-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkD9CaftIwQbgCqeBRpXSVc5wI9nc6gkYAelaSSG7s1q7B2rPQ4wMGr5x3QZwVb9n%2FGyIUqgjOQuw5I%2BLRUETXV1i5f7BwvzKMZhaTAov%2BrcEbzPD7BqCY55JlH2gqfK331yk5lI%2BKs8RFckEgVgM%2BxB9NL2HlLJgI8GopNyemYNmS8w%2FyqLMCI4yH8izjqe%2BfB5CH4w4kNe7vSAHR5LeT78%2F7ifreNQ1tb%2BOPa7gHuEw%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/267139069309?_skw=PSA+10&amp;epid=4073911380&amp;hash=item3e32bab57d:g:i3wAAOSwOh9nmb~-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkD9CaftIwQbgCqeBRpXSVc5wI9nc6gkYAelaSSG7s1q7TDWW%2Fg7QLqrYolhxZzBAuBhOyvZBh4q1TUprBVZDF52Ti8HkkEHtXzGLAIvkbIfKdLK3l%2FXE7UeYkidtWlYaCOdKOSCfP3uzJ2jf%2FlFXl8Lw79DGdg3RCx9vNWkpe0cG3rKZiyw0WJLW%2BBlTysynZ7kh9xuH5OrG21pTHoz3MVIuAWxHfbbPK65g4SrMIq9w%3D%3D%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286281506968?_skw=PSA+10&amp;epid=28056573125&amp;hash=item42a7b52098:g:LlwAAOSwMqVnf0yi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkp%2BrTIqt5%2FvpgWIKsythenTOWMB8fJkz7tbff9mB19EQeM0xLV6ktO3%2Fq2IZY0cIQ4kPw0qS3Ei8OovOWxSghS1V2GHIsecoBxuyBRZEcFE24QlmT20zcgVD7yrO4M3c8W8m8sQIw2minkF5sApPRxxVLFYKhRzI12rUOze7ZVSgpuoQe4xJ04fXHd%2Bcim1vRfrMOL2lwZX7t3MstTPhXGF25%2BfCvfTxN8rGecOJx7Vw6kkio0FWYJ%2Fa1V2Z3dy1UpfUm%2FFbar0x3SSzCwif1R%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286281506968?_skw=PSA+10&amp;epid=28056573125&amp;hash=item42a7b52098:g:LlwAAOSwMqVnf0yi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkp%2BrTIqt5%2FvpgWIKsythenTOWMB8fJkz7tbff9mB19EQeM0xLV6ktO3%2Fq2IZY0cIQ4kPw0qS3Ei8OovOWxSghS1V2GHIsecoBxuyBRZEcFE24QlmT20zcgVD7yrO4M3c9H0Wq8F3kaRcyFqe6rQA%2Bo7IdaDP1%2FOBYPD4kB6dXI6e8R8ipP86fEKcrH6E1XYVZijmtX%2FFifDOfAGzqjv%2FzkFOJOTBiHY%2BqR0Gd6QtuosCLRpvMnhd0ditpChoWlZRcHsxNh%2Frym7bl1QN%2BWgDW8%7Ctkp%3ABk9SR6aG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326416319576?_skw=PSA+10&amp;epid=19056531486&amp;hash=item4bffedc458:g:4OsAAOSwqSpnkw~7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmAfSgSV9Cjce4HPoehVUj7brteIw63XmDFY5K4leUT6WRmGNn1%2F8idgcLDUQne8IpwE0W769WEMDwT74V1qQBnjC0Npc9PUf%2Fv2Aqwzpok6Xy0acQtSzTXhrBnEY9Zdn76b6f%2B3F9jvsgyaqVpn9XVwEpubf3Y8HTuRF1ZDsf4UskNmbymnaIgm7JTylgu5lDvrtNr0etPJ8RfMqC0szFfqk4wP4JuDZaT1PvRemYfNA%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/326416319576?_skw=PSA+10&amp;epid=19056531486&amp;hash=item4bffedc458:g:4OsAAOSwqSpnkw~7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmAfSgSV9Cjce4HPoehVUj7brteIw63XmDFY5K4leUT6TiP0j3aB4WkFmCC2EM7WcLmXOV5mP5pU%2F1frQNRp7M2to1dBPWpDCQ%2B3fn28xYiWKmZ1SGpxpYDr6K%2BsHYU5uler3iELz7djwzn7F6Xj19pQzc%2F%2BaZblPMKmC1m7dv%2B7mPKZJ21X1MKUgrw5DtZjxdyZNB8nYxe6OyQquZlCQ4YWN9g0teN1gwYZ2MQy7%2F3Ug%3D%3D%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365367014647?_skw=PSA+10&amp;epid=3065168128&amp;hash=item55119234f7:g:X1cAAOSweYRnmBF7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlmPBCOLEKH6uH%2B5j8UcGTBW%2FGlaNJ171IP9GV%2B0DhU5RW%2BraJVk3TTil2rYfj13MOQWmlGakTw8MvEQelx30cnyUyLUeJSfNKS6KgtQmoQBPN5BLOYQCpHx2jKQaWxCeOwszMymPzanK7VlaIEP5yA%2FoHf97G7ZPTr9QS8XkAaMG%2BOmmz2YOb3yV%2BBW4Ed8Ee83jVcnVzNbj6UGZpiVuW2LJHX0UBo5aGjOk3XGxe9gtaowAFKsd1jGHeSrIaSXBcX6luF9nRf7yQL%2BVWVaRbs%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365367014647?_skw=PSA+10&amp;epid=3065168128&amp;hash=item55119234f7:g:X1cAAOSweYRnmBF7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnEArZ1%2Bf6GeMaW5zUB9aavau8KytEDZBP4STgbvureFFvKMN2w%2FKGqyliCBnCPjlr%2BhQvOjAjopzaRLRWW8Q5a%2F9O%2BXp0vqdJ8PYFBJqDDUzNFfNzy5yqahOz%2FI5%2BWVk8B0s7vjmav5LzoQ%2FXHC%2BnxaebkzWybJWk5w6cWPkJz4qx2YOkgdVjtFh382cuMyy28HPF90WOCNzcyJ8OhkGgAvBKLbNC1kTAlBsDdTSiPQw%3D%3D%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365367014785?_skw=PSA+10&amp;epid=10065171923&amp;hash=item5511923581:g:CNUAAOSwpo1nmBGY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmwdE%2BJ%2BbQ0CmGQxynuAaOikPkbBPbHoGaK2Lzm%2FsH1Bv2ADVF81X%2Fu0yCNxxuwMo7ipfryuwVz6EHLYquOWYs%2BBIbKu3vyAqY5L2O58sMVxCrfDeLKH9uzzQWy7FUv4y17e9x%2F77w6nMz2mEhoNZ7yiyl4ZKV74W9rZkEibH9dM6AsSA3VnNm%2Fdm2n5jkdXYBU1xwLvoqmm9aVs3HjcFN1PZMSaf5%2B17Nyt9zmU--YEQ%3D%3D%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365367014785?_skw=PSA+10&amp;epid=10065171923&amp;hash=item5511923581:g:CNUAAOSwpo1nmBGY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmwdE%2BJ%2BbQ0CmGQxynuAaOikPkbBPbHoGaK2Lzm%2FsH1BtdQW5wIfqz%2FMHHrLb%2FLrlaDt0y4YQyHbWEZcv%2F7DVSe9FW2fE1Z6IeqnvkSzoyME7W3F08b9P09HrA3dBwb83H%2BAKKsuokNYNRf%2Foh%2BupuBIrnGb7Uul3Ded9ooX80e%2BsroontMiw%2BY9kEguqgR3B%2B9O7OE5DPlPU11e8HPm%2BQezBmWiKMm9K%2B8GEwFBsQH7g%3D%3D%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947659074?_skw=PSA+10&amp;epid=15067933562&amp;hash=item57883a0742:g:N0sAAOSw4uBnk~-V&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlAhI8HvKMxagq2glHhufNoQRb19Tx%2B5ADBe2MBOsztfBaZEEe890BFD5gTwebn7w4EuP8te4Ir2fWSJdk26lV1LAY4A3krZ0MOxd2f0jnqZC52VsqaMCr%2BjLCLtHjYO7eUOLlw%2BQo9OT6l%2FptkYenPUw27Ri3IwZnZ9VGEoNB2NF05f9UGaJdPhn%2BVONZ4cv7hgTEqBsQz4O0W0IFUSRvYBbmo10fj0wRSOCEGWDGNtjFAB%2FILrQnE2rTtqTH07ZNud6WlBxqoSy48trT0WeOC%7Ctkp%3ABk9SR-jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375947659074?_skw=PSA+10&amp;epid=15067933562&amp;hash=item57883a0742:g:N0sAAOSw4uBnk~-V&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlAhI8HvKMxagq2glHhufNoQRb19Tx%2B5ADBe2MBOsztfBaZEEe890BFD5gTwebn7w4EuP8te4Ir2fWSJdk26lV1LAY4A3krZ0MOxd2f0jnqZC52VsqaMCr%2BjLCLtHjYO7dNBkAXPQuqtfq%2BMWSm4N9fu4Sxvchs9MQbFsrudFlBH7r4tetrcB9WGuFVQCbV3oWkvnDaytpx%2F3ngbSpba2vMRbaUQwmQKkc03wevYQPQOl3DDKe8KZU%2BpMX7OV3142aqJMRxLf9Q7TFOJF6AsGOW%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954082225?_skw=PSA+10&amp;hash=item57889c09b1:g:Wh4AAOSweB1nl7Pk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlycR4AZuSb%2FYAAP8HYKHsdvhG%2F0i7ub2qZv7Xp%2B9kAxX2hAWs8pNF%2Bl8FzrpobDJE5Igm4raFwWwbErAd25gfBb90cwTp%2B5b5eA4Gg7YuwbsW3kSjp%2BqQOLwyUiAVkizQEE%2BDCi8dM%2FOgc4O9ID%2FNT1EmhjUQpNMA0erX9O7nUr7Ljl%2FsZNKcKTL213f3lsSr7%2BMFkG%2FOFlaGCuGOF4h7DiaBJHq4l0Yb%2FPP9fx9BKmg%3D%3D%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375954082225?_skw=PSA+10&amp;hash=item57889c09b1:g:Wh4AAOSweB1nl7Pk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnDXTRj152IetVmRAXsIvdYOKO4xyJFvAWYTW9oTLO%2Bje0XJbqOmJ4SBIJ%2BKaWR554p7HiAp3JE%2FOe7F7NrEyOQTogz9LD6E4FbPm%2FuyqOXmjcLmqj31y2TldvpCqljn2FTGDb9wdkGbL8JNWX8qo98wqhZ%2FnxMe6fK%2FlskurVEGkWd7swWAQy00VdhFKEZjC6gV2t03Y32J3PChk8BEraY7mtgWZ1XhUhXlow7cieTyRXD%2B%2BdgLIHFWiQqRaq5GpWDo5qZ57rZWXBk5KPjqVeI%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954380158?_skw=PSA+10&amp;epid=5065171601&amp;hash=item5788a0957e:g:mb4AAOSwa5pnl~QL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmMWJoyQtjGqJi7PJCLCHcXw6IWtli3gXpYqixIDSVYaM02Lp%2B2XjGaGK46ufk9ewSRjqbqZHxWYuLKHwli6Ev0643XewvsqJeZIaGPIf0EHbCGWxSOfkC4Cq7F2Js8kdy34SgNp5x5zD%2FQKFGH9ZTBYg95tpZDGlQwBCDRAIgx0KEp6D%2FxY7lo1MIGrH1mrO51PBQk3DRBLK2HMtjjIRdJOTlSq4FtarlmvTqEi5BZdg%3D%3D%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375954380158?_skw=PSA+10&amp;epid=5065171601&amp;hash=item5788a0957e:g:mb4AAOSwa5pnl~QL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmMWJoyQtjGqJi7PJCLCHcXw6IWtli3gXpYqixIDSVYaIBBxkMXZGjNtNWXIbVgjkJvkbai6mwbMUuaTh46iksl5qz2QSm6KSlxrVGBJzOa1GKQ4o1jepyazBPy7CiAqakHAmp5tKTQa8E%2Fhad%2BD%2Fcs3JBqCzq%2F6ZYEQbP6KOVwcS1rqPEoA14wV10GeAn31WJ1Ttt4ogFKolmpLqYHrvuuqhP73GPIQAgkbU79R8xs%2Fw%3D%3D%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205250327642?_skw=PSA+10&amp;epid=21056520985&amp;hash=item2fc9df745a:g:sqMAAOSwEJJnk8Z~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkNMBuz%2F6C%2FewcDhzWl60AQCtM3mQGl4N76ESv4EiaL5y9Hb854WvU9iunLqGYaa1Cvn0rINgVQjqziGO1XTry%2F6dywZXsjNJ29C%2FvTcGwUSHs%2BKsN1wzoDRR8zw4HeAvnJCAMzf63rfnGZnV4NrrXOOn6t47bK5DgaQ7STLPLyJ%2FdKLmUV6k9ZHiVLDj%2BpyO0hPUzMeyzIYQAI6uzJ8Zn9XyeCmn%2BkN1zQNqRqvtEVGg%3D%3D%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205250327642?_skw=PSA+10&amp;epid=21056520985&amp;hash=item2fc9df745a:g:sqMAAOSwEJJnk8Z~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkNMBuz%2F6C%2FewcDhzWl60AQCtM3mQGl4N76ESv4EiaL58FhJGGK5tLoSplW410tLqyd%2B9%2Fyr650pzJgsBDlwNk4qkJTMYuOu2gUnHBYImzg%2FRNb3qvpFjFc6qUkyFkflhaSQgnfSo4Ehz7UD9FihJTKN4ociE9zBt1W%2B2mYb%2BtvhLXrUy6vwTO3eo3%2BzYFj5M9X--jxUZ7C%2FxqpzEJuOEy3rd0q7%2FnojUeNgMMOAp9xFQ%3D%3D%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286298161599?_skw=PSA+10&amp;epid=25067681401&amp;hash=item42a8b341bf:g:W6oAAOSwRHlnoB6W&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkCU%2FcNE9MEPCkZQUHrHjsWFItPZCIx%2FocDl88Ksxh932KMLi6ZYPzD2Uvn6PmWSsyUi2Gjzm%2FymtpR2yZei2yst93FaXYuFe%2B1AU6KmWXtpMlvsmUuzk7JYBPhmnmDQJDjs2t0nOyEfLBOE%2FaacHN1pe%2B4nI3TEpRV3XGG2Rnj5Rp%2FixFDlcRHfm8hEhvefMX%2BPzqeMhs1kD%2B3bKK2yZUfnzizKu%2BNJ3z0cImCECB%2Bc3q8mfVaphj3h5nYgW%2FpCBW5Rk1Qfmg8%2FyWVI%2BOCePYu%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286298161599?_skw=PSA+10&amp;epid=25067681401&amp;hash=item42a8b341bf:g:W6oAAOSwRHlnoB6W&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkzCLPxwjQdZS16LYKdFV%2FbrfHyBG%2BjZ26M2vTxWq6gyKXtjWLNBJb4Ni%2BjQ41SSU1Jh58NKXbCVWaAiFtgL1k%2BgF1nTxw7KVFFR%2FBHmhgyUUHFbVMUvzQQT7JWXfR9jvKDniqKHW7uEoWRuqZA%2BKk8vqT2WnBSPkGvI6XsFX2CjhgNqQacbVN7n--cDaRg9cMU1vGTGbRiLTRj8lPuiLRe6Cu5k1WkCjfbgF%2FEeQGwxQ%3D%3D%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326420757511?_skw=PSA+10&amp;epid=12072558207&amp;hash=item4c00317c07:g:c6QAAOSwBmFnht4c&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlcAA%2FeS4La3pxlo32xFeP%2B1XCs%2BFkjSYJjnFxmh2W2o73IVyBXOmTYL1HFmDt%2FRAkCmSKwpDUNk96BD4brjVpCJX%2FcjPWtLq%2BQVNzORzx2XOJ4IvqUQ%2Ff8oYtXm%2F3fyPErv3iAlePNDCHQ3gMa5mTUb3IKDbePIHMzRB7wBXPVJmDVwShbVDumV1qvnlUJL%2FtyQ8q6u6%2B8u2U2yPDOIDJAMjIEwi19V6nb7q%2FyjyK0lQ%3D%3D%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/326420757511?_skw=PSA+10&amp;epid=12072558207&amp;hash=item4c00317c07:g:c6QAAOSwBmFnht4c&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlcAA%2FeS4La3pxlo32xFeP%2B1XCs%2BFkjSYJjnFxmh2W2o%2FUEiadRsx5JLknmTqBDqk6bCZzY0GCvTvXSlzGa0%2BNNsLY7WTaVGYtHZd6nofM7%2FaaihOoRbRqjfIuokQH23Jm8XnPmkGAPJGT%2F1ns7z5aeJCB7eo6fWHYemshncJtonA3fV6OOyrjKA8lX5tuXEGD2ZYGCAF4BEZDQjd05%2FDVaO3M18%2B4oKEM2Y1zJOKz31g%3D%3D%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326428107582?_skw=PSA+10&amp;hash=item4c00a1a33e:g:zlEAAOSwyhpnoFvM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnYqK3rebR7byz9406I7IxJPmy5%2BI%2FQgUzUarqod5rAm0WtdV%2FOnaQF3Ks%2BNZ05mmDDi7qVKjm9KDiDwoxTQl0l%2FIgVu3gAatPbZxfDTxJyMueOovNwPpGLOxl%2FKELOCSfssLBn43%2B2C%2BZTeC1Bmccmh5yJ%2FFacNMDpS90lLivzfjejXlbIEW2Ua4hTZRuFb38uRILkI4y6Tn4%2B3qVTxjzsymdAsLbzpwj4qzgPtVqJpw%3D%3D%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/326428107582?_skw=PSA+10&amp;hash=item4c00a1a33e:g:zlEAAOSwyhpnoFvM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlUdyYMoaUPHoVgROTrBXsewoIBQJ5XItPxYkxjIqJQLlf8FtyVqECFJL1G8gYSwvQuWzJ3wwZmkslZOSnCCx5Oq6dViqx4rb32%2FOR7qBUNtW9OlbX4U4mG7qFq2KdXsclTjn6WWuxpyDQaUgJVtCDT7pCiaYT%2BLnw0%2F1KnBNO9U%2FqIu4Wo%2F3nshmbS1gVRdwkW9xvUrgVIa8VVXwGap1oZKh1WDjLSlE2%2FhFP7rSvmMLt8CVB4x%2FCqkov1roE8OIulfmlQi%2BhoyPQxqV9RJ1aJ%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286298150243?_skw=PSA+10&amp;epid=24067683491&amp;hash=item42a8b31563:g:fwwAAOSwbnBnoBv4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmIGiwc%2FGea3t54a6RwPrWGnVmUR4DZzl7CnWY7QuTNMWSgiTkKCi60UxrYWWovi8ol9HECNPvYHUpooEl14VJuq4DFqyAL5I9ATBuzn%2F4NyhpjMJoJyWe5dxq0cGFsJs7BOu8nqQDB8z39QJdgXqfIu%2Fq%2FTCxeb2syYM%2Bg%2F%2BKbNjtNjnXctl0G09oRBLX62RUn8horrPvjD4aplmqxLynddL4x77jhqxSIZNGW24RX0QA4hMqNauEHHUC5EqgjQtf93jc%2BUiDyvvFoajPsDgT0%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286298150243?_skw=PSA+10&amp;epid=24067683491&amp;hash=item42a8b31563:g:fwwAAOSwbnBnoBv4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlyjU%2F2up6ejv4IrymOjMYdhtrE0BQHEZqi%2BJnRXe4qY0EqJ9TlSim9Hd2e%2Bb1Ze9okFS7Qb3aD%2B1hKAnWF%2F5V6J1FzoVilqS6X04m%2FGZb%2Fc6MuWbsn%2FOSWUYVmsZyUb248xp9vR6Zq041qULUShJZeLqgSz8cwWiuOFmyTevVM0VTSjoBKyPC0DHolgzfcu8X1mVvN3XDlSsfu3pfwtqWLm%2BPJLqPEG%2F0HiNlLF6RZLw%3D%3D%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306056958470?_skw=PSA+10&amp;hash=item47426a9206:g:9LIAAOSwvXpnkLD1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkvervzUjmkDWBWxyh%2FYFQioXFQBD178OUf3CN6QADcG%2FAKaQPY4OJ9RxLOPciApCtT%2B6LxlGpnKGiwYCkU4B0gcR8S8weq2Xcy8NpDEBdJvnIXAMhgUZ0I6lvrBWx5eXSq4pruVkqwdjQ2wzToLFuM85WKb4ccQ2I3XomzfiNM7vSlYDZnbtuNTkxCNDe%2BuNmI3VT1ye4btxAWSS6ncm682PDzWl612GJcIvmS0%2F1C2SOCpHf7bKC4iQOEJubiTP8trbnst1RRYPQ%2BJBb9Q6N%2F%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/306056958470?_skw=PSA+10&amp;hash=item47426a9206:g:9LIAAOSwvXpnkLD1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkvervzUjmkDWBWxyh%2FYFQioXFQBD178OUf3CN6QADcG%2FAKaQPY4OJ9RxLOPciApCtT%2B6LxlGpnKGiwYCkU4B0gcR8S8weq2Xcy8NpDEBdJvnIXAMhgUZ0I6lvrBWx5eXRQaWi%2F7kNh33chTtBB3xu7jsha%2BpA7oNL5AqEojMoafbU0nXuVXCoSoASUA0s4uDk46ITJjCvDmw1Nwn212rIwukRO9TU6q%2FD6VLQfBlpFs0Wu3Hl42Mlnd1dn5gAriD4qr8FyHVlyNNnlyo1vOvRf%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335738388317?_skw=PSA+10&amp;epid=5056575246&amp;hash=item4e2b913f5d:g:0noAAOSwYxhnZH6c&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnMQ0sE411zKYSevjRsyMTpeQxsWhRwrZUgqLBP5U0GOnE%2B70LMD8fWy1bMnjf%2FU9aKKLaZT2ZTJNvN61NE%2FXPRBi8RGL5Uer0Ry7UncuhtcoXYQVwcS%2BvLu9%2Fb%2BG2fo%2FnT3yeJ55iRylcHFdF31o%2BTPdbGHg81BYzvHot5r4us2vHL71ER1Dv1NdbHIHdb4WOpyPozVb8SmM2J3hQQMuxGajRfBXvnTClottqkA3a%2Bjg%3D%3D%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/335738388317?_skw=PSA+10&amp;epid=5056575246&amp;hash=item4e2b913f5d:g:0noAAOSwYxhnZH6c&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmYUW5y50BinpJN%2BvRrWH4wEsNR4rjTq6qyIKRNXlbXFGH%2BwhrKrS%2BjRpkJZfY%2FnOii2OoAEQd3nisRUYkgnrRzDY71JqCO%2B3tKocFNcnAuK4yu22MlBA2IE%2BFVRJ5P7ENcik83DeTaKCxN1bMWK3P9xPZSwOUIt8VI4eapl09vUJQRu4SU90ZNdzKfI3IzrgHYfcucJ53FylmaBQiorZIbFRQIG7yQ53A3TTc7ObbQpn0k%2BFH%2B1XBM%2Fgeosnlk4F%2BMAU%2BVEc%2FqpfFkg3L8%2FiZq%7Ctkp%3ABk9SR6iG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366639756?_skw=PSA+10&amp;epid=5056575246&amp;hash=item55118c7c8c:g:Q0EAAOSwMf5nl6~y&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkwxN3CP9GPgME%2FrEAKYodBswWpXvcq80ZOK7gmX0gtnwCTcAq51B36lqBWEYXlaJTxM5KKnvyL3WzStIVxeJcFWWEpycSVko6f%2B3ss14M9CYAVxo7JDblqNKbnsao58bX7eymwOHRov0qGpvnlX5i00v10YL7mNcd%2F6DumK2TsZNokt5WGkHf7FHWmsNsPg2wybfwNGNKdLaKZAsMDjDD6d9HyVRE5TDqvanXgdha%2Bqg%3D%3D%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366639756?_skw=PSA+10&amp;epid=5056575246&amp;hash=item55118c7c8c:g:Q0EAAOSwMf5nl6~y&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkwxN3CP9GPgME%2FrEAKYodBswWpXvcq80ZOK7gmX0gtn1eIUv4IsraT0uqSnhTOeAHabS8DclkHIQWr6DcvPiaxFItvuzoW1fMhdKK2OOO%2B24%2Bxemwqb4z4fxdUAvwj34uba5JR8b6NTQzsXUSWaiyMslOMF7rG5sD8eXOHTu%2BuLrPj93gp%2FDSkzPkEt7ghCnXus7XKdWjOoLvuaZSmgmA%2BAW2zN6GFCNBgAaUpmxQrTw%3D%3D%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335787251832?_skw=PSA+10&amp;epid=11060923945&amp;hash=item4e2e7ad878:g:ROcAAOSwAG5nJSOM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKknyd9zZuUBZ%2BZYam1JaDHqaPIXdfRGuajxy%2FxObJi2nVOL4Z2w%2B6zLcqgEqhVDdUXmM7NNWKoMVNnCq8%2BKRhEHSSrGggdopVHehYNlqrybD5Kb7mkmBL5m66xcczKQx4q9JIkTJ0ZXHUfrPngpVof9P0lJIf4QBLJvApcDZm50gaPFHAHnCCmlI1E5%2FyVBq%2BYLryXbTf1X8acfxXZSFsvJX4auY65CL5cLNHKE98WK5w%3D%3D%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/335787251832?_skw=PSA+10&amp;epid=11060923945&amp;hash=item4e2e7ad878:g:ROcAAOSwAG5nJSOM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm00azaovMiIDZV%2F5GbX7Vswk8KD9nE1goTXuqTkz3z10NJ625zcsRx6XSBTZWzy63hlENvz8lcA1PbJpXUtGUc7HJLdpd8bNQtVTlBqjmu1UOl3a01VNJuDfpgytY6Nk244J9pitwqLRKiihouJ7T8AJBWGVCcnLbRockqPEPPmcP7o7EFbyIypMfUO34il%2FdQsFf9zvzGJa2dpf41slgMOBX0h%2BbICiQgDORjmMopbM47994NWN7EZT0SxmCoxSLLfF%2BL5Ue5aFMDfTb3rT9l%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805451960?_skw=PSA+10&amp;epid=3065167939&amp;hash=item292a6d18b8:g:v~wAAOSwPX5nk~3S&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlizjBVs7svNdL%2FxEWPWeZy4NgRRTxjOZre%2FPWq02C%2FRrJ5ZOeWt4Zq1MLkzA6EAJYJQPpXHsKnMN9AZQJUNbQU6r10c5JTn2SuJOc7z4ahd94DFkzSd9%2F%2BiJ%2FTWHOfmKR8fjzbiPsqDAvs8SJFBUyPofubMxDX%2BWAh3mrZEKXjXzcHXAI9unBkf%2F7pWaVq2uiG7m786l7NvNsgQ5kqnRgab6UzjmGMbGvr0Fm%2B2CW17eheQwyHRtoowwjebnBzId%2Fj8Hx5eViv870Ojj9P8fJ%2F%7Ctkp%3ABk9SR-rS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176805451960?_skw=PSA+10&amp;epid=3065167939&amp;hash=item292a6d18b8:g:v~wAAOSwPX5nk~3S&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlizjBVs7svNdL%2FxEWPWeZy4NgRRTxjOZre%2FPWq02C%2FRrJ5ZOeWt4Zq1MLkzA6EAJYJQPpXHsKnMN9AZQJUNbQU6r10c5JTn2SuJOc7z4ahd94DFkzSd9%2F%2BiJ%2FTWHOfmKSi%2BKg2peaxq2tfbAPnYxHQGL%2F7l7CSs6Nq4xbtmuyhKJ9Lk%2Bg9O9oeuWSPJoiKvmj7oUaziPuVv%2FcnfcylzKTot86EVfWLkerLKKc%2BtRkR5UglDbvx3LyNr4JiLJvVrYxYJu5DmXvv8%2BflJ03%2FZ6Cs%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176821783080?_skw=PSA+10&amp;epid=24056499686&amp;hash=item292b664a28:g:-hAAAOSwC0VnoVaz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmKV%2FeVj4rXjRdZEKvQjxsfxp9%2BPZwGxTJiiZAivWxTPz3MNbLaWCQ2c59hRBgv6iKEn%2Fng7cDszxvDpGH%2BIDWDk5LzgO8Mz%2B%2FOPGUc0WtWjEF3Cz%2BL0cYWPlOsdjv5DIHqtHdSVtzaKdw9nAsg2wpIGt%2BV6DLzBYzAncbZyI81V1YFLbwBvdJffMZ9iuN5m3IG9%2BHo0L3RQKozCvf3KKQxPcsFHupAcP3Ewuu4tX39VbWHO0lRkYFAHBQQ8rb%2FOPtzGIg%2BMrIKb9BP4n7AGwvq%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176821783080?_skw=PSA+10&amp;epid=24056499686&amp;hash=item292b664a28:g:-hAAAOSwC0VnoVaz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmKV%2FeVj4rXjRdZEKvQjxsfxp9%2BPZwGxTJiiZAivWxTPz3MNbLaWCQ2c59hRBgv6iKEn%2Fng7cDszxvDpGH%2BIDWDk5LzgO8Mz%2B%2FOPGUc0WtWjEF3Cz%2BL0cYWPlOsdjv5DIGyteZSxuSMvPX0tYyxr3fkXSd98oxsRSiHGC2VA9XVcB6AZ0cTKvMFaqpwdIC6t0m1j0SDvsuCZwqhaqYp0Ju8hhPFVeuyDE%2FKGmCK8EIrpmFxzfIFK0TKw8KuWFoQT6ILqGn%2FWjpZUJEOChWA17mJ%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267143678043?_skw=PSA+10&amp;hash=item3e3301085b:g:4eYAAOSwgfxnn8lC&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFj5JtomIkFR4PxOZi16qRrLwbd7SVIJBqWWF3sOPX4hC2zsEWPGfDdlqLwZ1rSLMe%2FavA2K4mr2WYqXNoCO2TZzKqTzUMaX7tm%2BEcMRsB3lt7t6yf0HQixlY5jRmKvzCruanrpxDFH6w2XGRSQ8TqjVJFnv%2FVP2KLakxQj20fRNW7Dqk7TvAB6%2B60V0cNBn5ojekKPGkqTjEvJe4GX3vEUpmFs3YZWTumtywI6IXBZQ%3D%3D%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/267143678043?_skw=PSA+10&amp;hash=item3e3301085b:g:4eYAAOSwgfxnn8lC&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFj5JtomIkFR4PxOZi16qRrLwbd7SVIJBqWWF3sOPX4kqF0z94asKva55BASjfpkXTDj11W58yAzdxsXb3hkmPo5guzgGdcsYjCoRxBSMXFWvaKaXdFi5cowOqCEZBkL1m6DyVDo370StbxytQmfkXZoII0vpH9iqIcV%2FgeX4qZtRebqBkZRCzrJ%2BRtFIapGQ73eI4h4kr5vDfmKhpQU8eR2l99jOdkXa1BkANgdvt3g%3D%3D%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805235267?_skw=PSA+10&amp;epid=25060310636&amp;hash=item292a69ca43:g:RvMAAOSwfWtnk9Uw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2F%2BRkSud4sQqFW7zsoykiZ6KEXW2k1drGOVO%2FiRT66UbnJGWivsrbPN6aau2QiXnsFdE4wKw8UuZPYDZoVXdzt1CSMOPIkTrfkWTpmKhooMvH59caVLAM5V%2FvWegM%2F8FHGpx0g3P7jnPpTiUdFtLrSUwKdUab%2FhsqSYtKInzH4Tdfx3fNy1QSBDu5Rlec5PsAqyi5vwWBSHLoAq5S%2B5DPpGuKLHgGebPswSJLKcqX5PLWZn8cuat--926wTZ7kEk0c8jvpk26Zb%2FDxBUaGReRN%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176805235267?_skw=PSA+10&amp;epid=25060310636&amp;hash=item292a69ca43:g:RvMAAOSwfWtnk9Uw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn0O%2BOPneuPXxd6N9Fdmrbd7iEKdL9IiLryXClYptMNQnnoUzxjIpx7Jl%2BEMTD9o%2B4KSZN01Dj9Co0%2FuPZQ84S0FvWh09DN6d3L00u0MCisJVjbyBJixzw03YPMvJS454cmDkItTetPUKvdoHIO8%2FyDK8tX79Tdcae5OFkV9oeEIO%2BS8TouKMd0KDDN3i0LySA8Ch8RoloVoxHwUsZfdK%2FgCJnV7OIqkUTb0HjkWSGStA%3D%3D%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306057786588?_skw=PSA+10&amp;epid=7056533505&amp;hash=item47427734dc:g:WOcAAOSwuUpnkSaD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl8%2FYBTJ4fW%2FHjfYuVQdjekFMfkqnBjM6vhFEs8d1HcZm7%2BkfVeQYbDZYKMtOE7VG7jLFb3Sb1YnxGGGZ%2B6FRlsm42Jln1ptgfJ2ihUDEkFM2H7Lx%2BtXgogEDNlvxaiCiXrJxDo2CQXTWIWlU9oElXDUHMHHG%2F8Atl%2FbL66ImACCSm7v%2B%2BnzT7Zk7kBg7WF37anPKHlU5z2SN%2BlIcMTnWvpQxE13Npo%2B7Ixkm%2FoDYLtwQsi9CWEU%2BOw%2FpQ1KX3kWX3nfF8Feq2vO%2FfoS5LtxNLl%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/306057786588?_skw=PSA+10&amp;epid=7056533505&amp;hash=item47427734dc:g:WOcAAOSwuUpnkSaD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl8%2FYBTJ4fW%2FHjfYuVQdjekFMfkqnBjM6vhFEs8d1HcZm7%2BkfVeQYbDZYKMtOE7VG7jLFb3Sb1YnxGGGZ%2B6FRlsm42Jln1ptgfJ2ihUDEkFM2H7Lx%2BtXgogEDNlvxaiCiXn5ngmHA8pjY3VIPw%2FZysq63p3N%2FHko8tAw9GmfdFGukYsYkL9X0BJNQFgc45Sss3MjguR%2Fgw%2BRBrdiT%2FhfXjL5YIA6xcSEuYyqegpcbzHXvhPPiBxiYIa4liT9hx6KilONVmeyTYGqIR2uHOAE6lL%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805234455?_skw=PSA+10&amp;epid=7058649472&amp;hash=item292a69c717:g:xjAAAOSwhKZnk9Uj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn8dBoKS3tDS1UBMtSUZR972ETjqwrqPRMPWjGaJdPD00XHmVUIzgBTEYltmABh4FySMgLeuULKR1AyNV1mx2ccuqLlO1%2BbvMrc5YPPqmofTUACZcq13bwgvB7GXGV9Z6d9HA5gFChDBYWBtYDtLqnz9%2FQq%2BTO5OAB2HGs8D%2Fqkb2IiodPWfdYh91qIUtsjse7YJ6HCnrdaZEvmNeoOjAT0VhU2KEYI5tdtOV47M1eTkIPL%2F1GHvfkZxofYPnYzSZ0wKbgku7oJ6EOUt2zd9nz2%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176805234455?_skw=PSA+10&amp;epid=7058649472&amp;hash=item292a69c717:g:xjAAAOSwhKZnk9Uj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn8dBoKS3tDS1UBMtSUZR972ETjqwrqPRMPWjGaJdPD00XHmVUIzgBTEYltmABh4FySMgLeuULKR1AyNV1mx2ccuqLlO1%2BbvMrc5YPPqmofTUACZcq13bwgvB7GXGV9Z6eeUYIXsT7UK7zARGgRbu%2BQTHVGiOCwnRmq6HMz7j1PafhazC2AU%2F9UCe7SDSHVwhOnGiJQk86zM2SsLJPPfBwcIWiuLSy%2BnyC8vpjN0jEhuq%2B6Wo7I7jCN1I%2FdeJBqnWihxI5H6HLYEhE%2BQFyEPaS9%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805234162?_skw=PSA+10&amp;epid=10056500089&amp;hash=item292a69c5f2:g:mU8AAOSwauhnk9Ud&amp;itmprp=enc%3AAQAJAAAA0HoV3kP08IDx%2BKZ9MfhVJKm5cYokrpKz%2BRO3%2FP2qbR8P71kHXMuZa5Sb1KLHR4ZR1NVes4UmKCezQ5hOZTdAdH7V%2FuQ7wU5U%2F1Ctq3X%2BgyrkEK6%2Bne1ehmLssbTwRXC9884Yzp1did6wybhAGCeQCBACtw7is7BKofRKyiXMVsldYkEKBtAQhdFx5WgyzfNySy1L1W18mMvNoBeRUjeQb02Mvr%2FASyVFaTmHzM7pxAUqccwxwZ8czB2PoijaYHceh2L%2F9qXBhWMgJ0WdsG7AKAI%3D%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176805234162?_skw=PSA+10&amp;epid=10056500089&amp;hash=item292a69c5f2:g:mU8AAOSwauhnk9Ud&amp;itmprp=enc%3AAQAJAAAA8HoV3kP08IDx%2BKZ9MfhVJKkd7LGDNl3yrv9a06k10wFt2g1QPq62QO1O8v3jT4yPsvDzyxP%2F9TcxRLdNrjzTyparX2Uq0dzAPYJKlXcm1j4%2BpxpumP%2BNDjtI3ZXKJ9rii1noWFCK7BvOJwkK9kdL32MXE4R8gH3EbsUaQydS84RKAOEsWKqtTgnxC6gRgVUJGvJESoUVN7pm%2BrGbsThdaXlysJmS53YZ1eFj5et4HaXgpFtArb8Oo98nEpNQHnRIS9VVaK%2F6Gzf1HPHwNXd1%2BqGONhlNiMe2w3WKm7KYo7K0sBBXrmr%2Ba2JKBydQXYAJVQ%3D%3D%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805233304?_skw=PSA+10&amp;epid=2327587216&amp;hash=item292a69c298:g:HYUAAOSw9eZnk9UL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkL--Ex7ISRasLDnzKYv16Nm5jfx%2FwCQQoWgjsHny8Qwv8gyaMC2de3VtCUPifZGUs3WD1ulIo4l6oe3xxTmheF%2Fx0tQVAzAAS4KqrdknB0Wa5guwwsfb4498sHBEc2FXFY7GB0bNHewQuzMqbTYyCNiNReBOodld8zvi1sxUHazyybrfGptc5EJLjjTMb6qiuPuVpHIa0MOc0UVPW7y1w39u6zlSnAer02ye6mso7lH5HwfT1f9fbPGTQCY0POEdt4G4SjwdwJfiuYWCUHiVU%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176805233304?_skw=PSA+10&amp;epid=2327587216&amp;hash=item292a69c298:g:HYUAAOSw9eZnk9UL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkL--Ex7ISRasLDnzKYv16Nm5jfx%2FwCQQoWgjsHny8Qwv8gyaMC2de3VtCUPifZGUs3WD1ulIo4l6oe3xxTmheF%2Fx0tQVAzAAS4KqrdknB0Wa5guwwsfb4498sHBEc2FVzXtefv0A4RTKntS9awHiBLNXXBuRhltsOdcxrCz%2BUkNhYojpnb%2FMD4jz%2BWh6AwF7EkURFcxPh5TzP5HdMcN02jAvK75wFVM%2FAGo5P8ImXr9TiR1aaVWe8ePK4OgZ3yBtJtaCOJ90C2OwK9p%2B3hula%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805233095?_skw=PSA+10&amp;hash=item292a69c1c7:g:Z0gAAOSwDbdnk9UH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkgdlhCP67qDBMFlbng0rXsaThukzsloJ0gNpTln8JPa%2F8CjvMx%2B0vGA2o5yoAttCbFIEyE4ZNevrEYdencVmvGmDz%2BzGckvq39aammp%2FSz7m22EqmdgtAzFxFBCQsVKCHUjvRivE1%2BXbInOeRqcRincrYWJBnvLHq48zVHQpW%2FrxK61MGlv54lutiIWjr%2B%2Ft7vCvvszLRDMywZs0nuN94y5LUgRQElpCBeLQsv9%2BSMsQ%3D%3D%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176805233095?_skw=PSA+10&amp;hash=item292a69c1c7:g:Z0gAAOSwDbdnk9UH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlTSrh8fw%2FmrZJPy3whTFZHdlMM6nv9FYjSZEMECE38CGkEkb4Vuz1PPVvVUV7WGhMw4i9tOsLTYctjetYzPjGP%2BZmadhhNQqCzWM9JHQ1VBq8TX9wReADDMK4VhNUhw6VO8d3kzTZ3oTmj25esfZoZjhN%2F56cqMp6Hs8SDGZj%2F5GHCFlQzQ9IpRTGmksqUphGS29G0A%2BziA52lHVY4SQWs8iZaJbaVtJiXw0TFeG2M5CUgFIAV2GAOHa3TuzqT0TwUItssAUtqUmOSOCDN7c0x%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296983057650?_skw=PSA+10&amp;epid=24056499686&amp;hash=item452591d4f2:g:2hsAAOSwUW1noNp6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKklDK8AwNlukz0WLehq68MoZmt2tQVYoOOX9J1UrsdrDipIUlCiXX6jrlAhZNhaVW75u5yKE3y85mkj1Y2C0nCEqUarU33tAmjRQ7lhkRkM3GHwOflk9ktGialBVeNI7wrole02XcYxt2xXDutrUOX6NtSOO3twCm%2FlklHHdcjWa2YfITl8XRlvhMCYXia9ZxflX%2FoUZgXRYELTAmQxZEZ3TKxi063Sx6j8Qi5t82X9lMYSkXXY%2F1Gtx7leInOsvTSnEnU1xueXR9zHM2Ggrx55%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/296983057650?_skw=PSA+10&amp;epid=24056499686&amp;hash=item452591d4f2:g:2hsAAOSwUW1noNp6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnl%2BT%2FbtOSBLqF9moBtR1NjmUmCXdRB%2BhBFRNpb%2BUWpaxi6y%2BHTvmM0%2B2EP3hMp3CVYdn%2FZFGFIhO1RxKgp3yRmPV6Ay8ZLKIJv2sotbXInK73y%2FHh16AKyx04W%2FAaG26mEuqCdyQwZ80BpAYdv3UmqrWr6cZ8vg3cABiXUjaBubfpvv0F7oCKPL4oi%2FQxgsq7ZlgDJMg%2BVWxWvoospdu49pLzMT%2BYvH%2Bx%2FEqQyCu%2FYPg%3D%3D%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235932898725?_skw=PSA+10&amp;epid=14060917299&amp;hash=item36eeb255a5:g:hPUAAOSwSC1nh~oh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkX0zBlI%2BGl1ooQf5%2F1qLiv8xoIWVIPBmxmYHJ95KYeFTcjyDH6dhXfMHYT%2FFPb80M6XMAgrWnOB%2BOBX9jyyc7ywjTNi0voJ89dhyEKj3791xOS%2Fnu7DxCNeuJPABxVf1xKAG7bTGn88mkq0IA1Zy%2FfWZNSH5SOLEdhatIRqo9liIp7BLXx4otj9l8iPeRKEUxvB6xBpYX8MjfoaTbd0rtVKy9Hov%2BDA9rqa1rightucOFi59A04%2FO%2BvF1mRIakEZwzX%2FQtPz4d8J9uNThGKHXK%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/235932898725?_skw=PSA+10&amp;epid=14060917299&amp;hash=item36eeb255a5:g:hPUAAOSwSC1nh~oh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkX0zBlI%2BGl1ooQf5%2F1qLiv8xoIWVIPBmxmYHJ95KYeFTcjyDH6dhXfMHYT%2FFPb80M6XMAgrWnOB%2BOBX9jyyc7ywjTNi0voJ89dhyEKj3791xOS%2Fnu7DxCNeuJPABxVf1yZNSVhuENLCLj1raOqELIDugrU5H7yW%2BNxCgkthAgUD1n2XlFxPxfZ7ZmEK3bfD%2BPtm4tn%2FOdGuDjqAzXqNqj9EKfRsniDwNtVY0L4velcuUFLhWCJy8qdMZUhla%2FDOsVAHhunUDnBxLJPRzAW--BB%7Ctkp%3ABk9SR6qG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356516200606?_skw=PSA+10&amp;epid=11072559456&amp;hash=item530205809e:g:znIAAOSwEJxnlEy5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkZbPQHQcrXZk41l0sjaP1OEoucgtxMGBwFcaxuVFavk4MF2Red09WoEnBOyPnCNoui3YVZ%2Bh1%2FJtxIH%2BDLKDmrm6mCQ%2B%2FoI23DqVPm7q6KldCjnx9YkqqfRZ2d1dMuCrAvyRHWU89wPTm1KvYAuNALlQPt8GCQmSXA%2B76Tvat5FZ0EM4Qosvk8isey7JgflYUL--gzqeZRdTU4t2yAFxUiV3Dsw9xOAFwd2pN1TkAGhQ%3D%3D%7Ctkp%3ABk9SR-zS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/356516200606?_skw=PSA+10&amp;epid=11072559456&amp;hash=item530205809e:g:znIAAOSwEJxnlEy5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkZbPQHQcrXZk41l0sjaP1OEoucgtxMGBwFcaxuVFavk0mUlS5MvHlMwrrCYHPUSBOTVkD1IJC5D5ujVJGza7JMABDqdIb78pwCA1ZIZeu2PbnfBjf%2FtfbCHl1pLfdf%2BNHfELg6NxSl7LUiigDriFolmrSQQQznaGGSpWqzHciffrayfnbom5c8Z2T9t2dgVA%2F9TAHMg%2FOMQ1pKZRNGzxy2sSZizHyAjBeuqbseN9mIDg%3D%3D%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405505585125?_skw=PSA+10&amp;epid=14056528714&amp;hash=item5e6a042fe5:g:pvgAAOSwyCdnksYk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmyAa9gUxd6kCTQBO71SQj%2BJ%2ByctAll97ldalGgFUDxHaicdnIWcYIAXpRwo0sLWpFXz%2BjGV45Z0vz0vP54BAE0J%2BHo7VuQf5KoUk7pm7wM06qbYaAzA%2BEWjp2pr5TPLfPYfZODZSPyl%2F5sbqV19pWaYqXLZX7Z7R4bO5kjamN1LRIluvmVswaVrORR%2F5Q773bAU%2FlGUel0PDujpyMzY7diEdkgg4w7Bdv9jVpTUdZAGQ%3D%3D%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/405505585125?_skw=PSA+10&amp;epid=14056528714&amp;hash=item5e6a042fe5:g:pvgAAOSwyCdnksYk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnhUBsaiHpCnMj6crgZ2ihdM0RhRwD4RiuLh6k0sYu43A0eOtiuoP4%2BLAidkQjAoWl82hTYCtirXuKJkhgvzZk2g0nM%2FvttwKDbPXf6pbKtF3pNijlFRkp1eiy0lqSi8xZcrLX%2BgYfkDXnHd0TE29yh5D0bqtYCiEVyalyNuUxsUSMnyxfbn4PMBdz7PvXden9hmvxCxTkSONKXAKBrQKYqtpCP8i0y%2FnBI6wLTxAiuBHZkQfqQ3P3P2zhCx%2F%2Be%2FiSMLUBQ8GtUMYe7ijTlxcR1%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226462182939?_skw=PSA+10&amp;hash=item34ba32ae1b:g:1YMAAOSw~S9mTzhc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnjOt%2BELP0dI0ArPIBLQfBeiW37HA4SM3%2BgDGkJ7z59wD05WjI00J11Rm%2FdqTATcpH2FYKGlcvEYuvMPmu%2F2AJtmqQ4hHJPqSh3cunggDXQUh5wsUUO11ThDNd8dXu9039m23lhXCZBhcuqusGsCUx27yciDIiqRUw2jbaLtwmUtaN4E54LlJ1Ooah8vrMKhahYjoM3UOv16bmeqDCy%2FpYQSDxP0Qo0jJJu4wXsmp1I0Q%3D%3D%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/226462182939?_skw=PSA+10&amp;hash=item34ba32ae1b:g:1YMAAOSw~S9mTzhc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKklgEdxTmz1Vu4ht1ZRAPxfH6x3K2DVj7n2oAtfM%2FF8UD9Lta0XEGyK0MCi4Go9Dp1ZbIA3i2hVFA8PxWpK4BlO3lRMJ40IQpCvQvvh1VxWXCXqNLXwMauzlyy8DSZR%2FHhGmmFZhPH3UyuBzp0e1YI6WUfjuP2Klq8ZBb6N%2FfR%2FX3EpPdsbUQ7kXELPbCybn4NY%2FN40tCtwKcE01%2FEhS0NKSBHOptREtfNEUrDSrk3vr0ExV2VGG%2FnRAO%2BCTFiA2zpBf1hjVNUI%2Fic9uq2cBUQY%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975952684?_skw=PSA+10&amp;epid=5065171601&amp;hash=item2ddcae832c:g:DrQAAOSwmltnlUDB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAmEO7UHOAZ1N4QI5f5975dsrvhAszsSNgArpFN4I4GMF1BPO5A75ydcSSb5H2%2FJLm6IpuZaNgPp9u4fk2HUpQq37H0uIH5FKC9T4tSJONuYh%2BSXWUDcNRasSpLr3VLv%2Bmsb0rNUyVU1CQMKhWSFfkJmGrThleldzfdgdJmYRcolRRpw7ogez6c8Ulc9X4rSL6gbAfOJe3HkqHP0mM42yQRANvmoJ%2BLUblaWdKOwTPXBYp%2Bs64yO5wis7hZIKqj4Ox%2FQh4VYIt9OA2Y2WGpG7A%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/196975952684?_skw=PSA+10&amp;epid=5065171601&amp;hash=item2ddcae832c:g:DrQAAOSwmltnlUDB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAmEO7UHOAZ1N4QI5f5975dsrvhAszsSNgArpFN4I4GMF1BPO5A75ydcSSb5H2%2FJLm6IpuZaNgPp9u4fk2HUpQq37H0uIH5FKC9T4tSJONuYh%2BSXWUDcNRasSpLr3VLv86OLx%2FUXjTcUfWV3MA%2FW4dRydflWDNCytg5c1fcxjHYnghHss%2B%2BRIT39w43WEuSmA9c8al9G1Wkpi4PlVhx%2FqYhfppMQ04RdpxPhsWN%2Bi3MKfNOYT6wtF7nuFXncwgH62cm%2BfsYOg%2Bomvg41RzeGAd%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235935442998?_skw=PSA+10&amp;epid=3056560501&amp;hash=item36eed92836:g:~ooAAOSwgKtnk6hc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnCKuC19LqszoX4pcCyza8kqaQsBq7tVNpAh%2Bz6APRCC7zTtiQ5nCjrq%2F5cNZSitMIHI6BQaoeRWrpo9UKpFb6XMgjEtU9u1fBxgl8gbQNxi8GGwLF2OFI003vdmmJtE6KPFjsfY5PLEevk%2B%2BiZMBYOH1hKxwJjsNP9Jr2BlGvzhpRDREwfw1ySSuIR7r%2BWmUc6jnJBlw7jtizrKylyD91ap8hVr%2BgQ8pkcmYpGoUZ8yKIgXYCqaXIn8rZ5N1iIJjyjpm%2BbO83xHNLOtCF3zi%2B4%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/235935442998?_skw=PSA+10&amp;epid=3056560501&amp;hash=item36eed92836:g:~ooAAOSwgKtnk6hc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldY6g6Cfou1%2FVcjWQqqPrpF4j7zK%2FpQP%2BQh%2Fl0iBakyGV8D%2F5fLX%2B2nhZJ7DxvpHdnub%2Fy9jGVr3fMFkgB9BlHdz7GoBBnq8nTZ7iQHEsk%2FZH1xRq5v%2FOPE302J6M02IDY200othSHYjxEA%2FNyOtKEzAw07F2suXgBvv7kNKJpCb3ZkzdnkluShL2g2HoBf4JMSsDpK3uznZZ8%2BmVTjblX1aHGlP0g%2FbL2epusfSxuMQ%3D%3D%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126652715769?_skw=PSA+10&amp;epid=20056539654&amp;hash=item1d7d1712f9:g:O0AAAOSwmoFm07H5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnBtEiFEWpG3sm12selbjaD6DvkZtyfd0zVQRAM1mz2MWWfyhMGNFDJpJj28yiqTZ4ETYtVEaVDTvsF%2FoWnWUmqZaMAkqBSAVrJOH8LcoDOv%2Bra1G746nuMhT4JckQvQ%2FpQwwcxihQBat4LKwxC9HTS%2F26LepJehQ6Lmo2ObhBjtsUNbuSeqnbo8siLA0qKxhQDQjy96cMlBajOZlYTw0hCb6lK%2BYfofTYADzSZtzfizoXeN%2Bo%2FXyV--ydRvPOA5WnxG%2BDZAfmhj3CUdwuc66Wf%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126652715769?_skw=PSA+10&amp;epid=20056539654&amp;hash=item1d7d1712f9:g:O0AAAOSwmoFm07H5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlzV1psXCnhG5DlwC8WeljOhNEpVoo80tzGnlaTmvhHMo4zAX0K83M77We955M2Dk6XDjRC3in1ng4u4YbJFFqvi2ZDoRy%2FCtOKFklFpefUOozwZ9M1yoncNb5yKWRv2q5dLmy%2F1tykaCzB5nrdYjqs1FRZEw4dmdk5lgFtaoPDBpt9%2BAftvRcRcyLn%2FXnjTVPdjnu3pvqL6pU%2BnFX70HqdksxpNBmUdkij%2B80Pc67Mvw%3D%3D%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356510230703?_skw=PSA+10&amp;epid=16056505914&amp;hash=item5301aa68af:g:Ew0AAOSwIIJnl8N9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkojqusuL0UYAlPu2eZSK8zp0RIoyLhAmhYlezg3saBIBMle1%2B7FBpQCIMz5nfnTIhfZOmX8EeSBZ5D99KqeOHNGPXluZ80lXOu8HO%2FHDTSGMwtZfHOmtayc76smr33aL9Qgo0hLL7eQUa2mzO0cL%2FmYxeO%2Ba0GpBODiolopUKbe3sUCzM7s7RlU6QXATmy64Tn62mkVxh%2FtxbirVmwr4Eio5ybgpy3KvwAZEbae697QQ%3D%3D%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/356510230703?_skw=PSA+10&amp;epid=16056505914&amp;hash=item5301aa68af:g:Ew0AAOSwIIJnl8N9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmf24FhOIUlYvpz9PGZ4xX92h%2FKTvaGLdQPKayDkAESjNGDbqAKm78lJzYHMInIgzGDNf%2FgcTg%2FThpV6krYsdR9QlWWMbii%2FkIFP73Q%2F91v2yZxZ%2BDM4%2BcwvqI8GfymuFM8Ijz7S7b9kACQ2WDnSwBvPkYlsS8mhUyoiQ9IcXJ3wtBbZrVGJ3VR%2FZiNxBEUCHviOft%2BaH0WR1gtLhIw8tAcjknUw5gsWPSSCi%2BByNs0GQi7TjTCl7z1rT2BIlD18AhPvhZnS0NnmjyMuyKChpUl%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067221960?_skw=PSA+10&amp;epid=2327559988&amp;hash=item4743072dc8:g:m6UAAOSwfJxnlt40&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmjmarDuupZVJAsy96lFaLVskAnF9B10dY5ih5MCHjgRnXjK9w8HpFmC6WZZUJdSeIwSobYBmSK1Lkt3uLd5MGRubeYm8wJg0oRAdVST1tTjpTVyodyqELc7xXLnUuhf%2BqwTJF8MhXf5UZxD%2F5N%2BQk7P%2Bx1d6rq1DpOoWYIek1uqSamNJcGOEALxhKHRH5WTBIS%2BKCeRRXUPaYc0sZxn6hw2IpHGPoq7yckW0SzwxZqyRbr%2BAW62rf5byRu6Uja%2F2CNatFKB%2BOk1VMGueRG38f0%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/306067221960?_skw=PSA+10&amp;epid=2327559988&amp;hash=item4743072dc8:g:m6UAAOSwfJxnlt40&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmjmarDuupZVJAsy96lFaLVskAnF9B10dY5ih5MCHjgRnXjK9w8HpFmC6WZZUJdSeIwSobYBmSK1Lkt3uLd5MGRubeYm8wJg0oRAdVST1tTjpTVyodyqELc7xXLnUuhf%2Br77ZYiyl%2FIhlYXnqgyzfXFlrvlyHKRczfZH6m2YuWv619NHZ06jD5jrVc%2FwT3t2QBqXMbrp1DXqNJJ%2FiezO1clHQc6CmhhXMn9ftx2%2B0rcrMMAK6TWJwhhVG4IDhhIO3jPDO1lhKig2MnWdTMvOmNQ%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306056356606?_skw=PSA+10&amp;epid=4057223035&amp;hash=item47426162fe:g:z-oAAOSwTbBnkE9V&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkojNPXIh%2FkwCQbi4A84TeMS09vnazBt1MU15HjQQR67U4BUXPcg%2FBNc5QQcRlrsf2Tx%2B8hKb8VMqwgfdJKVeCUQrOe6BuZGTrkNSd7v88HgBxrKVYaBlnZlEaxgujNKKUiWzGEWOJfJS8NJ8TF50mplSlSv1tGlZJz0D%2FpY3apGirO4sAAz7jY5tiA3Xx%2FSZHhfHr7QnpQJu%2BBtWIMrGChOBZPWJLMRQoBa7WmTPm12RYjgDYDxdrEarb4hyV447IXEiqqLgOrAOGW7vdqHk54%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/306056356606?_skw=PSA+10&amp;epid=4057223035&amp;hash=item47426162fe:g:z-oAAOSwTbBnkE9V&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlCn9jJQzPrO%2Bw50DAhzs7Hd3%2BBo7vZcE%2F4xvCogGxiH%2FjfQaDYBptWsKYHNwPUF0oKjBVP5JJV4ddSY1BASn8citE6rXwYsG%2B7pj1nP%2Ff%2BDbfHC1gYOz2mQUmpPnKisOfvSSCIkwMfQxyzALqgs%2FVlgYXr2JCGPqDtbjtabiAHw11w8ddlOGc4PLMzbaE%2BhFcoqScPWuLv2BGaSbyFUUCYUqjWftXpQfu155hgcVHJLg%3D%3D%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326420786228?_skw=PSA+10&amp;epid=20067691465&amp;hash=item4c0031ec34:g:JrIAAOSwJiBnhdx~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlhpz1qThr%2FZpiwKNRszht0kvmND0WmJMY20eafOjd%2Bapd3Nt8FD32bBaUVNMXdRsIj4kunLWgok9xtvhfkQnPGMICZmK0dZZD8BdWBgobELyrcCoAO0UVRFmrOI1Z2PkPZGS8UV5xioxkpRG7lf1NOJa0gg35LRU8ywujctmloDauyq%2BI6ZNOso3%2F8t3LenLyaZlFnH9zUR25elter7P0YbjRK4hwW%2F9b8XLeJJQAtzg%3D%3D%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/326420786228?_skw=PSA+10&amp;epid=20067691465&amp;hash=item4c0031ec34:g:JrIAAOSwJiBnhdx~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlhpz1qThr%2FZpiwKNRszht0kvmND0WmJMY20eafOjd%2Balo63gDo4hgI049rTBzpMjHg5APCDe8CswWgThCRkI%2BP%2BY%2FTykZUtRe5FpBVceKwPnD6mWe2jcMX4rtnGwS2uPZRDUc1XH8x9D5jjmp%2FfkhbFpKu%2Fk%2BjnhmtLgi8KcAeBMbnB8xpqHRuVCc1v47ERD6HDV5maTryhDyq53IVVIwaiz7GGQrinIolmWypFvfNag%3D%3D%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296969734945?_skw=PSA+10&amp;epid=23056512900&amp;hash=item4524c68b21:g:dAUAAOSwUvNnmDqe&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldAKMCZVeag99tTtjQ85e9WiJQ8Kf3N%2Fo2odEIMelUF0r0QgLtCzS48SxZ7ZpecSjVbQLvdJ4CMEGJpjfXmPGqerJlCDvrJjiK8%2BzbdvxANk6NVcqdfzTLnbbcEGtso0GRVmyEAIUEMHhPHWpZEadUV3BRvBiuuQUOqluP%2B%2FHxUgWz1%2B8nBtkps2NlgtqD7qIEB0ELwvi1dov0%2BMVePWLlOMvoh65HXoO1418eo%2FoMZA%3D%3D%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/296969734945?_skw=PSA+10&amp;epid=23056512900&amp;hash=item4524c68b21:g:dAUAAOSwUvNnmDqe&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldAKMCZVeag99tTtjQ85e9WiJQ8Kf3N%2Fo2odEIMelUF%2F7JDYBSZxT3wWogaitdSUzOBOlL26PAe51OH1hkVzblQjSH1Q07irx9X8lYHyuauOk7aDA7XM1zD2HMmshh0OMOHgDTioxMh0NeGoDjo%2Fz4jze90uA%2FB2brLIJ9ehz3LONw88XrOxG2wtqnzQqxEVj6lBhC28pQ3XqoZUVxtNY3CJmhV1j83Hi%2FZSFLGYDoBA%3D%3D%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909218420?_skw=PSA+10&amp;hash=item1d8c60fe74:g:3TEAAeSwXeBnmqiD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn0hScc6XLXnXFH%2F2DB5MD0YPpX19TCizJJ4fT9lQ22P0a4FBGjlM9GmH0drBkMtL33XJYIwIEsepH7PMeDyPLt5NuNu9Na1FPghrW%2FxfybfyBcuu4iN4NVWZxd%2FP%2BRY1cMOVY5NHpfX2L2uP3LY55IlJ0aEayAe4vR6HR2ayhVOr8i1qqZoXeqaLFQegYN604YFzXoBZflHiLgz0ww8X08wpFjuWj6b07p4eRwiPLvCiBKlo6EsG9eN7MNUYWrsQkbcAqxnsYo7ERplEpYTn8T%7Ctkp%3ABk9SR-7S7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126909218420?_skw=PSA+10&amp;hash=item1d8c60fe74:g:3TEAAeSwXeBnmqiD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn0hScc6XLXnXFH%2F2DB5MD0YPpX19TCizJJ4fT9lQ22P0a4FBGjlM9GmH0drBkMtL33XJYIwIEsepH7PMeDyPLt5NuNu9Na1FPghrW%2FxfybfyBcuu4iN4NVWZxd%2FP%2BRY1elH5cviWhSXG%2B8LKIy8O4qKglGGRwYZSi4p16PLGHN5nY7E1XrCYqUOKTl2N3hvc1GgEy01jmPSdgaAddeMPwrj1own0tby1%2FxRS24QAg%2FqHPKBBTjh%2B7sfdnASpVYYpQs%2F4z%2Fowo3aV1fbdeQAYqP%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909218417?_skw=PSA+10&amp;epid=4056496950&amp;hash=item1d8c60fe71:g:1voAAeSw9ZRnmqfm&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnqw6a15MBWs17GM7ql65K28eC%2BlV1gjmjEBOePHL83%2BEfvqsdxv5vU9JDVWtj%2BG2QPd9LYhARvDSunXZ3NOhqdy18hf58vCV9AITjcxjk8Y54GPJluW%2F0etvBGYCKkemo6VtkrzA8c1qIzpx%2Fy%2BIbkknXNumWdyUXnrwr0fITJXncVLFD5Nc55eeuQhjkke2EGRGCTq9F7ioBGEDIdinid8OT9WV4IyBCXNaMDBBBuarkXbXjPm8%2Bv%2F2bfrGeD8Doq9rTs9JunhsF6rRS7AYuv%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126909218417?_skw=PSA+10&amp;epid=4056496950&amp;hash=item1d8c60fe71:g:1voAAeSw9ZRnmqfm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk8h67vvj53mlCfJpG0D8gEXSIFk3BtVljgZ5%2BVm0XixQ59XWCNZkfIAMQvnX5c68Fm1UciSH9OfSL7K9coqLkrXl73MuOXKIqAit36EsjPUYAVSqPLebwIDDm37wUIRQjDCOYVhClGFTHh7XnCjmffeU%2FgoKcuXhdXEu3IbEZbGQ3U87JRMkXJnY%2BEOG%2BxJJfMNEuB7rMuV%2FZHdW0OBMXjuM%2BG0lenEzG05lyPwTMyvw%3D%3D%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366530781?_skw=PSA+10&amp;epid=7062932923&amp;hash=item55118ad2dd:g:aiwAAOSwRklnl5Vk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn6Kge1O5gAzC4yY5KTRKqquKc5eGIHGU8SbSpcd408YQ%2BasXpnpW%2BN5pHl2pzrnoDpQ1AQmmQ8fe7CyDY4%2FOKAaBDrUjf1NojeTkypC3LtwJVCqwDG5XzMtgLKpjTmWZSjT4%2BjoC5UyZVGUmuqaADKxWhfGJgd4rkzfEZT9lyM0rnBFIstEQFe763brGX4CTYxdPM4OWraVI%2BQK6KjTzvnHntuPQkyQAnplBfEmy%2BbrQ%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366530781?_skw=PSA+10&amp;epid=7062932923&amp;hash=item55118ad2dd:g:aiwAAOSwRklnl5Vk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn6Kge1O5gAzC4yY5KTRKqquKc5eGIHGU8SbSpcd408YU3jRi4MNzXQ3zXAHQza7m6hSuwBt7seexyjCfM7GhmoeoUaJlDay6r6K4V0rVPjXXv1VXAI8EUGvAPBQZ%2BJHokk%2B0k%2FDWwcRSaIwaGlHCzCzWtDsV05drnRLJ8vU%2FXI55gKbw%2B%2Be5uwjfwe6ZsdX0pL2JAh7xD9YW1Q1bUgfdOHzc0BzYx2g8GNaW540J%2BppQ%3D%3D%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366961502?_skw=PSA+10&amp;hash=item551191655e:g:BagAAOSweSVnmAA~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkXi0RiTj%2FE5nMzZ26%2BYrC0aeJJnJ3JL7GaoL4bxF5SQeuC0h%2BuoRL%2Fji4xLSWyjTz5UR1gC%2FqRF4YIdzNbrIdJWLkHmzQ2ce1TMop4ucQU4pOrnG8g%2Frie%2FWZHYOFCIX4zSbnN4K8riOsleAk5EKhQMYj3zf2B2LX%2FhES%2FAQR23kV9Mpl%2F3tuNACwSJnl1O9uqwmGK8HMgooR6ULPTiKyB50vlxMdF8X1oV%2FxuU%2FC%2Ffg%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/365366961502?_skw=PSA+10&amp;hash=item551191655e:g:BagAAOSweSVnmAA~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkXi0RiTj%2FE5nMzZ26%2BYrC0aeJJnJ3JL7GaoL4bxF5SQaWJgfOaaRt67PQxG37hr87fwSr5TDTyFEva6PK5a94q7tW1Qvh8qQxuTATp%2BEbltQg02nH1VYTgvKSPPl%2Feq7c7Qlb%2Bj8tuoKbCiY2yy8xGZdtmYwnP8oivyDw13aWz4zxNczrlfk6IXHJnaX3S8BycAL96G%2F8pG2h4r4EfgDPhIdJ%2FZ93IEpkhuQCHUN6QeQ%3D%3D%7Ctkp%3ABk9SR6yG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954213181?_skw=PSA+10&amp;epid=4067689905&amp;hash=item57889e093d:g:oyYAAOSwpo1nl85F&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnTpoVXGJcl4Oq57k29F%2BrS00maRy4fOJp8lZm7DP4ia9YaxlXULqPQsLP4Q1qox0UGyJMfEJHHgig7GvF5uwtB7kwwZehHnPxUWdjAq3kd3TKYSSQfSDURXfgcDn--5IT1NzN4bO2X5RpCwZEv33evDvd5YnFLYKbYqDfWCcS8U04X2u8oevwnyVA4yT%2FfUItMe2aXMjWppfWlP1D57KjqUm4adD9gcReYh36OcZpAwg%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375954213181?_skw=PSA+10&amp;epid=4067689905&amp;hash=item57889e093d:g:oyYAAOSwpo1nl85F&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkJVhBYOcMx1wvHce8rt%2F29DuiCwp5M9dfhIVy233yisF2mCJqUeO1XUVlyVI8W5CBfJ1I214a0h%2B1Vg1%2BC3Al6Y%2FvyyK45bZ5Qh6D39zXY3h%2FgKbP5cuFkMt%2Bc2EIb64NrPRXtTQdCSHM5vFI%2BpF2OXwRxZTKyGxcK%2BBX7eIpqXudXgEu0CEx5YxqSL0Yo%2BeSzBksa6XG%2FbH%2FtaM%2BNbSNmEa%2F7MtLGlwWvU%2FeoqwWzOTabZqBVgGqJzQd9Bi4%2BsGrEkisyePUSgqR%2F0Hvt64zn%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306066539895?_skw=PSA+10&amp;epid=8058783330&amp;hash=item4742fcc577:g:8OAAAOSwpnFnlndT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmGToJrwJRTvex334QU%2BftaCgpZ0yacUt5KmBMphEeo%2BiZJKPVGS5KZ3jsnj9PpPAzkelbhWelQN06ofgT8lpk0YCy0OSjeUwBuBjVrcu4XPizfitqb0vQqbkITAz34XoivuL3LU%2FZ4g7OO6PmLAEzZGLUUhCy1%2BWs7i7%2BG4zZ3uSW3WnQMjoqkWnSUt0oKR9stkn6vyxE1O1g8HRqD3MA9lytRMHh1eac%2B8aMwuO5IhtXBLuKkquCzDg%2FyFRPaFmuib0czGiUy1GoKEyLcH9Vi%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/306066539895?_skw=PSA+10&amp;epid=8058783330&amp;hash=item4742fcc577:g:8OAAAOSwpnFnlndT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmGToJrwJRTvex334QU%2BftaCgpZ0yacUt5KmBMphEeo%2BiZJKPVGS5KZ3jsnj9PpPAzkelbhWelQN06ofgT8lpk0YCy0OSjeUwBuBjVrcu4XPizfitqb0vQqbkITAz34Xojcm6YOlfkZyeA%2FJ%2B0xtQzGbMPDTKSSvGmvMX46Je3kWI6Yle%2FoUeiuu3OfA5eOakvinyznW552YzIw7lVxbrTnqs8zRkhBqIA0FlC8tLdNcG437KixHH1ZO9BuwX7Gxh%2BUTSY7rxOv7Cgbg3cbIUVf%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306060267134?_skw=PSA+10&amp;epid=6056580514&amp;hash=item47429d0e7e:g:9tUAAOSwF3tnkr~E&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkiRsmqUM%2FTtIxzmT6M6SEbHSlvwjZrXbquPnFcmqRaiDimLcn0u%2F4dyX%2BSS3op6ghP0--IT038ibCIOTatY1089NZom1P3KQISX8pNSLNTJ%2FFevRWAqc%2BfkhOQ7v%2FpDRRjlcARNJgs%2BGKde4h%2FCupj2351Ij9XzLMbCP6jQjCOH%2BOFW9bi3BVSt4DkoAsB52y49gOMCJUOfbYNxSGmJw7biVpCoyrs9Ic6pZASaZcuzg%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/306060267134?_skw=PSA+10&amp;epid=6056580514&amp;hash=item47429d0e7e:g:9tUAAOSwF3tnkr~E&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkiRsmqUM%2FTtIxzmT6M6SEbHSlvwjZrXbquPnFcmqRaiP10f4BfC8hBA8DJLPG0c2giE7i9l2daUHE9oTVSxlWGToYDtUiq6hVkYpkuBN7oIKKsnadcmhxqj1xVTk%2Bws4dozEsm6Upt6FeqajUiI3XRX8dKVIzyfUzfOBLTkYByx0554d64aeWpGZmAmKK4aYjgfQ9GviI1iNkP4og3DRnK%2Fu23Z%2Fue8ZIETjsVaQgsOw%3D%3D%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286298172309?_skw=PSA+10&amp;epid=17056559071&amp;hash=item42a8b36b95:g:BDgAAOSwWaJnoCI4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmp%2Fq6S6O3xNKC3f3Gz%2FAhcAb0fx6%2Bnpfve6Ukm8z%2FL83P5ke8Ey6LgNgN7ZReYQaq014B%2FNGsKEksAdyFKIuGvay%2Be3Kl9NDj0UliHBx%2Bqs%2B3THPs7dBJINyBjApuWG9pEL5Nn4WZYNfVmycnCvLUo5m2N0TS%2FC7U%2BWJxn9742r5hqjCnnoxozJiJH9DDianFCPvK1ic0gTAbdS6b0DswYIw28KjNRQQimCCzCvjdn1mxvbWhOfL1znBdypX%2BYTsmkF56qrYsXFEah8b13UgWM%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286298172309?_skw=PSA+10&amp;epid=17056559071&amp;hash=item42a8b36b95:g:BDgAAOSwWaJnoCI4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmp%2Fq6S6O3xNKC3f3Gz%2FAhcAb0fx6%2Bnpfve6Ukm8z%2FL83P5ke8Ey6LgNgN7ZReYQaq014B%2FNGsKEksAdyFKIuGvay%2Be3Kl9NDj0UliHBx%2Bqs%2B3THPs7dBJINyBjApuWG9qy5WLznff1P57V2RwqSri%2FftbkOvaZRSjMz6We0yjGt1ROTmBk8%2FZ3gLxvOdVf2wSprzLAYKsJLAtcyxKkIR2oWoR0PkQZDUki4sHt%2F1e8%2FJMcpGbyag5rcIyN%2FlHW6w4%2FwxUiXNAcLcbKR8FHaK6m%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375966206367?_skw=PSA+10&amp;hash=item578955099f:g:C30AAOSwNzhnXYmX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlxEjSMYc6%2FZptejJTZT3A81G5ycSlPSUuX9jk6KEd5t%2Bd8CbcALikd5o0A1XnTgzm%2Bqi6OcOLMl2VnlnJ2KUcb9OcJwdLFoIpg1Bt3gJmj7U4MWKLXdCMh6kEzhDJrZ%2F5Ey6KzIRWHG5jnJ57wsrVAfDB5w7xvkicUEXu4S29UMsyUAEYGjJeb8iLDNyeBs3l2zzM6Ia7fap9MKD6zx7IyO7ipCGVetRrvZFD5qEGoPw%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375966206367?_skw=PSA+10&amp;hash=item578955099f:g:C30AAOSwNzhnXYmX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkgby%2BSb5%2FQXJGgQiNUeF7AC%2FNLzYZuEu5XxrmQCZAkXLQSaml9hFnMmKonEZRw0IvNGw5kCnDq0jR1l8%2B1bEy7EU0qvzBuXLRtgMGqLdp8ppvmYHLC6Q2Jmt9p1yhD5Ct%2FKPXQJ%2F2QVUH9lWUexQs81Cz%2FC9yqvdtBcsu%2BW3EKdSoXWfGLBBm0UZL8u858VkGRxvlGqlbieQHGVxVvgUN0tQoIymPDLGae1mJsRy1gcGEgegSgVdPG%2Fhpg7IIv5XIplgKrc7K17bVAN6q5P436%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116437614072?_skw=PSA+10&amp;epid=8056552848&amp;hash=item1b1c38fdf8:g:8psAAOSw20pnehi-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmwC4xbc6hHaz9HjAezeSP530E%2F0qcKXge8jFxpL%2FRnaltx%2FxJOVpjxOgXlH4jzo8F3%2FEYptfOkCWDwODckDHFJPo5nzxEVHCPs4xiWidO6Ru%2FvWWqSyzwt54dah2mlzpA7JmqOqVjg0ew1mgafU0rEJw%2BK%2B6a46sAZ9zwDmEidA7yuNczizJ2UZry5iQj97CUF%2FsZWhgryGgeT4%2BmLhXqge8vmhKBeKxdPj4kRIOpsJQ%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/116437614072?_skw=PSA+10&amp;epid=8056552848&amp;hash=item1b1c38fdf8:g:8psAAOSw20pnehi-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYrgDd5KNZsuKP%2BR7PugVw4VoPvI38TCnKlwBXuBdC0efNfQ9E7mOstOsHExABF%2BXi6Le%2B9JCjUe6K7KRydoIW3C03oFQZ4jXYEbMJ3nOiO%2BWp4Cuuou7LbZpNbOWfZgU3evVkaTdG7wcFaG1SStBN0TmfCIN5UZfFiP581I5Mhp%2FeVh%2F7lSaaHKfIizXzDmNhpNEFM2fgnmhzrKxsSGQdFLZAk0Ky6oahF3yQmkZuaSsJpoRAgDfF2HxqGYEmCo8iGJdpqvb3mcKUdjK2JjTz%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186926100148?_skw=PSA+10&amp;epid=23056512900&amp;hash=item2b85a9eeb4:g:hcIAAOSwCUJnoEvp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnipsEDyOXJYjviCTZ%2F5qbQpPuQ3xjf2kn8PMxypk9XWx7Mgb6qwovSKRFVUMjVjk%2BphKUaY4Fd1IBHrknbWxahT6s622eO3opudn%2F2yxskezyYizsZ4mNqIcbt98LzuXunRafMlBGJLBFMiEFoi2XdFYz0XwgUXmysmjv0vv%2FqpEQimxJiH3JPhWj%2FsNM6FOTiK%2FHWus6qdc06MlVjjfXncSqqi2w1ZxZATXDKviRgrA%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/186926100148?_skw=PSA+10&amp;epid=23056512900&amp;hash=item2b85a9eeb4:g:hcIAAOSwCUJnoEvp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnipsEDyOXJYjviCTZ%2F5qbQpPuQ3xjf2kn8PMxypk9XW%2FFGzonUUgG%2Bx%2BJBqluF1lb6UO98T77nyy%2FJPiNmxYRMtybs8lX1GUy8QmrZ5lAKlV%2F7PIFOd1YxsZpcYKSLYBpem7LgkQ20ZfLgZQbsfhdqp8z%2BsJAAA03gykCEYey%2FMeYUu%2BhiSWM9lAR5xp0Oj9bBUsNUZqWRKF8HEhSIsqeOn3Zy1YVtrqTH9ptDzgOiqw%3D%3D%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909214638?_skw=PSA+10&amp;epid=23056535348&amp;hash=item1d8c60efae:g:2wwAAeSwtLJnmqem&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlGrMAWNKgyYju04jnPrqty1UrClI8b1piEGEhbEiq1oZtf5THt0MT%2Fck8lwwa3%2FZLXyTFIP2ggWD4XmkXI0F9B%2Bju6VOwJSUvjIBO7E%2F4Lcrumrg%2F53a8kNhgIvhSP6lV1Pv2Wyd2elxttjL6NVHxRkboEwFh5KR9p8bGizsSqsM3iVRssO5H2idorpBSvEjGY9kfp9brX%2BGzf0ZO1Xg639VML3WVb%2Br7mq9ff3F5%2Bdw%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126909214638?_skw=PSA+10&amp;epid=23056535348&amp;hash=item1d8c60efae:g:2wwAAeSwtLJnmqem&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlGrMAWNKgyYju04jnPrqty1UrClI8b1piEGEhbEiq1oX%2Bmr6UGoSdf1HZU%2BMUFuuwiUwfp9xSWSPq0g9RWmez8x4MKs%2BYKhHsWP%2B9Ojbva7iOQc5iSf8cRUoXNdYaaSxIvjGR00AzDlX4C%2FUrnw9YU0DoWFEh%2FyLfa35uYKulHYZRwhbV61nGA%2FiB5LoJfXxUzgvQwTypBzDV51HRzSU1wte42Nk1TXy6D6Z%2FsgtoFeA%3D%3D%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126912483658?_skw=PSA+10&amp;epid=22056500798&amp;hash=item1d8c92d14a:g:XzEAAOSw6P1nnDgI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkBFw8vFA7etNOxy6HknQky%2FpUFxoEDJ1qyIybRy2QbR8ZxzdRaqQI75vwZL4MK2mnjpnV9zMNP%2B1V%2Fyof6rkci8%2BVvMc0KPd%2BXKNiGwc7UHVqtO7ALnfSMAlnMvjvgYe96FI40eVmZmD6c53NNcWDIP6NpAsPVQdqthHKvH1bEWx0l2Rg%2FaslMiRVkBGzG94P7vOf1K%2FsxUbz8%2FiYTgXLD3SfhjoNQNISRhU3is%2B1PnQ%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126912483658?_skw=PSA+10&amp;epid=22056500798&amp;hash=item1d8c92d14a:g:XzEAAOSw6P1nnDgI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkBFw8vFA7etNOxy6HknQky%2FpUFxoEDJ1qyIybRy2QbR0q1qt1CiKV5EVVhhCaQ2ol%2B99Msuih0X82YqUtkxsKucroWIYr6rdDLj6LZqnPL3Chp%2B5oTSh%2FjBqK1P2K%2Bbce1BBWT2dibhhN9pX%2BNBHDz7C5vxZjS9xLG1XRBZyAU4eH5QLuYr3g6ZyTXiSEVIxCaNA6Q8YMcM18cCwyO15tyM07KIEFAo%2FKWSBHE48tBig%3D%3D%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387870796314?_skw=PSA+10&amp;epid=25066001558&amp;hash=item5a4ee6aa1a:g:z64AAOSwIgxnay08&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmmueoScc%2FQ1uXA5ggl2sM%2FPNicY3upHu1%2B%2F7MfZNKNdnsbp7GKzwaY3Xs5cipqzES5nIweUIY4rZUJN1pGwP7YKTx6SXZudITCrOqIwm0qRvtTKSeM3%2BGAUF049gaPKSnwl6D2dslhWiBM8QaX92cx%2BPPW%2BGJJrs%2B%2BSfXf7fFwcM4flunpGedfBMl6Xzftj%2B9oca66vZev56UuUoLzTtbjh%2Foivbw3dH7uxcEd661c4Q%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/387870796314?_skw=PSA+10&amp;epid=25066001558&amp;hash=item5a4ee6aa1a:g:z64AAOSwIgxnay08&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmmueoScc%2FQ1uXA5ggl2sM%2FPNicY3upHu1%2B%2F7MfZNKNduou1v8E%2BsahUMrNtUbtfdq%2BjafWEI2AJ93FoDY1YBGT93phDZfIsRsyCtn6CTdw4LsmYv1hEapG2pXDaJ76kCmAAQdP0z%2F703NrAnvHz1U%2FT6E8Q6NrdDcUPO0lnUjMt0IG98wf%2FozIDaEqghtzaS2dWcDY8BwszFYG1HU64Da2sQISqGsVjTX%2FAubjwpH0fA%3D%3D%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833221588?_skw=PSA+10&amp;epid=16056505914&amp;hash=item40748bbbd4:g:4OgAAOSwF3tnl-7X&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmeK3g8DnWz%2BZvBtJv53Xhk2CY1ihrEe5tn3a5ijQ5ZWfhWE3TuJMznlXEX1s3CdjI6Br7o3Dx9pW%2BizYqGq%2FBvkNOtUY%2Fb2sVMgfQzqqV61AyvFPUq8kb8yQJ4K%2FahSmsuLw5vefMrv7lQuAdB28tU3Zx7woF%2FMZKS%2F6J3GnvJkm0RFFhMNPO7rkN3ZyzZSXuz21k%2FN08S8ZxTopUDC54SSiVuglk85%2F9DyyLF2WvlIhd3s6fBfHfg3xpjy9H%2FmqWHTYHArhM8ntnC%2FiA9F7Vo%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/276833221588?_skw=PSA+10&amp;epid=16056505914&amp;hash=item40748bbbd4:g:4OgAAOSwF3tnl-7X&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl5UJYAaz9IKtDBEpSs7UbRkuJF1fveipQ3f2VZ6AJdpzFthyTN8v9ZHnwFKd7cxpa1QQPWH1fMRcYHo0lP4G7IGlNxjCSijjFGJkNNMkBNhwO6QY7HhYXMHoVc1ZmTBgxAZ%2FnRj6qqQwk7XumxkjVUTRC734Y6RpXvaqehyiYJPIWlG2oPk%2FthrgiMxopZEvdwP4RPc0JypFZpTCU7NILCwA1phq%2FyEQelKbaAcLYclA%3D%3D%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126838684546?_skw=PSA+10&amp;epid=3068324392&amp;hash=item1d882cbb82:g:CfwAAOSwj59nY2I2&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl1sFxVp9O27EVyB1v%2BtdINnYKOsoniyOrpeGortferFRoUHU2etqDxA8F2%2B1zgHgb1UnfbKDiBnV4FyoDT5AEx3CNyUChPtSFFEByORKbbGImqgmU5MzmZKsXpeCM84KKRrVXZ1rXWi7h3Td3twRdmNa6UbReH1SU8T1z0sCHyNwmzdY6yIPV6%2BALCFAjQMWabq%2Fs0cep9hqYiI8fHUQPt%2BivXFwWiGcM98178yeqYQw%3D%3D%7Ctkp%3ABk9SR_DS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126838684546?_skw=PSA+10&amp;epid=3068324392&amp;hash=item1d882cbb82:g:CfwAAOSwj59nY2I2&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl1sFxVp9O27EVyB1v%2BtdINnYKOsoniyOrpeGortferFVR1IWGfa29lw%2BHnGtrUqPUuUvGUqD0yRLMFRJxWKiHAF5DseqoUgzXg8MYDxGGkFQpNUjJlpDhLl%2FkXgHcll%2FczTXMGmtEloBBwPUdyOMPWukgE6ODAdit65H81TbAg%2Fi9EysRFG2BIxLjaTnWDLmqyCVcq2PRSGjthBKFP7YGrIFfEnQenTXpGElyiF8rVtg%3D%3D%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958404471?_skw=PSA+10&amp;epid=15056570426&amp;hash=item5788ddfd77:g:wPMAAeSwkL1nmqdE&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk2YdH7Q%2FuGMJTeHm97VXnPpKPT1dmGovER%2BRH1HpvZHV7uRmyqWehh%2B3ThXnSSpBTjiggB63Vf%2F2%2Bsn3LMrNb0YjnmwrPWjKLMgpCr8uuHZAkrG3l9R%2BDhpCePGid%2B%2B8wjbQ%2BdpyMvAtTDiDn4rMFzDmAj5ZDqj23oMJR74J%2FmYBxOBgb71tVKbsRBlHZGMOiCb9LKVzcpIV4YWyFSoa1ErV4896rFdX3NHvl4XJgVGQ%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375958404471?_skw=PSA+10&amp;epid=15056570426&amp;hash=item5788ddfd77:g:wPMAAeSwkL1nmqdE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2BlX1akHGGNmpsZAVtVAcDVBDqp3fvjUST0ju%2B%2B8JhBw6UWh4QfnoE4sB7TnnQNeikplheNgkflXVOoV6YEYCy4HfvoRQXsvKtkCu7S6UzTu2KjQHaMoszAHrnjTzYR9RriP4WS%2BGLI%2FT3G%2B%2Fb1g%2BTcZ6VhvsmBbyvu3Zouw9C8aXXD8cbJDe764PpmRYnyxbpiWocdlFZmjSZE1Yv87qCOtBlD1mvXT0mk3iy27IqzY3LnuLcwKKAcGsKR9xEUvTVefURCVBLIgIh%2F1Z633ZH%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335787409388?_skw=PSA+10&amp;hash=item4e2e7d3fec:g:S~kAAOSwXeFnmDIx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmmT81UH8PifhQqjP%2B%2FAG%2BiKlfcyU%2BWklWssJ8xuydeQX1LeJeN6iGMquYPTUsWt%2BfjpZWAc9kN5DJox68OEFY5J0w8xwBLL%2Ft0wdit4dUZo%2BcUmEYyqxz8ToKB%2Bre5bCpgP2wBye356i48TuPYHreUau%2F19DQoZYNb1AJ9Z51oQrVFbluh4o5GYPKYF042f0Stc8YutFKU6lyQlnRe5jpwxrmj%2BZ2f%2FH59ta1l9WLqSjybpNwL2r8nZmodeCFRu6jOKrThr93SvVapstPYy01U%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/335787409388?_skw=PSA+10&amp;hash=item4e2e7d3fec:g:S~kAAOSwXeFnmDIx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmmT81UH8PifhQqjP%2B%2FAG%2BiKlfcyU%2BWklWssJ8xuydeQX1LeJeN6iGMquYPTUsWt%2BfjpZWAc9kN5DJox68OEFY5J0w8xwBLL%2Ft0wdit4dUZo%2BcUmEYyqxz8ToKB%2Bre5bCr5JLfrdiJugyjpwPEs3mdN%2FsWXao8F1Bd4oULWnOtE1CsPmgJaLr5U%2BYNDdqojn4xOsOIaqww4wyUm5giGI8QuQ%2BIl88%2BNyHH3rgdnFkiW9srfCQPuQrfTE3FkwaUMCvW8mBa76AMif%2F9qXBtDoOPW%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335796434112?_skw=PSA+10&amp;epid=13056576108&amp;hash=item4e2f06f4c0:g:J40AAOSwF6ZnoUKL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlUBX6B5JbNLOTLfeInufa%2B7WNhZ8D%2BbykTN5ICxNgjA4V8gb%2BgfwvSbwaUe2dnXwaNhUmkoiQhzhVm2zbcVzLUdn9yvxOtQfKAanCSTd0jaw4xEeZnOmPVtLZEZ3OsLcDE%2FEFMj2oZ6CcW%2Bvzl4zZ5QNJ%2F2BM6EGBJfCGoo4%2BvTly9T8Yz4gCsZbAD9ddUTaGRzmGH7QEhkGCKUdg%2FmigJYV2qp0CI0Ef1W5XIzAaRVA%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/335796434112?_skw=PSA+10&amp;epid=13056576108&amp;hash=item4e2f06f4c0:g:J40AAOSwF6ZnoUKL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlUBX6B5JbNLOTLfeInufa%2B7WNhZ8D%2BbykTN5ICxNgjA65EAaCCgap%2FaX0J6blmZ8Q7cRdt4KbGxIq%2FeW%2BoNIvAWCu9ruq3jHSbQhNxMK89vDiennVTUR4AvMUpUNoVXqfuv286ZrYcoqrYTrg21f8hXUs46LFJHCYWP4N%2B96Vp77ns25%2FTMz5rws6phz6wCQAPUXiR%2F5Vq%2BUTi4WeIwKuKQTlmnE4VtaUzuOWY9GDBdw%3D%3D%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/394911739189?_skw=PSA+10&amp;epid=17056504267&amp;hash=item5bf292ed35:g:fiYAAOSw7itlGeIP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnzxACfJWGGHEqRq60H%2FqvHGp6qn64rFeOc1apWQH7IUfb2RPowKszA5AQ3rI897NuCnhIMWW%2BVOk7WTi6vkB97D0b5TBMjkiVxNf2c9WyxmyEeCMPNoW5jkUmTRzqorl013AuAWn6kN8CioyUDgMK7mvMg18QORRAkAZyP7VhRQFPvPDOo5eHsKEfo%2BTCP2xelt%2FD7OpdpAobvExFHbwXTGRZls0qCD7AKaaireL7KeA%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/394911739189?_skw=PSA+10&amp;epid=17056504267&amp;hash=item5bf292ed35:g:fiYAAOSw7itlGeIP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnJ1SESseRFLGL7VYaEhP0Q2vyjE6O7V30u%2Fay8yxLcF1dQC4YmVxElViqIsV5xi64MKEVclh4%2BMpHT5bsQzkMp3WaKXvjagQgYlbKHLUePqkGHK3%2F2ckBQsxcUmjXI%2B3FeqaOzjPR5gDXUQGXoLSsst8e%2F3mT2vdiVczPP1hvhVjUVrTdjVCjB6%2FlQ0RjXBkDKsBzBNgqOdHgv3xIehdxigZt2WuvAhMpcJOG9zgtWc9j8K7m9qaGi8xtAxr%2B2wVNoeEKE91h1xFquACGPhDTN%7Ctkp%3ABk9SR66G4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958402217?_skw=PSA+10&amp;epid=8056505784&amp;hash=item5788ddf4a9:g:3L0AAeSwv-BnmqY7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnghs2Q2SmOxZIYkrEvLFpNLSRbKBXbRywIJpdC%2BadwF%2Bx%2BifAnh7qJT7xeO5%2BgztD6giWuYnnGjsZ1EqrnRbqTwDNx9v9R30bSOG9AKiSgXqffAA06XADO%2FE0iYmNkijNdEmbT4etVAmNK%2BAO4VeOU0URB4Yc3k%2BodHFUg3XC0%2FUB%2FslC615O13ZbL2sWX7Lzr1xZNCslW8%2BroaUsOuL9ucHmjj8gecM36IrG8NG%2FlRg%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375958402217?_skw=PSA+10&amp;epid=8056505784&amp;hash=item5788ddf4a9:g:3L0AAeSwv-BnmqY7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnghs2Q2SmOxZIYkrEvLFpNLSRbKBXbRywIJpdC%2BadwF%2FA895ZMHz82JH7FkpJEm5UYx39dpjezKeFFdG3LmtUh5%2BqlzvlD2KVDWwoyDuTm%2BSng5gCXUZ%2BI3VlywJJYCE%2Bg7gR3MJAVib7lhJn0VGSvLiT4Yq5pCFEj%2FsI2JlnJe5ok6k3lh%2BfmNwXaNVj7b6x3OQJVr4DaRFi2OUJ374L91Q133TZTNpe1cDij9N7AuA%3D%3D%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335789770143?_skw=PSA+10&amp;epid=17065166050&amp;hash=item4e2ea1459f:g:-xgAAOSw8ulnmuFu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlkOqaRfLHgcFcsVWKquP5bmpa97Aic%2FLyLtEh39vXXbFPwbg3hCcU5q0xiGx9k8YZ16oWXd2dHEHdTevIGH2zceepo8IYS%2B5lHr2Y8uE568d4uKG1t9dBL0fcq1ySmaQr0OiQhMFcy%2BkeOQ2cBtp0yFKkfVzl5Q%2FqTCTJcnV0N2YpW6j1stqZ5E6XX3WBJkTtTU3tJM3B%2FRitk47VQ59FucYksbnxQPgfNZ%2BKHtCrzRA%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/335789770143?_skw=PSA+10&amp;epid=17065166050&amp;hash=item4e2ea1459f:g:-xgAAOSw8ulnmuFu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlkOqaRfLHgcFcsVWKquP5bmpa97Aic%2FLyLtEh39vXXbD6fD8zn9PN0%2BOqjfI8g1VfLhNlIuw1IHhK0rF6oTkiVGYxQcWFroC2OcG0Oii5B4jdKZfx4q90mc26N9WnYsketMRbt65qax6tR8EHgR0AgYwkVYcb2vRnEDOs9CSVXM9UvId9VZS%2BVYXIEgy8aR68hmAW27RMm3PmjU8P6Kltj5Q1MjEUFYaoENKeo%2BTh8ag%3D%3D%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375360006600?_skw=PSA+10&amp;epid=18060326906&amp;hash=item57653329c8:g:IFEAAOSweoFmE-n9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnWsUNe2zXoJdNVLPXd30DnjM4sWj6GWZnwliDCWCw1DeWC6RdPvaJUPf5I30NN2bQfzNuladsRjkNWPBZ7EzlvMRqBZtCKK2mMaOUOSksvs9yZWE3r4Fphr8l2Zd7f7lxsz%2BQ2M5UvuUlY6DoK8sTXIwj8EF%2FDm8QbkKm52DJmYWf98RpWXyvAKzMqIKDHsKgzCdDkB2BjfayyU6bRdcSvnAIl5EchoPz8A%2BWFKOlrptK1s6s05hYQUtx864os8bNf17iuzr%2BkVzVdc%2BLCzzd3%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375360006600?_skw=PSA+10&amp;epid=18060326906&amp;hash=item57653329c8:g:IFEAAOSweoFmE-n9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnWsUNe2zXoJdNVLPXd30DnjM4sWj6GWZnwliDCWCw1DeWC6RdPvaJUPf5I30NN2bQfzNuladsRjkNWPBZ7EzlvMRqBZtCKK2mMaOUOSksvs9yZWE3r4Fphr8l2Zd7f7lyIDxrnb1RpltOLZs%2BSP%2F0B6bB5kdah3OwYWCOmVpfFoY4mIGOpSKDnHr0wI8juLfRkTtPsWdmz90MBVznZuQbAW6TNGtPZBpe9cE2dCAooy1VUO%2B6JT99zVZRjAe34BorBQafe4n5LwEQg8RuFeiHt%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958399387?_skw=PSA+10&amp;epid=18056568797&amp;hash=item5788dde99b:g:wJoAAeSwcQNnmqXx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkQ04ij4s3fhfsxcG%2FjF%2BNEqXfI01gNJ8%2BL%2BMewlB4IlyWmwbXYBCBJucMButILLnGdiyrvRQOojjAiP1W18JvJ9%2F4XVlpqzpne66GfTdki8I3B19FAVXpF%2FeZAOlL%2BFARtdeIxt26f8HGG2ErkuA%2FWqa%2BXOG6obEOx7%2FXdQ%2FrnZr53j78qSqCPXu6cC%2Fk8AxKXzzWEpN4q5HhMYkfwA6MCWc54HqTqLMv%2FgePfKohrcA%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375958399387?_skw=PSA+10&amp;epid=18056568797&amp;hash=item5788dde99b:g:wJoAAeSwcQNnmqXx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkQ04ij4s3fhfsxcG%2FjF%2BNEqXfI01gNJ8%2BL%2BMewlB4IlyGUGKHT4OclRJ0WI4RvBx8AOAkz0h5nfqU04T4BsBIUlrPs1hq0EzIgc%2FbIlbj9w7oKrU2yV7yT2JEjkqh0dn96QzznIjxzy8iFH%2FFknlJ60NytP1LgPQ2VJ%2BKlE6SGntpyEjs5cuZVjwLqdIShqAK4T3M2x7LyKp5cpGDIK2Snypqs7VBd4h6AM9rhtsE3WA%3D%3D%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909208722?_skw=PSA+10&amp;hash=item1d8c60d892:g:3gsAAeSwQSlnmqZY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmJkpHj4qiGH2gF67i00lj%2BX%2Fg3SRxHQdv5GeM3dqyEwt2zXzvmFP8ZMjZ1T8Y8BDXPGekVj429PG3%2FwWGEvFFRm4AItpFpE9oJS8%2BE4tDZe%2BygmH2xw2UNte8weiKoo%2FJBjsV%2FPytrgL87Z7kirhDQjBvrizq%2FFnfEes%2B6S8evkMBjdsiuTCGZhDtpIqGYP9TmsO7PUW%2F1hS%2Fah05QA%2BO5QCB15CxOPCo9hxMj5vvptA%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126909208722?_skw=PSA+10&amp;hash=item1d8c60d892:g:3gsAAeSwQSlnmqZY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnfCtPIJnx5en0ebGcjqQYNANX5PRy%2Bs50EGYgD5agXlRutI%2Be6MpukE4g%2B%2FqFkic7cu%2FBNxghc7bmKtZ21Fydep7nYemL2ZZYu%2BUoxK4P4MxEbfStVHbmMET--J8dsabDD%2F5OkqbvYuncrzfWivwjRRSruyhwcYTUqgevOGg3nf3Sm5KzgT7BqwcKc8Vm2RcXQhmyKRvColimAW7efWtn0CnUamwwNsViOyT%2Bt%2FoC%2BakLy3NTDjZPL9n8vBeU6n%2F9YdUID3rQss2QtIhuUQWuA%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909206704?_skw=PSA+10&amp;epid=13056503406&amp;hash=item1d8c60d0b0:g:wEMAAeSwdtlnmqXg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkEx3kGUEl8tS42U0n6HkE%2FpiKEvQOn5aXqj%2FV8cxp9VQrJdmuynuUFM4IDziBi0PmtLTSjVTJ8zWPja2M6ChHUOFv%2BHn9REYSQaSUno68rcztMil8S%2B9uqw7yxV2HWUjJ4vnsQ61wO28C2X1QCuGu9x%2FKLZUn%2FOFevA2WV0%2BqYbhkTswaUMefEo6LrjDo1qdcRSeavQd3tiVh%2F18dS4dvuT1xMMwc%2FeOY4iTQMp8XJXQ%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126909206704?_skw=PSA+10&amp;epid=13056503406&amp;hash=item1d8c60d0b0:g:wEMAAeSwdtlnmqXg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkw4hLgHFGy5OPeBPQ1P84o03k4IUhR0%2BxBjZ5jpcvVGth5mm%2F63AVZpcDVDz5bSOgQG8n1Q7ikDuk9iwuP60Z7UyUxk%2FKM8MdNdD1D%2BEOZXMP1cQ1WcdXWclbqKaxqXnM8Iq4Ka2ZQpslTNDyjSlmRrOsqNhT6CYYjPrL8e9XPzafdZaWpVsPyj02Br4f%2BmUrCAX6LRmZTfNsM5E%2BAYMbJogiHPe7cWKbm2BQi4C6JhLAsAagC4bjgM%2BhymctaaVSeEQh0PMNVAeOMsGBGCvhh%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909206656?_skw=PSA+10&amp;epid=2327577199&amp;hash=item1d8c60d080:g:1QwAAeSwdKFnmqab&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnQ1n7vE07y0%2BXq0e8Dc7N78XrSjZUoyAGdXURc0DYArZk6sFaMgHgfuxat5qPNBzpdUlJKrlsVMOoPkIkQlL62sk1DEVTreLcaNv3ElBp7z4HKDMHEU4kGlbad%2BlvQSWvCY%2FZVGc2RyteDr2fkafVpBXTpxrguE7FDBkIv6%2FjyBRuaS43jw%2B0EbsUiHNjp0rtH%2BgYpxezcQmDgtDLdQPg97g4z3rh%2FOIXYAorSZREl1w%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126909206656?_skw=PSA+10&amp;epid=2327577199&amp;hash=item1d8c60d080:g:1QwAAeSwdKFnmqab&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnOGWxgTVCd8L%2Fas64i6MmyirOsZ2sXryUBVhhXJEvKu2Fr5%2F9ksc8XmB0bY%2FHPa37znFLT6DzNB3%2BbASwaRKMFnIVJqdmzhSM3qIIc8%2BK4oxQeE6s1mHNTQ6HzRBI6egbSEvFr9njU80bwrKvJ7AmvsZ8Xk792kWIYUKYmqn5BtQgE%2BO%2BMUf0%2FmEsoVnUIGFt52OI5x1ID8CrWZO%2BZULOSOm1nge%2BQDbHJqrlkGsmz8j4nYjKk5etx8hSoQRQAzCWL0rzcjrNcCR43d5ZwllUx%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909206261?_skw=PSA+10&amp;epid=11065149602&amp;hash=item1d8c60cef5:g:25wAAeSwOVhnmqaJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKle5YjWLulxtebTN%2BEN3mq1UVpeqKSRfdy3DiQJwQ08vTn%2F9TPHasw7zorie2bFja0we%2B3qVf5Z4TLn2eOGQ6gtqNDJzh1jd3UbishLDzj5P0KmuXjSa5diTk0HdfvP%2FpoKYCPruua8FzcFf1XfkREsEv8RghfHCnhXGUsB837JyUJvJpxw12%2FYikIljfBkdYdzf26xmw%2FquPRjAs3IdBbQ1dH0JcM6POqmVkE8d%2BpK6w%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/126909206261?_skw=PSA+10&amp;epid=11065149602&amp;hash=item1d8c60cef5:g:25wAAeSwOVhnmqaJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmbbqq5QDiSQN0NMEYuDjEuSBdHLjvLu3PegQxJ9jsLi5TvJq2mnsUqCSkt4eF51dCKCT5JMs4Nn2gzDmju70ATbsnm1nc6Lt8OQDJTFcucA8wV1CqsbuLjGByTR87xynGKtowZsvY%2BAFmn8INtTnqiQZbXZhQrB%2FGxJx1V%2FD6yS2JbXlE1XdkkLuxn4VrSGGnmjNAjvjr7DEkoO4%2FMy88HAtYCXNsST8moSOejr9%2FiBKjSIjr7h7pTaY0WovHh7iUkExuOq%2B2WqI32f7rYXZ5x%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286298126554?_skw=PSA+10&amp;epid=2327576404&amp;hash=item42a8b2b8da:g:UTEAAOSwEKRnoBik&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFZ6LN32HIboc6yDMoiW3GRLMv4s5x6KVI4gr2kJtG3e%2BfF0APLFI4SXsB5Ny8IF2ufLRkAYEy%2BHQsCbIVxaJx%2BrzhpG697nwya9g8COfCYG94lCA1rZ74fYPghuZtaYQ60waDTwKdkRd10FsQAMyXIEyP4W%2BTvOdPdjNdOUHgveMuVh8HLgTLQzElo7ryj%2FseP0MuygyDCJejq5M46n37Ki6X7Fxg%2BN6un2py%2F8eBtg%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286298126554?_skw=PSA+10&amp;epid=2327576404&amp;hash=item42a8b2b8da:g:UTEAAOSwEKRnoBik&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlPNhUUqXmtmkv7Tp%2FbGcR4bO4cLjMe1D6i545m4lRlJmRXIdkXJQzEbZqFOvfX6qzbd6MLxLAm63Ou1Jjc1GQI1PpHWRMOQdmoVtpYlmefJFQ%2B8vw%2Bu6bMYxktdh0Wu2CjzywmgFpeanlKtlG6aV%2BOsvKNxDchD1V5V6B%2FlNp64N4xuvu1dYvDwy8turvc2cEfW8Wa9im6NW2kS%2FHEipbh6fPWLgfJSgAjUzd9wTFJOYyRrpvMS8MBgeLmu4n%2FRG43kJboEsk34mmAJZvs9SHk%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116459091406?_skw=PSA+10&amp;hash=item1b1d80b5ce:g:ZLAAAOSwSqlnQnaI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlrJuEwzfGvLhd1T%2BXSaCHwZAEvt2G1zZyOJEqyd3bCQ1Lcf6QnYbl%2BnVaFYrytGgkb5ISSAyQbqrjcjhmhCmFKnHl8fg1FQZM5wo%2BUlfbnucAwPCiTrawVIYulEc7sDME46PETElsxJSGbKeZ1Vvut6upzmV7wd7NuZqVz6yzCMtI1cC3rPUKZYm0EEqtOR5jWljSdjdCWm9Z8uLu9wZBJt8zowJYxScF6C%2Bpa57dQavaIyCVDYmIHMT0HDLJsU0wLH%2B86%2FGB8Uigq2JsHvbEG%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/116459091406?_skw=PSA+10&amp;hash=item1b1d80b5ce:g:ZLAAAOSwSqlnQnaI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlrJuEwzfGvLhd1T%2BXSaCHwZAEvt2G1zZyOJEqyd3bCQ1Lcf6QnYbl%2BnVaFYrytGgkb5ISSAyQbqrjcjhmhCmFKnHl8fg1FQZM5wo%2BUlfbnucAwPCiTrawVIYulEc7sDMEW5J0W0P1kchxNnKZyBtp26caiaa%2FQBJcsG749iGGDgwvvdB2Hyi0NLV05LjPbqVL33jZRreX7y9U7DZXBKO1TYrX3SitzesgFGoY1L9Uos4ORpmExKHLkqwhLk4OO%2B7phWaJjPRC0gQncMU3IyU48%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146359286992?_skw=PSA+10&amp;epid=3056541916&amp;hash=item2213b17cd0:g:X5QAAOSwzrdnmsXg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmuu%2B3nKfWTXeC26MZZkDRtxLc1yceLhMI1NPUkV5UPOqwx5HiyAxMQr%2B2kOLBMetSwMn2gQOQXqeBD1kh0r%2BKrdpPdhd8FKv38Zyhdep46zz1dyduVYaZqEPiaB39neEQSiGh3wiuoGHDs7gvZII1w%2BzH7R%2Bpiy408Ob%2BeiGdbSjQ9Kyzy3s9bVQbGJWYcEAGEtQITxNLrU5lE5wl2gh5uQY6GDTL4VcVLO6zJ0YVrqA%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/146359286992?_skw=PSA+10&amp;epid=3056541916&amp;hash=item2213b17cd0:g:X5QAAOSwzrdnmsXg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkXD6SELPuxxGLBtBeQmQb%2FOLwsqldojg%2Bsi7Mj%2FLmvc8Qp74C4PDNWNO52HtXAhw0KY3vAnLjrl%2FuNy2KiRKIcXW1p8PecDnQm7x4L881SyYDI8M%2FrycOz228aOwZKOQHItDdgVSYv8tUh4Jwj7vObZp9C2Tu68m8T7W9%2Fxj7bBiilXjHyMAZKXWKgAnu9F67pFuSRgdVUMxGJQEkZMwEF0Z5TuBdicG6iYQCykoiqyymg2yQ7MhwoxXr1nouN3HVSOQ81XsUeWqeudTncBFv%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296969448438?_skw=PSA+10&amp;epid=28072582378&amp;hash=item4524c22bf6:g:zTIAAOSw7QFnmAXZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlAl1bZ6D9Q%2BO7TDJ%2F2YH4t%2FvsR9JzyQIjIeSYVmitgyQaXLi1TthXV05pobIvotmjJoEw3LP%2Bgj2Zc29MUQqq8bdccDExR9sa2CEyQrutcPJafaMW04LArI51S6NcaxlgvT9Q9%2BeU--n9zOeUQiYg2z2XnnVf0lYXpDvHQTpf1NTccEbpkP1XHCDBtty2OsNSGr9ruymUDlqtjFWNvd7JNaRQ97kRoaXH7yh2ZYE2yS2vyxh2JOgmRSherBN%2BXIz7QXlEwE9B7D9c0IPNhWl%2BC%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/296969448438?_skw=PSA+10&amp;epid=28072582378&amp;hash=item4524c22bf6:g:zTIAAOSw7QFnmAXZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk9WXNabRJiyA02qmEz%2FiRxXvYq6pQyx1wb1mI0Yu2RfkURKpQHzDWfXQy2LBJmfY8q8PoM%2FYxHE%2Fj0eWZixOKfO7PD9oXUPdDgHa6eXQ4Pu9g3saju1r5Vr5ocMNcPYP3z%2BREOYECORQslYDA3rHJIbMwvjbbk5fyAkrkBSohUXJGczK6NY4OdT4V3WjkhfgUTUNOfXJUGjTeazJPd1DHHqZFqFtDDmOUTtgYtwcFflg%3D%3D%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958396048?_skw=PSA+10&amp;epid=24056503822&amp;hash=item5788dddc90:g:1QsAAeSwtF9nmqXw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1lPxP%2BC4xzLz1RWE3Eogp6kycssyDMiguttvGQhUiY5eWoeRBaN%2FQSqJvafB%2F677vrmmOsJk5t%2BaG%2F530l7gtM0svudENIWI33UY5BnIvGuKRuCE3NPBBwg%2F6ky7swNL%2Bn%2BNkn0aO5CBaFYnXAHRngKUK4DLsrJOGe0eGf0ycl--T1qJzArgpQzACJGUSKcaVzOUWm4JZzty%2FTVlXPM3SsZbYAoaG0cp3LDbJEeFxmw%3D%3D%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375958396048?_skw=PSA+10&amp;epid=24056503822&amp;hash=item5788dddc90:g:1QsAAeSwtF9nmqXw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1lPxP%2BC4xzLz1RWE3Eogp6kycssyDMiguttvGQhUiY11XSbbFobD0wQkO9V5qMcJf14v%2FZGqMT%2FMTxhpGmsvamCbGGyq4Hb%2BueSVFkjwGti%2FqKQyGsQHOVFe4Ar2OiBjrUqK3G0YLkTrsoqexhIvdvKRRe0ZM0kL2uKSV0ugmFZ7B%2BLP7IYGIrRCzteh1ioph9uMr84M9xZ1AaELRGdmnaKzKgCDzsHTiTjsvVjNFJw%3D%3D%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196965357375?_skw=PSA+10&amp;epid=2332065726&amp;hash=item2ddc0cd73f:g:JCMAAOSw7jJnklmD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYpy4f4lFeF3plBOQh2xIpGSBGfFAzSNwAgkZLpB9kN1cI5bb1GGLl8PHM4ToRa2pkCxQWZ4oA9jCU9lZWv0EQnGg96ZXGpP%2FXvg7cq4VjxOKbL9sfaztWrTLEW6wun26ZXRRHy4wdA4EkzAqb1M4kcVxmLUQZ4jpXBMAiXV526UWfhzeI9yE2%2BPdAhi4CipG17HMBQTlPaJUal9iYsWeIqFWKVZwr8JTFXeFPmGQ1FNldkDpr7Vm4vVUQY7fl3nfAs2TkdoyxbFTXGJPSNZZI%7Ctkp%3ABk9SR_LS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/196965357375?_skw=PSA+10&amp;epid=2332065726&amp;hash=item2ddc0cd73f:g:JCMAAOSw7jJnklmD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYpy4f4lFeF3plBOQh2xIpGSBGfFAzSNwAgkZLpB9kN1cI5bb1GGLl8PHM4ToRa2pkCxQWZ4oA9jCU9lZWv0EQnGg96ZXGpP%2FXvg7cq4VjxOKbL9sfaztWrTLEW6wun25yYCyvenpwuvRiv1yr0Oib0v5ARM3SkLX91isX38QIxp8h2mdMF0dNA5nqW%2BQH%2Ftya7HAS1rEmx2g%2BshoJWuMvJT9hHFoBOSIVdZ6wlWhXHSieeaGBPRfhyf%2F9wDu0%2FBIe5eTkhBccs67XJazfkMvl%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256797038892?_skw=PSA+10&amp;epid=21059670424&amp;hash=item3bca4bd92c:g:2mAAAOSw1GJnmAIU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmz6spiFqXOh6ZURb56DX8QKLtiCfftEz2EfEjCNjmn7ygeKvuRXCRY2l0HUtD%2BqhawgnqhvkmAB5FbgHzqwVUmFWlgEP6NOy0nRmPdjnZuUvJdwl1IZ%2FB9%2FA%2Bh%2BYjJHjpNBMxE1385f0fve%2B%2FqrAaHpRqq1zmu3YlNlYJrYkxmbSQ84JWkSX0h05Sp4pADDv0P4fDpa2aZEw98R9uy%2FnzGhBWAtBmAlbmhm6YfRbUtmEkb2owb4vidz%2F8LxDd0Xm3ZmHy7ZCIWYO7Kpj61CfZq%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/256797038892?_skw=PSA+10&amp;epid=21059670424&amp;hash=item3bca4bd92c:g:2mAAAOSw1GJnmAIU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl10yf%2FAqauahz9esJCdanWemvPASisWlA6tUGVGZOgfzDZTEgMXdwAp6waaylNHpQFm2SRh%2F0%2Fl7xnOBPYU5p5gQ7Zfmp9SmL2UcqFDe2pGlSh19eq3M0swbi4hl1%2BxU1ntCallAcK0nDpwe8sICo3ZYOvtMDH2QZ4sc15M5euk3On6YbpfCcWIz%2B1e5jLrqLx8P4COlXYwLfCewFD5v9dxIY96fV%2FGPEyRwCG3CDQtQ%3D%3D%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235932585638?_skw=PSA+10&amp;epid=15059584729&amp;hash=item36eead8ea6:g:YEkAAOSw7jJnl79E&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkHVNaAI7BM6PgsZSIBZHZYpIEafRben3RiDE1tbNTSjPMl4o2yVIMtbV%2BwshqDCUGn4ICWy0qK4LkjRZfsKKkBjnz6SvCS42hVm0R9dXTWhlboAsWm2DX8ASmeylXNCCR6UNMClhcbQnmtiEuDYLqrm9LjPM5yyYGBbwNrrB5ITZ4Np98yr04DQY7pRtPluwtk9PEHVELnP7djLhBoOoZHw%2FtqxvYyrrJGDx5N6%2F5Izg%3D%3D%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/235932585638?_skw=PSA+10&amp;epid=15059584729&amp;hash=item36eead8ea6:g:YEkAAOSw7jJnl79E&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkkrNzSfIpO%2BSf4QZq6TB7PgeSfaMJKlZm6hhKEukbZmxm7iSeo4YGRHXhQQUJ%2BMb377Cmrost3jSq8wZR3ejclqwIbmrRzpltH8G0%2FiYdXI7SLStEWSj0EPWSNVw0JF4CvG8ULH6VqN6QuNEOeC9vgp7ptt07psQ%2B%2BsVaw8uEg%2FdmIEirZvL0%2ByY643Nv%2B9mo%2FJWcIdYnNagnXuL9AUj16BPtBWgBJift3eZaht3g5LLT96xaiokos1dsmBu8lFxsJq0E1voavT%2FHX0wzArmSs%7Ctkp%3ABk9SR7CG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176801211444?_skw=PSA+10&amp;epid=2327576404&amp;hash=item292a2c6434:g:r~sAAOSwNhFnkCrv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnvZpqLI8ldbAklfscfR4E%2F5oN%2FW9%2B6HXN3as4UUZcfeVsPSsEl%2FwnFlaSk6XCLINDz7%2FF8Vz1ap%2BF8TNPvuIBwg%2FUv4kWJ0aiOUNDuMllv16srWZ0vXWkJSQ9bd2rsyyF%2B8NBxuV8vmtldSDcECem57EUypy9Ix4FnRPtsABSca%2FduVAxBFpns46vcsu9MnuC%2FLpyRS508KkMXVW0XqWluVEzZCCuJePmFwnLpEtSU%2FQ%3D%3D%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/176801211444?_skw=PSA+10&amp;epid=2327576404&amp;hash=item292a2c6434:g:r~sAAOSwNhFnkCrv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnvZpqLI8ldbAklfscfR4E%2F5oN%2FW9%2B6HXN3as4UUZcfed76BMBr7THkQqOe7tmYkHqBnEPR6qvp%2Bn9OMrPHE569Hj4pGPJQuQkMZPWf%2FY%2Frfie7EH6AvJ6Z5BVaTLAA1KVemjHe6%2BqMdDBs54JNOtUqCWi0%2B05ByGXvfZeo6gh1u%2FD6ExrEa3LMdCpZSmvxlIby94ql98LeCJD4jfKksZ7c6EjwBIrTT50FpP0Hm8PyLQ%3D%3D%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326405679400?_skw=PSA+10&amp;epid=12072558540&amp;hash=item4bff4b6928:g:iOYAAOSwIoJnht6p&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlIjqet3AsIkPgtTIDFmxY9NWokwWBNpTvsfoIRANKxNHcj9xXeGgrkyNGW%2FoKaC9lb11hSvXZdM6OqsX3EXB8v0DtlXmmXtohfIId%2BUOPzlbxQpV3qv8JP9J7VR4%2FfSSRDr%2BpraLPibjW5Br1gv%2FFlTNMLbqm2VqparZFPMxrpbdMJImbOWbFM5lYvcNeecmJI4Fgo%2BKgactTed%2Fm8tbMHBDbaNdSpYeAI%2BNCvBxPMJVJ7CWmYS7MzpNMNyNBZ9HXZD%2BLLjc7ddpdmIdHzgHtK%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/326405679400?_skw=PSA+10&amp;epid=12072558540&amp;hash=item4bff4b6928:g:iOYAAOSwIoJnht6p&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlWN2O0xPbOiTeDQ7d%2F9%2BH9VtGKt29BZReowakEaEFcT6zyobdR%2FQ3FTh6YAsBXkCm%2BbQOGAkRpHvhV1u5%2FBgTVWvxcB0HCv3Fv%2FRWDDrrisUG8WBFUWw%2FUIyyoA8yv2KBgW4RWsotyuOkzjbBnQZqSNO1LXxlN0VAwlM23cIq%2BLDGO096SsqRlWuwLGX4amtTkyMiqGnul8v4Qd8QiA7C5GJvQTkDm0gsX7a3oEPBaWg%3D%3D%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286259543107?_skw=PSA+10&amp;epid=14059301320&amp;hash=item42a665fc43:g:zJgAAOSwkj9ngogB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlY5yb6RKgyr4l3%2BWSamv2zktjekQ70sXGKwb%2Fe6Bl8tXPFGnO1cuwXUhJqTKn9vI4AkFL4kTOZJKg7N83wXBlnk7TKSSGHF%2FQfOg5byA87GA7j92Uv%2FS6zDR2c0PiuJEQ%2F404jEdzarIeatu90PRwJSLKK7pg8JPJg9r2zZsiD5%2BoqDR5vUvTWuhluvDrADjr3%2BqTX%2FglSj3RlGfCkwUxJe2KYOSvvO8EiJCwSJZ0arQ%3D%3D%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/286259543107?_skw=PSA+10&amp;epid=14059301320&amp;hash=item42a665fc43:g:zJgAAOSwkj9ngogB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlY5yb6RKgyr4l3%2BWSamv2zktjekQ70sXGKwb%2Fe6Bl8tWfw4JHrWvu%2FxBSxfgKRIYgR5Uunb5QQivNPS%2BmZRxzuxlKBDDqJrIgVPZj8QGm2xb0xeo%2BSqrafu8gKimMCJloNSgwAVntlqHBqi5nRrXp7FPgGRfyt%2BxziluxopbKwIAZP28c3dsx7lNlvz0QVbkXs%2Fhjbz3Spnz5dZgjwT7zJ5gQDMunLUPK%2BbnmHfhGu4Q%3D%3D%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/386273076326?_skw=PSA+10&amp;epid=13056502331&amp;hash=item59efab6466:g:62oAAOSwE3hlTt8V&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmhTvd9YuawhXm%2BQ%2BccEeyvTJgohjwbQ32QIjPLhwI5up6HE3SNH53crabhVrZx63APp9tCkeNDbYJnMDot5No1fYZyttIwAJCktEg%2FlcRLubMulwzejCk6xC4Moavj7TiUX1SwGzKqT41ZDZslybFYXgEkU530DgJD04ScDE1is8Itp3fEs86ygUeEpLhjv%2BU3PNk1rcqyvIEBEbQO14zmxhJt1agzx2VVRvuX91QJNklq6BS45SLzu1LXeWXKaaoLhBOJwqoGSnOKxerUvuPy%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/386273076326?_skw=PSA+10&amp;epid=13056502331&amp;hash=item59efab6466:g:62oAAOSwE3hlTt8V&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlciA07239X9HaTJPPNSAMkOrTsVl%2FIRLTJVX8RLWOtiFYpfjXY0PUsEjmPtXR7ZXszBvSRVqa26KIFXlgw%2Bh8kq3DC6yWqUCGXoJff4NVHfHz5nblWVjhgiwsJuXpRUPo1lZ8olg8kYzXHK1dsZwb8GNyQe0LFwtpAEVpv4fhomATRqAlq5KD4qO9kNzm%2F1Kn1lNH8ndQinjzb3CfbcbWb79OQqvG%2BpFMt6K5jMr75og%3D%3D%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256803347683?_skw=PSA+10&amp;epid=8056571397&amp;hash=item3bcaac1ce3:g:lusAAOSwTgFnoDP3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLQ7%2F2UbMz1I3jqZ4IHNggc3ngSIl8hnit4L%2FUKbHppftGB3I3ubHL3Ax56nfUhxTr6YTZVuHTl20xgkJH7TBxO00fXYkkYVkXfb0ZhEIYQ9r%2F7CWKVVqGddGtzj1oUvserLWrOHg%2BGkI%2BmNHMXssBT1gvLNBDan9m8yt57uHjCuduRyPN9KrYLdjUNw7Hp8Q%2BYFdSLbHjLFsu%2BHGC2HMfBtGfy8w9NKOqJfWYzmSGEQ%3D%3D%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/256803347683?_skw=PSA+10&amp;epid=8056571397&amp;hash=item3bcaac1ce3:g:lusAAOSwTgFnoDP3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkTlpJGaLhJYWHrpQjHkbRfTWlIMhpcXmQCZJcYpQxtscnRgGPdfpIsG88aDftZ84EerYxCNYWZv0WpwngZdUQJsqtnFh6xcM6K6OyhVL%2FP3E2ILkMByMcSoeeKgX%2F8LwuJUGqkOt5a%2BPnfMVxgtE9YWn9fdFQYxuPKgj7rq12wpww1tX72hifsTaK5zdIsIrWfJfsltyWhdSmTA2r1kjs37%2B3C0LsuRS2tyQ0O0SEurZ0Fz%2FM3JZSK35stJcIUU7IyZ%2FQ3RhryHQCIbNEcM2mF%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205114113005?_skw=PSA+10&amp;epid=17056521203&amp;hash=item2fc1c0fbed:g:LtoAAOSwj91nM6uq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKme1EwHRQ4G130A3zJTp0gRH8rMqeY%2F57Xx40KOSyA5qjwZ1yJ4uW%2BRAA6bXLw4JXDwkjt2ZKfet150%2BngtGOZF2LvdA%2FXxcD6kTqPUHIJAgL%2B3RwedJRJ9PHAWLZS%2F1fd8jWmi8rTrhODdwSX4hyhvUyLJCaXRvCfy6PHZOwZAf94BG4HUhgsA20VwWhnF6MwUUo6KxCiiNI7qH3tYZqTe8GdcoGkVzdxmEuzTX3mjdA%3D%3D%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205114113005?_skw=PSA+10&amp;epid=17056521203&amp;hash=item2fc1c0fbed:g:LtoAAOSwj91nM6uq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmfld0X7YgUK5hcVmbNJznMqUwlL1jM%2Bji1E%2FKT9JNP6a%2FR15i8RGRVa7buHk%2F0tzJTF6%2B9jc4n%2BrdIniXHAcdo6uVBB7gqvtq1rrrMEdnWaHNM8LYP0rBlfgEh%2FdC%2FsG%2FeXUfV%2BRnCaTIRZMm0LzkwN10rkwQu4OK0Gp2ZuPT1CmIPxfVNtKKhketeEOTK3jA5MeVNvi9dDWifnSzq4ZLx1CuMSeJBKfLlW%2BmztqRMU71tGiy7td4pF%2ByCpCJ3lxvve0nf5GAUbBT2AjRZUdaR%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296962863194?_skw=PSA+10&amp;epid=8056505267&amp;hash=item45245db05a:g:d8MAAOSwkWBjIL~z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkK3mTS5JdisbfUczSypQm4URsMO18YnkGryHlRsKtdC66tBLmEX7nmd92IWnHEXVLgIWztFDjp3pehvmJX%2Bk5thJ6%2FXM00IlKQs9OBAIS3gPo2AwGp0QdhkF4Dbax%2B8JLaD4I8iZ3xgAyfnG8Op8uKeY0RAWLNwdQmS9uvBb9TIKTMqU8giD7gMJGhp751IPgjOSjZiUUH%2FrvMR5DvXUtyq16swpDo66Q4TykB8oo91ey13wm4CPmxwsBzoRfdCsDicN5aTGv0ncK7WQMxbr7E%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/296962863194?_skw=PSA+10&amp;epid=8056505267&amp;hash=item45245db05a:g:d8MAAOSwkWBjIL~z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkK3mTS5JdisbfUczSypQm4URsMO18YnkGryHlRsKtdC66tBLmEX7nmd92IWnHEXVLgIWztFDjp3pehvmJX%2Bk5thJ6%2FXM00IlKQs9OBAIS3gPo2AwGp0QdhkF4Dbax%2B8JLlu0bnlYa%2F4z6xBZRr2SZptH42rZAesvolPKvsFRZftw7y0AY6S5UPQrKj7kb1JTvizmlr6I2Ee%2B6WbQLc1wlJAFko0AteY4RdXUa%2FNI4vwdE67nDIx%2FwOdPc3TMjCXOh6BKAFu43wG9hJdvrUKHGS%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356495017859?_skw=PSA+10&amp;epid=10056505833&amp;hash=item5300c24783:g:eYMAAOSwTgpnkYeh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmnceuJnu0x94%2BIXTVg7gl3yh%2F20xTM2FiMuC7SKRLrpdCRv8DwX8cfFdEypDYmiAGVu1ZNHUN6Qxd%2BW9tJ3gF98%2FTTNX2O1LJkRP8wf5FEC7GK4pIvzIpLWz55ZXn80m3214%2Fn6KeZldG95BIMD6gV4ja%2FIU5%2B95fma0DJRgzex6P7egX32GGGxV480B4H7OdBi6LJqwdfJpANk0iX4BtESwG5018xDjXu%2Bd8Q2xKuJw%3D%3D%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/356495017859?_skw=PSA+10&amp;epid=10056505833&amp;hash=item5300c24783:g:eYMAAOSwTgpnkYeh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkgxUuqgAksLSAt1LFv2toT5%2FEJEV2A55g0fuXxtXJyPzjdoQdUbPE%2FXU%2FigXx2LW%2FpCog4rxvyTlQu05N9fOlCJRGPChDCUX4dQbBF%2B4ymN9SmqXN1HTKaK6UjwIhblP55dLXiY3ng4G5rzoVXMZSozI2oCxh8GO02iWsbQ%2FWqr9QKbCcDMWh3gtyNtSGri6JtK5xYbrm1nQiSYNbDJQiLtKoxpYDOiE7RNPu32x1TIfZzgu1SqUsRiuwQf55xVjqOk%2FCSeY91yWxPXORbPOh0%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306047828046?_skw=PSA+10&amp;epid=3056509145&amp;hash=item4741df404e:g:AxgAAOSwSllnOMaE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnroULlTAlfoKL5JO%2Fmuz5Zm0SIkI9nPgrvActtOH0v9Na%2F8ajl6LdpyAb7GzeXBr5VRhhZ6grToO1KR%2FUNFISKWMb1QNXUP6YmeZPCmmCz5JSuXu1NbZXarvqs%2BWBij2%2BBjz3ZukimNT5UpEyIoQgtR5TEO1Zrd6sPErQfQa%2FFM37r8i%2FCE6nXVCaDtmlPBMMuUadSL%2F4SwE4eiYPVUrn28XF2pxefYiuBDxopR8vKnNxjKvvUZIdbz3hJjaYZeVUdiD4IDKv2b0YlmiSuhk2I%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/306047828046?_skw=PSA+10&amp;epid=3056509145&amp;hash=item4741df404e:g:AxgAAOSwSllnOMaE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnroULlTAlfoKL5JO%2Fmuz5Zm0SIkI9nPgrvActtOH0v9Na%2F8ajl6LdpyAb7GzeXBr5VRhhZ6grToO1KR%2FUNFISKWMb1QNXUP6YmeZPCmmCz5JSuXu1NbZXarvqs%2BWBij2%2BEHYSIlLzJB1q2XkhuOLY2v5NKQoPig3G9M3py5tO%2F4%2FFCwUjp6Ry1B2YIoX8dEsgvH2N59WXwoNrGyvr2C5r8Vxfg0Xb3DuVOllJ4lY11bfl8qjZ3bjG8FM5RTTVRj1bhuQfiwxiZuuhAO1jBXcOp%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185758732960?_skw=PSA+10&amp;epid=3056511911&amp;hash=item2b401552a0:g:g2kAAOSwJnJj2mTU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlaj%2FIIxFW40cifsOGF9CG%2BS835enYRSrvLOwLKn5g5Ww0JoMw56E0qDR0%2FinucxUkfs3twWOz3ouVyMbElMNUldGQs46Ip5Mlc6x7nE7i7a0l9y%2FbFfuSlfwiIQECPW4TqvvuTB7m%2BxfzpzFKeD6w4557Ihp6iJ7SAUvuLG5elDo9hKEn6evQga8rTj01A1tXWUgfOY4D60nMBpX48HXoJ%2BpUHFwKMYRLOcsPfNHuB2w%3D%3D%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/185758732960?_skw=PSA+10&amp;epid=3056511911&amp;hash=item2b401552a0:g:g2kAAOSwJnJj2mTU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlaj%2FIIxFW40cifsOGF9CG%2BS835enYRSrvLOwLKn5g5Ww7fAg79zE9m9lMMRs0EfpNTcdaHSGp%2BbvK%2FEyvpkPaEFUGAaLbxGMgdVp3INN1utKU4zJRY02XP7ez2aQvhP7avZR9OIO6ilwsr9a2j6GePTCQ5e%2BC2HYf5raL4j8Ft3ttvlmribryy6zLpq1FE6AeGG595l%2FlIyVPZA9mG9FzuaIn6QtiBt8ALncpbic5xqg%3D%3D%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306087255706?_skw=PSA+10&amp;epid=16056505914&amp;hash=item474438de9a:g:dAkAAOSwszVnoTpn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKktOEWEDNs%2BVSuKqeRUVfykA6cupHTKyDomvmeHZYy6kTA4F3K%2BtDj0Vf6DgABchXUcyjRYLAX7y45NZZ9fika2XjaBLBg%2F45r3xeErsx4EvYVRFiXCZ2g0VoCO--Vu10a2nDD6ZFJHeTXaUWM5ymQoPP24%2Bsj%2BFQelA0I36kDT0LzAh9reXLQaAx7OCqlC5%2FQH7pnrund30r9BYLrj4ciayy9v1yOPIxnMcdmoOmXrnorVgrrI8frQxgXiZwZp1YmiJmXCyB%2Bx4HtIixrQhst2%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/306087255706?_skw=PSA+10&amp;epid=16056505914&amp;hash=item474438de9a:g:dAkAAOSwszVnoTpn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnEGZVEfKucakrua3ImWeG3%2BrDRKa11IHOMH3OiDBEZK%2FG29aaTvzVUG7eoO4nBsAbVdnRl17Xcn6PDxZQEmsw2B4bwr5h%2BZgT7JbpM36FcteGrBk9pNeUa%2FB%2BZDwLTkG%2Bsyqyw8dT4NSTbP8G03049VcPKoW12stJbe8aHLR73kb4kHm9Jkkim3RDZaOKUqwveeNmjCOgOnDbtRJBD%2Fy%2ByKY%2BP4ThZ05L4djti66L%2Frg%3D%3D%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296981601510?_skw=PSA+10&amp;epid=16058997040&amp;hash=item45257b9ce6:g:WWcAAOSwmDNnn-IH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm6azHNijMUEVhR%2FFd3rTKHSTN4e7ONabkxReWIYf5%2FuOg2GGHEA4z%2BznyuakHkHDDIDBIWx8PePPxx4NF%2FEz4LwTwvmmrD3OwJVtqgBtDjDFYoKWudk608bZKmSrPljEp1JrYVa8kqlE9iWKh2xSV8s9%2FIfzTaQX0Ej1Jb0pSm7w%2FRLp0umzTiTSMII8nz3hngZ4P9aaWjmXl5E9moBWV9BUG0%2B5HzHNlRZK%2FBvB1DGWBmL99v%2FTXhxf3ybrC1AePi68l4i08osqb6HrED11ce%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/296981601510?_skw=PSA+10&amp;epid=16058997040&amp;hash=item45257b9ce6:g:WWcAAOSwmDNnn-IH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm6azHNijMUEVhR%2FFd3rTKHSTN4e7ONabkxReWIYf5%2FuOg2GGHEA4z%2BznyuakHkHDDIDBIWx8PePPxx4NF%2FEz4LwTwvmmrD3OwJVtqgBtDjDFYoKWudk608bZKmSrPljEqGlDZURfR9DLCO24%2F48uctRuHhFC08PywJGsOJpa19QEBg2mjCLYgCUae3UoHef1yDlSwpG9QKNwc19WMd%2BD1MZ9X15khACGbgyk5JWy0bubzoOC6BzFuKWljn2v3kkiWXf4otVTNquJqBbHnqL9RV%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375820136956?_skw=PSA+10&amp;epid=4065674104&amp;hash=item5780a031fc:g:fmsAAOSwlmdmtDYZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9NYSW2YFvK1asuYMacF9R1skgKDZW5IykT4HJy0zb1dgbprtYVkNNdZJJ6gWykekyNYckaz9Hmt0lurb%2Bm1idM3p36Q%2FkGlZKR23oQS7sSLrCAcVAZ1Sq%2BiFzn26eOGZ6btq18r5cNu6SubhHQanYkUS0dABczk0724hvMC2Xmu9K7zuhDn0j5zItoQhWYCpN3ga4UnOJj6QjDEBiBT7%2BwnikelGjF6n4Yr2tF8pJ5Q8FEkmzrJCbBqxmymtZlvtlMF2zZ95nTg%2BV5k8INOG3%7Ctkp%3ABk9SR_TS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/375820136956?_skw=PSA+10&amp;epid=4065674104&amp;hash=item5780a031fc:g:fmsAAOSwlmdmtDYZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9NYSW2YFvK1asuYMacF9R1skgKDZW5IykT4HJy0zb1dgbprtYVkNNdZJJ6gWykekyNYckaz9Hmt0lurb%2Bm1idM3p36Q%2FkGlZKR23oQS7sSLrCAcVAZ1Sq%2BiFzn26eOGbsCvzaLskeiV4WLe7FNDvVZXFakRgp%2FLKXpY0WDLsY0fP5G1jCxmqLk%2FieqD%2Fh8oXEu1i%2FVrRTvEtYvHbsEa30pQ8oI8OwHKaJRbg47T%2Bsnf6gf5Y%2BjSn31VndqizaVlxjT7nrM2bQMWGvsiN6%2BeYo%7Ctkp%3ABk9SR7KG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205262725922?_skw=PSA+10&amp;epid=5057238158&amp;hash=item2fca9ca322:g:HsoAAOSw6qdnV4Sj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkupQFAgsadaGh8VU9HN%2FOGHcKyCJbF50%2BrgOFqmQ2QqANDDAkO7UhX42q9fDJkgwyUXGGUlWRX%2BxfCCWclPUy7HGffGQF9OfHvW5DEUkYJcSMwL1k8HibPzSIxkcXJtOn9%2FwzZoWTEl%2F8oU6YPRul97M7Z0MJ4A8hKXTxVi3rI4Bmlt22dEWae2IFcrJ30gXIZ2unLvOYuvHyRynLTaFEEwSPS3nJvizpon7M35V5CFvndOMVrT2Y4JU%2FEj9pHf3i5B8c14QXBp7BgrzMKltDa%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205262725922?_skw=PSA+10&amp;epid=5057238158&amp;hash=item2fca9ca322:g:HsoAAOSw6qdnV4Sj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmYwdy1Y8qEihbIxjpkq43UO7ZevDowPOQ6kPa1PydDedu1%2BiDrZDw8s9cdDFFWnpAgm9l3lWgyuQ7cqNvpWJSoclaGyVu%2BEiU7U6MftqnKr%2F3ZqPIdKqs14LblHjEGXLvbDWwwcEAS16Z8RYKu7KS9ryRR4BGIFb5TCz5CJvI8gGF5eNJV0Rr0NDsRZAmq5ozED1vscJQqIYtY8KQqARHPpf2mSR0K%2FYCTxhthsVbZBw%3D%3D%7Ctkp%3ABk9SR7SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/166809304389?_skw=PSA+10&amp;epid=18065819743&amp;hash=item26d69bfd45:g:x8gAAOSwm7JmYtfI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnGLwPUceYCc6XWWY1p%2BxwiwWfcqjElDV7FKqU917bl7MHpKA3cnnFZfoo1avU4fS2SbKL%2BvZPjR0JFJvM0ZUhmFwzVZNmob0kaHn7Mvj1FeXJQx1xAVyGCstVeQlYXV%2FdQfmyiXwDIJ6HEPV2NS9jg0Sg8s2bbfvar6B2il0C4THn4iiAqWeMPCCVITYQcLtYtHUO9wD%2BPm%2FViQvGYFRxUYpRUKmC7zc%2FiCkZTI4zeIWEgOaT48LW6cltoSqZUBd3OYHFqMWSsdvf4OAwDRzcT%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/166809304389?_skw=PSA+10&amp;epid=18065819743&amp;hash=item26d69bfd45:g:x8gAAOSwm7JmYtfI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnGLwPUceYCc6XWWY1p%2BxwiwWfcqjElDV7FKqU917bl7MHpKA3cnnFZfoo1avU4fS2SbKL%2BvZPjR0JFJvM0ZUhmFwzVZNmob0kaHn7Mvj1FeXJQx1xAVyGCstVeQlYXV%2FdRms9d5eNjQWtV3PofzFnAiKK9MMEJY%2FqA%2Bfbf3ulBMh7Rvh5c7Vjxr0fcdkKcZ4BNJSr36d73S4V%2Fwz7ytaQF9yM6U5770zcPFyuLy%2BJUgwfiqqeNRHFGAxVeC%2F6I8KkItp6xv3hXeVq%2BcYpySCg1%7Ctkp%3ABk9SR7SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116385011034?_skw=PSA+10&amp;epid=5067698615&amp;hash=item1b1916555a:g:K-8AAOSw8dBnLk9O&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmbJEf6yQPKiIQ0Cd%2But8RiEi96K9nkKnQ%2F420MsY3IHdGXoV4pdSOXsbo0zEvFx0EvdfjxWr7jWuqiWyXzJWZVOqlXjatX%2BwxRQtB2HgRsTBZ6oCX%2BG9jxSehxgAW1m3FGhaEDgyEEJXKT8LtLrM75FNmQn6ZcuIpCFn7WkWmwZQe0gc%2BlXj602eVDcjvk6Zk7bnlvGoa3IS7%2BNR7sSqVYq9K0%2FtTzArM7ZlGQOcA6ginLZdJhSj2%2Fdt0IRA9Zk8mFpnKRRyEOF2md2huTvvif%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/116385011034?_skw=PSA+10&amp;epid=5067698615&amp;hash=item1b1916555a:g:K-8AAOSw8dBnLk9O&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmbJEf6yQPKiIQ0Cd%2But8RiEi96K9nkKnQ%2F420MsY3IHdGXoV4pdSOXsbo0zEvFx0EvdfjxWr7jWuqiWyXzJWZVOqlXjatX%2BwxRQtB2HgRsTBZ6oCX%2BG9jxSehxgAW1m3Gf6UHjD%2F7jtlUosKOSOll%2Bg3QLDKDc7NoE5OJtkZ0PRMSRsgXTtKJjZn66FYoGiarw9JIDYhrcE78%2FEHPY23jVdPkZscz6BETyqBXc7szveaBTptmMjT3sQwxhKaUvvxmZROCO5i%2FDz3MRNPSNZR9a%7Ctkp%3ABk9SR7SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326427882044?_skw=PSA+10&amp;epid=17056559071&amp;hash=item4c009e323c:g:iaQAAOSwOM5noBfJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkuboeLuBdxTfje38BXlZn2xMTyAHWcLXfhgKkjEX7gjkzIgrmxkSU9A8scBX6waLCm6GBCbMetg8%2FVFO3KxSNds4OHSSX%2BYc6rNq5av%2Be71Aqv6PoPSrwTkLP27b9BH3b63n0vIzExghm4BkrISLqAXACgODx7YH%2FUx8Y%2FqqjESPxjdEclTR3c4A%2BznFM4AQmX%2BG9e2kIx6%2FIovsT0gv01YQoIjZ%2FTtvvuBF7k4nkcXw%3D%3D%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/326427882044?_skw=PSA+10&amp;epid=17056559071&amp;hash=item4c009e323c:g:iaQAAOSwOM5noBfJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkuboeLuBdxTfje38BXlZn2xMTyAHWcLXfhgKkjEX7gjiW1ZzaTLayfjjPOsiQ1pRyA50HnZjeajG1UVGYObk29mSmi8GR7TU7x8gpCrGcV32Inxm86BG2dKwq8JaX9XP7yszee0Y5G4LkeRU2tTetrlBbzlV4SAEXvPIxnEntAJOMXmi35hX5gHehs6o--qmA0I0XbWrHSZ1Yx1s%2FNZKPy5r6VuXR7oikicBeFxAUmAQ%3D%3D%7Ctkp%3ABk9SR7SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316164891895?_skw=PSA+10&amp;epid=16056505914&amp;hash=item499ce564f7:g:Z1IAAOSw4AVmeg7o&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlgqayoG0VW36kUJPCYkjjZ1VfuSWuzIVV9UOU7W%2FRl3ZofRA5iLbL0Ed8J%2Bk4A1oznqn%2FA87t1%2FQyJvSO57T%2FS%2FDuUsNiWEMXkVXwuBulp1q7Z2Hj1L54FBZDcPH2MYWTWktM2LkUWADLwKJnGIH6IlvMjhXPcKj6QLlcgjesfTsz0waSxkVmm%2BQVvf8JUtB6uXOv0BhUrU63PE1Cr71N2tpUaUcySJUuIC2hCjgojbw%3D%3D%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/316164891895?_skw=PSA+10&amp;epid=16056505914&amp;hash=item499ce564f7:g:Z1IAAOSw4AVmeg7o&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlgqayoG0VW36kUJPCYkjjZ1VfuSWuzIVV9UOU7W%2FRl3ZYoQaKPAsAyRg7H8mKufhlksWnVA6PyYXjlJyDemIH3ksMVmYWnLMNBGZT1kr0QCZ5spvfNXhx9qBSUT6JkPnUQuePm46XAwR45ouHxQrOtWr2dTKukO2ckd7jAQP8QkXySLSTzW5Xv1BIrGp%2FPOo0H9euJbxYbXfDW5RAD1Mxlh8EA7%2BuhKENUnsPBBhtxlg%3D%3D%7Ctkp%3ABk9SR7SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/364137030059?_skw=PSA+10&amp;hash=item54c84221ab:g:dG0AAOSwjOlj4SSq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlgEz1ziyk2dS7Msd5KhTXpWrUvVFXeke7FDgUtlZYePH2lwu4lNrVpfTT01F64jefAkeGEYgKu%2FsjPRJVJ9TjVXXgN2CCnifJVJI2I2rvzSgI3QZbLVm0oFQ1B5yQDiry8gLGlCHRxAFny%2BP2Zz1g9tApOitCEKBU7IbseoGdLhuUyUF07AfkCJEnGfb7Htwxl6oYXmVtCeF7oDZEaoUS8cQTdBrbwHHa3cj9MUhP37g%3D%3D%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/364137030059?_skw=PSA+10&amp;hash=item54c84221ab:g:dG0AAOSwjOlj4SSq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmdQ3YgPC8i4%2Fb5GDIPm7ic8I95mKB4xZCxVmrIR0oemaMKqnOEaUf4RciA1OHFwO1i7k%2Ble51gGbB6gUuvK%2FbxFHhpsoCHWupMQhc7QmMfRSKqWygpx%2BPME3YJ8l%2Bkp1BLooW4RT%2F6KcGtdqoaA6x1cZjODTJoI9G8RNhxzb9h6105Xc38PsOhUd16CNFlJ%2B0XG3h%2Fu3f4b5Ot6o%2B2viMSF2tyX45aIg0YLbOK8cfCY9yA6dmTySPtiGO190breC4ivS%2BLh6kEudOvH3vxRysT%7Ctkp%3ABk9SR7SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205250633031?_skw=PSA+10&amp;epid=10056537227&amp;hash=item2fc9e41d47:g:MtYAAOSwH8BnmAVP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcdF9TOHrh3wEYphdB5m6oaT6XyCVZFpNJyzVSEznBgoz9HAAIZtKByhaQlIUkNdefQoYYJvtXYmGB7sYIlpxrbb91ehQKAubHx2t8aK1J%2BDnKyl2OhtQ0FYix2QjzxaJJRcomC36bPbufOYRWvlFFqeS3xWc1Qib893ZD6TxOcOzUUtk508L5f58mYbgMJ8pcweh1DCFYknzjVghdJfzWOWPT%2FsffB8TSeCG1Kas4dg%3D%3D%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205250633031?_skw=PSA+10&amp;epid=10056537227&amp;hash=item2fc9e41d47:g:MtYAAOSwH8BnmAVP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcdF9TOHrh3wEYphdB5m6oaT6XyCVZFpNJyzVSEznBglCHJBMxEYZs13nLDJWnUD8z%2BM4ngYJNIqaSB5mxspA%2FhR0L5CHVe973Z9Nw0etl1BECbvIR2QxjBsQHXc4Apfermpv7PNZj8JxVg3AbeV5rC8ATHa%2F5BCl%2FlKmyaQNtbDMVa17M0IdGLgwtdW1GG38pXdr23K0zIcZMAeGk7UonLKP6tRELkA2gkJszhI8zfg%3D%3D%7Ctkp%3ABk9SR7SG4JeaZQ</t>
         </is>
       </c>
     </row>
@@ -8569,27 +8569,27 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Genesis Mosaic Prizm</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>$179.00</t>
+          <t>$168.50</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/184526463660?_skw=PSA+10&amp;hash=item2af6a262ac:g:bg4AAOSwiFNmU2nq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKntXiDzuisBebdfidf4GugkfzPqzoUHwirrKZXUl%2FBO1W6p2Ag2Ef9bS27egSgu7wPyEPQFB%2BPoHK2pUkGQk9AJMPOqxGd1r3pebF1W1COaqWgfWhAm5RudukOCyzCYek29Ju%2FY0pxGVNgD1Cx4nwSW1E85gnKRxRNBTzB54bjmAhK0d85dLooagMjYKkTV6t%2BCYLUxpjU3kIArtqV6%2BjW0QAtsFe%2F%2BW6VGpxSEN%2FoNhvutFdt24Z5o53YOLdUstIha0IYjRNWYAqhkqbmp1E98%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205250633031?_skw=PSA+10&amp;epid=10056537227&amp;hash=item2fc9e41d47:g:MtYAAOSwH8BnmAVP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKknVSVq5NsqcmqPKu%2FyH31bDP29vKBLuCMGIhtLh3jS8G6ocfaQ4eneE40rYtHpZsTfEb4EtCXQDnDHq9JnNGCuyQ%2BM7LgmExgIcE27QTNxKFxD4P0CtzikGB71UOF2XkN7O5NH6cJo4zt8iPHWXGr3EDJNcPfnqrcFhBXnkKICU84gUrru9w4L4C1029PrQWYUcmKrrKboewcH2WkYxz8gunIoZ4yf1fUtgLjPP3BrNehlp5K7aiXX%2BeNgPZLU2RupN%2BKp9pKvLhsTCYwAB1W7%7Ctkp%3ABk9SR-KSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8621,17 +8621,17 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Blue Prizm</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>$179.00</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8641,39 +8641,39 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146353219573?_skw=PSA+10&amp;epid=8056505784&amp;hash=item221354e7f5:g:Cv0AAOSwXetnllgK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmYYH%2FBf1UDxEUD8KSegbi7SN58VPr7Vk8Aelts%2Fk4guXv%2B2bQwJGk1eSGRT3zI0wERig4Luc6Ux9xwcMc2Rhuaq3ZYc3%2FDoLdDp54CT9N3JT9AX7tbUs7Mfq9E7ura7xMBCojsuHQowLJDoZIiPyO6EEtpEmVTV%2FklO9LJtX1hxas%2B2Wb%2BNxZOO5f8iKSJzQDDEkhKU3WqVBL9ZDaOnO%2BBWS0nHC5FVCayOQdLsdi7WX%2FDj%2BQ8cikuOXPyef2Asdvp%2FQBupfA1yySOMwcZjKNR%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/184526463660?_skw=PSA+10&amp;hash=item2af6a262ac:g:bg4AAOSwiFNmU2nq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKntXiDzuisBebdfidf4GugkfzPqzoUHwirrKZXUl%2FBO1W6p2Ag2Ef9bS27egSgu7wPyEPQFB%2BPoHK2pUkGQk9AJMPOqxGd1r3pebF1W1COaqWgfWhAm5RudukOCyzCYek0oM9Nlmjlqj9hJL0R0CmrS%2B55DIH0zx9EMfjUMre0dhE6TJDgPVdpWPpqzK3ITy4w3WkZNc1727wVRLRPokRELvJzedOI4%2FXJ%2BwNMQzhZ9kgHwHK%2FB5jvVPc0od21u0kd9PuYMiFqganW6KF4dsVTw%7Ctkp%3ABk9SR-KSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>NCAAW</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Blue Prizm</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>JuJu Watkins</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>$274.95</t>
+          <t>$245.00</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8683,39 +8683,39 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266800556792?_skw=PSA+10&amp;epid=19064270871&amp;hash=item3e1e8d6af8:g:~ukAAOSwGdJmOlxp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0%2B6H2djWSDQ0MH1bbRdn5dwaxoLYuM%2B48uscRbTGyYowKsrR%2BvVWTw9G3z6GzQ0oue%2FPK%2B4ZG0HrrJWyj3800xVbA5vOwYCxEBJR62K%2BTOykOkHSiZkVvqEVbfT2DMGyrfPnqBuRvB6viL4dlODrYQJILiIsAFWYZZmc%2FTdpaltasGCOgTU9Jiu7dqHfpq7vbqCJ4A%2BHMtnZi3bYHx556MIwv9m86F7wuQEpo5rgwNA%3D%3D%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/146353219573?_skw=PSA+10&amp;epid=8056505784&amp;hash=item221354e7f5:g:Cv0AAOSwXetnllgK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk8oh1q%2FIwHpEpNasGS7JU1Xy0ZB1iBRaNEaAxmEvmP3N5yNSeaJ5PbZOvJxU6ltAGDJjNp9Y6I1n0tCGS6izliydO83uc3tr19TDuERhaGoFVMxPtEYc0aawGlvZJuB3bS7ENp4jZ63tM21A0Sssw%2B5ZJj22UpigsyGWLwC%2B68c0TWotdQSROKHwnRq41aq55FwpsmtpwADZUxQ4XNV5sI110Do3TR5Fl7Ilhue%2Bp95A%3D%3D%7Ctkp%3ABk9SR-KSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>NCAAW</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>PANINI INSTANT NBA DRAFT NIGHT</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>JAGUAR</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>STEPHON CASTLE</t>
+          <t>JuJu Watkins</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>$199.00</t>
+          <t>$274.95</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306008989783?_skw=PSA+10&amp;hash=item473f8ea057:g:yMwAAOSw92lnczo9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnz6UHmmJXpfH1CNEO0%2F5Evpb9lTELaRMxG9FqII9Gdd2JiCNDeKESWMHLRXI7xQuHcCFG1neSIA0INo7cmclPfmJcfwQoRAw1t1v7htwzMLli0m3se1ojnFQyEXaeMXLsAiVAT%2BPUqFUXz4S8JGHogexFGgdlnj9jQlvwhYFn1rbV10MZeGFkCE4JwuwwJ3kOzIG8ri5vrn%2B%2FmEthLzOmnASVdhJgBMui1Vdgfm8Jg5cNmo5D82iwK6XCwU3eJkjgQzU5j3drA07JtjFuckHML%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/266800556792?_skw=PSA+10&amp;epid=19064270871&amp;hash=item3e1e8d6af8:g:~ukAAOSwGdJmOlxp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0%2B6H2djWSDQ0MH1bbRdn5dwaxoLYuM%2B48uscRbTGyYun1qAL2O8CgPH1eGJ8AWzJ2KZJsXhgtcI%2B2wqgzgJAQWm9Aq7x2JPIxZjlXmjYNm6avkmFiv3pFmqi5I0BEVFharrctwGffOaa1U%2B%2F9HbOAlQtqwBbN6h3z--9%2B64ImXxamVl9bksWp23NdvmQOOMAbs%2FAcnMgA8SqAWHuOVKq4yrpVvWOcQOhaf8omjrNJiw%3D%3D%7Ctkp%3ABk9SR-KSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -8737,27 +8737,27 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Bowman's Best</t>
+          <t>PANINI INSTANT NBA DRAFT NIGHT</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Atomic Refractor</t>
+          <t>JAGUAR</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Allen Iverson, Jason Kidd, Tim Hardaway</t>
+          <t>STEPHON CASTLE</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>$315.00</t>
+          <t>$199.00</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316178594823?_skw=PSA+10&amp;hash=item499db67c07:g:CtoAAOSwyKhnl48w&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl2ojIexub0Z3pzgX9JbJ1lcwJrhg8zZwlcQ1VHgZqRyObtgZHG4P8cN6KZqtz%2BpOtDP3eQjGReiHxlXf4I3ElKQJ49s59vwIrQd0fFf2ClxDhJGC%2B3vVixIPr6K6HJQJKj5OBuFDF%2F3qCcfpVLCZ%2Fjnb5Yk67crS4WkVmV1tH3kaMgPM1ipIM6hGOq800CuMwuPp2l6nEWYU9X9p7NwnSUJSRu%2BFxIxLdF8E%2FpSorsWg%3D%3D%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/306008989783?_skw=PSA+10&amp;hash=item473f8ea057:g:yMwAAOSw92lnczo9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnz6UHmmJXpfH1CNEO0%2F5Evpb9lTELaRMxG9FqII9Gdd2JiCNDeKESWMHLRXI7xQuHcCFG1neSIA0INo7cmclPfmJcfwQoRAw1t1v7htwzMLli0m3se1ojnFQyEXaeMXLu2%2BDKjpI4MbE%2Fm8QnDLBEkCJIg%2FDyN%2Fy2%2B1aBigjtpWPRzQeiHo9fDdOvRUfYbi5%2BT1O5vn4kCZTgX8K9tbICBMb58hercDs1PAMABdqsmaAPF8HgU3H7JhO4VZTBvAEtXP83VBf99J1GXchCTVQcX%7Ctkp%3ABk9SR-KSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -8779,27 +8779,27 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Bowman's Best</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Atomic Refractor</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>JuJu Watkins</t>
+          <t>Allen Iverson, Jason Kidd, Tim Hardaway</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>$535.00</t>
+          <t>$315.00</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396148963976?_skw=PSA+10&amp;hash=item5c3c517a88:g:4HMAAOSwywRnlAoA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl9%2FVPnjdwiCQYZ2DWcNvIQppuJHnt2uFzUfowB8PfcVX9RGtzSpycuc3JucvFtTWrjmrovYhWSgiK66A5Xx1dgpuLHN4oiQzZVkChttfPydP4icR7oJAFDK0HXq8nfDluQctxjgaY1njPaLeltxDPMTRpfuAofnQuewBMmvdgaAYyb1l0DLQTd0EyeoabIhibk9jy%2FnzmmrxQvlUiuU8c%2BfYN%2BHTDv7mEms9eWMqye1w%3D%3D%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/316178594823?_skw=PSA+10&amp;hash=item499db67c07:g:CtoAAOSwyKhnl48w&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmie1N3iL5Hlqi4%2FUS%2FIdVN6%2FPhYPWn%2F7lpn9xxEDUhYaVXW2as0BIWXdJfWWTbImmRWDlembkXzD%2FBcVZpYK8lL75Av9Qt5KNEQ0nrDsvCJXvPOpxQVgSgXxa4scuezT6vDHlRBgWT11%2B3gSTWmZz9PRhZhseCBQScFq2UvpKXNqVEJJlI66E8i4P5SPODSCv8AB2fKhRb%2BZ7djjwGAQiyRkhmUntH53ZaDLbOvdF5ZRGwBfXY2%2BKlko1TWoWdmIrayK4BSKGBECOjo57zh3q%2F%7Ctkp%3ABk9SR-KSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -8821,23 +8821,27 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Upper Deck Collector's Choice</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
+          <t>Bowman</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Kobe Bryant</t>
+          <t>JuJu Watkins</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>$299.00</t>
+          <t>$535.00</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8847,7 +8851,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205220989093?_skw=PSA+10&amp;epid=9056567808&amp;hash=item2fc81fc8a5:g:hN0AAOSw5QlnhGX7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnr%2BfPqk75uwY23VHy%2BJ95mkDvBYNRvLkwQI9%2By0qcAn0viOJ2W5up6wgjH4Xz34mrx9KXpAW5XeRCB0m3DG%2FpR3JsrbUkNsTi45EXG%2BIkp5KfhaKltVyZLQlCjarKhvJO0FWjEMLeuEBO7IIq04eNmTDODudT%2F4HPXg8OdY4Tg16cYpbZPCUYo%2FNNNiQjTqTAdCB8Ktm57wqpp1nIWs%2Fmt%2B0DOia1FvhlvEzxXPQqfRw%3D%3D%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/396148963976?_skw=PSA+10&amp;hash=item5c3c517a88:g:4HMAAOSwywRnlAoA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkwCBnY%2FqXLfVLGmt%2FgXxqfUKlH4sQR4w0jOn%2FLvwQyYcU5IGDV4DKv2kUx0slPOUrxntaaHvHZGUu%2BzJkSW5EIskF7f76brHWfRPPv97dJ3xk0S2o7vvu23JieogYpRaBr2EE%2BtODu%2BPmy0L81Ymvnt0wkl%2FrxdB19iB83i1%2F0S2JZYNCbZhEKJ%2BMM1avFrjPj3Odd9RRWBKLtaJ9gHR8TMec7w94onOvrmy19DQukm6et%2FlHjwBBfJeNf5gsL1AKVicHJnm9azD6Q6wZZELhi%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -8859,23 +8863,23 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Fleer</t>
+          <t>Upper Deck Collector's Choice</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
+          <t>Kobe Bryant</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>$259.99</t>
+          <t>$299.00</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8885,7 +8889,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156350561040?_skw=PSA+10&amp;epid=7056577704&amp;hash=item2467383b10:g:RMMAAOSwSWBmuSLY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkzTLEyDmRpEiFrZb0%2BzsEDaUXTL2pPF%2Fbpd%2FK8SZO49uk8p6TG9aefFdzGP%2Fm9NC%2F6W55cg5MwV8Jp%2B2UeOIPR%2FF8qZTOcgu8uHWzwnV93XROb14IMtfE%2Fmq%2BXWNOQqTRNEZTvSkGvbgts9eO9xmZ6BYbZpK%2F05InhMfxS9cC%2FuHA5uw8Uf31msnqQxvyxOUbSVeSm9gElGjhkYFv9diitzS2eo99ZcFyVm0%2FxBBXhHx6YL2P4ltB9sTKbdPCWwZ%2FNgAa7bog2VI5hDsYqmi9f%7Ctkp%3ABk9SR_bS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/205220989093?_skw=PSA+10&amp;epid=9056567808&amp;hash=item2fc81fc8a5:g:hN0AAOSw5QlnhGX7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm1WOKx32mHxEVKIuIMEKrD5lNS5TJea0ZkRGiPdT2AiCWXnrG6caWbVRqFLR79CLJtqxlHWY0du%2B1YMiQrfkB3eq6f9EZYOPf2CawkYAI6I1EbySthc54Txzwt6tSbhJcvGyOMC24q8DCPDOQM4pIR4zX3l4dlkwvxQtKrY0eOyLynecE2rWHz2ogi97ivEi9TuDC%2BUfBXoZdhLv2s%2B4Zg1w7l5pzktbMzvmU0QGugQH7HRtc6puVxGWg9VNLMnFhIxf6hX%2BWjzCGhaG%2Bl51Wh%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -8897,27 +8901,23 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Silver Prizm</t>
-        </is>
-      </c>
+          <t>Fleer</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Michael Jordan</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>$850.00</t>
+          <t>$259.99</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167266731504?_skw=PSA+10&amp;epid=24065154341&amp;hash=item26f1dfc5f0:g:D8kAAOSwgu9njZtq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnLns2uHg4nQJFXldbWxW4jcpI9zLQdqcK7Rg4hq2oZ3Y6i%2FuwFy1AJDNV50wDeioHb7%2FT4bYRx7P2CcNTw0t3ULuSiCeKJxSvQQMHOgvi7V9Sso1TAg%2F7NRBYsuEwsOVZ2MurGW2kZ8Ay8uLCfAjj1590RHT1NMxUGfqv3SxehG0%2Ff35%2FnT2aXxmISyuItp6ydPaG8b3F0cMPqJaGwikDiH1L0JNlPqqItqRSjP7ERYg%3D%3D%7Ctkp%3ABk9SR_jS7pOaZQ</t>
+          <t>https://www.ebay.com/itm/156350561040?_skw=PSA+10&amp;epid=7056577704&amp;hash=item2467383b10:g:RMMAAOSwSWBmuSLY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUDoW%2FY1iVhvHbT9Of7CSn7wBnakebbPHFBCpATPz1P2Emigu2a48WVSyiQ%2FvyDbs8AV2jAsYwOIYw%2BZC%2FE1FEdBPSiNIjLy3z0G9ncVJUwjC3KyxgYI9Jn59KV4OOjspJ3iNP%2F0nyPscQbsC0fskMx5Hrelb48oKMIDdxp6W8FWW%2BCb7nufT6RyTM2MzyZDik5UhCVKkspYoaqo9lBaZRmSl0kKag7f%2F2C2IxgkXTsw%3D%3D%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -8939,27 +8939,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Panini Prizm - [Base] - Choice Blue Prizm</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Choice Blue Prizm</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jaden Hardy</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$850.00</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176821486108?_skw=PSA+10&amp;epid=3060331208&amp;hash=item292b61c21c:g:pIMAAOSwgNxnoRXa&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmkK%2BrJ5ZBxHLJ1zeSXBj14i0GhLnaIst1U1yj2mXM7I75%2BZIpHrGA%2BJL52WL%2F1tkDTX8Ks%2B0rY4x9Cj5lmjQJ%2FmQEv6QSMFqrPvX2mX4twl%2BWVy7RaqAjw3Kt%2BjsVPD0mpoA5cdbIZfNt7UCHNPXOUFOYlBXYS7Yr6q8qD2I9Y3A5OWcQGUKPwZIwCJOUNGZTj7YIT%2FOK2jknkiuM512YwYbpuXUQHjzG%2F1v6tgpGt4w%3D%3D%7Ctkp%3ABk9SR_Txm5SaZQ</t>
+          <t>https://www.ebay.com/itm/167266731504?_skw=PSA+10&amp;epid=24065154341&amp;hash=item26f1dfc5f0:g:D8kAAOSwgu9njZtq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnLns2uHg4nQJFXldbWxW4jcpI9zLQdqcK7Rg4hq2oZ3dMzXK32aXSqdlXgwVG1YctiR8rXGbzv%2FYsh6XyyBwGUnhtV4s3lzMa65MN5zt7XfMgby6Hu5d12gKhgLcxfSseQE1%2FW68MFCdz6E9sTQH--WmyuDm4ACC8zCnvaN%2BRs%2FHjA%2BxHELT8DJym7%2FuPz5fiEQjK7Qc4O6hz3TLQWjty66rKA29%2Ba5%2FjS8jhpXDcOCA%3D%3D%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -8981,27 +8981,27 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Prizm - [Base] - Choice Blue Prizm</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Pink Ice</t>
+          <t>Choice Blue Prizm</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Jaden Hardy</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>$899.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326427877861?_skw=PSA+10&amp;epid=12056514670&amp;hash=item4c009e21e5:g:so0AAOSwHSdnoBXv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn5oUOU5ZCzoCpVklXwtDV7yHSzCQuVCRn0VKlqcccrWqNUYOD2QfXYGPxBke5jH59vVp6gNHMldWHUmNwuuYUDhmg8VaXzgqVE%2BlNtJvCMA05OwXFSMUtz%2FxPYQ338c6EcFgfXcwUKVhKgToAJfL2ChLI%2FrXcVXnTZiWgMJyXJ%2BfKgVRxgMRogr4d8ML0UkyzdP149wio4Phs0nuwLR5or5di%2FV0JI%2BjyT4QYQg222ceiJo6dbTcC38JYzoEgzpspLO8BuOtIWRA4R2J2lGoGu%7Ctkp%3ABk9SR_Txm5SaZQ</t>
+          <t>https://www.ebay.com/itm/176821486108?_skw=PSA+10&amp;epid=3060331208&amp;hash=item292b61c21c:g:pIMAAOSwgNxnoRXa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk2W9MUP5C91J%2FRTHE2wbkXk%2BNqDih1BSQxgO5CrmFwPgF9C93gQ%2BATMLAECojA2mtDlPlsL9ZU4IQkgCIrJEVP8jzeL7twiXOyXWgqXPVPqTyiO5UyTWDOxNHkJ7qG0Omv9eWNtTfk43kVI7ZVWMLaZxxwz8WnUsYAeuWNuw5kDAwD8VV7n98z7TMAZ2zVPLYLNZHaDM89AiCzTuzMtzcT3ZhwQkhupvmIR076sucRjJnvDjB8DY%2Fv7W--QZ3JbjfNTGbKeGNHXYOovk9MC2%2FU%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Red White Blue</t>
+          <t>Pink Ice</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>$635.00</t>
+          <t>$899.00</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196413520714?_skw=PSA+10&amp;epid=23056512900&amp;hash=item2dbb287b4a:g:kFsAAOSwgXhmU~f-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmi35jOs39whXKF2DbxsddwmnbBRUdu6xqBVuF8kUYoGF8%2FAoexRBVHemYImD5XvQxeAuYTU2g1Kt590iaTUfkqjh6%2FwIpZhCABLZswxNnC5Sj3sqzxUIi0YIEIU6S7DDMnlipsc93kFrHG0jvtqAHVlBXM4C1YIahqPnIWsm7mqjYfCs%2B2shOr8kHu312w4cTpnuHm6bLWg1%2BimKQhKF5KkUzaGUpyBNZmxlTCVfhitA%3D%3D%7Ctkp%3ABk9SR_Txm5SaZQ</t>
+          <t>https://www.ebay.com/itm/326427877861?_skw=PSA+10&amp;epid=12056514670&amp;hash=item4c009e21e5:g:so0AAOSwHSdnoBXv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnAgiykA4kej9fLqb8CxpwrB8eLO9EJSqjdEWQPgb52D22hHvcbQkLtpSscQWHC1oOzxQk7wgvKXsxA05nTaRHamLoB7VvERAAkFGNcWVDEiGcAA3np5ZJa0hoOYBY8AIgnXMs9VC%2BRTuYo%2FW1zlkS6blo9wH8yODT8bU6WYlruusSkMm6DVC14WUXQ0qc4mJlTjI5GgeGjGW8HHWrtK6%2BVMyclt8ovl0R9C0gC89ttAg%3D%3D%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9065,17 +9065,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Donruss</t>
+          <t>Red White Blue</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>$170.00</t>
+          <t>$635.00</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205262611015?_skw=PSA+10&amp;epid=24056499686&amp;hash=item2fca9ae247:g:dZwAAOSw1dRnn~BY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkCWwPCpjCck0GHLvxxI8qPiuOtWZj3XxPmyS6bV--uFEnpS5mz9aiQbTGEw%2B1Dtx1pLHlrDSW6FfdMB9nGs36EwFRv4GOyivtgR3rkrEcQaWTvvGZVavCb04eqtXzSyc4Yt29SAkrU6gyCbezCtzKLt4tNUAW2eBJMcZBZUYyxeOt4ic9guBkmZ8nHvN2BI%2Bf1ChnLfmczJIZxL3Opwpv6NQnrYFW%2Flf9epADsD6GIAyjum8UlWuSWVzJSmPEIFRe75wU7MoYAG%2F3UBxD0FpXH%7Ctkp%3ABk9SR_Txm5SaZQ</t>
+          <t>https://www.ebay.com/itm/196413520714?_skw=PSA+10&amp;epid=23056512900&amp;hash=item2dbb287b4a:g:kFsAAOSwgXhmU~f-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmUTjs0yMy7fcUL5jKrH8F0Ho4dDEqA8%2Fgulg4ug9FajAVVaTvI%2B%2FKQ%2FN2qpXyu%2FrXSTIOEKKTUOzTYfJroiq4CnULtAUB0fhjR14Y4rrQhJttB0TVEAv8BKTeXaUl9QvDvgjSBUILSWZ4w3gdNHFkiABIqt0dKuGow1ZL30cWqokHG99W901ak4%2FDVV8So874rl8rBTHlst%2Bu%2B%2BOi1BLDiLnQxIEv1dTUkDL7S1Bf%2B71uljilN38N3oMKk01ZO7r1d9IS2e3N3Sq8IxCRgiQB%2B%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9107,27 +9107,27 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Topps</t>
+          <t>Panini Donruss</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Donruss</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Mitch Richmond</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>$750.00</t>
+          <t>$170.00</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196984469953?_skw=PSA+10&amp;epid=19059674717&amp;hash=item2ddd3079c1:g:s7cAAOSwd7ZnixG2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkpNyLpN6pTF2gf3IH2T0mhTP4IpduWyetmSmaaK3s9HYoYoigP%2FMEb2AQ1hXgdGPGD9wbdVi2Hs6p%2BfiYhCqjIWk7VMRyE1%2FH5%2Be%2FNk5Z%2BqCkXWnmE%2BewZouQEhU8UL6pZ%2FqxwplQCmQUko9IC6hLoPvogPk0SurKkzWsBOJ8sfM6Wm5Bhzm9BLRj%2BzRfOkMVVoyob4KXxDLGC%2FRHaFl%2BRoF2sC82M0B3pQBpeaZVnevAUbE0m6qcaOJ6XAe%2B9LPED8N1RDjp%2FjAGIf2DuuayM%7Ctkp%3ABk9SR_Txm5SaZQ</t>
+          <t>https://www.ebay.com/itm/205262611015?_skw=PSA+10&amp;epid=24056499686&amp;hash=item2fca9ae247:g:dZwAAOSw1dRnn~BY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmiu8ab067Dt%2BmSFSsRM2q8U84yIVPLecl4englm8XF5AC15lcaEyNy0om8BtpeSfZHaBqS1cV1zbk8OLGRLlB7cTsSykmPH3PW9LzkBzCfvFnM7estM6JBAAsw0jcabWEk3d7Cu6ryOahHId8rySEHICUoJYNPIpgNA7r7RSumPbai4CC7FRVuZNnhQB%2BoB8FcKpXzh6lKt17ZFnQT0Ef38PoaxA3LSUzj8MRm1%2BKSWQ%3D%3D%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9149,27 +9149,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Topps</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Base</t>
+          <t>Refractor</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>LUKA DONCIC</t>
+          <t>Mitch Richmond</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$750.00</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396171704876?_skw=PSA+10&amp;epid=16056505914&amp;hash=item5c3dac7a2c:g:smYAAOSwVCtnoR6K&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFtd3Ro2iJ9jZS5FGDV0Yst2IvFSprO0oOJzcBm5ROynaPAPPk1pPEFwka0ypJb8d1LR%2B0%2BeNZYyUlkQjr3y2XQcoir7WpFIZ%2BweF6rqvWC%2Fg%2BLOdcQScqTGyaEe9WBaQgCIm1yFk4Pcbfy0sKf6IXBjajo2UWW8gwZEbURdcxAxwy8vTEdAM1BWjV7UaWGP66DfGQBpVoVSeUBWnFd7P386BuyN83flU9X%2BoETWxpcg%3D%3D%7Ctkp%3ABk9SR_Txm5SaZQ</t>
+          <t>https://www.ebay.com/itm/196984469953?_skw=PSA+10&amp;epid=19059674717&amp;hash=item2ddd3079c1:g:s7cAAOSwd7ZnixG2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkpNyLpN6pTF2gf3IH2T0mhTP4IpduWyetmSmaaK3s9HYoYoigP%2FMEb2AQ1hXgdGPGD9wbdVi2Hs6p%2BfiYhCqjIWk7VMRyE1%2FH5%2Be%2FNk5Z%2BqCkXWnmE%2BewZouQEhU8UL6q6SOY7HshGIJ%2BhdmEfAqRUQyDuDKiWxyzYoXlZd1IC1LtT5ZFePwRgzzM1kj%2FtAQqygpC8D2Xrx6U7C%2FnXtQ2RVKb%2BESXFu2qZSQS1psyG8DmqgRW7%2BgjIXFTUE9C6%2F4zXjQByrVczM%2F2qqnrsrCFc%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9196,22 +9196,22 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Tie-Dye Prizm</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>LUKA DONCIC</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>$349.99</t>
+          <t>$299.99</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296977247536?_skw=PSA+10&amp;epid=24056563796&amp;hash=item4525392d30:g:D5cAAOSwv6lnnEgj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnmBn5CH3vbtgOwnfTT3sXuNUu4%2FjB%2FcrLc4NgaZGY5%2BxOX%2FXiJ3qm0HW8GnzuIbw78dConUqHawYpBdC3kxpLDkKSztLdUAcaVTRkz5gMkYT80ISWGsIlTV9VaTR0IbEss%2BZjOVubJSRH3N0kdheLlx4cCF5PBo%2FD%2Fk6m6gxZiYR2a0K3QdwlQVrrCHcK2lfSugxH%2FyVUXgW2iK8oLN2pgXH%2Fx3Fx33dIkKfaqpROhbw%3D%3D%7Ctkp%3ABk9SR_Txm5SaZQ</t>
+          <t>https://www.ebay.com/itm/396171704876?_skw=PSA+10&amp;epid=16056505914&amp;hash=item5c3dac7a2c:g:smYAAOSwVCtnoR6K&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFtd3Ro2iJ9jZS5FGDV0Yst2IvFSprO0oOJzcBm5ROyvFWmmVhRjjpZ5IswmV2keNBcuGmslZUEK2Skdtt8r9jny9yYUgw9U16dX4eXAUCb71ozjHFahx0TQdT7xU7WABlkTOJ3kedO1Kr83%2F3kv7aKZAfl8i7F3gxfGx9y8wft6p6IUeUkE4bozTmQVftFjZm%2FYKmwWxZ5x51oXOjXxzqtbl%2B7fx1ou2iBEZXF3Xk%2Bg%3D%3D%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9233,27 +9233,27 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Fast Break Rookie Auto</t>
+          <t>Tie-Dye Prizm</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>$246.50</t>
+          <t>$349.99</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316164669125?_skw=PSA+10&amp;hash=item499ce1fec5:g:mowAAOSwcLdnl~Ev&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlzP63olIBnySEGTBZQ3%2FCaB63ZkchE8PDLty1SIULzIbOiUKOhSWrGmnd3Vvm4xt5yV19zWvBEDKkpW%2FLBLokS5G%2B1fc%2FYEhotKxDkqXusnkMkEqgOFRgEOBF2qahTKYrp2KKAg1BRkXS24h2I5i47h7LjZyFVQNWSfPoFYEAc8teMuwGXAIGyBdy4x3vPgQkQE8ZLQL4Ag6lNep%2BHoAU6YuaMHG7DNHbq9IXglJG7oYMn4mIAGZD3w1BtQPwuHdMXSf%2FZbuUYBZ4aAOQ35x0K%7Ctkp%3ABk9SR_Txm5SaZQ</t>
+          <t>https://www.ebay.com/itm/296977247536?_skw=PSA+10&amp;epid=24056563796&amp;hash=item4525392d30:g:D5cAAOSwv6lnnEgj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnmBn5CH3vbtgOwnfTT3sXuNUu4%2FjB%2FcrLc4NgaZGY5%2Bxaa%2FvmDl%2FByU04Xs4yN%2BfpK0tbrXWEI5aZOYf9q8KT%2BT0Or2BmRU2y7ocP3d8hIor7rFOO2eExRJ1CBgkPPFDXBQzE0sBjYG%2Fo0%2BWJ%2BA6DhmJaBliqVU4v6CJF3MG1hBsdHgn%2FiFdXIwUDwh30rXkG%2FVjJtOWZ%2FxmOxgnMG7lg%2FxAV44UlG40beb8p06C7DTA%3D%3D%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9275,27 +9275,27 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Gold Wave Prizm</t>
+          <t>Fast Break Rookie Auto</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>$153.50</t>
+          <t>$246.50</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256798739288?_skw=PSA+10&amp;epid=26056583838&amp;hash=item3bca65cb58:g:f4MAAOSwgNxnmpND&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk2nwpc6wR2IgYY0sORTSSmmUz08a1Agm3wNIk561nV3tkacsdC%2BCHdiPasYZuzgYINa4XibF1RHflt9aspYCZwMGE4NJFAIlTBtBTE0YVlp%2BVJFVJKPFRlrwjao%2BCFx9cvn5p%2Fb%2BqsCVQhwOQW5Brk87lyZFGQxYf8HobT0zpeMyXzSRgtJo6jyI%2BIhn9X9ISVotSz66o2NS0UfkIzs0Hu5hHA4X2E%2FtpqT6qdy4v5hmKw%2F4UEdkyjctB8TdxffgpdulGQ%2FooU2DKRJvBWuEhE%7Ctkp%3ABk9SR_Txm5SaZQ</t>
+          <t>https://www.ebay.com/itm/316164669125?_skw=PSA+10&amp;hash=item499ce1fec5:g:mowAAOSwcLdnl~Ev&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlzP63olIBnySEGTBZQ3%2FCaB63ZkchE8PDLty1SIULzIbOiUKOhSWrGmnd3Vvm4xt5yV19zWvBEDKkpW%2FLBLokS5G%2B1fc%2FYEhotKxDkqXusnkMkEqgOFRgEOBF2qahTKYosqqFYSA%2Bp6zta56Ifq2rcpKuUwbhNfFH2SqN%2BkCk%2FhkmGLGt0mg06vP4WWIBpv4X%2FmkzfzuSaa4Bf9JBB%2Frsft4YlQE0oqMYsOju2B5BuEy9RgMBhIwdu2Y%2BbxvfDIDeZy4Yt--0qjx6%2FdjY6QG9W%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9317,27 +9317,27 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Gold Wave Prizm</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>$224.99</t>
+          <t>$153.50</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186775559752?_skw=PSA+10&amp;epid=11056519509&amp;hash=item2b7cb0de48:g:xQsAAOSwS3BnMZEa&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnq%2BZOauMWMkOyLVqo7XOprknihmBUwHZsTZmq%2Ff6Zv%2F3xteGxaS7hzeKwye4XnK%2Bi6D7dPwh2WXsj%2BxzPFBZjq30eP5YT0n8VV7%2Bm0dnnKO0jj46%2BajkAARhmPAY2Vwroc%2Fbu7x5kC4vPPkqrz34PaXzKUXaFJS8ki5mNbbnRnAy17RMfKcrimIDIIMvae3mS%2BQXCfuSPukN6lwG8n8wr92WeynwRakiglnVgQ7%2B1vhQ%3D%3D%7Ctkp%3ABk9SR_bxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/256798739288?_skw=PSA+10&amp;epid=26056583838&amp;hash=item3bca65cb58:g:f4MAAOSwgNxnmpND&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk402Dyk19iA9xW7qFXTUDeb8h23KNaBIbieAxuE39JjFb%2Bf7pRcjQyCT6J62KLzVYPuNanwWMy4x%2Bj4MGfx3oHs2hsWfqsNZp37CjdfKk%2FnH28uSlMS3vC8xT5ZDU2PbGwf%2BU9jcCaTQmTthuv8bM9YSdP%2FcryyKvZ%2BuFrcsjYws4wuBQIAhLW62l4hfLE4JeVn%2FrbQpWS79OB3WuhfN6bqS3S8a%2BOkrJg4Efgwjz7pw%3D%3D%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9369,17 +9369,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Hyper</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>$995.00</t>
+          <t>$224.99</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335390083081?_skw=PSA+10&amp;epid=14056577663&amp;hash=item4e16ce8809:g:o9UAAOSwbFxmQQie&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnxLcqu413dE6jsE1vrwKfUXom4mAA7Qrh%2BT2%2FQMTQJkZvdHVJOJnvTtcunkuxhy3wg0Vt9QLSah9WCw%2FScc1AUrRwyV0uKRBnmbD%2FH79bmXGZXQSy7xzcIFJvZiUNYdGkJxYG3rOC6iaIOugBYT42uRCPLi7kI1IdqW9kBrDETvZ0sdAEv7duTRJxggzb44Ly%2Bl4mI8SCBMILYaETICG5%2Fzc2jTKaK6LZTtka0WBxBkA%3D%3D%7Ctkp%3ABk9SR_bxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/186775559752?_skw=PSA+10&amp;epid=11056519509&amp;hash=item2b7cb0de48:g:xQsAAOSwS3BnMZEa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmraTPPgHUAJQXXrvvtPFP9SeqRCUtBMsCeLPZ09Lz%2FUNzeUCrfrws8MkYnJf5w5EEUQ5DN2%2FbbCF6T0hA0mKi%2BLtVIBNaDRArNkg1BPQ9D4Es0Y8HWX%2FlVp8%2BjfOOdRu6HvK4c45QgDtmJ7Nrcc0yeQh79Glc6PwdgPseqtxIXto3e7%2BCyNhq4mc8J4e8dv%2BP%2FzssGlgPtUO9aRJeLnXWr0bIEWf67nwe9KFij8m86IZ168QgREEX6dhbxJMuD070FhwYLCQUoHQ%2FubnLXS5ar%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9401,23 +9401,27 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Topps</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$995.00</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9427,7 +9431,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335791483914?_skw=PSA+10&amp;epid=23056593452&amp;hash=item4e2ebb6c0a:g:eNQAAOSw4-VnnLkk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlB%2Bcu2KcKuO2l5VNjhVKRbKR7hiKszrNcX5md0Xkx20anH9OFeQi0qBM6II1D5Z0d1jZa5mmMaCcrXMFqzk6Jb%2FPfgVzrfLj%2FAgBBITe5zThd8HO9KhxPs7bGAuEi396d5GXAy1kYaOs4d2L8hxuY0LaPZwicKq%2FK3XUlBVUKxECnw7qjyxjFa8vPBYtPCY1tlZDuECsJmg175gKw5E1FZ%2Ff%2BRkzBn7PDVIehDsZCw3Q%3D%3D%7Ctkp%3ABk9SR_bxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/335390083081?_skw=PSA+10&amp;epid=14056577663&amp;hash=item4e16ce8809:g:o9UAAOSwbFxmQQie&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnxLcqu413dE6jsE1vrwKfUXom4mAA7Qrh%2BT2%2FQMTQJkYA1A2YoXIlf%2F%2B%2B37oGjAtSH2bXRnMPNMTX9NFtaYc5%2BFSmdYTbASIv24z%2FeP3WHshJiamQnlp2TF%2B2qQve4xNXhLFO7lkcj5gW1R%2FIknOXeItmr%2BfsYf9U%2BxXnZYfvtaybSsrXeg%2BCGZDzBNMc5N0HR4u6hfCECsqWNfmidZ8ZvBtbByw%2F8yvHGEUaIJipLIQ%3D%3D%7Ctkp%3ABk9SR-SSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9439,19 +9443,23 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>1990-91</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr"/>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Topps</t>
+        </is>
+      </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9461,7 +9469,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306068990090?_skw=PSA+10&amp;hash=item474322288a:g:4rAAAOSwSZNnl-rc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkJE4dwQjBpjowOiLUS8490nlx4FIuvo2uElFxDHC4ME4nJvSUttZKJ3Clv7qvzk2%2Fa7Cj6gSauhfHD4NmL2jofXUda2xjqI0SE2edTbbG0I7pKx1vVJWsU8WflbMsco50TbP%2BgQDql7AdgcC2ZKUQ4uGd%2FiXimwAz5Oyx%2BVTH8fVThglWZ2QF%2FY4wmhEpWuS%2FZEEHWeauoY4mu1SWq%2BXI1PxThCV2PMYFK2qtik1AXkhVT8cVgfeBjCnOZayBe6m%2BKEqu52b8DtcBQ6LiLUBqA%7Ctkp%3ABk9SR_bxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/335791483914?_skw=PSA+10&amp;epid=23056593452&amp;hash=item4e2ebb6c0a:g:eNQAAOSw4-VnnLkk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlB%2Bcu2KcKuO2l5VNjhVKRbKR7hiKszrNcX5md0Xkx20R8jtQ64C0Fr3hTGlqUrxmRrHO6rIVU6Z%2Fzkjon1y2fc2zOxlF5lP4T4Zw11CV2ykvOrwE2qmZ%2FDq%2B6bDfTuHKZFDlDk%2FnQjh%2BtnSPItOl37Y9WJqzc9sYKwphZt8nBNPh2%2FT9AL35SzthjMHqjjHO%2BhC7QV%2BhCQeC3Jv3bL1rSUtfu8EIKs2U0w14EkNbEvRw%3D%3D%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9473,27 +9481,19 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Silver Prizm</t>
-        </is>
-      </c>
+          <t>1990-91</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>De’Aaron Fox</t>
+          <t>Michael Jordan</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>$700.00</t>
+          <t>$225.00</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326428023218?_skw=PSA+10&amp;epid=22056550426&amp;hash=item4c00a059b2:g:AZIAAOSwTVRnoD5u&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlMvWYncqSkqGWw0u8sTZMgWb4Cqrnhz3R5y%2BGS2hHHxt7rEyGJmPg%2BCKncFN8XsLaDUNJFtUky2oVfWcWURB6xrMDbgRo4h8O0LFoHTnq%2BTTMiYWCRI%2FqDvIc1HFzSYibMh8VuIgfA8wKx8oQ9MvtBDqehuN7fQPD7YHI7lLMfsTtTUgEABSgMjJk%2BOGXCeB8JbyWatm1SB71mMw5hkNcOSkG2lRcpToOS5hfVvkLzP1gU0jH2tHwl8ytNUPDNSwuvyirllXbDovH4jmDLWoI8%7Ctkp%3ABk9SR_bxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/306068990090?_skw=PSA+10&amp;hash=item474322288a:g:4rAAAOSwSZNnl-rc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkJE4dwQjBpjowOiLUS8490nlx4FIuvo2uElFxDHC4ME4nJvSUttZKJ3Clv7qvzk2%2Fa7Cj6gSauhfHD4NmL2jofXUda2xjqI0SE2edTbbG0I7pKx1vVJWsU8WflbMsco51%2F7T27hjtjhXjfQY61MrbhaLOQ3YSMKQMSkWe52gXDmOhlCVdZoJYLZWsyAC1Ii6C5pJ38mjvXf2zsYmwPkvIOjJwVfiJzxGLLYjs7kHzIp3TjW9f%2FMKO3Uo%2FiCZ0zgSikshYMDCsyfPSkvT1ferSg%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9515,19 +9515,27 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Silver Prizm</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Shaquille O'Neal</t>
+          <t>De’Aaron Fox</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$700.00</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9537,7 +9545,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/134927369603?_skw=PSA+10&amp;epid=23056560252&amp;hash=item1f6a4c4583:g:cRoAAOSwxmhlxQI6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkHD%2FcwDFkk8noUU5nz23uExvJcKIlQ%2FHQ2VQrulbpdmA%2FbUCbi6UmB7JE%2Baw9OEIZpI0eJS29KYxeupVW0YlPnH6Jy1yowSovjQFdm%2FyOfBXSb3%2F11REYV4FnOxWhSYbeaUInjFoiJwVBKIZELdrdHVV4n8gMXzl9nOimSIV1bQrF%2F04%2F5KFMcQYoM7YL7bZQeQqmEakYjTLpKYJZgPX7MCmn4r5EGqyOtEfg9CLn7eA%3D%3D%7Ctkp%3ABk9SR_bxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/326428023218?_skw=PSA+10&amp;epid=22056550426&amp;hash=item4c00a059b2:g:AZIAAOSwTVRnoD5u&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlMvWYncqSkqGWw0u8sTZMgWb4Cqrnhz3R5y%2BGS2hHHxt7rEyGJmPg%2BCKncFN8XsLaDUNJFtUky2oVfWcWURB6xrMDbgRo4h8O0LFoHTnq%2BTTMiYWCRI%2FqDvIc1HFzSYiaHfnHtQ9RmqoubCOw1IsJFbAHDwJCUbhxzxqp6P0Bca%2Bb3aaIi3xoULLRp6Z10r3Vsxm3Yth1gO8ufo%2BdClYbWKJdB4PKI1%2BFjvtPvPLrYAe5I6KtrFGpXYBP7yN30y3leP9mGQ0Sefs0wOYNU49o9%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9549,23 +9557,19 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Donruss Optic</t>
-        </is>
-      </c>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Shaquille O'Neal</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -9575,7 +9579,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267143246994?_skw=PSA+10&amp;hash=item3e32fa7492:g:j~QAAOSwL9hnn2Dr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkVsIIA1YjxFkstNyP%2B4biFuxhLZE9asGGcXrXI28wCR8i1Wn%2B7TqOodOFgK%2BzATc5I9sBxTRCGuXlGLZfV5Wx%2F74Uw0BeagJuwFWjU%2BzSRwvfZmcn3hrsVGhW4KHUeCJoWTFtmEOMCu%2B9GiUjOwYQS%2FwFLyd8EYdDzfztAL5PH5CBwtn9BOvYGRaEL2vaxduHRkN1P0ClRzjp3wmdX9mTubI2qKMALkrya9HxbfdRmC3DBtcy5n%2FIdFXeChIg9m5WUan7HiNXHc%2Bji9gyvGAiw%7Ctkp%3ABk9SR_bxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/134927369603?_skw=PSA+10&amp;epid=23056560252&amp;hash=item1f6a4c4583:g:cRoAAOSwxmhlxQI6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmn5l69pGph%2BqYQ%2BRagiPT9jPLXV4NO%2BLPBpOu9XpKzeeVnpxYQ9nFkFfLR1r9O2QpRvxyHEz%2B5rtnEoQ987aIr1Idy1mNKWJFa2ZbinuOyfyvD9SU1NW2%2Bb2w3svXgRj6ya2joVCnMosyltAYFYJPUaekNFnxsItKZKPY9HcE%2B2wQdjnO9y9fqXZWWG5sbOqpgI9qIVFhV4EM6xsUVGnRmzFomOpz3FMC19gfyD--6l9znJzw3Jnt5P4JmHSrBEHQqeRTselzbqpmfPg%2FkcvS4%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9587,27 +9591,23 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2013-14</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Select</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Prizm</t>
-        </is>
-      </c>
+          <t>Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>$279.99</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356489106996?_skw=PSA+10&amp;epid=28056547664&amp;hash=item5300681634:g:MdsAAOSwEp1njxEZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkms68SsG%2F4yDQcvUDixhDoFfQJ8YfBaybOnH81oiM2Ie3kp3uFzzRAiqdqMD86FQr2og4p5f0lW5dgUGJxk6FUmP2uFov5zth9T8brsAWoRuBhpRcmm3GvdBKEU1B5Y4e0ZwWh9M4qWYcqhBHmY6AUtOkeMdaXv0PCfr1lPcYMWOkC7DixqIPcL9oNOP9t9UIqSoe0xRS8B9rWN3XjLTcnELt1dLNXp9EXIi4iTrgViw%3D%3D%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/267143246994?_skw=PSA+10&amp;hash=item3e32fa7492:g:j~QAAOSwL9hnn2Dr&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkB3A89sSUUDVXLeBNAXgmzkNXQR8iCE1sGlj1KqqeEqEgC8XlZnTFCWT9WZnWxLVuxl4mXeeS%2BJbZ%2FO6uVbeckH5S7dvKfA9JP64q6EHPcNPUsWN3JE8MXtIHvrkUC0%2BKsMrBzemUFi6i4Dy04Xq4fnA8AeaYvXneag7otMbD3ObEah29LbBLIi3sTMhYSGIQ7jRUbmRtM0r3JeCGsXC5dXy4TPASn2t5yS2aR5pSWCg%3D%3D%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9629,27 +9629,27 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Select</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Gold Wave Prizm</t>
+          <t>Prizm</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>$295.00</t>
+          <t>$279.99</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396171389731?_skw=PSA+10&amp;epid=7056505113&amp;hash=item5c3da7ab23:g:HwwAAOSwfStnoOlm&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkA0xxw3lxaDi%2FsRfpBAoN17vUv2PRalxg8N2kRso1ryEJ3mzOP3KeI1C2dX8oT8qD6wiy%2FTILCTtrZqGnSaNxqTEpfoHAhMVDlQks1bYUUY9tBAE5y9ifW1bly%2BElsaJCzEQttpP19ZxMhad77L7v%2FRhIuN1E8TUnkgjbIQ27pzdkSIdE%2Fxgtgq6u7dpKl7DUmDL6za881lyMHr8g324G8LBQfWSpwKuB5Btg6fpLnERjOU%2B2T6l1HVOdRErrchFtMQNgiCYYwRF7K80ni9IiB%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/356489106996?_skw=PSA+10&amp;epid=28056547664&amp;hash=item5300681634:g:MdsAAOSwEp1njxEZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm222FP60rGc7AbuzXLi%2BpmorL%2BJeEigL83Hx2hFu0a%2FmPnHuG0rBi0ERcEYDZ7aLLTpyq93RAerG1zV7Mby3d97iWIhEVpmCePHJjKvR6epPvqz%2FEMVIEhKw52AJaKI0KvOcpfs7Zalki1ekiMK%2FCbYlZI7Ew9yz0kSDMaxqYa%2BevOfxEy6vQrVPvALmVfPszvuiAsU36Y6gFdwgNr4NJceJclSXeMqcxiF76vRjPkk0hWrxT%2BpN%2BRN7MGPAoil37LQueFM0%2FeISdXQ0G--xMM%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9671,27 +9671,27 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Gold Wave Prizm</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$295.00</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126919375876?_skw=PSA+10&amp;epid=13056576108&amp;hash=item1d8cfbfc04:g:gSUAAOSwgKtnoNgE&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlkG2Yft2xWH8RgBuhaNcbNpjsldcjBlgSKgxf4IOk3lYG99DInvx5nU1JYfYLlneMDFI5DStF57aH8J0EOHzA6GQGTSyiTYfqnBClwXjaBMWF6keRvdDROjZC%2BF4zl9718J4TXA1MfU5BPMGHUdzuwYc%2BueBevex3XlvIZWaOSRFkFCVztv0%2BRN4Yp0nDcOwBBPEh1PzKOsqLpekEjkDGz%2BZ1J4gxvKj%2Fz%2BdQyTbEOzQ%3D%3D%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/396171389731?_skw=PSA+10&amp;epid=7056505113&amp;hash=item5c3da7ab23:g:HwwAAOSwfStnoOlm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1fK5smDleWOAD%2FD3MYZac%2F2ysAPWrSuMR3YxsIlAsoX3MnwRiF7PlSl7ZIAPbuR6GpOUPkSaMdLc5kzKglLB%2Bf6Sn3ZUxm6BVU8cclXPAYAYxS1R5nzCUF4Jn0RXFcrWLC%2F6k7s%2BjXDfn67Qc%2BzoFsFWVhuOuZcKP8W02Od7YXWV6osTotZjSpxdf4yZRkDvnVVlX%2BE%2FtfT1pKm3ixxFMCW%2B5VdaaQeLcZNq1PzXWXA%3D%3D%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9713,27 +9713,27 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Panini Hoops</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Premium Box Set</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>$497.99</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -9743,39 +9743,39 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326428503251?_skw=PSA+10&amp;hash=item4c00a7acd3:g:8CwAAOSw87lnoOUn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnnIBRNEH5uvnQNIrCwlz42IWfyLRwhzxcXBdivD6zRD4LYuL5UJXtrGWGgQp%2BeadcW0dD7DWTfNHz6uqsmzB%2Feuy3w2y5V9GurZw6MeuvbcGbfE%2Fv6QsxeHjdyc0CnynmXHwWZf%2BVwdLTct4xtJpKC3d%2BirQH8fckQXZ4lJ4uzNimdOI54bd5JZOyjhE51Tgwo10o8Ky6vI2nGAKW48%2BMaILw9m7zm1ALXJeKX1OXFnyaOi1sHrkHDHKe6GYa4Cl2m4q39bSXfJmSgYHOAyii7%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/126919375876?_skw=PSA+10&amp;epid=13056576108&amp;hash=item1d8cfbfc04:g:gSUAAOSwgKtnoNgE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlpuU5R3jEmOLsifw2JBU5jUxhbXhi5%2ForQAimR3Y2lF%2BkQD5bjHlxVpsziEGkCOIbhXlCIqePd0kkXLJ4%2BjMH0KrjLMrK1BL0fw4c9N8D5yjhLjW2E6JQVpFC%2BScMcK5%2FvYn2%2BT9K9glrb4yeSpfzrMtEA4Or%2BQiezidlzrgZd%2FdFZdg4DF9hS2vCik0OdKds9V48iuT8zgN%2FFTycd%2Fw5dP%2B2es0MixGRaeH17q7RQJUNR%2FFDsI4GbGP26hyk3w%2B4aqjRxFD7TUSccPcnwudTT%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BASKETBALL</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>UPPER DECK MJ LIVING LEGEND IN FLIGHT</t>
+          <t>Panini Hoops</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>IN FLIGHT</t>
+          <t>Premium Box Set</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>MICHAEL JORDAN</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>$159.99</t>
+          <t>$497.99</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -9785,35 +9785,39 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/165766886684?_skw=PSA+10&amp;epid=20067186836&amp;hash=item269879f51c:g:BjIAAOSw3Q1jaj-A&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKko69uLSzTbC6ciAFY16BzFzuVReVSo8U2OJW%2F5H1--eenN8NAtYVGQhy%2BhDQyaZQOt4In3wFGioB2NfPCiA0HIk3QgWCMR7YXgVhE1fTsqtZjpBGu7%2FXoAA0L7h%2BxZIPGrVx9uSLpv%2FYt57UoCT1HTFvn6q4HOJWwEZS0n9Pn5S0UGiGMTleGLAI92i0L80UKF2sp%2BiEtcsVapoyvEN9L0zhm3Q5XbgbrgPbg6sSbfNA%3D%3D%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/326428503251?_skw=PSA+10&amp;hash=item4c00a7acd3:g:8CwAAOSw87lnoOUn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnnIBRNEH5uvnQNIrCwlz42IWfyLRwhzxcXBdivD6zRD4LYuL5UJXtrGWGgQp%2BeadcW0dD7DWTfNHz6uqsmzB%2Feuy3w2y5V9GurZw6MeuvbcGbfE%2Fv6QsxeHjdyc0CnynkdMFNneiWKyiZ0Tstyw05kywuNzlG6NCsiO%2FFIHq%2FS0huLBU9zTtaf2KmpS5be9U8lHD4eNH3S%2BTmS%2FxMoSewKHoZ%2FZBlUM1xUi3swJE1Z7vKLAzeSJxHQh52e6jH6bCBX7j4BAvUB0Bu4NUqTyD%2Bi%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>BASKETBALL</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1991-92</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Skybox</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
+          <t>UPPER DECK MJ LIVING LEGEND IN FLIGHT</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>IN FLIGHT</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Charles Barkley, Chris Mullin, David Robinson</t>
+          <t>MICHAEL JORDAN</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>$179.99</t>
+          <t>$159.99</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9823,7 +9827,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387887639062?_skw=PSA+10&amp;epid=15056512758&amp;hash=item5a4fe7aa16:g:ZQYAAOSwrM9nj6eK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnrVTXA7ImBd8fMkD8SS6jUr4r6g7ejEXMLgZ6KyVsk4%2F6ALQHDI%2Fc%2BtZ0NSgDlP4CjUI1QGo%2F87EZWj3pS3jYBI2L1J5sFe2UYx4ivpQ9U7bQXCl1PastnsBxYCxDCGomFLqWuGDqa%2Fv06LQ92HJl6irHOSO1hmeNp5--KfMRRYHvu0mEHapI6AH0OQtIUU7nval3S8G3fJbtQFEFLvjd1MaB2Jcq7ProacjEnaKNZv%2FjbodKnchNhSxeQfD1Vei00MuVScckzA12zHvqCsN8X%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/165766886684?_skw=PSA+10&amp;epid=20067186836&amp;hash=item269879f51c:g:BjIAAOSw3Q1jaj-A&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmPEtNMOkSWc8S34Bz79v85aiVmsVYNBgKKXgb%2BQo%2BncTuW%2FhwXDmEKJBbWcEAya5xqx7n7%2BPW5Oe%2BoHTf4o%2BjRpeSAH4OHoFRF6EjtEiBwQ%2F7fJeyWA1oCZO5zm%2FHC1ceg8zVSFyiy5gJnD%2FEyAc6WVpJIImRLWwI9mJ9e2jUMx22QDyVMBgwX6VzX%2Bir1vpf4lKmazVgSt%2BIjhSUkkebA3ZZMAx%2FYzpmgDSDvApBPCN71w3nQQmxYCB7D6Qiti2lTZn2%2BfYd%2F4a4B70VyxQ92%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9835,27 +9839,23 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>1991-92</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Purple Ice Prizm</t>
-        </is>
-      </c>
+          <t>Skybox</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Charles Barkley, Chris Mullin, David Robinson</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$179.99</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9865,20 +9865,36 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316181756483?_skw=PSA+10&amp;epid=6056595846&amp;hash=item499de6ba43:g:cwMAAOSwlkhmGIT8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlNQ%2B88ZGMpfk9yNHEoS8ci10qzm--%2BS4%2FwKmpe8GkwJ75zdy43nWgRMSRmYpGZLTigT0yMEWOkk0nypO1%2B7XkEteHalvaanvdCShnIvPeKWlAQYZM68MpnICyFG7Ve2yDMB4ZLDRzwbKEn4SeggUoQpL%2BfmtYk%2BgNz5FV6i2TuYT5vutt0vTTCKezKH8BWxBrZMQQLBzAHYB2eNANLonKrxxFgE7liorp16TBgPKD0wg%3D%3D%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/387887639062?_skw=PSA+10&amp;epid=15056512758&amp;hash=item5a4fe7aa16:g:ZQYAAOSwrM9nj6eK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlibRletOOq567Tmmxz316LMxMaXsAkAMEnh6LtdPuDlyGNFmQx%2Bki2qzDTypPn%2FzcBF6%2BiQPinyjJ9gR7ZMgvAR7LAcuiK812DvTqcYgy5xhdubujJjhMCxV848TTT68JI2uwrZa2%2BAemw%2FreLFSfGPdNSEhQ9GP9rxfR6xs8PRsB1od2dj4KQkYnQrN2PXSnbRIvBdPc51ISVQfb8A%2BNzbpffbppEuiHDExvENZN5NA%3D%3D%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Baseball, Basketball, Football</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Purple Ice Prizm</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Deni Avdija</t>
+        </is>
+      </c>
       <c r="F241" t="inlineStr">
         <is>
           <t>$150.00</t>
@@ -9891,35 +9907,23 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205264004328?_skw=PSA+10&amp;epid=10055890576&amp;hash=item2fcab024e8:g:yJUAAOSw2FNniowd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlyNRB3JCoiXgf3d4g6FpS6nTR5y%2BWdABKr7B1D7nUbRx98vWTlMfz2lQqbCClG9qRsTMoWAJaggPZ7n%2FMp1EThwqdbTl7Suq7GlWlKzqtajnePLkrGH1FIz9pI46fnpaRfBuwsF%2FNTIU07YQCb7FWenwsVGabhtaWw7VaPWRE7bNJ4kWeImYRO73uwSwAXHlGZf7%2BGIla09cIzzlQVpYfIZmXzYRpd3jK2hR%2FbfRmoQg%3D%3D%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/316181756483?_skw=PSA+10&amp;epid=6056595846&amp;hash=item499de6ba43:g:cwMAAOSwlkhmGIT8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm%2BecBR0wz9VhX9moJR2dnMXHfXEyN0hEqICdrBuaQwWFibwHMPEn1cBgHFQVO%2Fo%2ByUnv4IhfuFNn0dyLn%2BbMu3xS2KDRL0KRuJ%2F%2B%2Fj0sgE4WzeFhlW%2Bk0xpwk5s%2Bno870RR8m%2B3HSOu31klxJKe1U6bPmF9tZkbd1R0qKGrCVVG6IQUmvT2weT--tAN3fBdBO7dMJ8Uz71n60kzc--%2F3zBXiH9geZoeKZ8HfWPbWGguujXL123jElbslHvOmozzVthpPzJx00H1uwJbN6PybRV%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Topps Chrome</t>
-        </is>
-      </c>
+          <t>Baseball, Basketball, Football</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>kobe</t>
-        </is>
-      </c>
+      <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9929,7 +9933,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365373055351?_skw=PSA+10&amp;epid=11060745533&amp;hash=item5511ee6177:g:b6IAAOSwRB1nnVgM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlKORK8Z7y8Nm60E8eiUFu4qaQKcAVdYH%2Blqkym2T%2FxmSTtmf7woZ4Yl%2FGbcp2sG%2FAtVGE2fVUsr%2Bw77opXGOAqjlHXWkYMXX9Y2uY5r7OiKPFuOg9B1haxB9%2FmzBg%2F%2BMygiV9dR13bDJSeNpgT%2FP9iBeg4PmAlV1BAMtK%2BIRigJWHCBuSOxaM%2B1XhNDK9jjQpTJZWBsPTDXGR4z2ikP%2BJ3MQz3Ku96cMRuk4nYW%2FsjITkk78ztG7WYKYUhXa7MbJe4quB9BJ2YnYVQUxmLbCIJ%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/205264004328?_skw=PSA+10&amp;epid=10055890576&amp;hash=item2fcab024e8:g:yJUAAOSw2FNniowd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlyNRB3JCoiXgf3d4g6FpS6nTR5y%2BWdABKr7B1D7nUbRyDhUJbIR%2F9XswX6HGeljUKwfL4R96XdozSKDX2s1gu%2FW%2ButoL412avQk96ZDQegRm1uXc5oCWNt%2BtuVu15GZAINZ%2FejvCjZhSBysF1f9OBVjNEe4KzzfHb232JpOA2s5rFXJkSOZf0QcorG%2Fednixcb5vjveY7uY19oK5xT%2FmWsm8cAxYfjncPXvXjggW28qw%3D%3D%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9941,27 +9945,23 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Panini Select</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Gold Prizm</t>
-        </is>
-      </c>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Ausar Thompson</t>
+          <t>kobe</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>$162.50</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116458993196?_skw=PSA+10&amp;epid=17067694987&amp;hash=item1b1d7f362c:g:H4YAAOSwjvdnl9bP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlQEzu51PRNEGFEsrtOBxrviTynA%2BSE%2FNY%2FAH435eunhuWRQS8iOheGHLcehDMXEwEmnOH5IJ0DjrxgRETnCFj9M6%2BxW8P71y5KNsxMevd68rYaUm4al5CL9RvtS0RNe5xhwm9ja5X7AKxLGhybpT5K%2BFjNbXoYKARvHToTfroZOXIxH%2BAE6wwKPYBupSI0M6VgUX2EBmAamvFzJXuNOtSaShhLnDbHJW%2FNMzwF3z8nK2VhEpApzU02%2Fgolbc46IcmltRhy5gcelQ71bg9qPwG1%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/365373055351?_skw=PSA+10&amp;epid=11060745533&amp;hash=item5511ee6177:g:b6IAAOSwRB1nnVgM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlKORK8Z7y8Nm60E8eiUFu4qaQKcAVdYH%2Blqkym2T%2FxmSTtmf7woZ4Yl%2FGbcp2sG%2FAtVGE2fVUsr%2Bw77opXGOAqjlHXWkYMXX9Y2uY5r7OiKPFuOg9B1haxB9%2FmzBg%2F%2BMyWx19XXjHRY95cVROBDZdev%2BTUQL78NQH82aUi4QZn3jJSorUlaN20XxYBm1DmBPAeZK2D0tmPt7hKRtbMcXw5WsCYd%2B0HlZrzxlnJHf7nPRPR%2Bmk9TUwjextAKlZRVpdZSczio5z6SBOPfrW9IBmi%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -9983,27 +9983,27 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>1991-92</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Upper Deck</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Insert</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
+          <t>Ausar Thompson</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>$249.00</t>
+          <t>$162.50</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10013,23 +10013,39 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186684701404?_skw=PSA+10&amp;hash=item2b77467adc:g:tU0AAOSwHLxm5KdZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm9eOebiNm9lF73KR%2FJmNkFtg0EVX0eCIIFWVRZG9iIzcTyLA4xRs9Vc01kElVOE6C58w5hxyXjuD5rf37u1yI9qe%2FYXuKClvDLjVsynxB3KYvglMc2UOHoy%2BRSuTLWEhBhySS41oPkE4EIoOzJP1FzfyvhMIs0z8xA3RPEhLmNouTxSska7X3zxNW%2BAe4VK15o3BU%2FoEl81IUbZBQ70MgH08vgn26BoPW%2BGZ%2FarKN3Yg%3D%3D%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/116458993196?_skw=PSA+10&amp;epid=17067694987&amp;hash=item1b1d7f362c:g:H4YAAOSwjvdnl9bP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlQEzu51PRNEGFEsrtOBxrviTynA%2BSE%2FNY%2FAH435eunhuWRQS8iOheGHLcehDMXEwEmnOH5IJ0DjrxgRETnCFj9M6%2BxW8P71y5KNsxMevd68rYaUm4al5CL9RvtS0RNe5zzxinOA%2BDXUUPvdpHzTr50gelZmFhCwT1F5U5PcPWT%2BbTQ9uD9qNjf5lO9tgGpXg4rtDoz4g9nPC07LrezWGBeBpu8gJkmAGXewx8rWHKihjAPLaUVc3U0Ezu91Rp49IXxGTvXREX5vjzxIxNlFDrI%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Basketball, Baseball, Ice Hockey, Football</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1991-92</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Upper Deck</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Insert</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Michael Jordan</t>
+        </is>
+      </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>$295.00</t>
+          <t>$249.00</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10039,35 +10055,23 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326398442439?_skw=PSA+10&amp;epid=19073118416&amp;hash=item4bfedcfbc7:g:EvwAAOSwKZdnexIs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKksgDN%2BrpKsv0HLEDgfSj0KWLOZeo1JvZTFsj4BBSEwcPC2%2B24iLIQJntIsdQuQOsPVn9ytq3lYuH6yoYAObMjHYthwd%2BXiPfI6vNqN2yqFwEilUUB6HnYKG9mpVSJSuM4yyENHgQGPajNQbUPntDC%2Fz3l471D3Qf3WhcB7pXDNSTwqNhb8DA62zg9G%2FvlzNQTggiBeCRwrTGz3LXX02TQvbdoNjfMxNbxTYrzE6FI4LP%2F5k7iMsEpW6dEkFywL05NdFAgesX8Y0JQXS0R%2B%2BU3I%7Ctkp%3ABk9SR_jxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/186684701404?_skw=PSA+10&amp;hash=item2b77467adc:g:tU0AAOSwHLxm5KdZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm9eOebiNm9lF73KR%2FJmNkFtg0EVX0eCIIFWVRZG9iIzZgK%2Bn8dikADUAiKV6HRCYtrKXiMMHHASfAOCDvT5J13f%2FQh5cwE742tPAGpvcoXBCCL08qVSHVIIaR3Bs8Q0P6dXRjGa5UzTRuOYCn1uC5niODjG3bp18vlnQ7tMve6LKmdGLPNAHlbkeT2JFwz%2BOqM3YTZzWyP9LzHTTV8epGfjjGTAUGf%2BkdJo7M5%2B9mf3A%3D%3D%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Donruss Optic</t>
-        </is>
-      </c>
+          <t>Basketball, Baseball, Ice Hockey, Football</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Jayson Tatum</t>
-        </is>
-      </c>
+      <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>$185.00</t>
+          <t>$295.00</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10077,7 +10081,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135512420158?_skw=PSA+10&amp;epid=5056518061&amp;hash=item1f8d2b6f3e:g:Or4AAOSwYK5nkUAp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKle2FQkQT3fthG%2Bx6GaMmpiAGHRM5lCTCVszzSmJYsBPVRMrvCouVbvmE%2Be6Cvh4dIoXKnD8ZwaWXy6z2g%2FCOCQobHAuCmIbFNWs9oFhWinCjtFmTnqGNUqMH8%2F%2BZ6YeTpSOA4YG%2Fb1D988ODpzP38lbNCP%2B%2BzbxKps7rIVP41Pk%2BgaXRCc4UHkia5CWe8rDraD%2FwUXaQP0hGe9%2F35xar1ps%2BbCUhe29JHUrCfFb9KIRw%3D%3D%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/326398442439?_skw=PSA+10&amp;epid=19073118416&amp;hash=item4bfedcfbc7:g:EvwAAOSwKZdnexIs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnuyI2ZglHeBl%2BLaUEtFjHiNGPK0qTVrYdP4btjA23wo1Xl%2F%2BMW0M9DAtjHix0xsPxLhGwY9N%2FWXsMUxTQkF4lctJtSti%2FO%2FxNBzyNnCqbtRgMnDgdCHbR2goX7MoTBHJ%2FtJDH7eGtFaYq%2FAi3AzraRcbONGO9cPgLSP2X74lzbiBhe5TZ5EWPhHP46b7P81L9G9a9OadMtSKjAVl%2F3sd9AHQEUDc67fvRmzRUAHNneuQ%3D%3D%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10089,27 +10093,23 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Panini NBA Hoops Premium Stock</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$185.00</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176793403610?_skw=PSA+10&amp;hash=item2929b540da:g:lP0AAOSw81ZniTn~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlYfuUxK07c69rll0oKxQiLPu%2BUOhxI%2F98DMrjXoVpVeqYaRgRe%2FsUBn6nU7er9GvqTOgY7By1NivsqqnBqfw9D%2FRLn%2FrhTJMxHYE0oU%2FLPE8VhOR%2BqCz4P9f9KdA91pCSAn83xAw%2Fl4QNvuv3dQ9Dd5OrvCbInRGm3qsW176e8zzohOZfaXnUEczCipJTJFSIZB0R9xw3wZpNbwvELrTgLLutAahXSuIqgXmUVEq5cjw%3D%3D%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/135512420158?_skw=PSA+10&amp;epid=5056518061&amp;hash=item1f8d2b6f3e:g:Or4AAOSwYK5nkUAp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkx1G7SAIH1jLqUz1xSy6%2FWwIpEx5YyVZJLg47XyKUpRE5IkwcnGTDweFp3pbc%2FHxWVd0U9qA%2B6wu1cYho%2B0zczqnU%2BlMbSaRYj8BG3EJ%2FO0H%2BDhKxhroetCcLIJ0%2BMbZn%2BIZ0iyV48wXgpoQ4p49PM2Jh%2BflwHWF1oT6jk2w1g%2BbJmF4yFvjaO%2F%2BJlZJ8psCfh1%2BO%2FArWq2LfAgh0mr3Zo7VsPmTirYv3CzSnIj1TpmjZRUoiWPe1oqmGxkHd4i2APwRgxWxkatJojziQss%2BMw%7Ctkp%3ABk9SR-aSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10131,27 +10131,27 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini NBA Hoops Premium Stock</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Premium</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10161,31 +10161,39 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335784533899?_skw=PSA+10&amp;epid=24056568272&amp;hash=item4e2e515f8b:g:me0AAOSwbP1nlTIG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnP%2B2cookQBEO9GmGrHIymzsvR7JoKFnuMr6foilaZVruRxDhK0JjLofLBgiP68pqCvSxzQPwq28%2FG4JnTl9xpiJorZ%2BlptTDJE5bTXhpHyuDSUhfXClDrQt1F0ZrBQD3WEIrKJU%2Fl6UQKBMZAF%2Bup7UWfZLUIoMle46Tr67gyuZ6wK40vRNGgF3Q%2Fy2U1W2i5gVISICCr3eo6UosJxrqnRBkhxxYvGU5jN%2Bm6wHQbCWuwkwLgwN%2BYi14wcI5pXGDNHfa%2Fpol--bG%2BBJCyBBNYN%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/176793403610?_skw=PSA+10&amp;hash=item2929b540da:g:lP0AAOSw81ZniTn~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlo8GC0AI0JrNoolpgOhW%2BPVBtu8F6vwEzGl2hqfto1xAljzjZ0Fdl%2BwPnMdBdVCCj0tLHkap%2BXOrjcHArbUimIXO87sqVkOd6%2BZWW1Ddmg%2BoxVem2SEEyK%2FsSwC2VI27G7KOyY0JlnQH89vZ3i7FZagTCdI3ujXlXo4MhoV7hOIHKvEOtWklY5bH6wxo155eO5OXcEPgLqSMHMGvfaLwENLA4JHpTgNzjYFPFKFllXJ3IlFyYclMQjODax3kIwR52XxYXz%2FPa1KT5RLiXvPQ6I%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>basketball</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Fleer</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Silver Prizm</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Anthony Edwards</t>
+        </is>
+      </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>$292.36</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10195,39 +10203,31 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267144095782?_skw=PSA+10&amp;epid=22056529093&amp;hash=item3e33076826:g:i5UAAOSwXFhnoFzv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk7PG2YRS9XIc01DDGZTGMA2epYxjuQKAmJR4iU%2Fv95aSLqnVKkltIDYv1Lddcs%2BKjDr7pRUsnBoGd2ZuZjPzr9eYHZiYXUCTBlEHxTEI13eNNSJpcE12iy7WK0JH3VOLfUl4Tk7XbotbO6uzDDMbhS7ViylyCggg4bm%2Baj2t6QTfdScICyFqNcMiHzxYX4KEbjrrpz924rvmduEOrl8WPuaondFbhRZnGwazU13CkE6YRjVaqxS3%2Br4Y2B4%2FO1RJkx0PUpiVSZx8HM4Sd2RyIj%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/335784533899?_skw=PSA+10&amp;epid=24056568272&amp;hash=item4e2e515f8b:g:me0AAOSwbP1nlTIG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnP%2B2cookQBEO9GmGrHIymzsvR7JoKFnuMr6foilaZVruRxDhK0JjLofLBgiP68pqCvSxzQPwq28%2FG4JnTl9xpiJorZ%2BlptTDJE5bTXhpHyuDSUhfXClDrQt1F0ZrBQD3WhvysHj38CePISug3XB2hGOLxozYDpE6LI6yzhLmjsjpGbMzlWWQxMSZqBp%2BR%2FzYLDfkOIBRRlk2TLSv%2B0KmVVhJaWHAri9hM2kBImQl4qhppHgr16Zi%2FRZYxIVjZdCLQtKAzMTBsgzH%2BU1MNcNiyo%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>basketball</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Base</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>LUKA DONCIC</t>
-        </is>
-      </c>
+          <t>Fleer</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$292.36</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10237,23 +10237,39 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186926856866?_skw=PSA+10&amp;epid=16056505914&amp;hash=item2b85b57aa2:g:O-QAAOSwWldng9it&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmQqGC7VDZmhf%2BosMCtjlLCvnU53Etdt4JTwIsmRwd7y4NgkHzPi92AheW8ix8fXqPprJa2leK6SBxDr9HkTs8JLZzOxmu5jXzSG82bBbik01Xm4GZR7j6JG%2Blj2nDC2Jd3gIZuwuFIH0KAdLP71hExk%2FJC0A19XyhmLF5HJDKrNnUAIgujnuMKMIHPVQafk08kKOWmaIo4g8aIKiXb3nRq%2FAHtkQh4od5%2FyDDeDLqZSQ%3D%3D%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/267144095782?_skw=PSA+10&amp;epid=22056529093&amp;hash=item3e33076826:g:i5UAAOSwXFhnoFzv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk7PG2YRS9XIc01DDGZTGMA2epYxjuQKAmJR4iU%2Fv95aSLqnVKkltIDYv1Lddcs%2BKjDr7pRUsnBoGd2ZuZjPzr9eYHZiYXUCTBlEHxTEI13eNNSJpcE12iy7WK0JH3VOLcaIwbsDFKa6xwZLJ2r0BBakoEgOc%2BZocM8ctHZkIVBaVmkG0Qm%2BEnct4pd2c07p3b2F3v%2Fwg7iOazCbOcYA3qWZEoap%2F4NAQ9yQrwaGkdeh3GTCpsU9ph4Y%2F8IXp5DtURSMshr8wMJJ7yEBr2Njmfj%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Product Category</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
-      <c r="E251" t="inlineStr"/>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>LUKA DONCIC</t>
+        </is>
+      </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>$160.00</t>
+          <t>$299.99</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10263,35 +10279,23 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167154928236?_skw=PSA+10&amp;epid=22056556280&amp;hash=item26eb35ca6c:g:jP8AAOSwfXFnUtce&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAc072x6S9j6f9T6xjdlnGdnC1LPWRP9VecRuljjNMq3qtLIczlstjnQNqN53A0Kpw9k%2FdK8rb6NzI3PCMq%2FMdDfqlGf1m2zXXTKfpP%2FXAztXmxeS%2FB%2FcyCJ49ZiN7eRHmUTp%2Bpq3MhpXATNwwkyWB0BJ19vUH9aFnBzbOPhNQxv%2BZF6pKJi9pPSTgHh1AbmKUIkYOApndSzaHaxUmOSdNu%2BRLDCHtTGZaYkYU9HURZnFzY57LNPG62P9afdmYjU0X5r6B3ao%2FF%2B6%2FjLwG%2F9vj%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/186926856866?_skw=PSA+10&amp;epid=16056505914&amp;hash=item2b85b57aa2:g:O-QAAOSwWldng9it&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmQqGC7VDZmhf%2BosMCtjlLCvnU53Etdt4JTwIsmRwd7y2isq89bUiof%2Bdav4AhzCs4%2Fmsm%2FOnADEVhlmwpP3KiHXOrzL%2FVz4FrLg6PJm2EAhas3KVH4JVIy%2BZ%2B8ZEEcWLYv%2FWHh93wKLru%2F5dRd5%2BnVBuUdFghKdHKkhmztQ4Q0jlrxCqEZiMlt7VZ8beucVZPjVs8%2Bqhp8WMlfHKIdInYAieaoTyQGagEeofRUlk0Ufw%3D%3D%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
+          <t>Product Category</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Michael Jordan</t>
-        </is>
-      </c>
+      <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>$179.00</t>
+          <t>$160.00</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10301,7 +10305,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176808926774?_skw=PSA+10&amp;epid=24073752890&amp;hash=item292aa21e36:g:JZ0AAOSwTgpnlqxb&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkvxwN3ZWfr%2FpQNVHlxoC%2BseAlwUpP9%2ByQiz509OlahAbc0Zs39Is3prWC4eV3wVIiMci1KJOKAjE0jFCyxbV9PUlspJ1ttq2vO38%2Bs1Eew5I0crgkLXqYKKVq8hf37dLa10l6fbpg5XG1AuB4pw8nRDjyZRN7%2FyIF6XkMeLtvIvNtmfqojCjuPAakeWdqGlbi7K4x%2BkqXbt4DHo4sbaH6b8%2Fw6hhH31cSWfIWOHivs%2Fg%3D%3D%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/167154928236?_skw=PSA+10&amp;epid=22056556280&amp;hash=item26eb35ca6c:g:jP8AAOSwfXFnUtce&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAc072x6S9j6f9T6xjdlnGdnC1LPWRP9VecRuljjNMq3qtLIczlstjnQNqN53A0Kpw9k%2FdK8rb6NzI3PCMq%2FMdDfqlGf1m2zXXTKfpP%2FXAztXmxeS%2FB%2FcyCJ49ZiN7eRGw7fBGslukFlG0VI%2Br0M71Ab7Co2JYVpVNQSAqId%2FfyBq1UqoQ1J4gJ48AxNrTNJfg9Jaqq8ooyTu2cZyHq%2FL1ZwIv9C0P3S29ZmYrVVrOK86%2BDeDiT3OLrQK0FVI7fUP4xeXDxv1e4DwhC2EBhrtA%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10313,23 +10317,23 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Michael Jordan</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>$160.00</t>
+          <t>$179.00</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10339,7 +10343,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205262128647?_skw=PSA+10&amp;epid=17056559071&amp;hash=item2fca938607:g:Z0kAAOSwSR1nn5s6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnZ9Pdhy%2BS6vjFasjfKDupzUWflTlmqCYKgo8%2F63fNTPLrFJTjHg%2Fuzr125UB%2FnOvQNvkyJ2ok3%2FERveAEx16JVxhlYzhwDQ3Oj9QRlsKDid6d2mA6PoUvrfHBtpvT6pRkOAIeyLU%2BCE8iGhZvz8XWmyeGawIZ%2FeGHoBvMoxceMkIIkaqA7Y%2BH%2BH2rgjfQeiJHC16bAVdFUltSWqZxP4bFlgqWFBwPdS6pXJGOOG3X9RQ%3D%3D%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/176808926774?_skw=PSA+10&amp;epid=24073752890&amp;hash=item292aa21e36:g:JZ0AAOSwTgpnlqxb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkD7fji1KsrrqOFvv6dt97SLCXsMkOSiDktRdi1E5vgUn8PccdMzOW6BOwCaf%2FFlbutRLUR3les8Yj8blExqFiaKsl6iIrIzlcHGJDzYXdG5CW9vFd%2FuHAdc9WurxdSIyaVhSrKEHfHAt8YQoFn%2FQRSQV7gryyoNItftXsCU4rAXDWdpQ1oJDhxEsNj%2BkbH4anzrl6Jbr7hko%2BfdKN3cZLKt%2FEwgtiaOK90s1WbRotrtV73yXSPJbwmga%2FllGmUn6mknxFid4cMFAP9fxsOzXu%2B%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10356,14 +10360,10 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Copper</t>
-        </is>
-      </c>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
           <t>Luka Dončić</t>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$160.00</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356531247484?_skw=PSA+10&amp;epid=16056505914&amp;hash=item5302eb197c:g:J4QAAOSw9rRnoPgj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKngeOwGGLCW19vNJ2blx7aYn7J7IcTDA1cPr4Hs6f30irLFyH%2FFzu7Y8XFHWNCWMwhQ1G%2FYm%2B%2BcdK0WiOaKLFaMZ87A%2FQYJxD6tFuzdoVd%2Frta9Q38dpCM4tqs5bPmuHAqmH7ikIHfY7476I%2BTAQ%2F0L%2Fdp8U%2FlE8SA%2FKYGJb5DHF958i2mBJ2PILomxhNBVgpaDXhlwZhrOqLTU20rNY7mbxTT%2F9nzI%2BW4lHwArMu4oTy2v5FeZMbHwpR8OLUDeww5fP3bM5C8XRtdqLsr1Swim%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/205262128647?_skw=PSA+10&amp;epid=17056559071&amp;hash=item2fca938607:g:Z0kAAOSwSR1nn5s6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkozG%2BHHOGk%2BnEXKQKufJJToLzuaXyDXZ5YnvO1md%2FU4dLSZbrBH5tBkGluQWvjxZaXkGZUdYDsDP8tCUwE2INBkeG%2FLfid7Z%2BS%2BFt%2Bwk2C3l%2BTNUGYnCKOxp012CokR%2FQh2c3sRn4khONJ69bWnfheZQ6vCZh8weyO5M9GFcwCbFJflUZO5ECxuMUjeYe2cvHipjnsLHpeDsFxIvGuSe9NNnplFp9Gpp%2FU2KnDOFxY4YxWBcnVNbZiyl46xHZBj794nAybQe9z14OYgb0EB5Y8%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10403,17 +10403,17 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Prizm</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387869918324?_skw=PSA+10&amp;epid=4056489986&amp;hash=item5a4ed94474:g:85YAAOSwuVlnmUfr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmdcNdbQq8lGSln%2FM%2BsltWuHNrrTRAikDkmpZSR1pyFP3zMpb%2Bf8V%2Bvmx%2B54zh9iSoLicu37qgl09BVMSaRyKk%2B1UckDkCyVKLS%2FWwAFPID9R4RPmFPh3o1c3ytf7J1krOCYWL0WfIQDSChTOISwvv7SwCuLpBgd%2F3eK1uaX%2FXXtdGSW3nH0ujnj1rNtXPTPAxrx9VMBtQnzSdG%2BqQSUhXCtXsfmGL359Kbx%2FSkv%2BcWCu2g%2BmGOurd4ejOWP9HcOuQQ7Snfa9nYmrWhICU7gAxZ%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/356531247484?_skw=PSA+10&amp;epid=16056505914&amp;hash=item5302eb197c:g:J4QAAOSw9rRnoPgj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm9wYaT4RsHiwjHo5Hi1q4yySnXFlTHVc3Y7aCVRl31xYhtCJ9%2B6Y%2Fihs1Qslql2iDYFV3rjtpTx4CBT%2BgCW8Oh%2By7n2%2BhhFJc150NbYYlXYVdZVk6x1HyZm4Iym5LufkU1r8VWzNte04Ai9j%2BkEZ7BEPrbRsB9szhFT6es0j7yo3VJMkYhXspQEq9LlCmRKEZfo%2FsVLGw37lwf3HlvCg4Zo9A%2Bvfy4SN4WR671Kvu4oQ%3D%3D%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10445,17 +10445,17 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Prizm</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226580182678?_skw=PSA+10&amp;epid=13056576108&amp;hash=item34c13b3696:g:sqcAAOSw7zZnoO68&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlQtWtRSL%2Fr13tnKyOb8wfxp%2FwvPZcSe5wnGR8w%2Bdp%2BrncNECDaPXmXn26h6UXFSWL2mrSOQlCEjP38KtopKwc4qN6wwyrgZNGRIcRA%2BWw1HnrPrI64sW841nJ8YTrPAWuEJvz2CgZ%2FKcrVxl4V0oa3w1tlKEHhP7N9iYD5vr71jsfnZqLD0i9muLbjgacZgisFlVSIN5ja%2FHgkDV1JQWFW77EXXs6TOWaazFqNBkLpaEDL7fzRBYt2sPiODx24qjG%2Fojdo5LELhnEIuTxekYL7%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/387869918324?_skw=PSA+10&amp;epid=4056489986&amp;hash=item5a4ed94474:g:85YAAOSwuVlnmUfr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmdcNdbQq8lGSln%2FM%2BsltWuHNrrTRAikDkmpZSR1pyFP3zMpb%2Bf8V%2Bvmx%2B54zh9iSoLicu37qgl09BVMSaRyKk%2B1UckDkCyVKLS%2FWwAFPID9R4RPmFPh3o1c3ytf7J1krNJAKJa8SM9qyXstLYRx6IoTSe%2FzSy5cy%2B1Qm4dpeMnDGLGGBu2G4urc2vmNtL%2FNMjetZSpxM8wyjTTgpnTk0rxU602Xa1EwRxGGMzPxhGll0%2FK75F0uQxV4Ii77Tdfah2fRxCa%2B9WxkRjFs7IowVCN%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10477,27 +10477,27 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Gold Disco</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Emoni Bates</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335753813164?_skw=PSA+10&amp;epid=6067704248&amp;hash=item4e2c7c9cac:g:4WgAAOSw~tNnddWv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKloMpn41IoRkSIOaSohypbrxDbI%2FB1XY0RWeCyaAAcB37keHyp9034s7HW7MtYlmKJD8ZkNiTahRxiDs0zsQsrRdAujLZ%2FlBX5brdZuEaJFE2XBGfyANmV4yojPRJjHGu0EWMl3D02%2FZcGPHI73uLDaURvvIRNItu1zpctl5LW7Rz5ckzb8osL19P6G57Y0081k9IiPcAu%2FAxpe%2Fkk%2Bq%2FOe5O%2FmpAgVFHbV2U8ng8Sjlg%3D%3D%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/226580182678?_skw=PSA+10&amp;epid=13056576108&amp;hash=item34c13b3696:g:sqcAAOSw7zZnoO68&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnIj5tFVL1k%2BBPJFerto49TLvQwtLu2Y4reXopMDvvZCN%2Fwo761mbRHU8f9DR1hibWhSgTXPuN18dppm5y8Y60%2F0Z2I0CJjp1MgwoKopm%2FiFlxzYWYQU1bEOTw7Btr7FCaueZxLCAzqzJRvZ88GJ0HNV1Dx2xzCEfreW4AARGPatsJAkuKa5%2FvijCpv3qSQ7692Rl45vO1%2FUgQWdU1Mu6yMS6%2BmOLo8ZJenN1UTv3O6yg%3D%3D%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10519,23 +10519,27 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr"/>
+          <t>Panini Select</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Gold Disco</t>
+        </is>
+      </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Emoni Bates</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -10545,7 +10549,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396170187820?_skw=PSA+10&amp;epid=16056505914&amp;hash=item5c3d95542c:g:3aIAAOSwAOJnoDWx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkH5GqSSsZC%2Bn1fraXhcfqkYn6g%2B1uXTu5kARUk7XOukGPAS2UuAx4R2ctyOWHdndsyxNyQXapQFdlRhkACMgM%2Bg0mmSsNJ99w77f3ZNWh3FEAYUX%2F2t2GFrEYV1k%2FuAQxc%2Bfyt3zPKRl1KGFLwzOU4riud%2BAJLjxU28jXuiH%2BPsxwpfEEwUxx9Oqf5pXCZpyBM7yJzyKF4Mzkf50MlNZOkl%2F62d4AzVf8kSwZAVaRO%2BA%3D%3D%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/335753813164?_skw=PSA+10&amp;epid=6067704248&amp;hash=item4e2c7c9cac:g:4WgAAOSw~tNnddWv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKloMpn41IoRkSIOaSohypbrxDbI%2FB1XY0RWeCyaAAcB3x9%2FSvSAJZSIxOK067yzIs1qtEMwlMGGckW1U2j%2BZ50NWQpdwvYBvapr1qzvbv%2FLjxETN8eYYdYzDfwA3LTM0SccAesovgwvbCptp%2F5QmLusPZfENoFz8NjFXrOt7cC8WEIxID%2FG6Yrz37nkqko3bwVh9a1ZhKBeB6mlhAHOOU%2Bev1COjLEB1UDlff50LihQmw%3D%3D%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10555,13 +10559,25 @@
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
       <c r="D259" t="inlineStr"/>
-      <c r="E259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Luka Dončić</t>
+        </is>
+      </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>$699.99</t>
+          <t>$225.00</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -10571,7 +10587,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276840585754?_skw=PSA+10&amp;hash=item4074fc1a1a:g:kMMAAOSwt4pnn58-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkwNrCDj3%2BoXBLLsbs0VO2O4Tc9PqvtlqBI%2F7MyH8U8h9Sbth%2FxaA2mjSftzlsaMDbx%2FYgVN3m2jkzgrmqZJS%2F776OwumYIq1QsJNRL6rEI1KL5HWUYoGAueCNRK9I%2BhXU%2F%2BnpKJ81HZ2o5CG%2Fr462HtZeTKqi1t17F91zEqJFWKUZx5S598dkDZEWhgUp%2BWrobxx03Z585Ekq6bqLXJ216VmoWnP6k0r9S%2FFbi3pj8Bg%3D%3D%7Ctkp%3ABk9SR_rxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/396170187820?_skw=PSA+10&amp;epid=16056505914&amp;hash=item5c3d95542c:g:3aIAAOSwAOJnoDWx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlAws0n1bbgbg%2FmZoR3X5H1a%2FxTw9ddvfMY5qOzObNyG6a18rgnvUYn347bBnElhqz4mPxhLkgq7rK%2FJyi4SXVP4ObulIDVf%2BMNdyJSAkZhX%2FJWMkU05UN6Su%2BS8MecFOVbPy9ddboPGrlRoJWBsevK8euK%2BSzSI%2BKGoFFHGgDmMFdQUPs4ntPfXdzDcOepwc%2BYMJZHHYqiMZUQ%2B7u0LgM2RcUuGQHCM%2FEznUz%2BvmD4lr7BIyFWe4oaSiPo8Vxo7722YxV8O8Iyutie5L3xKh%2B%2F%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10581,29 +10597,13 @@
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Luka Dončić</t>
-        </is>
-      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$699.99</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226578491790?_skw=PSA+10&amp;hash=item34c121698e:g:CZUAAOSw2dpnn4p8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn8IbJFCkwwWArUBfbL4mA1edi58S52Yur4k0o2zNrCkUHn%2BRhA0Hf5y%2BIf%2Bgs3ipAGwZ0J0bWzYgnshnELMlT0pMQrCQ6%2FURbxmdKmQIcT3uF2MuRKlul9Cex4wa9DxRM0WvKzqb0wJVvgc%2FbFClT7oKn4Rs9kjQKYlNceOjf32i563W%2FCQbjb0mif2qx03GILmHIOfAkViTsOt7bmCJvZO8J0CPWMYxPlUu7MCD2pumB1ercIBkYq3k6Osf29lNy3FR%2FxKVmqTn6FPIW29E2v%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/276840585754?_skw=PSA+10&amp;hash=item4074fc1a1a:g:kMMAAOSwt4pnn58-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlGmeXpfnJdDXWvP5k4VD1%2BM569FdCt2Odml9bdessvSGUnAVSWN9oC5Ae090Zrkt0gJwhf%2Fi0vNpJrSLlKsA88io4sSbnKsHi5v71xkvCvtD0P3lBow6PXb3udzIvBDujT1B832ADerO7tubRva%2FVYn6U45GgfBCLyaXR1%2FKag8bPol88gB2W0nqvnDz07GqtXPg90%2BwiYKgQvKQqu7b21XtNgXdMPw42vMAvQkB0ceR5ZWP2tnO8job5J1RXQ%2BEkYuDB1VbH6Rt8RyWE%2BbOeu%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10625,23 +10625,27 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>1992-93</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Fleer Ultra</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>$260.00</t>
+          <t>$325.00</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -10651,7 +10655,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396136060433?_skw=PSA+10&amp;hash=item5c3b8c9611:g:l04AAOSwX59njcD5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkyo3mdAFg9vkoaHxbbfEDOmBqt79vxJloJatqVr21Nkni4GoxDUN2iEdkJSbCDLAjVoC%2BMmwU0qj5iZUsowZb2ZKHePa4SvKNDgX7aOLEzFPPj373ggrdi93U%2FKkOf5bh5k6Q8LFXCbrJm1WwHTGIPJ7S%2BEul%2BrBopDmg3bgsztj67w5KxftSj66JVIy025z2JiXqI0Fjv8FwIPZ9VkJxAfKmSDzqdgT%2FSmfmGxQ7w2n5K9kIQuD6FGRMC2qjy45iz0MmNNWpUMnYfPRa38PCO%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/226578491790?_skw=PSA+10&amp;hash=item34c121698e:g:CZUAAOSw2dpnn4p8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn8IbJFCkwwWArUBfbL4mA1edi58S52Yur4k0o2zNrCkUHn%2BRhA0Hf5y%2BIf%2Bgs3ipAGwZ0J0bWzYgnshnELMlT0pMQrCQ6%2FURbxmdKmQIcT3uF2MuRKlul9Cex4wa9DxRPl9uhHohu3VWK874GWrRd1KsoKzRfZx8DnUFrkH702A%2BzQT3peOt%2BsvEsm6a9MPSVqDG%2BYqnYUPnLpKxFnVzX2qdeCIVafT6UH4A7aHw2KTlKTBctNYa8rfDaO2pLpbweNGsVBe9ZC4XUQvWKZqDKv%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10663,23 +10667,23 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1992-93</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Panini Prizm Rookies</t>
+          <t>Fleer Ultra</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Michael Jordan</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>$274.99</t>
+          <t>$260.00</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -10689,7 +10693,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156670004762?_skw=PSA+10&amp;epid=16056505914&amp;hash=item247a428e1a:g:fQQAAOSwgKRnoNTp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkxxnfT2RQvugOYAzoS9lTVpoBmaxWdZBNcfjQ%2F0rnYw5uhoqYkTJe2EfFBkv2excFFEWRTtGGNT%2Fs8yXjB%2Bd--ALj2vO8UwG7dW5aN0we7SQTWAouggBaqHzaT9fDefAkkjUDN5BNfhyo6bAymHF8g21P47AClDzgzcZqL%2BvhvibCIjASRvINUN5UlpGKtOuvJsZGlXaeWfh7I6aqs8l6lQog%2B1D9dD7eBNh8EvAkZWw%3D%3D%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/396136060433?_skw=PSA+10&amp;hash=item5c3b8c9611:g:l04AAOSwX59njcD5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkyo3mdAFg9vkoaHxbbfEDOmBqt79vxJloJatqVr21Nkni4GoxDUN2iEdkJSbCDLAjVoC%2BMmwU0qj5iZUsowZb2ZKHePa4SvKNDgX7aOLEzFPPj373ggrdi93U%2FKkOf5bhqg1YAK%2F9GGdvTRCKYvzLMANmrbjsdMogaTmV8F5FoeyGu9Pp5mf9FSePpWvdmU3DJ1hXbbKZZI%2FaZ0EerMlhK6c783ikS6XphXs0HoLxiERhh5A%2F6z8KqFKMG0HkqAcqUKG%2BH9Gj7p4y5UsQKR7i8%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10701,27 +10705,23 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Select</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Zebra Prizm</t>
-        </is>
-      </c>
+          <t>Panini Prizm Rookies</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$274.99</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126811779563?_skw=PSA+10&amp;epid=8056524441&amp;hash=item1d869231eb:g:FcoAAOSwQFdnT3mn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnO5%2BJ5I4nPj3CxyB3wIcAxzF2fiueCVfJFZUZERZecE0fXiw6llT4UtNgU39ODHBp3u7zOz8VxNbcr3eJ%2B4DweLyPFcyoBzSkVO89SR9pQRorsp5rmOmWOaryuuBh3SnLj9pm%2BQAzkd6Tq4NUPGHRlWAkJn547dvH53gheX9oQO4SkDxErlEf7VIyc5bBjcmWDivoIQJYhdBpBWxImNksgdVfa%2B%2BIcVVVmReBrLMhRyNJDjIvxlybscwZoCpFq%2FkVwpl485gaNvXy2YpEzqw8F%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/156670004762?_skw=PSA+10&amp;epid=16056505914&amp;hash=item247a428e1a:g:fQQAAOSwgKRnoNTp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkxxnfT2RQvugOYAzoS9lTVpoBmaxWdZBNcfjQ%2F0rnYw%2BrAeA3W3xZVDTBEnOdLzS6xGlnmKFvnkANFhUmP4uv9bcnj4qC4J22BAwIqYhuj8Oc4kqWUvdU%2F79lrNzfS4BZO%2F%2BLhaol9Y%2BTdBjHCPZsPJTi6uLAHyPXJQJZXtvUlrGaQ2418mD2cOLKYYI3oCVTJhDPHKEmWcCBfTBRlSaf4I7huumpJ1kPnQVj6lkr%2FuQ%3D%3D%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10743,23 +10743,27 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Bowman Inception University</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr"/>
+          <t>Select</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Zebra Prizm</t>
+        </is>
+      </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Caitlin Clark</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>$165.00</t>
+          <t>$325.00</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -10769,7 +10773,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375906467222?_skw=PSA+10&amp;epid=14060741704&amp;hash=item5785c57d96:g:ZqoAAOSwgw1neqrH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnpaPKse%2B4mAYvpYdi6NbVv6PfQ%2BCz8j2aLzigHg5UBc8XUh78u5bOdYi9rqgE%2FfEvjrbZFR6WEJPmnCbAluIAkgQRWZzK76wfeKXpe0WQI1FajPgyvxrDq12Xh22tq4ycAoUfe7%2Bl%2FR6jIXqAgc9X4jDriJ6d00AzNIBZbTyqHsGBzrWdoGAd7okoGsDtHU%2BDnAIqDRLumRPkioLtr47HBzXaQqfEuJsOGr5w4qFEYVw%3D%3D%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/126811779563?_skw=PSA+10&amp;epid=8056524441&amp;hash=item1d869231eb:g:FcoAAOSwQFdnT3mn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnO5%2BJ5I4nPj3CxyB3wIcAxzF2fiueCVfJFZUZERZecE0fXiw6llT4UtNgU39ODHBp3u7zOz8VxNbcr3eJ%2B4DweLyPFcyoBzSkVO89SR9pQRorsp5rmOmWOaryuuBh3SnKIGDQS2d77hEjQFKMI5eJdtwJf5u%2FpsdSZnsB3HqgANtb481pGylZcHDvkGis03za7MzIKYl5Fv4ig%2BSoyjN5c47i8CH19IPHA0RhlQAsirxjcs2nqZc%2B%2FRPgPMm4kAG9yfyTPP1MUE%2BY2c1ejjzYA%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10781,27 +10785,23 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Topps Now</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Purple</t>
-        </is>
-      </c>
+          <t>Bowman Inception University</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>NIKOLA TOPIC</t>
+          <t>Caitlin Clark</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$165.00</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335711866876?_skw=PSA+10&amp;hash=item4e29fc8ffc:g:uAUAAOSw8GRnOGoe&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmjeHSqIbriItwIu4BwxOoVaIoa5e0GItvJRtxf%2BFmk8cOqPUupW2Tln8zFbme832zGbF0hdjRwaHp84fD%2FgPBmUkKeWwK09OG%2BZGKpRPTw2AD4x5Bh4KOAzoekHvQP5GfFSk6BlzlyFw3COdQ%2FG%2BhpQ%2FtpSWK441prF1tFNZKMoGaAAQYy02yt5cZ7nP%2BWjxtyhueFlHNfiykwyd7nEnQSJVuQ%2FYRuybfEwqxa8tHPHiihv0Z2d6FCUt8Nl883OHq3H1DIgPnVwk6RngXQVR8m%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/375906467222?_skw=PSA+10&amp;epid=14060741704&amp;hash=item5785c57d96:g:ZqoAAOSwgw1neqrH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnpaPKse%2B4mAYvpYdi6NbVv6PfQ%2BCz8j2aLzigHg5UBc8OFESzZoF1QxZQy6UGjicaCESEu2ZKc3%2BN3jcnLHiABfIV8SBdfWS9W9EYVWHkiCR2NfsPQzyLmtzB8L%2FgobLItg82aN%2FZAMywgBPjUQOzYtp7kVL54KiTDHqrCApY7rcTo9nU6gdEMp0znzjjy0XI0zw3HKsLfL0yKEShKFPwOWMngLiUx02QMVgK%2BS8Xhog%3D%3D%7Ctkp%3ABk9SR-iSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10823,23 +10823,27 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr"/>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Topps Now</t>
+        </is>
+      </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Choice Prizm</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>NIKOLA TOPIC</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>$349.00</t>
+          <t>$299.99</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -10849,7 +10853,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196985512145?_skw=PSA+10&amp;epid=19058647245&amp;hash=item2ddd4060d1:g:SYMAAOSwOpNnniCL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlEORmy8a0zKG9sxlzv%2BjEFmPozm2xhh6DqfH4oIEDsRhpVHN%2Bk5YCkGpCBqVE1ShB1oWMBWZJICrr6B7MQdfyyS%2BppPdamA6HU2ueBbs076nnwBtzzOqUn81Eyo8Vd94R5iqWwCvRk7CH4v1RbrB9YLHjESM1uUSq%2FhElkDlSM7Yw00%2BAOJwQUkcSnC972k1%2Bs3zCNcbdaFU4G55P3wtLhQuTHxlkecs5e2rGtwxCq2gOS9pEAMVtv9srP9xu2gXe4e%2BSkMeomEnvhkCogjGUr%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/335711866876?_skw=PSA+10&amp;hash=item4e29fc8ffc:g:uAUAAOSw8GRnOGoe&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmjeHSqIbriItwIu4BwxOoVaIoa5e0GItvJRtxf%2BFmk8cOqPUupW2Tln8zFbme832zGbF0hdjRwaHp84fD%2FgPBmUkKeWwK09OG%2BZGKpRPTw2AD4x5Bh4KOAzoekHvQP5Gc5r8ccicFT1r%2BwSdNd2q0tOE67oJwt%2F2wBu07s9f9z%2Fy%2FQLsG6jv3mMW9YIz7aF8ooCfc%2FGsH4a5HgpWGFcqyvrKpSJNpm9X2JsjzgIXIFoYbCiReiIPUbJo7tScj%2BRYGfIjQYgQaNiSEbvORTR%2FqA%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10861,23 +10865,23 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Panini Select Nba</t>
-        </is>
-      </c>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Tie-Dye Prizm</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr"/>
+          <t>Choice Prizm</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Giannis Antetokounmpo</t>
+        </is>
+      </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$349.00</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10887,7 +10891,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204674113961?_skw=PSA+10&amp;epid=4061646203&amp;hash=item2fa78721a9:g:T3cAAOSwQ8xl4Pru&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmFudlge6e63u%2FylAKBRYqVqAMqpXf114yrwxKGqrAEskaR9LRVzSYdByBucZy5bz52j2kEGj5FwJqFydcL5YY6FfC27CXldRIKkaBIhPi2Gnm%2B6pC0xCdEalAy1mEoPN5g0PmMSy2QJCrqiqXHtRehrPI1D5z7%2FSEDhV%2B3I68gs8LJWZ075aivRcKuk1ufBe8UPIbvg1L2Hq11QECwu%2BFiXekBi9X1k%2BL64N1UnQYVKw%3D%3D%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/196985512145?_skw=PSA+10&amp;epid=19058647245&amp;hash=item2ddd4060d1:g:SYMAAOSwOpNnniCL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvPX6pDP44wgwWNlW0FgxFWL%2FuUQEFYpeHuPTm%2B%2B9JNZKQ74tGMm7e1%2Bwx2%2FUh4ays%2Bl0tGg7b7ef6MeLcWgRqhEklUZ1WLKkheG4MiMIwzXXx3qz9qZNhOBHcQBmKYevVlv4ZHdt14vwAQa49OrRE0WxZBFFj%2FYKzKiqAYrjRYzsqUF4Sdrj2BMAMlavks1A0O4q4esxDudusvX093XyFb66FLAzyPAId1Ec1aMZvoQ%3D%3D%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10899,27 +10903,23 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Panini Select Nba</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Paige Bueckers</t>
-        </is>
-      </c>
+          <t>Tie-Dye Prizm</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186888992543?_skw=PSA+10&amp;hash=item2b8373b71f:g:zm0AAOSw5Elng07K&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk6o1q3LjrNkPXHuwuIeaVZ%2Fiup22JvE8S7LS0VtDFV876%2FO0CPd2kjCU1YQTP%2BpzTTSfidiEAoTjgedLj0vP7cXTzv0FrGqBEd6DfBZk1bwsMmPkLvGYLbSYTj5wwkpWQp8bWrMoMsolgAaC5llLOn1OlD7r3v4vWQbulV4KMKS8AJD255V3ubEN1Pd4vZkQO7CzNPncWrDG6wULPRqYwRasHXC3IomtYD08lvTE%2FiKQ%3D%3D%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/204674113961?_skw=PSA+10&amp;epid=4061646203&amp;hash=item2fa78721a9:g:T3cAAOSwQ8xl4Pru&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmFudlge6e63u%2FylAKBRYqVqAMqpXf114yrwxKGqrAEsm2lT7ybWipU7ZL%2BTmBElHUWPTK0HKvlOnv6zBtThG5CcL9%2F6RqXX2jFGQm%2F5MTD2wdRvaT0hPHmsY0R9eb6XiB%2FdUjM7WvuGC%2BgdrZ5QYazdQXD%2B8pBrojgkrPm94tDCFa%2BzHLORC81AW3k3eVxkcxPjPqMnHl6U2qemVeK2RjfWfZU7Dj0yaOze6NU4poaRw%3D%3D%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10941,27 +10941,27 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Bowman</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Black Gold Prizm</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Paige Bueckers</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>$152.50</t>
+          <t>$399.99</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156658548205?_skw=PSA+10&amp;epid=5065171633&amp;hash=item247993bded:g:HqAAAOSwFyNnl7Bf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlFLBUk%2FfHFnVXTusOuA%2F1bLZs7uS8dc1WuRLzNl8HwA3Ch4VrZtEP379i6hOXsb9sr5FNozehJ7kjN5hfpI6lYuf22yj61Tt0zH1uvb10rKzNSczAPBtLcMLa88ZqWhsMwSwn5XzWPt1EayzJbNjFt7ZNuj3vfgozuMfRWbx6kHvv%2Fhkh1Bf1fb1iQhbcUN5euQWeAGqzeufK938pehfmeM15KFwF4nM8ZYmurWOwfBA%3D%3D%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/186888992543?_skw=PSA+10&amp;hash=item2b8373b71f:g:zm0AAOSw5Elng07K&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKngEU6zDJPpHOsKpNusyM5paIHFWcuB84vZ%2Ba7F%2Bdq6iapUs5HKtE4xYAxFwgm8MaLl1%2FumJDXbar7GlLZzAnKL4HbND1%2BcbCXQMedQmG8yaB1mLuKygP6u8MM7rD%2FNsSDycbjdsV%2B%2FbEbx4kZkoDqNSKd5IsLiwRP9QAkpb6Uo6cjczes6aW6rPy0alIuH0mHsUjCOZlWqJ7udIHhM%2B%2FubSsB%2BXcsJoGcPEtdLhFfsDfyqyvQrsB%2B2fSqodBBDR37lmODLpQPd0a3LRtxEaU2M%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -10991,15 +10991,19 @@
           <t>Panini Prizm</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr"/>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Black Gold Prizm</t>
+        </is>
+      </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Andrew Nembhard</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>$285.78</t>
+          <t>$152.50</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11009,7 +11013,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176819432968?_skw=PSA+10&amp;hash=item292b426e08:g:0HgAAOSwE4Rnn5mN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlYZ9W1bjUDvwbux%2BfcjWzvOR%2BMZx8Qv%2Fn%2Fpicq66iXDIz7Opn%2FlOIl6ZesZtKu8w5DxKHGaHe9VuvrSy2M%2BjSvMv0Gf2740%2FUSPYiRzUPRW%2BWZe1Qf06nvjXePtq4JYYCEspNltZtQQXC29Ew6xBfklLdAHa8zg934FDrrGayYc%2FqiI%2Fy7cw6LgitjGlsFe6IdbtgwDD6r0CCFY35J5RtZotz7k0dErfXN9AbuaqaVHg%3D%3D%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/156658548205?_skw=PSA+10&amp;epid=5065171633&amp;hash=item247993bded:g:HqAAAOSwFyNnl7Bf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn%2BjUGySJUnwiaAdDrP59AgoPzICJxYv%2FeaSCTQSizLav1qb4Qx0EHqrRy--x8g5awovKMDn%2B59lmBYnfLuVeGDqNaTdDG4Xj1EurU%2Fzjrx3MWLqMX%2FSaYa1FYghVuBlT1esna7%2Bq%2FrCYbHpKtVTeUNh8LgIQYh6qCTZAvdRtrkQuHgz2CO4%2BtFqdOBz3g2nDOJa9FMeYB28INFKXTX0IfIsdnkS%2BaT4E%2BiLiIwdR4B3mQtntpVhNe0Jmwgo8VmMTdwMotsmCQ5c98aTJOuO3Vk%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11021,27 +11025,23 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Panini Innovation</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Light Blue</t>
-        </is>
-      </c>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>$249.00</t>
+          <t>$285.78</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266700419282?_skw=PSA+10&amp;epid=21056570876&amp;hash=item3e189570d2:g:XiYAAOSwpi1l47vL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnLEgGLMKc1AxGeXGBxOOyAHQ2fYhM68AiuXvCEhxie1dw0EnLsXsroYWoZ4ccrtlC8g5YM27on1360fLnWoCB6dxqWTBRJtzVYjmWHhBGUabBecoBockCMar29LVXu3C1p2k2nEi5KgYA4u6zadnZW2YYXxRdDSP%2FoHdLdKsMC%2FP08Er%2FlskxJBF5RyFk1B6NlyxoisMpALN0IHBllrNT38XoMmp2MSDb%2BCNbOgdLrpw%3D%3D%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/176819432968?_skw=PSA+10&amp;hash=item292b426e08:g:0HgAAOSwE4Rnn5mN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlYZ9W1bjUDvwbux%2BfcjWzvOR%2BMZx8Qv%2Fn%2Fpicq66iXDDgKAxUDEyaKDsq6pfCWtL79v5C86%2FwSF4ET24k2IvkbYMUr6uH%2BGGD1mVYBgzQAUBhVletjEOzW9mBHfTHTprShIbMAU9NvWgQjf%2FjYjRSMKaFrQRgnHTlz0sjeaMYByD69q3fGedHswobwz11bmwAzt63G%2F270uQByxnwOaofLVzizONru7cd2DKvsoU9rCA%3D%3D%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11063,27 +11063,27 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Panini Select WNBA</t>
+          <t>Panini Innovation</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Pink Ice Prizm</t>
+          <t>Light Blue</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Caitlin Clark</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$249.00</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405505262750?_skw=PSA+10&amp;epid=9072565752&amp;hash=item5e69ff449e:g:qUkAAOSwsL5nl6va&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk9M92DoklyI7%2B06UjT%2Bf4MqR3bo41uKz9UtdkutNOMxmOG4zJ0iwZ4FI7xvrF1pXf2eAGgv6YHRhcmwHa4xI7gwXSqv0SVn0kernRmgGUUET99nWtc%2Bz0q4QdleG5niq7Mcvg%2BlbQeie7Ng9V9aGU0lPAjfdSNUx15LlYKBCNHEi%2FYtOugXLk%2FzhZxFiIRfEK5EBoOV8oP7ZztourMDUujga57iYg4PfiuHoo%2FDBH5%2BA%3D%3D%7Ctkp%3ABk9SR_zxm5SaZQ</t>
+          <t>https://www.ebay.com/itm/266700419282?_skw=PSA+10&amp;epid=21056570876&amp;hash=item3e189570d2:g:XiYAAOSwpi1l47vL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnLEgGLMKc1AxGeXGBxOOyAHQ2fYhM68AiuXvCEhxie1eoqbB%2BY9unLp%2BjRoTnW2VE%2BP9bzeGnPG3frdPw3rJA4R664PKst7KFCa0Jfoce01nLrDYxqUYYTJJzbJ4UEn2Sq49BDqWC8eIzAfkVi8%2BEGFMt%2Bs4%2BvU09eMUwlhg6RhXikGw0%2Be3V0Ts3yEyp4fDdcg4%2FdsNRUkwx3D8LsILi6fg7GX%2Fjq0tf1uWen6y7m3A%3D%3D%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11105,27 +11105,27 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Select WNBA</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Mosaic</t>
+          <t>Pink Ice Prizm</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>LeBron James, Luka Dončić</t>
+          <t>Caitlin Clark</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>$799.99</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156633887334?_skw=PSA+10&amp;epid=25056537687&amp;hash=item24781b7266:g:RQMAAOSwlm5mY1mM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl72gHAGUVaJeUz%2Fh1tRdQlPbIEnz1Fo6f376hcdhnTiF%2BoRgmRUq3XX%2Bu1BV51wQYrIDui9zhgztP4YLmlA5MYbdh%2BLOmlIS58Xg6%2FpCA%2BN%2BOYtMv5jIfx0DoCcbLa4S8drhl9drrkM3UQHa2TV7OPGOeZDeY%2B46vd5z5gfsskOjaa9EiBmRFPh%2BaANA2pnZ7TwwdpwkT3Z6ex5B8oR3%2FOghPguHwouRqJ35GlCeFJJA%3D%3D%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/405505262750?_skw=PSA+10&amp;epid=9072565752&amp;hash=item5e69ff449e:g:qUkAAOSwsL5nl6va&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk9M92DoklyI7%2B06UjT%2Bf4MqR3bo41uKz9UtdkutNOMxhufQ%2BSxma5CfnQ5HZrX6e6%2FkB7CTF6N2Q9bIiX0Y0JT8U01Xo974uUYI9ZqJiMR84yZ20WC1aPDKCKmDi8M%2BZoP1IFG9tOR9iZ5Q0xZrMxwLRlylu0LPXUNPacaD%2F7BGZGcpkNRONQEZvURmFiWjr6o%2B7g37B1qPAwG0H2Z2mCDwBF44D77kj0F2L9s5DLSeQ%3D%3D%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11147,23 +11147,27 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Mosaic</t>
+        </is>
+      </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>LeBron James, Luka Dončić</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$799.99</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11173,14 +11177,14 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954044372?_skw=PSA+10&amp;epid=24056499686&amp;hash=item57889b75d4:g:OpMAAOSwMLBnOpju&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm0yOTNwDmTwgSUl09TJbWIkfx0Zg7g0t14FIswVXhbSMfJh4LfW7YKzRmnYUD0%2B2na3B5wbhTys2XmxdP2%2FmVYcUEoEx6iYgnG1bbUU0H2aMig3QhXgCIztxkLpyzuqcP%2B6uhUXDEgNtpAr7YAdEEIrHBAvIQJDGE3MXtFjH4lVZ8Ju0c0nFZxX782kFhmC1Ihj4QNiviDdBvyuh0BUBkmO2jC7JLDIZOCkLRchezEuWhKif5RncSp7Hw2Ke9X3y28FIE5DB7R2pilc%2F0YbOrR%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/156633887334?_skw=PSA+10&amp;epid=25056537687&amp;hash=item24781b7266:g:RQMAAOSwlm5mY1mM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl72gHAGUVaJeUz%2Fh1tRdQlPbIEnz1Fo6f376hcdhnTiEuC0F0e%2BcabjGpxn06cvV7m%2BSWOmJtBJSq5SxBZeD8ecmXQlxXODdHofXRrI68A3kfn8cQVoYzsYxdSZw7QiYNIbVr8GIjgSyTgpLmONHOkdtv%2BgPpiw%2Fqu6lGuo9%2BrPuTs%2BpOqZqGk5gZkYisaZqZqdQCsobE%2Fcn1tvXQeb233wg0Wkfcy%2FzOEZgUR%2FSvMFA%3D%3D%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Football</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -11190,14 +11194,10 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Panini Status</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Micro</t>
-        </is>
-      </c>
+          <t>Panini Donruss</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
           <t>Luka Dončić</t>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11215,31 +11215,39 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266847743823?_skw=PSA+10&amp;hash=item3e215d6f4f:g:ZfwAAOSwEolmYf93&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk8d9mqbH8ZTRmew43TMkU4Fl2y2P2VhjfShD%2F8qpDYRF98HwcG8nEVzDI%2BY64%2Bc57gaR8Wv2RIqffstbu9vs50kFPANyypZlnpBpd8exYmSP0FTvJjz%2FoT1%2BSqURSfAEz0uO4si%2F96dmTFlzPdnXmp51Vfeaor4meL79j4SdJEkQOclpqxN1750NSVoIwq6c1SMu9A1qbS3y3Q6BklMSpH%2B5OYduhPkAlBc9jGvUYDnw%3D%3D%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/375954044372?_skw=PSA+10&amp;epid=24056499686&amp;hash=item57889b75d4:g:OpMAAOSwMLBnOpju&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm0yOTNwDmTwgSUl09TJbWIkfx0Zg7g0t14FIswVXhbSMfJh4LfW7YKzRmnYUD0%2B2na3B5wbhTys2XmxdP2%2FmVYcUEoEx6iYgnG1bbUU0H2aMig3QhXgCIztxkLpyzuqcN5UE7wEpducd6H2M9i5pE3%2FF%2Bu0BPi%2BYgZ08lJTvL5ljNrlSQn%2FisuwWF3U7mDG4WvPF%2FWBynVtUhI53llY5oEJYFXQKOk%2Fnhk87vdkxBjU9PHO0zDJZztwIauBOnNne59zmpjsWcsQTAGTyTVzroY%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Football</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr"/>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Panini Status</t>
+        </is>
+      </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Optic</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr"/>
+          <t>Micro</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Luka Dončić</t>
+        </is>
+      </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11249,7 +11257,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306082876012?_skw=PSA+10&amp;hash=item4743f60a6c:g:TywAAOSwraFnntoB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmcTQZ4Fe1Nximg6CBw7knpcdpcUcHIQJOtjStR2GD7nvQ0bPVhQgI8aAmY6dF%2FKwtKcPIFxzb%2BFjpBbHZLXfCTzEIXnUkFgcejp8p5zTxWgvOMMrJfcnGH%2Bsii5YWqPFGqILIzh2p5gFp4V6iqYcxm9%2Fe4GWiyfGur5M6WywjbwMDtSJOqKG2KE2gr%2BJqxOevhEXlhjTek3wAjf8G8cfcJ9wVGyp6cS2necUQ0Zgqr%2BBlKqaHnTfGgdWvL6qngBnwcVNOXliRYccYkGDtXBI0B%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/266847743823?_skw=PSA+10&amp;hash=item3e215d6f4f:g:ZfwAAOSwEolmYf93&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKndsfBQ9MdHhTeSxoGHmu8HXF%2FeHr1d6dae6ARmKYOR%2FNt5TEi7aAOcKJ19Ho7BaCWMMXtX9mQ5%2Bc8IAE1%2BLzWUC%2BQC%2FjuOEugyVQ%2Fz1tMJC7C0%2BRPo1%2BUgN1WjG0MUh0BXZ0hSdmIp9i1QBm4%2F6c00tmhxGg8xwjs0cEgfbdcytic6zz3n6LDwwFJSqIoNizssqE5LPaTjkwJnilkoEIDIritiBGcV0qUiMfHd4frMHUYJsViEKLq8GMIOVoYW33zeRS%2FBC79zlczj7slXJQuM%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11259,13 +11267,21 @@
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr"/>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
       <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Optic</t>
+        </is>
+      </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>$358.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11275,7 +11291,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135510701035?_skw=PSA+10&amp;epid=26073765990&amp;hash=item1f8d1133eb:g:MIkAAOSwqBVnj8oJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn3yTjvsKFWdIDkXYHe%2FbQOQ8xketQNLkkosQVFxlM0%2FnjwHFFwPe%2FAF2izGLzVJ5mIIP5y0dId%2B%2F37bActUJ5AwvGP4ZcrCARnWzZK25732bbeJR2AUvq3HOQvmbaIWuJOAPDzqF1yxgAzX5SCOQSoFxFa2AVnitVQ6pjtpOkOHFE41nDvWJiirG61IOQ9BPg6I%2FYvT%2BDZZQZb%2FYXx24x41eiuFeCA5JQ6Zfs2z6hG0w%3D%3D%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/306082876012?_skw=PSA+10&amp;hash=item4743f60a6c:g:TywAAOSwraFnntoB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmcTQZ4Fe1Nximg6CBw7knpcdpcUcHIQJOtjStR2GD7nvQ0bPVhQgI8aAmY6dF%2FKwtKcPIFxzb%2BFjpBbHZLXfCTzEIXnUkFgcejp8p5zTxWgvOMMrJfcnGH%2Bsii5YWqPFGpE4gi74pkWTFVqUarJH%2Fp29Ykciva1Eo9gONsNY2%2BCX7R9CTQP8gvbIuDI5HxZGSd7XvEPmbOW1wSvBNHgmW5cKRfM3ZzKk0Y4bkX4tgLCnLWehZeXJaRVK7FN%2FcqPBkTDhkdVr6sYGq%2FRbRyol2k%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11285,29 +11301,13 @@
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Fast Break Prizm</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Donovan Mitchell</t>
-        </is>
-      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$358.00</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11317,7 +11317,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396132058236?_skw=PSA+10&amp;epid=17056532879&amp;hash=item5c3b4f847c:g:QBcAAOSwd0dnixvW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkN9y9v39woq2x2kT5OEHlkBBhWM4ttPjKCFEFeZ1zrt53rmVJkrzJ6QjGdS0MNjct6VB1GC3tX24BqAfw2sHjS0IudwjzEtPL%2BcE6bfOZsqxyiODfnfwSKwBaetFYlhs3bynyF8E24jEiPTJnwul4XUDDHMf9%2Ffc739JAWxcE8uYZbnnFYnl%2F2p%2F025mtzTvq5hEU8ocrQakFlBt4Q1I61TXWsSzs7xDbPTXpi2wnxOA%3D%3D%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/135510701035?_skw=PSA+10&amp;epid=26073765990&amp;hash=item1f8d1133eb:g:MIkAAOSwqBVnj8oJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmWcqDdsscu77GYT7GDrHc5thlWL%2B1jaoqd7RZIq9%2B8FIK1xfreKFLx5jVF4CkmIdjsjS%2FlTu1Rw%2BYYDUzIFYrtcn0pbV6PNvX4nFW9r5J57UrlcPbHUE8NgpaIafYOHx3HH3ptqpYOJvk7qRvgOE9m2FB6tkc6C7PFlIMJcYaWgFZcn2OB0F4RVS1fNfX4k%2FlScwgjVsR%2FV1DbaB3SLZ3wEE6pK7YF2HwhFUiLJWwuBhK91dQxYsJaAzDqB2OMIpNAthX8%2BYLqXdkAyLsgi5q9%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11339,17 +11339,17 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167291144932?_skw=PSA+10&amp;epid=13056576108&amp;hash=item26f3544ae4:g:YjEAAOSwA-5noDZ3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmZH1gT9edCMbKEHryKiJ%2BrPTlHKOBVk9T03BHDdL1v6Cb5630K9F6%2Bhwn%2BpeooBgJEEIOJGl6q%2F1Wb86XPSRFgTee%2F2KUxiEx7C3s%2BJn6uYd4SZj0TxEEvPsgMR2eY%2BJbSkRL9jmaT%2BZpFEx5ZA%2BADbZa3sHadgT7TI9uZQg9NtzjgiMbZ2ECoE48xYxXtCgNcEkWg2RLXchJcvIxuhWrESCgXiZammBFPrXuJeCfAfw%3D%3D%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/396132058236?_skw=PSA+10&amp;epid=17056532879&amp;hash=item5c3b4f847c:g:QBcAAOSwd0dnixvW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlKRjiGVI4%2F6LpF%2FieF7%2BZ%2FgF992Nw7wwnc65L015W2I4eDIIFUny7iI0EuTsMPhvAvrW78PUPyGJp2rDEdJACuvLth2zR%2Bz%2FdoIdsHcPhMqe3IOosx8lPaz9ftSmWifP5OmMjyKxk%2F91OH4NNVHOJj83qjMiqFSTwPc%2Fp58DpjUhf%2Bm9hs4VjJvY58DrY2XaNwzv%2BfcGp3v8qGdArupVQrKCcNGotu1FjIOtX2fbQhM%2BVSoesaqElXjSjRZINKL9lOV2svx4uvurOCOeUQTYD6%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11371,27 +11371,27 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>1997-98</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Topps</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Damon Stoudamire</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>$599.00</t>
+          <t>$325.00</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316180216282?_skw=PSA+10&amp;epid=28059011405&amp;hash=item499dcf39da:g:Qw8AAOSw7QFnoDvk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1gTUPKVC7Z5KyQ%2Flvh57WrZmM4mrNkVrWZ3YbbGOqXcpyqQewSwl52AcYp3xvju%2FsbmnLoZqyB6v1n2E%2FV%2FsVPG4jp2QgFJrsdeAItu%2BZkv8XOWs8GFpNQmc3loooBnr%2B766hsYfBqbJqM2Uastdom6I7XPWIKNlNnUQ%2FqBCqerbTHo6m6y6nBGSxdqqqlMrNuJiRgbR7I5qY0w70Kq9XcKHV5Tl9xmBE%2FjeiNWANYg%3D%3D%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/167291144932?_skw=PSA+10&amp;epid=13056576108&amp;hash=item26f3544ae4:g:YjEAAOSwA-5noDZ3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkJNxPN%2B%2BQyD7zubg5FEDeA1qfcCcPzoW7BFFyB%2FyVdcEShbaa6IIuMJQ0udjJqFLp4dPjyP%2F5c2gPCq7AcGUYPUwkiPbt2cIH7dnFoSdblvclwL0i19WJ%2BdctnG4qFRA7%2BZzeIpR6cDPCaybsXCnGPcJgPac%2Ff4ZmGpKH9vU5IrapU1BpGEzJw5%2Fvb5zE6wtozHY2gS98o7Cnn2Z6Noju8ymnm%2BM%2F4ec0sTukX6x4JjrPV4DMyoISF3AIh8ejmTqAv8h89Tls%2FAgqWSX7Ui2AX%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11413,27 +11413,27 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1997-98</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Wave</t>
+          <t>Refractor</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Hannah Hidalgo</t>
+          <t>Damon Stoudamire</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>$699.99</t>
+          <t>$599.00</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395715310032?_skw=PSA+10&amp;hash=item5c227871d0:g:MGYAAOSwIBdm1Q71&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnIOUuJMoAd5Hvnu0fW0bspTYRmJ08AP5FV5TpgQ6VjW5ZQNwR2AaT01q0kDDh7bZfu6iyHlQFFaWzEpWnLEocEnEzpfKGz4LrAObFk%2BgMjjRC6QEuwaHVAp0HW9AiNT0ellRo5EFzaLk2ASZrogQ2jZk6Kd23d5PN1Toavp9MTCBih745lzqtHeLV7u5VjcPuysxgENiSCxq6Uswz%2F94I6u2lt%2Fc4H9WMK8utBDvJTYQ%3D%3D%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/316180216282?_skw=PSA+10&amp;epid=28059011405&amp;hash=item499dcf39da:g:Qw8AAOSw7QFnoDvk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1gTUPKVC7Z5KyQ%2Flvh57WrZmM4mrNkVrWZ3YbbGOqXQRAu2q3Ylq2QeZm1T%2Fgz4i%2F5o3VVbiX3Am6zIEGPiDJ6ethVeeGaRmdkskgiBX2BQKwU7V3N%2BS58JwZMla7oxExJch9G4Q5UUD67aR8rApcagjVynd4paEJmmsp4ftgIpUYM3u0wZYcfRLQFC%2BIguqa%2B0%2F%2BMJ6XcswXoBtZwdJ9fcYzDBOuZli7AoqnmKGjCA%3D%3D%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11455,23 +11455,27 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr"/>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Wave</t>
+        </is>
+      </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Luka Doncic, Luka Dončić</t>
+          <t>Hannah Hidalgo</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>$359.99</t>
+          <t>$699.99</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -11481,7 +11485,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/315462184711?_skw=PSA+10&amp;epid=16056505914&amp;hash=item497302ef07:g:QskAAOSwWJdmdyYz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9vInmpfdUcuGIxSaKdd1SY0%2FhQcwPzuHahybZKa9SIrwIMn8dm4pZYDwdBATZq5gsFQsg7yBRFz9uG3IIPjvPDyU8FCs2FCYjaIwSulECL%2Fipzt2fkLoW2%2FGxu98ua694mi6gobW7RIZAaDRTXxXQAxv1Gjyr3S8qrS7SiVnPgbrQkM7bCdx5kymdfQGZ%2FaRaHpnuRMncTjZDrCdi6cdgGi6kRiYrqSpiRQrWqaznArj3Gy%2BEdN4pL3Ll4tUkYfRSI7%2BPvAmgo6UqaTDarVZx%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/395715310032?_skw=PSA+10&amp;hash=item5c227871d0:g:MGYAAOSwIBdm1Q71&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkNDUTjU9T7vzx4ULONeq0zxgLBTZnXvS%2FW5og2%2FOhiGhaCbffPSFiAvmJa9gTiZnV%2Fgh8NuGa9fhn2v0dO4efZv%2BIJmEVvyWtZnITVpPV7KOh%2FakWTRGPOINpxvvR%2B1b5c9Vslb3lzeRxs8PJwiVRNJxg2%2BJCXfASyoNBYJEjO51mSebpgNcfjMtL14kn7jwilbdsqDnbpdjmeFmDx%2Be54eYI3LlPw4nLZA7icitKYKxSoHu7PwMi9XOLHEmUv2QpTdaH1lXxZGRsjwWRMoo7A%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11493,23 +11497,23 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Rittenhouse WNBA</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>DeWanna Bonner</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>$349.99</t>
+          <t>$359.99</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -11519,7 +11523,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396169654923?_skw=PSA+10&amp;hash=item5c3d8d328b:g:aSEAAOSwMf5nn-Up&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk4GF7zgprhDdRvwtLX42oEtbWVJazrUFxxy7ybAOE5qkWuJr6V0tdHzNH%2FpOvEVA%2BNwlHVEcReNmtdYzGCguwsO7FDXtlfyq6vt9VySof989wzZ5XtisFVDeDCg%2Bs6gVwQA5Hy%2BhoFUatl%2B5gT0mh5LcanvwBmoBirfguO6unlfCqb3fykE7komijx5oFIDoHoXBs7nCSfKnV1RidIOhwubpNsGjXaGcjTI3wsVNpF%2Bw%3D%3D%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/315462184711?_skw=PSA+10&amp;epid=16056505914&amp;hash=item497302ef07:g:QskAAOSwWJdmdyYz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9vInmpfdUcuGIxSaKdd1SY0%2FhQcwPzuHahybZKa9SIrwIMn8dm4pZYDwdBATZq5gsFQsg7yBRFz9uG3IIPjvPDyU8FCs2FCYjaIwSulECL%2Fipzt2fkLoW2%2FGxu98ua6%2FLPfJa263hejDrQnlBM9F%2Blg4ykSQhmgMiXjfL5E3TWF4qBuGN1ubaik9GU3QnXB6Y0IEus8Al%2FsdwUQZx9YLKQiuiI0UziAo6gLvxWI8FGOxUe%2Fc2vwQ8%2Bw%2FvqtBkxbzW2oltYOujWbysNylHN5EO%7Ctkp%3ABk9SR-qSi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11531,27 +11535,23 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Prizm</t>
-        </is>
-      </c>
+          <t>Rittenhouse WNBA</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>DeWanna Bonner</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>$290.00</t>
+          <t>$349.99</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335795324165?_skw=PSA+10&amp;epid=16056505914&amp;hash=item4e2ef60505:g:x20AAOSwj6dnoCjc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkuGtqcAAupqo9PkV14ppiLtywuroIr15rhm7T5I5vTT1R6GGHbtxuOdJHuNz0Wr%2FEiLH0xlE42qlLgXYd4hGKSS4WyleFebNCihkATVP9yX7VT33KhJ5Q1vMRrtNyzCpM9f7VvZDwH86M2d2%2F34rqTd7fE%2Ft5n0lGeZlDpMQjEV8dUXGV18OkeLUqgM8aK3R9jxaS4SuUNQj2wKNpgacbf7rH%2FWuAn2SDcer5hwP6D4WdOxSOS%2FY%2BARqVPxMpnRkSJNVLebYZK26QLKxQwXQOk%7Ctkp%3ABk9SR_7xm5SaZQ</t>
+          <t>https://www.ebay.com/itm/396169654923?_skw=PSA+10&amp;hash=item5c3d8d328b:g:aSEAAOSwMf5nn-Up&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl6iihSd%2BCvXznsc2tP47v9E2ESa5DHmginVbkQQkvxaoswbeiNusUPxlVd855mEPxUhotSiZGNKlt0Fkvy0erB%2BVCj9%2FijYdb6HxEiuOI1tQBaitJ0iyGIH9LU2%2FJteOjXIJN%2FLJGA1CVHZuivrE2yBZd54PtfiuIyKZDYvgR8RGYDjTjBfE2AJNojzAcquwA2qVSB7oaKd9fz5K1UdWSM39AaHqMiTJ2R5Az0GkFC68kSlSZCEyKjXGSdCZySPFoVO1rknoXI63d6%2BNSDNCXY%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11573,27 +11573,23 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Fast Break Blue</t>
-        </is>
-      </c>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$290.00</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -11603,7 +11599,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387882042862?_skw=PSA+10&amp;hash=item5a4f9245ee:g:9M0AAOSwOQpnmvBd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmX2i4hmRDAqDMOdRGzDxMtJ5u0NcIOBKlLh0DreC6MKP7N8iglmX8W%2BL90H5RTLB6B2Qw8j3Q1pOG4JNvZxVYgGBCDlVQoadPYG7WVEQ40wPZEbERzgCaVlbzcNc4d%2B7TBb1oqkhNUkfBc3w5sr06WUtr6ZmaSl7ctwyARzEqT5fM7QGbV2dyRLbd4szLm9%2BKJzEAiftjPVoHMiTSI65hTLKMO4GwYU2J9z4zWfchQ79nVACq10VfVdBxnITyi%2BDGPvSeF0CXlKFjKw9%2FXtOFm%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/335795324165?_skw=PSA+10&amp;epid=16056505914&amp;hash=item4e2ef60505:g:x20AAOSwj6dnoCjc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKny8DfVCM4kZR9%2Bs3%2FTHy6NVMI0uriTxNv%2BvatoZaa92d7nusiKMd604YzouYpN2RcX1Rl4RTl1FUTMfj%2F3vdt9eiXulkP0hifs2t%2FxiMpn%2Bsd3eijkN5C0GmJEpKuBscMt4huSNwyFnf%2BBXcxYmgUSTNXG9N%2F4kzmiESUOWtQS3TcmX6EPPqW6yQbBco%2F1yLdCPoSJ52mLwIyoB%2Fz9doE4bH%2BOVOh1pNkhq6BQofauNQ%3D%3D%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11620,12 +11616,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Green Prizm</t>
+          <t>Fast Break Blue</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -11635,7 +11631,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>$299.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -11645,7 +11641,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176684732389?_skw=PSA+10&amp;epid=8065159884&amp;hash=item29233b0fe5:g:hy8AAOSwYnhnN88S&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnkvGMLo2%2FUxflEmn1lFUkzYBvJzvGB2iqwvpsK3CMYyMW6xhGv5lkQKoeOZrGGZHDby4ExhsiMvt5HY5B0hCO6URHz0PZBVPhYbn1FI2jI%2FW7fenY9KuHCqRy%2Fk1Jp9mzmF7KD62buALp6sUiZAXwg6%2FuA7QiOWtx88crK0RfKGqeZSVN782TrsIzKHd3ln4JbxW%2F5Swwc7nqH8L0%2BAwz9prxHwiS8%2BlZaEokx6Yjce%2F4%2BILcjmnUSb51HcCh8Oz3GiZ7AnAF3whl2FYnfioHh%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/387882042862?_skw=PSA+10&amp;hash=item5a4f9245ee:g:9M0AAOSwOQpnmvBd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmX2i4hmRDAqDMOdRGzDxMtJ5u0NcIOBKlLh0DreC6MKP7N8iglmX8W%2BL90H5RTLB6B2Qw8j3Q1pOG4JNvZxVYgGBCDlVQoadPYG7WVEQ40wPZEbERzgCaVlbzcNc4d%2B7SdkrzB1r3SKyl7QCeQnTTNnXP23vaTjMZCA9E2u13JyzA8zNLoyilQwNXO4wbu%2BDoInL1T5SaTmGghDPCoZPc9Z1cb3AQ6nrvKWg34HhTS7rHvJp5dOEdPJ2foOV6kG%2Bx%2BkhTanbLafHwxo8UzLs4F%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11657,23 +11653,27 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Green Prizm</t>
+        </is>
+      </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$299.00</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135530696866?_skw=PSA+10&amp;epid=17056559071&amp;hash=item1f8e4250a2:g:v-0AAOSwXoBnn8Op&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYxO7OVNf3PVlOZ4UlLV6o7gBHCKDrfJ99WUztGen%2BKkgvEJAHrbGkIu1itE0v0Ojcc8hQw37ILSrRjg0IV5MOmFW3LX%2FN7PgCYbB5qtUJkU%2BNH4z%2B%2BfDIa4Pf0oBvHKnr775JSQj4covc7k3cZ1PFDxYaYOHG99ILALNhL7HbVsqnJvu49qjDEEcnNBBvIAx6U8aCfAXf5NtBKb79RM1b4%2BjVvLq%2BG4eGGtgSyiD8CuFCiNRCK4jnxHLpLNuzXNL2iIs4P4i3qIim1JMGhGAX%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/176684732389?_skw=PSA+10&amp;epid=8065159884&amp;hash=item29233b0fe5:g:hy8AAOSwYnhnN88S&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnfP8yg%2F%2B2edjYpfI%2FCL35HQP0vCk9h6d%2FKEbPrq71KaJ78bM78Ho8KBqTTEerQLfLTCjFsR2WN0wOLi44MYC1R3jrCvoWEDOHZkHy6vAaVT3aWLlBiC4INnd1GsK4C4gLZhractOLU8UuHxwai9lISbhqEDIGjO9hNh6FwYWS%2BkH5ylZg17fdKsJXA6hXFI0Yf2f3I5GIAsDzinIwSZKL2Z%2FcyfDNmx0xAosNyD%2Bwuzw%3D%3D%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11695,27 +11695,23 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Stadium Club</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Members Only</t>
-        </is>
-      </c>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Shaquille O'Neal</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>$375.00</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -11725,7 +11721,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235684203611?_skw=PSA+10&amp;hash=item36dfdf8c5b:g:AO0AAOSwGR5msVaY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2FhwQz8SdxAJ%2FkBKr0jT8G0d%2BMMUHJbGH6n6eVEu%2BiwwdySMWDOTiIrd%2BThkZ69xrd%2BpZeXGKbn0YLa4Nrv%2F0JC6ZvetUVFqPdIo90xeGo8fgSfHM%2Byog0VlcDxsGOsFzD3xoQTDQfUxe8pEvd%2BULIZo2zk8bf5xAuImn53EQeSJa%2B3QXNNPUu0TZN02gnm7Xxzge0pOtuCbesv%2F1lepF21ZQN4R8qXX7XvyOd1itOGg%3D%3D%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/135530696866?_skw=PSA+10&amp;epid=17056559071&amp;hash=item1f8e4250a2:g:v-0AAOSwXoBnn8Op&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYxO7OVNf3PVlOZ4UlLV6o7gBHCKDrfJ99WUztGen%2BKkgvEJAHrbGkIu1itE0v0Ojcc8hQw37ILSrRjg0IV5MOmFW3LX%2FN7PgCYbB5qtUJkU%2BNH4z%2B%2BfDIa4Pf0oBvHKlRZOZ6wZ%2B8qmTFMymHChG8qepQdmaYyQU8yLM1tTJ7XDV720ucOOivg%2FvQbF5pSxKsY26bc6z4%2B1eRD9JpoqY3q1y8jCqOA32PzFS8VvUcQZcnAN2eUI7z6Tr5tX4mOeUOHbTZo5DX6UFuov305bkU%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11737,27 +11733,27 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Stadium Club</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Members Only</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Shaquille O'Neal</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>$241.00</t>
+          <t>$375.00</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -11767,7 +11763,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126919238246?_skw=PSA+10&amp;epid=13056576108&amp;hash=item1d8cf9e266:g:54oAAOSw~O9noLy3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlhOaIma0QHvefwq7ipn%2F%2BcoEasuGUAYRs0aVe3fdgh1nv2l%2Fb5f5TzWyUKiIa%2FRPnF8e47OdMEkwq2FjXW0TtQlcgNF6HZtjC%2BRCID4JoI7O9R%2Ba3JvLraoo879IUviUEwDUA%2BZlOKEISpgf%2Brs8UTISFg17ZSGPMJmTeZsRNwwjTgt7siUE48g%2FrFJ3dJTo8VNercdcw%2Fr2FmudiPKa4xT91TRsOzifZXdRMkX64giA0En9YJQYQwO9UQsUpys2bChop7PR56QfOtntNdVpNw%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/235684203611?_skw=PSA+10&amp;hash=item36dfdf8c5b:g:AO0AAOSwGR5msVaY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkS0DWxrQtMjebdPfohz%2F%2BDWZnbhXGneGSBddBnzjje7GEcDCL7h%2FrX39lkoKsV6S0%2BOQCWCkLan8cGsZADLbXvvneJ7%2FoUoubZWC%2BxKs6IuLW8Ha4fQREb9d63JU8msf%2BWMWpRkqKNkXZRxLApmA2VCzLVuDhBBsg%2FCqsyZP2Ik6UlK740Osyvwla74J9tUsPldU%2FVonNiGJrXUHv3YqWL%2FBaZPTtidl19EMG1yx9oTocCvQfBaqUUNZArFSMcWTJIqdy74DQXN7Npeq60ro4x%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11777,7 +11773,11 @@
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr"/>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
       <c r="C290" t="inlineStr">
         <is>
           <t>Panini Prizm</t>
@@ -11785,17 +11785,17 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Gold Shimmer</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>$1,765.27</t>
+          <t>$241.00</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267143296352?_skw=PSA+10&amp;hash=item3e32fb3560:g:dyAAAOSwXk1m1yiJ&amp;itmprp=enc%3AAQAJAAAA8HoV3kP08IDx%2BKZ9MfhVJKnJFRgUn9KO1bRaQcKy2iYI%2Bz6XKfN2r94zzAdob2giWvJ9GB4nJyJQ9IC2b0mdUZOuhOn%2FnFB8Nu2NSnKxVTUmKZqS5epAVkhKMuvYeayfxPn0SVRrgEplBezchABXVctvOgUPlEGAzKfUjmDiHtCsvUpUZD%2BPjXyPLtm2RR8mJd5Keu7E%2BCgd3kDIQEV8aoPepYUdh7gMyKTOTiOdB0tWFpuT1PZ7PBAsjVmy0DUbC6JZtBB8dXTQN4Lv2zRLaROKE2jLmG0Eor3ucZzV8jO7Xk7%2B5TBKrbWiH7CQp0qajA%3D%3D%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/126919238246?_skw=PSA+10&amp;epid=13056576108&amp;hash=item1d8cf9e266:g:54oAAOSw~O9noLy3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkeAJ1wcFF07EBOPW%2FQhCLPJXSPm7oaWPiX0dpNgN%2BEv7v93J4jSMS%2Fxd5k%2BSepfb7tgAln8F5pMmxPH%2FgS%2F14fv5SfKeYr4FXOWAmbgdn44%2BqXiROOX9lqCc%2BQzfrLQzkJfvtKWXvFN0BEhmzZplPyH%2BXGXK833vW9UXcuMttAmKORrd04NzgxPCjdbvBO%2F1hEDIk9Ggn6kVR9s6OwhpfRvmoWu8mfsHzHIKq8ohjSuw%3D%3D%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11815,25 +11815,25 @@
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
+      <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Panini Instant WNBA</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Gold Shimmer</t>
+        </is>
+      </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Caitlin Clark</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>$224.99</t>
+          <t>$1,765.27</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365335948446?_skw=PSA+10&amp;epid=4073911380&amp;hash=item550fb82c9e:g:IGUAAOSwhzBneH1J&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlnUG9Bw5EzZxIbdXt32vnIDq%2BjrVt3aw041VLFZYFZmfeFIlFO4QOrELZC9EBFepr9z5QxDv2ppjb6aWUqNO7MzQMqbMDOPlYV0QYckI8j3NLVGGg4%2FqAhp81y%2FjnuaOhhWiIF8N7LRSRVp359AKFOtCl2gRv9gobrAnHFKsW5iiQyvMY5vwvJeQPrfYUHnkGB1f1Yj%2B4DQ2Z90r7TCxRtvW6M9ettClYhih62%2Bg0oqQ%3D%3D%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/267143296352?_skw=PSA+10&amp;hash=item3e32fb3560:g:dyAAAOSwXk1m1yiJ&amp;itmprp=enc%3AAQAJAAAA0HoV3kP08IDx%2BKZ9MfhVJKkHyx2EVAFilh1Xp28Hsbvi%2FL%2B9hd2jfD1arRFyu%2Bq8SrnGqVPg1r41UwAKEjDUzsZXALPyWG7YRqKol%2Bl3GtXOyJJlTYnw1rn%2FmAN2lCXnkACJaCFHjRk6QWgX36%2F61kRwov2fZpJ7p%2Fi6oj5qXsR9kWWb9ElJ8BrqeGHK7H1CYaeuwsI2YA3kBvBABsXdi1ApwB3cy5YpeqLXpwITu5MIv4wQkjzXW0lu8ijWzkuvBZt%2BjDRTeGxChXegJ6UETxY%3D%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11855,27 +11855,23 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Red Ice Prizm</t>
-        </is>
-      </c>
+          <t>Panini Instant WNBA</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Caitlin Clark</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>$425.00</t>
+          <t>$224.99</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -11885,7 +11881,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146325408096?_skw=PSA+10&amp;epid=24065154830&amp;hash=item2211ac8960:g:PIAAAOSwMllngcQh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkduCF2q9v5%2Fc6uZLVFjFAP7j21eg4lvVpx%2BkkR78xohdauGscY97kBImyF%2FCeMa%2F3gi0uD5tfyw0VPRo4%2BNr5MaM5Yg5%2BIw7YdQVF9e0bqv7uRBp9Mr6tO1F2zkB9oFsAyJJ7kyaFhhRXcY5JwaACLtolVyhFmNMGDVvfS%2F2f6wRja4qe5j9kHohLgWKo8PwNP8IYiJgOnQoGVtV%2ByfWMHDynMRf51RtSMD6zJzS8qdA%3D%3D%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/365335948446?_skw=PSA+10&amp;epid=4073911380&amp;hash=item550fb82c9e:g:IGUAAOSwhzBneH1J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlfqgi4MYcR4x39SgCMZyzO9d%2BY6t%2F0RDyjbjbpVwEqDDcMUbwhEswRtE8niObMYTsDgiGFhBZGpTjQJ1dClc6lbxJtxu2G6HTATsKeDCrrdCVTQfLXxej24FBJ6AlmGolKeQ9wdMRLvj4RjModdWioxD8xuJISr4GvGZt%2BAlKs17xNL5s6cUeiXr6Pf%2BCltN3dJKy6--I6EQ39cxmPUzgKEnPtEw61EmXeZE8lZuH5P5oVfe1SCnXYsWaYf4fTnHNxnsLMAOXLw7bh7ZN4VsPA%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11897,27 +11893,27 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Purple Stars Prizm</t>
+          <t>Red Ice Prizm</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>$298.95</t>
+          <t>$425.00</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -11927,7 +11923,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146320169705?_skw=PSA+10&amp;epid=10056583474&amp;hash=item22115c9ae9:g:NvIAAOSwUJ5nfNJs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkqTBrmFVnCuwDSHIsTBhcfxCtQSWuTBBuIS1kCOoUspQTuZyvL%2F4QU6QiUsHgWEniWvU%2FsevV9bbSdOf9w62Rw3%2B2P8jnL6v4rQB3ACdcpbZ77lKDeF4L1gyZcT6khZiBRwqUBGem%2BcG1A7bzQoGvUmbN8VU%2BRcruB8c8V4AOPk8rttoP7BJ6mdv2HNksp8Ob2Wr3CbROCBEORl2mxF7iMpQAsQwP87RUkIW7WEyzUHg%3D%3D%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/146325408096?_skw=PSA+10&amp;epid=24065154830&amp;hash=item2211ac8960:g:PIAAAOSwMllngcQh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkduCF2q9v5%2Fc6uZLVFjFAP7j21eg4lvVpx%2BkkR78xohZ%2FphRANnSG6cqXfPRmCWbFRuy3JcRPISQBKKMrS5AedFPzEMIxRqptMUV8QYTAdV9KqkuiJApTtz2MNmb2k0NDkMcxXjNWh0c5z7dMA94LAbYlcuPYOKN94eNQscCNzj1XSvQUgnefUjCK%2FHNeQMBBgXee2k6kmIx22%2FqE7mEr%2F4oPz7G8NBFuKtCQbf%2FZn4g%3D%3D%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11939,23 +11935,27 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>National Trading Card Day</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr"/>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Purple Stars Prizm</t>
+        </is>
+      </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Michael Jordan</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$298.95</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/166560844968?_skw=PSA+10&amp;epid=5064684478&amp;hash=item26c7cccca8:g:8n0AAOSwzPxhmTtu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAwbSquqXS0C%2FT0OIUpoO94B4S3rxpIj9T4nB0cYb6FrYBwJWCDUUfiJ7CI7mvHwdg8eghER0r%2Bj8cr7fZ38kdZhm%2BOeyCZY1muOUmDXyDOKpzxp1UBjdI5uKnWRezj6H5nll8S%2Bcu4tzkgSgsMU%2F1DfBK6p1I6afrK4xxuV5d8iP7PztHgoZjXscV37mvztFq0Xe%2FNPueZj%2F96%2FpJIOfbKhFbb%2BD99CQT9DA04Ycm25xDjTYXgkwT%2BJ7VVcpTssYRrCv%2FhR8g2cjU074sJg1H%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/146320169705?_skw=PSA+10&amp;epid=10056583474&amp;hash=item22115c9ae9:g:NvIAAOSwUJ5nfNJs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm7IOd6IaA29mzk1ZP9vcknZ0YX4IIIxNv0Mr4LGLxV1nfMyNPMgGuvSej9olOfs1U6D72gJb9ArS2RSa7lPif0GK2KVxf34uCWoTHm7PA85eGnih%2BS2qmBlZY0UmLsD2Obcl48ZEztJYbxzklea6OJ2VHwo4eblkldbU38f5CBqFWbAviYgNU57SRrrHPYoQud6r%2BWxC1EmS13ic%2BXgDoKHjU22kj2ev0dqqh%2FTWdhWizm%2BX8KaafEsy0xONGGt5Uhi4BAYRzlaXslvTSqeDwx%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -11977,27 +11977,23 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Reactive Yellow Mosaic Prizm</t>
-        </is>
-      </c>
+          <t>National Trading Card Day</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Michael Jordan</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>$160.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -12007,7 +12003,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126824252268?_skw=PSA+10&amp;epid=10073129028&amp;hash=item1d8750836c:g:qbIAAOSw6RdnPS5d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmE4J1ynsgw7ssPlgKYZ2c1uhUnJ0fXgc8tqm7PofBH3hp8XSDAUt0r7iAPSoORc5MM4%2Ffavf5kYYEgCLdVU37%2FcPNDgMG6b0vbX0ujCpxwXaE9I0FuP0%2Bc15%2FNXJdK9oubhZZwTXhNoNy7TWQFleYokqG8yqWxql7%2FVI2LcyMJ2ysyOromUqOEVASYcOSmgVDlWNJ1mMHhCXKCbvrUgAKgA1Dnb7hNg0bP3US7w%2FpIkw%3D%3D%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/166560844968?_skw=PSA+10&amp;epid=5064684478&amp;hash=item26c7cccca8:g:8n0AAOSwzPxhmTtu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAwbSquqXS0C%2FT0OIUpoO94B4S3rxpIj9T4nB0cYb6FrYBwJWCDUUfiJ7CI7mvHwdg8eghER0r%2Bj8cr7fZ38kdZhm%2BOeyCZY1muOUmDXyDOKpzxp1UBjdI5uKnWRezj6HhFRJR4y4xxrQ0JYSxlLxkFlExh62U48SpX06aAVIt9pWfihrjPKidtcklgB1pxrfchsTBRWyH6uaTtAEKd59XqFfyDn%2B8kGxNWcWGlVbbwJ%2BdVdRiNEgWsDaRbKJfdvKmntl1YaDK1GFrEtohRQlT%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12019,27 +12015,27 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Panini Select WNBA</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Black Gold Prizm</t>
+          <t>Reactive Yellow Mosaic Prizm</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Aaliyah Edwards</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>$260.00</t>
+          <t>$160.00</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12049,7 +12045,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316007567258?_skw=PSA+10&amp;epid=22072571308&amp;hash=item499384cf9a:g:wmcAAOSwmDZnSH5d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKma4FIpf60Qfpgw4pQZmCfbZPnHzw56z8L%2FFjMcfi3yV5BnJ7pue1ULC8%2Bfpy%2FADyp0KAdd4rxEf3ALo8pBqk7dPnrniGWrw6GTt58qGFjU%2Fg4hNb4raLmk5FT6NrRo3w77h5yLSmcKKKVWCAxBUYAf9ofzAzK7KDNuPWOFemICd4ERh3w6oylG6ekL9Qx8cPDNwcVwqFE3%2B18FIZ0HT%2B7pbiz%2BJBluYQNvEfuw0TY1mg%3D%3D%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/126824252268?_skw=PSA+10&amp;epid=10073129028&amp;hash=item1d8750836c:g:qbIAAOSw6RdnPS5d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmE4J1ynsgw7ssPlgKYZ2c1uhUnJ0fXgc8tqm7PofBH3iXrzKz3%2FbQyviMbfxPpE%2FTNProhwcB0TfBcQQLh0lrgqJ%2F5QCiTIC3Oaq9jyN4%2FGv4pVpduGQbZTVbdddEpuZsb3t5LzJnQfhO8RK%2B24Bpx4EsU0bPy0Q%2FGxjBSkZ8Rl8S5W%2FWTi3GWb0336f0ocQhPIbY21QCDLomJWzmUUo2WwDzyD54sYgrqNhd%2FknavGw%3D%3D%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12061,12 +12057,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Panini National Convention VIP Gold Pack</t>
+          <t>Panini Select WNBA</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -12076,12 +12072,12 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Aaliyah Edwards</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$260.00</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -12091,7 +12087,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235836237567?_skw=PSA+10&amp;epid=16062592416&amp;hash=item36e8ef66ff:g:zx4AAOSwZyNnO7hk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkrUk3g%2BuKINTA0xNdS6kEiyLlqu%2FmV0FgnmIw3q07JxacvAUlFWHGP4Ioe8M%2FW1DPNjeh%2FBQ8SF8bajrfdkAXcT32AZ%2BTxLgsL2LrXrf%2BRYDyFAL57fdynrYpNynaM4uS1UZgLtXnkYRfqAmhdacoJdhpJdG5xXj8FZEWGyBRG8vQLfN8RGG6%2FROOYVRqR9%2FQ0ULK54YSmCEfV%2BMOj%2BONbDcy%2FFOlwu4%2BjlBXvBPNr7o41hXrTW5DLYzCOvyFsQUiWld6K%2Fy0wyAp6r15DGYv%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/316007567258?_skw=PSA+10&amp;epid=22072571308&amp;hash=item499384cf9a:g:wmcAAOSwmDZnSH5d&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlawvNgjzecuL2bMUjrObj5KGWLEwsOafD2XGCHxIlzo1pBnFK%2FMcXMFBdyTpzA0qFNKpmncTobrkUr1JHBq%2Fl4C%2FXvvSwoFegedFTbY1Yjz7ssxqfpYLsd%2F7EeXmHJdlCG94FpvcVzq4gwa6q%2FWPci7RZc8u5FxpvN9fXfH5TutVErLVnmwG5ksLy0PHH1Pz22Cla23lLSc1C7bfmOw3knajI6js5nJtobiajYxmekLvkrn2byIF5Ysea72PkVmgNxYTOg77gpiDa6SY5jtIwA%7Ctkp%3ABk9SR-ySi5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12103,27 +12099,27 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Bowman University Chrome</t>
+          <t>Panini National Convention VIP Gold Pack</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Autographs</t>
+          <t>Black Gold Prizm</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>$180.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -12133,7 +12129,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226555395861?_skw=PSA+10&amp;epid=11060929532&amp;hash=item34bfc0ff15:g:wxwAAOSw3Lhnjb5A&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlrEY01HZ054%2BI%2BSFuMvOJjVf5ZvlX1xIRjN3%2Fl615H8GPTCIREzIteFcm7eQ75zocUJrTWm9Ti8Asx%2FZOfQNnoWFyTj8bxYBCJXytDLm%2F7%2BX2DYVqERXjUzHl6x5TGzSseRMuHqn%2FJbRnlnJHI%2BeN4tH5jnxqVgL2KvpfXuwajJbqVWUpKt5KrQVCRwRN3F7lmioyqQb3IFB6jDh1Esj%2FfdRrEJAvaw2UaTv5nXGlE9ynXsXtuvQJgVBI%2Fguia0DeXncJljm%2B6nEj%2Fgm2%2F4l7I%7Ctkp%3ABk9SR4Dym5SaZQ</t>
+          <t>https://www.ebay.com/itm/235836237567?_skw=PSA+10&amp;epid=16062592416&amp;hash=item36e8ef66ff:g:zx4AAOSwZyNnO7hk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkrUk3g%2BuKINTA0xNdS6kEiyLlqu%2FmV0FgnmIw3q07JxacvAUlFWHGP4Ioe8M%2FW1DPNjeh%2FBQ8SF8bajrfdkAXcT32AZ%2BTxLgsL2LrXrf%2BRYDyFAL57fdynrYpNynaM4vlSHG3KNtJP27c68vuQWOVsKZDrNgbIMK5WwmiZbDnhjtDAznK8uzXfIapjhyWgxWMSvrVExkKeIzNuMo9lXdtN96U3RGZ60AePS59W1%2BInnjsOzMJHpg0bOzYQb9Rgbu4Z7iKGtmJr7SlQ2ux3o%2Fy%7Ctkp%3ABk9SR-6Si5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12145,23 +12141,27 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr"/>
+          <t>Bowman University Chrome</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Autographs</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$180.00</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335336746832?_skw=PSA+10&amp;epid=17056582948&amp;hash=item4e13a0af50:g:lbwAAOSwQEtmEfMy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnpJxqRn6SvcYPNTvEZIQWXg2Wf5TQ907nDGaSMfj3Nth0K1%2BfMgQp5ngimipDvQJ0BOViA%2FCFSu45odOSBfu4cePv9StmUE14Q1gwndFTcOvA5kN6XggupAmtDN%2B4tgna%2Bh4XtNbylCwgpPQ5ArXuZLlyP7sBk4w%2F53bYfWh%2FiAUzqjOCxr%2BvuQE%2F1TM6siGkKhiELnhnKfTOfi%2FcFku0HHaxlyDX9Z%2Feuvz2jxtU2ZtvOfWkJuG4C1jHJQYbxeaBtlEKPUzGWR8qm7Z3OuK6Z%7Ctkp%3ABk9SR4Lym5SaZQ</t>
+          <t>https://www.ebay.com/itm/226555395861?_skw=PSA+10&amp;epid=11060929532&amp;hash=item34bfc0ff15:g:wxwAAOSw3Lhnjb5A&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlrEY01HZ054%2BI%2BSFuMvOJjVf5ZvlX1xIRjN3%2Fl615H8GPTCIREzIteFcm7eQ75zocUJrTWm9Ti8Asx%2FZOfQNnoWFyTj8bxYBCJXytDLm%2F7%2BX2DYVqERXjUzHl6x5TGzStqaY72HG341JRwFha7LEKvNSDJhJ7lfr6C0QdU8ESmtNOpdRHwBEX9XzOhxhzzTZuvUh9qYFJ0NJKpMUQpws9443WyKoei7nRwUwuue7BUizcs1R%2FmuqE3baodhaNdmFBU7X5lIzeyrjb7v8jm7tgH%7Ctkp%3ABk9SR-6Si5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12183,27 +12183,23 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Panini Chronicles</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>$229.99</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -12213,7 +12209,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205260413838?_skw=PSA+10&amp;hash=item2fca795b8e:g:2eUAAOSwUUVnnnTm&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlHmwnOOQxsOB7M5C09Qh2NIa9Uh304rlwT3uSNP420srkq67qcSTjD3WJjU%2BnTp9x%2F534kuOnBO93XPv1z2wNDhYYep1BVKdV6W2TjYBwyMs1j%2FnMgSy2AcVSN4%2F8Td6GvlKLwkXWGEr883xnakXFbFjpOY0Ao%2B7tLgg9dG4eTehsQ5tBVEmw8tWX9DPINcXV2AndtOqef9cLMLNuhnX3z1YOVpYWOygibUyDIaeep6drAUIqBVEsyKN3s0L24RYOSNwbMBaoKLzyg9FqBhHIr%7Ctkp%3ABk9SR4Lym5SaZQ</t>
+          <t>https://www.ebay.com/itm/335336746832?_skw=PSA+10&amp;epid=17056582948&amp;hash=item4e13a0af50:g:lbwAAOSwQEtmEfMy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnpJxqRn6SvcYPNTvEZIQWXg2Wf5TQ907nDGaSMfj3Nth0K1%2BfMgQp5ngimipDvQJ0BOViA%2FCFSu45odOSBfu4cePv9StmUE14Q1gwndFTcOvA5kN6XggupAmtDN%2B4tgnb%2FWeksaWx3uozr%2FHI5%2B7xA%2BGDcbENcCOmIsk7X5v96QdnNpSh4m91nB32CCb3ZAQ%2FDIOwD5Ndzr2%2FfFrBOPYo1GHyhT47%2BNBY1GyE%2BbXSwN5s6%2BilpSXWl4AQBUqBlCwdYYs%2BaDlkfhO6WC0SfC50N%7Ctkp%3ABk9SR-6Si5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12225,27 +12221,27 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Chronicles</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Red Ice Prizm</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>$419.99</t>
+          <t>$229.99</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -12255,7 +12251,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126644195131?_skw=PSA+10&amp;epid=24065154830&amp;hash=item1d7c950f3b:g:V8YAAOSwyUJmoo7Z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlESUZEWf9MVFM0Rc4ui6tgwzl5rA8Vscg%2FZ1g2ur%2FDMLqh70AtYKcuvJTgVwE4MkrzXoXB1ZoWDx3eacFZqVvkhBh0Mc1HaKNA2IBhCRMVpxSBOslZ%2Bt3z%2BWnEn1zxCP2AqRzerfpKUs64en%2B5D9QuDyJMkeUiPZts4ur1wSbgiXwntQCBaZEvyhxotSPkE%2BXh9A4qPWITz4cZ1Pf0d2t%2FxqbzbcTGjSu2Xt1rNrGptgV9pxSWbv3kBQb9I5s3mUUN71Ad4Ifk4mpayhOV52je%7Ctkp%3ABk9SR4Lym5SaZQ</t>
+          <t>https://www.ebay.com/itm/205260413838?_skw=PSA+10&amp;hash=item2fca795b8e:g:2eUAAOSwUUVnnnTm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcP%2BzBhdiZUXolClw1VlkisStDrSULPkaJvTCf48Sl7o3scgMBCZW9S4KGNDDePN8SpCzNKgePBJx%2FeoCH8oijmm1vGc87mshDNH2s4YR4r2y76cjnRQFE2%2B4SmO0bWQBrG5z2iPCb5r5jE%2FFwfHTvpG%2BSiKaQiOFro1INDogrPogWSoobgUdYEccVHCpFQidOM47f9Kj0zy4Nc3%2FQmuiyO4ALXNmvluFCZlSS2z37sQ%3D%3D%7Ctkp%3ABk9SR-6Si5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12267,27 +12263,27 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Ultimate Victory</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Ultimate Collection</t>
+          <t>Red Ice Prizm</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Kobe Bryant</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>$529.30</t>
+          <t>$419.99</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -12297,7 +12293,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116450181095?_skw=PSA+10&amp;hash=item1b1cf8bfe7:g:A14AAOSwp~lni2Iy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkmn7dSKuvG20x%2BJUxOBSg3TfQkHO%2FiJka%2BiKxcFksoGn6HOTO1UleULgI7erBeflw2oMMjYgPfMewT9rh2Bl2Wt9Nex8O17KMjZuYvcophUqorR7c%2BCt44MnUBo69deGN77IQGxy%2BMl1txk%2BoWYOvGdv3gvTKyqxKsttBREX979QMeRM3is35XQUEjJ%2BhycIx34H%2B0JFXu5McwdZv0vJU1ByuxQoPR9wW%2FRFGG55ZXEA%3D%3D%7Ctkp%3ABk9SR4Lym5SaZQ</t>
+          <t>https://www.ebay.com/itm/126644195131?_skw=PSA+10&amp;epid=24065154830&amp;hash=item1d7c950f3b:g:V8YAAOSwyUJmoo7Z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlESUZEWf9MVFM0Rc4ui6tgwzl5rA8Vscg%2FZ1g2ur%2FDMLqh70AtYKcuvJTgVwE4MkrzXoXB1ZoWDx3eacFZqVvkhBh0Mc1HaKNA2IBhCRMVpxSBOslZ%2Bt3z%2BWnEn1zxCP2pmW2UcDBo7G2xG7KyPc9RBj9y6XtLkL5ED1OWnK60UvqFcnljoBEzDFyZxNJXqN6ZRDzM9UDAfF4wxEgzrxRwuFbT2vmk78ji%2BzmpXxBxGrNzq3n5ikokvQxCX%2BSi1PaaywEsI37YeJYg8eMlQ4qO%7Ctkp%3ABk9SR-6Si5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12309,23 +12305,27 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>PANINI MOSAIC STAINED GLASS</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr"/>
+          <t>Ultimate Victory</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Ultimate Collection</t>
+        </is>
+      </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>JALEN GREEN</t>
+          <t>Kobe Bryant</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$529.30</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306034817056?_skw=PSA+10&amp;hash=item474118b820:g:xbkAAOSwYQpngsCz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlN0YnN0UaVsyNHkEGMKXk%2FTQAkBgzsZB8mF51%2BqkgSvO4W%2FxwvSOOYgzx86ePk4kURw%2BjJpZCeUgPJzI5P85ChlgXg8afWpRPlSsFDIZED5u8S0CdpIhyisx%2BuXW28%2BZN3AdfgtCtAUlHVy6nFHeLcBsaed5OxK%2FK0z96DLI675FIX7er%2Bd2ORikzh9p1wYtSPRuUgOSTAJNqF5h3jfSL5goGSkVxPEJj1GW2BRCrX8EZw9D%2FdP7Fn1wg3wDb3prj8yf%2FQ5J%2BvRQ15E0nWoGvU%7Ctkp%3ABk9SR4Lym5SaZQ</t>
+          <t>https://www.ebay.com/itm/116450181095?_skw=PSA+10&amp;hash=item1b1cf8bfe7:g:A14AAOSwp~lni2Iy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkmn7dSKuvG20x%2BJUxOBSg3TfQkHO%2FiJka%2BiKxcFksoGmtdyc4aJ0m3JODUwdrRxmMvODzONY5Y9QRVtSCzPmywJ2SN5BefEOzdbQZlcagkf%2FGsLm8yaYCkyvF7SnnclRFHgYM8RY20drcru8aXCMAwDFGN5%2FQ5aylqU7ga1%2FHJPgmWRCGZJ%2FlsEEfQpNfjkdI7UV8lBO60krD6rJx41F0hhH7p%2BXUCe6k7AKXyb9tipQ%3D%3D%7Ctkp%3ABk9SR-6Si5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12347,23 +12347,23 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Panini Contenders</t>
+          <t>PANINI MOSAIC STAINED GLASS</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>JALEN GREEN</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>$324.95</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196988650661?_skw=PSA+10&amp;epid=16060318154&amp;hash=item2ddd7044a5:g:WkUAAOSwK9NnoEzn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmwqY7berEPEU7YYmOX9xW4RlSHePzzmksAQsCJSWkos6U1qTvy8c0Wppssif09HHNaa2Oun%2B%2Fg66U6M%2BzItHsNz5awEDsKWRATcsBGoDZvlx9tNzppndqZQF5dYhwzsCMo4LAx662YlZoi5GETtGfQVs3%2BFDoP8AvnKG%2Bvtnopz3GHwRflqjvBnPwb3mqOJesAMDwEybcCzwvc9CnRQ6gTZzCK14UYxKxAXG3OEO4NVQ%3D%3D%7Ctkp%3ABk9SR4Lym5SaZQ</t>
+          <t>https://www.ebay.com/itm/306034817056?_skw=PSA+10&amp;hash=item474118b820:g:xbkAAOSwYQpngsCz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUyxUlJ9lyOniRRNR04GzhGtwHCQdhlam7nMkOPG7DXkn22eYqVowbod9%2BJ5YLahEKn8Tw5gaVyOiodaPs%2F0WhzARmAHuziDMog73qbXr4Aen%2FRN1qZ4HDtQHPzhh8BVsRzspPF6V%2BhdjPfyIunxyCOrlFmCuIXbLNDm1DE%2BQCo%2Fp08TH8ihdiB8S15yeyEVgSPB%2BHGNBQ4CR4vQz4m0CaYUo1dIPtskAbM8fpe3v5Rg%3D%3D%7Ctkp%3ABk9SR-6Si5iaZQ</t>
         </is>
       </c>
     </row>
@@ -12390,32 +12390,70 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
+          <t>Panini Contenders</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Jalen Williams</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>$324.95</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/196988650661?_skw=PSA+10&amp;epid=16060318154&amp;hash=item2ddd7044a5:g:WkUAAOSwK9NnoEzn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnpXNnPGk82GrcvV%2FxIl09HgQzXB9kQN72pSLav%2Bp4nk7m8%2FN1alzQOtEoWuk2rypm110RiweGpBGHrLWXI1gQRi5RV%2Fyhi6iOFuRsU09GTh7g6aDLJ1sdV%2B%2F9%2FO6Em5uUQDexMquWQYv0Hk6IBUMLWMBOQPnkZ6EVXcVEipIZ5zyRwq9Rnzn3hCaPaDz5qda92U%2BasV%2Bi60amHIksgnn5YxyrHvN%2BdnRA6skaclngbVll7CUM%2B2EJgmrIUFbTRFS7KMm6G24ux7Kxunfp0tM7q%7Ctkp%3ABk9SR-6Si5iaZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2022-23</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
           <t>Panini Contenders Optic</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr">
+      <c r="D306" t="inlineStr">
         <is>
           <t>Optic</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
+      <c r="E306" t="inlineStr">
         <is>
           <t>Paolo Banchero</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
+      <c r="F306" t="inlineStr">
         <is>
           <t>$975.00</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/375953439648?_skw=PSA+10&amp;hash=item5788923ba0:g:cKUAAOSwb6tnkS2D&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKntKFXD80PbR9OYGP4lPveoZP0IJ7vyRq8Fa4WfdbkBypxpyjtJvF6297%2FFDZyQ3bpC68DU75WUph4uifXTXC1zKbY500GxRuJsPwdJds7covZKFMLD81YAWVDa9FlfXRpy%2BieODX5BAZSkOtdEsxs%2FqBDvsPzXk7ezWsuCMEOxaZGlzjEzyjylDJDhYy4iyAXfnIlBGjVROJxDN6d%2FnLChzNZcRZ2wsKcawwPSKuiq3Q%3D%3D%7Ctkp%3ABk9SR4Lym5SaZQ</t>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/375953439648?_skw=PSA+10&amp;hash=item5788923ba0:g:cKUAAOSwb6tnkS2D&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn6ktfpDDTc%2FgDJjSkkbm%2F3rbOxlUej%2FQMoIVTPzOg9gf3tkDCLKrJcjQHwmwXH8nVjSFYU7gJuC1ecRYgzxReO0gNvVUI7iwJgJWE3l%2BWeSor7k8EIRiOSbMndyIagITc0HyEUV66pjrn3jPm7Zd7pe08u2H2MhoZSjFDsF87fDA%2Fmmh53%2F1bnoiZwB4v2i0c7aGhB5ZXvnC92H%2FxOaI7z5pRhbskbzzNN9xt34ogEEKYNZtof6kYGCXkEcwn3ciTJzopSHReqsVEEWks3PAzD%7Ctkp%3ABk9SR-6Si5iaZQ</t>
         </is>
       </c>
     </row>
